--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD8DC2A-F248-4966-9E73-104419D6866C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69609F-8430-45D1-99E3-ED7DB2F11071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="registrasi" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C1636"/>
   <sheetViews>
-    <sheetView topLeftCell="A1618" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1636" sqref="C1636"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -457,7 +457,9 @@
         <f t="shared" ref="A2:A65" si="0">+A1+1</f>
         <v>1</v>
       </c>
-      <c r="B2"/>
+      <c r="B2">
+        <v>423336860</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -467,7 +469,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3"/>
+      <c r="B3">
+        <v>423546164</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
@@ -15193,8 +15197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69609F-8430-45D1-99E3-ED7DB2F11071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D290E01B-EACB-445A-9E55-AAFE60088AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C1636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>423546164</v>
+        <v>423479535</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -481,7 +481,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4"/>
+      <c r="B4">
+        <v>423294289</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +493,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5"/>
+      <c r="B5">
+        <v>423073089</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -500,6 +504,9 @@
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>423546164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -509,6 +516,9 @@
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+      <c r="B7">
+        <v>423315329</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D290E01B-EACB-445A-9E55-AAFE60088AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329AC10-9399-40A5-B6CE-7290F2EA6A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,10 +108,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +433,7 @@
   <dimension ref="A1:C1636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -457,8 +458,8 @@
         <f t="shared" ref="A2:A65" si="0">+A1+1</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>423336860</v>
+      <c r="B2" s="3">
+        <v>423195911</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -469,8 +470,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>423479535</v>
+      <c r="B3" s="3">
+        <v>423362905</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -481,8 +482,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>423294289</v>
+      <c r="B4" s="3">
+        <v>423091524</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -493,8 +494,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>423073089</v>
+      <c r="B5" s="3">
+        <v>423503423</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -505,8 +506,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>423546164</v>
+      <c r="B6" s="3">
+        <v>423680948</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -517,8 +518,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>423315329</v>
+      <c r="B7" s="3">
+        <v>423452685</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -529,6 +530,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8" s="3">
+        <v>423032402</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -538,6 +542,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" s="3">
+        <v>423023084</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -547,6 +554,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10" s="3">
+        <v>423341898</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
@@ -556,6 +566,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B11" s="3">
+        <v>423336860</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,6 +578,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12" s="3">
+        <v>423027162</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
@@ -574,6 +590,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B13" s="3">
+        <v>423154149</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,6 +602,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14" s="3">
+        <v>423450481</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
@@ -592,6 +614,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15" s="3">
+        <v>423678748</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
@@ -601,6 +626,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B16" s="3">
+        <v>423594582</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
@@ -610,6 +638,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B17" s="3">
+        <v>423011947</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,6 +650,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B18" s="3">
+        <v>423123854</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,6 +662,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B19" s="3">
+        <v>423420456</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
@@ -637,6 +674,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="B20" s="3">
+        <v>423479535</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
@@ -646,6 +686,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21" s="3">
+        <v>423146273</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,6 +698,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B22" s="3">
+        <v>423142711</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,6 +710,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B23" s="3">
+        <v>423397241</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,6 +722,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B24" s="3">
+        <v>423032582</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
@@ -682,6 +734,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B25" s="3">
+        <v>423402236</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,6 +746,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B26" s="3">
+        <v>423005859</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
@@ -700,6 +758,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B27" s="3">
+        <v>423529328</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
@@ -709,6 +770,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28" s="3">
+        <v>423294289</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
@@ -718,6 +782,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29" s="3">
+        <v>423160096</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,6 +794,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30" s="3">
+        <v>423269285</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
@@ -736,6 +806,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B31" s="3">
+        <v>423384323</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,6 +818,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="B32" s="3">
+        <v>423076236</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,6 +830,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="B33" s="3">
+        <v>423384896</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
@@ -763,6 +842,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B34" s="3">
+        <v>423357400</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
@@ -772,6 +854,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B35" s="3">
+        <v>423005099</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
@@ -781,6 +866,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="B36" s="3">
+        <v>423585005</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
       </c>
@@ -790,6 +878,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B37" s="3">
+        <v>423441467</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
@@ -799,6 +890,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="B38" s="3">
+        <v>423492999</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -808,6 +902,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B39" s="3">
+        <v>423169874</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
@@ -817,6 +914,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="B40" s="3">
+        <v>423452535</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
@@ -826,6 +926,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="B41" s="3">
+        <v>423190128</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
@@ -835,6 +938,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="B42" s="3">
+        <v>423073089</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
       </c>
@@ -844,6 +950,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="B43" s="3">
+        <v>423411181</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,6 +962,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="B44" s="3">
+        <v>423569396</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,6 +974,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="B45" s="3">
+        <v>423098756</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
@@ -871,6 +986,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="B46" s="3">
+        <v>423186333</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
       </c>
@@ -880,6 +998,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="B47" s="3">
+        <v>423514169</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
@@ -889,6 +1010,9 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="B48" s="3">
+        <v>423071867</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,6 +1022,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="B49" s="3">
+        <v>423404487</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
       </c>
@@ -907,6 +1034,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="B50" s="3">
+        <v>423410331</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
       </c>
@@ -916,6 +1046,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="B51" s="3">
+        <v>423476901</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
@@ -925,6 +1058,9 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="B52" s="3">
+        <v>423546164</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
@@ -934,6 +1070,9 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="B53" s="3">
+        <v>423315329</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
       </c>
@@ -943,6 +1082,9 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B54" s="3">
+        <v>423157414</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
       </c>
@@ -952,6 +1094,9 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="B55" s="3">
+        <v>423538870</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
       </c>
@@ -961,6 +1106,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="B56" s="3">
+        <v>423242443</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
@@ -970,6 +1118,9 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="B57" s="3">
+        <v>423513295</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
@@ -979,6 +1130,9 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="B58" s="3">
+        <v>423097674</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
@@ -987,6 +1141,9 @@
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>423127365</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329AC10-9399-40A5-B6CE-7290F2EA6A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D81709-5FEC-4783-A15C-BE111AD838F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,11 +108,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +432,7 @@
   <dimension ref="A1:C1636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -458,8 +457,8 @@
         <f t="shared" ref="A2:A65" si="0">+A1+1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>423195911</v>
+      <c r="B2">
+        <v>423089765</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -470,8 +469,8 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>423362905</v>
+      <c r="B3">
+        <v>423195911</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -482,8 +481,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>423091524</v>
+      <c r="B4">
+        <v>423362905</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -494,8 +493,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>423503423</v>
+      <c r="B5">
+        <v>423091524</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -506,8 +505,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>423680948</v>
+      <c r="B6">
+        <v>423503423</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -518,8 +517,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>423452685</v>
+      <c r="B7">
+        <v>423680948</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -530,8 +529,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>423032402</v>
+      <c r="B8">
+        <v>423452685</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -542,8 +541,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>423023084</v>
+      <c r="B9">
+        <v>423193682</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -554,8 +553,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>423341898</v>
+      <c r="B10">
+        <v>423032402</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -566,8 +565,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>423336860</v>
+      <c r="B11">
+        <v>423023084</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -578,8 +577,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>423027162</v>
+      <c r="B12">
+        <v>423212273</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -590,8 +589,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>423154149</v>
+      <c r="B13">
+        <v>423341898</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -602,8 +601,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>423450481</v>
+      <c r="B14">
+        <v>423336860</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -614,8 +613,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>423678748</v>
+      <c r="B15">
+        <v>423027162</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -626,8 +625,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>423594582</v>
+      <c r="B16">
+        <v>423154149</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -638,8 +637,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>423011947</v>
+      <c r="B17">
+        <v>423450481</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -650,8 +649,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>423123854</v>
+      <c r="B18">
+        <v>423678748</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -662,8 +661,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>423420456</v>
+      <c r="B19">
+        <v>423594582</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -674,8 +673,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>423479535</v>
+      <c r="B20">
+        <v>423011947</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -686,8 +685,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>423146273</v>
+      <c r="B21">
+        <v>423123854</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -698,8 +697,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>423142711</v>
+      <c r="B22">
+        <v>423290601</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -710,8 +709,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>423397241</v>
+      <c r="B23">
+        <v>423318025</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -722,8 +721,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>423032582</v>
+      <c r="B24">
+        <v>423420456</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -734,8 +733,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>423402236</v>
+      <c r="B25">
+        <v>423479535</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -746,8 +745,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>423005859</v>
+      <c r="B26">
+        <v>423278385</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -758,8 +757,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>423529328</v>
+      <c r="B27">
+        <v>423146273</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -770,8 +769,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>423294289</v>
+      <c r="B28">
+        <v>423052778</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -782,8 +781,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>423160096</v>
+      <c r="B29">
+        <v>423520832</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -794,8 +793,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>423269285</v>
+      <c r="B30">
+        <v>423142711</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -806,8 +805,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>423384323</v>
+      <c r="B31">
+        <v>423259089</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -818,8 +817,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>423076236</v>
+      <c r="B32">
+        <v>423397241</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -830,8 +829,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="3">
-        <v>423384896</v>
+      <c r="B33">
+        <v>423248868</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -842,8 +841,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="3">
-        <v>423357400</v>
+      <c r="B34">
+        <v>423289514</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -854,8 +853,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <v>423005099</v>
+      <c r="B35">
+        <v>423032582</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -866,8 +865,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="3">
-        <v>423585005</v>
+      <c r="B36">
+        <v>423450358</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -878,8 +877,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>423441467</v>
+      <c r="B37">
+        <v>423085597</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -890,8 +889,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <v>423492999</v>
+      <c r="B38">
+        <v>423402236</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -902,8 +901,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>423169874</v>
+      <c r="B39">
+        <v>423005859</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -914,8 +913,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>423452535</v>
+      <c r="B40">
+        <v>423529328</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -926,8 +925,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="3">
-        <v>423190128</v>
+      <c r="B41">
+        <v>423294289</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -938,8 +937,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="3">
-        <v>423073089</v>
+      <c r="B42">
+        <v>423160096</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -950,8 +949,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="3">
-        <v>423411181</v>
+      <c r="B43">
+        <v>423269285</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -962,8 +961,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="3">
-        <v>423569396</v>
+      <c r="B44">
+        <v>423384323</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -974,8 +973,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="3">
-        <v>423098756</v>
+      <c r="B45">
+        <v>423026910</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -986,8 +985,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="3">
-        <v>423186333</v>
+      <c r="B46">
+        <v>423076236</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -998,8 +997,8 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="3">
-        <v>423514169</v>
+      <c r="B47">
+        <v>423508957</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -1010,8 +1009,8 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="3">
-        <v>423071867</v>
+      <c r="B48">
+        <v>423236330</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1022,8 +1021,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="3">
-        <v>423404487</v>
+      <c r="B49">
+        <v>423247661</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1034,8 +1033,8 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="3">
-        <v>423410331</v>
+      <c r="B50">
+        <v>423384896</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1046,8 +1045,8 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="3">
-        <v>423476901</v>
+      <c r="B51">
+        <v>423569438</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1058,8 +1057,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="3">
-        <v>423546164</v>
+      <c r="B52">
+        <v>423357400</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1070,8 +1069,8 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <v>423315329</v>
+      <c r="B53">
+        <v>423428292</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -1082,8 +1081,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="3">
-        <v>423157414</v>
+      <c r="B54">
+        <v>423154015</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1094,8 +1093,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="3">
-        <v>423538870</v>
+      <c r="B55">
+        <v>423005099</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1106,8 +1105,8 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="3">
-        <v>423242443</v>
+      <c r="B56">
+        <v>423411419</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1118,8 +1117,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="3">
-        <v>423513295</v>
+      <c r="B57">
+        <v>423427799</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -1130,8 +1129,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="3">
-        <v>423097674</v>
+      <c r="B58">
+        <v>423585005</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1142,8 +1141,8 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="3">
-        <v>423127365</v>
+      <c r="B59">
+        <v>423441467</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -1154,6 +1153,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="B60" s="1">
+        <v>423492999</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
@@ -1163,6 +1165,9 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="B61" s="1">
+        <v>423169874</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
@@ -1172,6 +1177,9 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
+      <c r="B62" s="1">
+        <v>423452535</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
@@ -1181,6 +1189,9 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="B63" s="1">
+        <v>423190128</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
       </c>
@@ -1190,6 +1201,9 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="B64" s="1">
+        <v>423073089</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
       </c>
@@ -1199,6 +1213,9 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
+      <c r="B65" s="1">
+        <v>423411181</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
@@ -1208,6 +1225,9 @@
         <f t="shared" ref="A66:A129" si="1">+A65+1</f>
         <v>65</v>
       </c>
+      <c r="B66" s="1">
+        <v>423569396</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
       </c>
@@ -1217,6 +1237,9 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
+      <c r="B67" s="1">
+        <v>423098756</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
@@ -1226,6 +1249,9 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
+      <c r="B68" s="1">
+        <v>423186333</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
@@ -1235,6 +1261,9 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
+      <c r="B69" s="1">
+        <v>423514169</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
       </c>
@@ -1244,6 +1273,9 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
+      <c r="B70" s="1">
+        <v>423071867</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
@@ -1253,6 +1285,9 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
+      <c r="B71" s="1">
+        <v>423295887</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
       </c>
@@ -1262,6 +1297,9 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
+      <c r="B72" s="1">
+        <v>423404487</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
@@ -1271,6 +1309,9 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
+      <c r="B73" s="1">
+        <v>423072221</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
       </c>
@@ -1280,6 +1321,9 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
+      <c r="B74" s="1">
+        <v>423410331</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
@@ -1289,6 +1333,9 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="B75" s="1">
+        <v>423476901</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
@@ -1298,6 +1345,9 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
+      <c r="B76" s="1">
+        <v>423546164</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
       </c>
@@ -1307,6 +1357,9 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
+      <c r="B77" s="1">
+        <v>423315329</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
       </c>
@@ -1316,6 +1369,9 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
+      <c r="B78" s="1">
+        <v>423157414</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
       </c>
@@ -1325,6 +1381,9 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
+      <c r="B79" s="1">
+        <v>423292697</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
@@ -1334,6 +1393,9 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
+      <c r="B80" s="1">
+        <v>423538870</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -1343,6 +1405,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="B81" s="1">
+        <v>423267167</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
       </c>
@@ -1352,6 +1417,9 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
+      <c r="B82" s="1">
+        <v>423319006</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
@@ -1361,6 +1429,9 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
+      <c r="B83" s="1">
+        <v>423242443</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
@@ -1370,6 +1441,9 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
+      <c r="B84" s="1">
+        <v>423090336</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
       </c>
@@ -1379,6 +1453,9 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
+      <c r="B85" s="1">
+        <v>423513295</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
       </c>
@@ -1388,6 +1465,9 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
+      <c r="B86" s="1">
+        <v>423097674</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
@@ -1397,6 +1477,9 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
+      <c r="B87" s="1">
+        <v>423186795</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
       </c>
@@ -1406,6 +1489,9 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
+      <c r="B88" s="1">
+        <v>423580496</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
       </c>
@@ -1415,6 +1501,9 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
+      <c r="B89" s="1">
+        <v>423127365</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
       </c>
@@ -1423,6 +1512,9 @@
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>423257956</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71731F98-BB77-4492-8E05-8A6039C432A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E440C7B-5D7C-44B7-8193-88CE4ECE5AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,8 +431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>423089765</v>
+        <v>423290257</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>423195911</v>
+        <v>423089765</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>423362905</v>
+        <v>423195911</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>423091524</v>
+        <v>423362905</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>423069936</v>
+        <v>423091524</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>423503423</v>
+        <v>423343128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>423388255</v>
+        <v>423069936</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>423680948</v>
+        <v>423503423</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>423259061</v>
+        <v>423388255</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>423452685</v>
+        <v>423680948</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>423042066</v>
+        <v>423141147</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>423193682</v>
+        <v>423259061</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>423358254</v>
+        <v>423452685</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>423579395</v>
+        <v>423598304</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>423423896</v>
+        <v>423042066</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>423488536</v>
+        <v>423313937</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>423596947</v>
+        <v>423053203</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>423032402</v>
+        <v>423120891</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>423067948</v>
+        <v>423041718</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>423427569</v>
+        <v>423193682</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>423001181</v>
+        <v>423358254</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>423023084</v>
+        <v>423579395</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>423212273</v>
+        <v>423082655</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>423374292</v>
+        <v>423128883</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -758,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>423239379</v>
+        <v>423320617</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -770,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>423341898</v>
+        <v>423423896</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>423154977</v>
+        <v>423488536</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>423640397</v>
+        <v>423596947</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>423518525</v>
+        <v>423020236</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>423031309</v>
+        <v>423032402</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>423071405</v>
+        <v>423067948</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>423336860</v>
+        <v>423204498</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>423395373</v>
+        <v>423427569</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>423027162</v>
+        <v>423001181</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>423154149</v>
+        <v>423023084</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>423197084</v>
+        <v>423212273</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>423040653</v>
+        <v>423374292</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>423281965</v>
+        <v>423578035</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>423450481</v>
+        <v>423239379</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>423031136</v>
+        <v>423341898</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>423595421</v>
+        <v>423026307</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>423678748</v>
+        <v>423154977</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>423218867</v>
+        <v>423325871</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>423285061</v>
+        <v>423640397</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>423311081</v>
+        <v>423057803</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>423454609</v>
+        <v>423518525</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>423480884</v>
+        <v>423031309</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>423594582</v>
+        <v>423071405</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>423598212</v>
+        <v>423336860</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>423011947</v>
+        <v>423395373</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>423123854</v>
+        <v>423027162</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>423132026</v>
+        <v>423154149</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>423171824</v>
+        <v>423528133</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>423289364</v>
+        <v>423354966</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>423430747</v>
+        <v>423357497</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>423054943</v>
+        <v>423595960</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>423167720</v>
+        <v>423197084</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -1154,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>423277525</v>
+        <v>423040653</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>423290601</v>
+        <v>423281965</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>423318025</v>
+        <v>423450481</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>423320702</v>
+        <v>423522087</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>423420456</v>
+        <v>423635868</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>423567773</v>
+        <v>423031136</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>423446216</v>
+        <v>423595421</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>423479535</v>
+        <v>423362289</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>423532227</v>
+        <v>423678748</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>423278385</v>
+        <v>423218867</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>423356393</v>
+        <v>423225390</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>423360860</v>
+        <v>423285061</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>423316724</v>
+        <v>423311081</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>423146273</v>
+        <v>423454609</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>423052778</v>
+        <v>423457713</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>423228584</v>
+        <v>423480884</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1346,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>423520832</v>
+        <v>423594582</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>423105749</v>
+        <v>423598212</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -1370,7 +1370,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>423612292</v>
+        <v>423011947</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>423142711</v>
+        <v>423083373</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>423259089</v>
+        <v>423123854</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>423001341</v>
+        <v>423132026</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>423091920</v>
+        <v>423171824</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>423397241</v>
+        <v>423289364</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>423472284</v>
+        <v>423408407</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>423248868</v>
+        <v>423430747</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>423289514</v>
+        <v>423054943</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>423303714</v>
+        <v>423167720</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>423032582</v>
+        <v>423277525</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>423450358</v>
+        <v>423290601</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>423321645</v>
+        <v>423318025</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -1526,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>423085597</v>
+        <v>423320702</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>423416245</v>
+        <v>423338752</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>423461184</v>
+        <v>423420456</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>423402236</v>
+        <v>423481801</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>423005859</v>
+        <v>423567773</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>423562516</v>
+        <v>423446216</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>423481191</v>
+        <v>423479535</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>423529328</v>
+        <v>423532227</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>423099304</v>
+        <v>423278385</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>423294289</v>
+        <v>423356393</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>423160096</v>
+        <v>423176727</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>423269285</v>
+        <v>423360860</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>423384323</v>
+        <v>423386882</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>423026910</v>
+        <v>423316724</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -1694,7 +1694,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>423205660</v>
+        <v>423588961</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -1706,7 +1706,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>423325132</v>
+        <v>423146273</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>423344317</v>
+        <v>423207975</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>423140446</v>
+        <v>423052778</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>423604349</v>
+        <v>423228584</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>423076236</v>
+        <v>423520832</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>423508957</v>
+        <v>423105749</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -1778,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>423236330</v>
+        <v>423166648</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>423245830</v>
+        <v>423494787</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>423247661</v>
+        <v>423612292</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>423384896</v>
+        <v>423142711</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>423569438</v>
+        <v>423206102</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>423257420</v>
+        <v>423259089</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>423412389</v>
+        <v>423310938</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>423063317</v>
+        <v>423448781</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>423357400</v>
+        <v>423546564</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>423428292</v>
+        <v>423001341</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>423154015</v>
+        <v>423091920</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>423226821</v>
+        <v>423397241</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>423528772</v>
+        <v>423472284</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>423421010</v>
+        <v>423603714</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>423301726</v>
+        <v>423002156</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>423476180</v>
+        <v>423248868</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>423005099</v>
+        <v>423289514</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>423411419</v>
+        <v>423334069</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>423427799</v>
+        <v>423303714</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>423585005</v>
+        <v>423429073</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>423081916</v>
+        <v>423032582</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>423222274</v>
+        <v>423450358</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>423342260</v>
+        <v>423268417</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>423646785</v>
+        <v>423321645</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>423441467</v>
+        <v>423085597</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>423492999</v>
+        <v>423416245</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>423071336</v>
+        <v>423461184</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>423114145</v>
+        <v>423402236</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>423169874</v>
+        <v>423094680</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>423287828</v>
+        <v>423005859</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>423384021</v>
+        <v>423043755</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>423452535</v>
+        <v>423220208</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>423244678</v>
+        <v>423562516</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>423190128</v>
+        <v>423481191</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>423500426</v>
+        <v>423529328</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>423168253</v>
+        <v>423125330</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>423383839</v>
+        <v>423550867</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>423073089</v>
+        <v>423099304</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2234,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>423411181</v>
+        <v>423294289</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>423569396</v>
+        <v>423320603</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>423098756</v>
+        <v>423160096</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>423016637</v>
+        <v>423269285</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>423186333</v>
+        <v>423587136</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>423506696</v>
+        <v>423384323</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>423302820</v>
+        <v>423026910</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>423514169</v>
+        <v>423205660</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>423562528</v>
+        <v>423293793</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>423341700</v>
+        <v>423133763</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -2354,7 +2354,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>423071867</v>
+        <v>423325132</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>423295887</v>
+        <v>423344317</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>423489651</v>
+        <v>423140446</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>423490707</v>
+        <v>423181490</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>423024217</v>
+        <v>423604349</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>423564410</v>
+        <v>423074904</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>423148049</v>
+        <v>423076236</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -2438,7 +2438,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>423404487</v>
+        <v>423342347</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>423072221</v>
+        <v>423497553</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>423410331</v>
+        <v>423508957</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>423052756</v>
+        <v>423236330</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>423476901</v>
+        <v>423245830</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>423419505</v>
+        <v>423247661</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>423624321</v>
+        <v>423384896</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>423012784</v>
+        <v>423569438</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -2534,7 +2534,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>423243726</v>
+        <v>423257420</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -2546,7 +2546,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>423403519</v>
+        <v>423265144</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>423403666</v>
+        <v>423412389</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>423064834</v>
+        <v>423580477</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>423546164</v>
+        <v>423063317</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>423315329</v>
+        <v>423357400</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>423326580</v>
+        <v>423427002</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -2618,7 +2618,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>423157414</v>
+        <v>423428292</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>423434077</v>
+        <v>423085116</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>423600860</v>
+        <v>423154015</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>423393853</v>
+        <v>423226821</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>423037207</v>
+        <v>423528772</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>423292697</v>
+        <v>423223610</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>423375534</v>
+        <v>423421010</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -2702,7 +2702,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>423538870</v>
+        <v>423301726</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>423291817</v>
+        <v>423476180</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>423397782</v>
+        <v>423005099</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>423267167</v>
+        <v>423282784</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>423319006</v>
+        <v>423411419</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>423412226</v>
+        <v>423427799</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>423070583</v>
+        <v>423585005</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>423242443</v>
+        <v>423081916</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>423318723</v>
+        <v>423222274</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>423364443</v>
+        <v>423342260</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>423007884</v>
+        <v>423425499</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>423090336</v>
+        <v>423646785</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>423513295</v>
+        <v>423441467</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -2858,7 +2858,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>423075670</v>
+        <v>423492999</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>423097674</v>
+        <v>423071336</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>423171965</v>
+        <v>423691418</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>423186795</v>
+        <v>423114145</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>423558662</v>
+        <v>423169874</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>423580496</v>
+        <v>423287828</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>423121641</v>
+        <v>423384021</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>423444148</v>
+        <v>423452535</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>423127365</v>
+        <v>423189447</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>423193954</v>
+        <v>423244678</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>423257956</v>
+        <v>423305403</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>423228797</v>
+        <v>423190128</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -3001,6 +3001,9 @@
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
+      <c r="B214" s="1">
+        <v>423330913</v>
+      </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
@@ -3010,6 +3013,9 @@
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
+      <c r="B215" s="1">
+        <v>423500426</v>
+      </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
       </c>
@@ -3019,6 +3025,9 @@
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
+      <c r="B216" s="1">
+        <v>423168253</v>
+      </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
       </c>
@@ -3028,6 +3037,9 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
+      <c r="B217" s="1">
+        <v>423383839</v>
+      </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
       </c>
@@ -3037,6 +3049,9 @@
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
+      <c r="B218" s="1">
+        <v>423509345</v>
+      </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
       </c>
@@ -3046,6 +3061,9 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
+      <c r="B219" s="1">
+        <v>423073089</v>
+      </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
       </c>
@@ -3055,6 +3073,9 @@
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
+      <c r="B220" s="1">
+        <v>423411181</v>
+      </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
       </c>
@@ -3064,6 +3085,9 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
+      <c r="B221" s="1">
+        <v>423445211</v>
+      </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
       </c>
@@ -3073,6 +3097,9 @@
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
+      <c r="B222" s="1">
+        <v>423569396</v>
+      </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
       </c>
@@ -3082,6 +3109,9 @@
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
+      <c r="B223" s="1">
+        <v>423098756</v>
+      </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
       </c>
@@ -3091,6 +3121,9 @@
         <f t="shared" si="3"/>
         <v>223</v>
       </c>
+      <c r="B224" s="1">
+        <v>423016637</v>
+      </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
       </c>
@@ -3100,6 +3133,9 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
+      <c r="B225" s="1">
+        <v>423186333</v>
+      </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
       </c>
@@ -3109,6 +3145,9 @@
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
+      <c r="B226" s="1">
+        <v>423487636</v>
+      </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
       </c>
@@ -3118,6 +3157,9 @@
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
+      <c r="B227" s="1">
+        <v>423214648</v>
+      </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
       </c>
@@ -3127,7 +3169,9 @@
         <f t="shared" si="3"/>
         <v>227</v>
       </c>
-      <c r="B228"/>
+      <c r="B228">
+        <v>423448240</v>
+      </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
       </c>
@@ -3137,6 +3181,9 @@
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
+      <c r="B229" s="1">
+        <v>423506696</v>
+      </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
       </c>
@@ -3146,6 +3193,9 @@
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
+      <c r="B230" s="1">
+        <v>423302820</v>
+      </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
       </c>
@@ -3155,6 +3205,9 @@
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
+      <c r="B231" s="1">
+        <v>423514169</v>
+      </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
       </c>
@@ -3164,6 +3217,9 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
+      <c r="B232" s="1">
+        <v>423562528</v>
+      </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
       </c>
@@ -3173,6 +3229,9 @@
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
+      <c r="B233" s="1">
+        <v>423437162</v>
+      </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
       </c>
@@ -3182,6 +3241,9 @@
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
+      <c r="B234" s="1">
+        <v>423605761</v>
+      </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
       </c>
@@ -3191,6 +3253,9 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
+      <c r="B235" s="1">
+        <v>423341700</v>
+      </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
       </c>
@@ -3200,6 +3265,9 @@
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
+      <c r="B236" s="1">
+        <v>423071867</v>
+      </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
       </c>
@@ -3209,6 +3277,9 @@
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
+      <c r="B237" s="1">
+        <v>423295887</v>
+      </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
       </c>
@@ -3218,6 +3289,9 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
+      <c r="B238" s="1">
+        <v>423489651</v>
+      </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
       </c>
@@ -3227,6 +3301,9 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
+      <c r="B239" s="1">
+        <v>423490707</v>
+      </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
       </c>
@@ -3236,6 +3313,9 @@
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
+      <c r="B240" s="1">
+        <v>423024217</v>
+      </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
       </c>
@@ -3245,6 +3325,9 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
+      <c r="B241" s="1">
+        <v>423478521</v>
+      </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
       </c>
@@ -3254,6 +3337,9 @@
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
+      <c r="B242" s="1">
+        <v>423564410</v>
+      </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
       </c>
@@ -3263,6 +3349,9 @@
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
+      <c r="B243" s="1">
+        <v>423148049</v>
+      </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
       </c>
@@ -3272,6 +3361,9 @@
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
+      <c r="B244" s="1">
+        <v>423404487</v>
+      </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
       </c>
@@ -3281,6 +3373,9 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
+      <c r="B245" s="1">
+        <v>423064711</v>
+      </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
       </c>
@@ -3290,6 +3385,9 @@
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
+      <c r="B246" s="1">
+        <v>423072221</v>
+      </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
       </c>
@@ -3299,6 +3397,9 @@
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
+      <c r="B247" s="1">
+        <v>423194335</v>
+      </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
       </c>
@@ -3308,6 +3409,9 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
+      <c r="B248" s="1">
+        <v>423410331</v>
+      </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
       </c>
@@ -3317,6 +3421,9 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
+      <c r="B249" s="1">
+        <v>423452920</v>
+      </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
       </c>
@@ -3326,6 +3433,9 @@
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
+      <c r="B250" s="1">
+        <v>423033847</v>
+      </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
       </c>
@@ -3335,6 +3445,9 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
+      <c r="B251" s="1">
+        <v>423052756</v>
+      </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
       </c>
@@ -3344,6 +3457,9 @@
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
+      <c r="B252" s="1">
+        <v>423476901</v>
+      </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
       </c>
@@ -3353,6 +3469,9 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
+      <c r="B253" s="1">
+        <v>423419505</v>
+      </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
       </c>
@@ -3362,6 +3481,9 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
+      <c r="B254" s="1">
+        <v>423624321</v>
+      </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
       </c>
@@ -3371,6 +3493,9 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
+      <c r="B255" s="1">
+        <v>423012784</v>
+      </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
       </c>
@@ -3380,6 +3505,9 @@
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
+      <c r="B256" s="1">
+        <v>423243726</v>
+      </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
       </c>
@@ -3389,6 +3517,9 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
+      <c r="B257" s="1">
+        <v>423403519</v>
+      </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
       </c>
@@ -3398,6 +3529,9 @@
         <f t="shared" ref="A258:A321" si="4">+A257+1</f>
         <v>257</v>
       </c>
+      <c r="B258" s="1">
+        <v>423403666</v>
+      </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
       </c>
@@ -3407,6 +3541,9 @@
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
+      <c r="B259" s="1">
+        <v>423064834</v>
+      </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
       </c>
@@ -3416,6 +3553,9 @@
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
+      <c r="B260" s="1">
+        <v>423546164</v>
+      </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
       </c>
@@ -3425,6 +3565,9 @@
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
+      <c r="B261" s="1">
+        <v>423619864</v>
+      </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
       </c>
@@ -3434,6 +3577,9 @@
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
+      <c r="B262" s="1">
+        <v>423315329</v>
+      </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
       </c>
@@ -3443,6 +3589,9 @@
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
+      <c r="B263" s="1">
+        <v>423326580</v>
+      </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
       </c>
@@ -3452,6 +3601,9 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
+      <c r="B264" s="1">
+        <v>423500200</v>
+      </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
       </c>
@@ -3461,6 +3613,9 @@
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
+      <c r="B265" s="1">
+        <v>423157414</v>
+      </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
       </c>
@@ -3470,6 +3625,9 @@
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
+      <c r="B266" s="1">
+        <v>423253785</v>
+      </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
       </c>
@@ -3479,6 +3637,9 @@
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
+      <c r="B267" s="1">
+        <v>423434077</v>
+      </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
       </c>
@@ -3488,6 +3649,9 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
+      <c r="B268" s="1">
+        <v>423600860</v>
+      </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
       </c>
@@ -3497,6 +3661,9 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
+      <c r="B269" s="1">
+        <v>423379820</v>
+      </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
       </c>
@@ -3506,6 +3673,9 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
+      <c r="B270" s="1">
+        <v>423419892</v>
+      </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
       </c>
@@ -3515,6 +3685,9 @@
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
+      <c r="B271" s="1">
+        <v>423118615</v>
+      </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
       </c>
@@ -3524,6 +3697,9 @@
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
+      <c r="B272" s="1">
+        <v>423393853</v>
+      </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
       </c>
@@ -3533,6 +3709,9 @@
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
+      <c r="B273" s="1">
+        <v>423616686</v>
+      </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
       </c>
@@ -3542,6 +3721,9 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
+      <c r="B274" s="1">
+        <v>423037207</v>
+      </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
       </c>
@@ -3551,6 +3733,9 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
+      <c r="B275" s="1">
+        <v>423292697</v>
+      </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
       </c>
@@ -3560,6 +3745,9 @@
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
+      <c r="B276" s="1">
+        <v>423375534</v>
+      </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
       </c>
@@ -3569,6 +3757,9 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
+      <c r="B277" s="1">
+        <v>423224212</v>
+      </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
       </c>
@@ -3578,6 +3769,9 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
+      <c r="B278" s="1">
+        <v>423538870</v>
+      </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
       </c>
@@ -3587,6 +3781,9 @@
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
+      <c r="B279" s="1">
+        <v>423077068</v>
+      </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
       </c>
@@ -3596,6 +3793,9 @@
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
+      <c r="B280" s="1">
+        <v>423274298</v>
+      </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
       </c>
@@ -3605,6 +3805,9 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
+      <c r="B281" s="1">
+        <v>423291817</v>
+      </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
       </c>
@@ -3614,6 +3817,9 @@
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
+      <c r="B282" s="1">
+        <v>423397782</v>
+      </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
       </c>
@@ -3623,6 +3829,9 @@
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
+      <c r="B283" s="1">
+        <v>423020222</v>
+      </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
       </c>
@@ -3632,6 +3841,9 @@
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
+      <c r="B284" s="1">
+        <v>423267167</v>
+      </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
       </c>
@@ -3641,6 +3853,9 @@
         <f t="shared" si="4"/>
         <v>284</v>
       </c>
+      <c r="B285" s="1">
+        <v>423319006</v>
+      </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
       </c>
@@ -3650,6 +3865,9 @@
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
+      <c r="B286" s="1">
+        <v>423412226</v>
+      </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
       </c>
@@ -3659,6 +3877,9 @@
         <f t="shared" si="4"/>
         <v>286</v>
       </c>
+      <c r="B287" s="1">
+        <v>423070583</v>
+      </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
       </c>
@@ -3668,6 +3889,9 @@
         <f t="shared" si="4"/>
         <v>287</v>
       </c>
+      <c r="B288" s="1">
+        <v>423242443</v>
+      </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
       </c>
@@ -3677,6 +3901,9 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
+      <c r="B289" s="1">
+        <v>423318723</v>
+      </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
       </c>
@@ -3686,6 +3913,9 @@
         <f t="shared" si="4"/>
         <v>289</v>
       </c>
+      <c r="B290" s="1">
+        <v>423419637</v>
+      </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
       </c>
@@ -3695,6 +3925,9 @@
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
+      <c r="B291" s="1">
+        <v>423364443</v>
+      </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
       </c>
@@ -3704,6 +3937,9 @@
         <f t="shared" si="4"/>
         <v>291</v>
       </c>
+      <c r="B292" s="1">
+        <v>423007884</v>
+      </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
       </c>
@@ -3713,6 +3949,9 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
+      <c r="B293" s="1">
+        <v>423057658</v>
+      </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
       </c>
@@ -3722,6 +3961,9 @@
         <f t="shared" si="4"/>
         <v>293</v>
       </c>
+      <c r="B294" s="1">
+        <v>423090336</v>
+      </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
       </c>
@@ -3731,6 +3973,9 @@
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
+      <c r="B295" s="1">
+        <v>423513295</v>
+      </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
       </c>
@@ -3740,6 +3985,9 @@
         <f t="shared" si="4"/>
         <v>295</v>
       </c>
+      <c r="B296" s="1">
+        <v>423075670</v>
+      </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
       </c>
@@ -3749,6 +3997,9 @@
         <f t="shared" si="4"/>
         <v>296</v>
       </c>
+      <c r="B297" s="1">
+        <v>423097674</v>
+      </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
       </c>
@@ -3758,6 +4009,9 @@
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
+      <c r="B298" s="1">
+        <v>423171965</v>
+      </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
       </c>
@@ -3767,6 +4021,9 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
+      <c r="B299" s="1">
+        <v>423186795</v>
+      </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
       </c>
@@ -3776,6 +4033,9 @@
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
+      <c r="B300" s="1">
+        <v>423558662</v>
+      </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
       </c>
@@ -3785,6 +4045,9 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
+      <c r="B301" s="1">
+        <v>423580496</v>
+      </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
       </c>
@@ -3794,6 +4057,9 @@
         <f t="shared" si="4"/>
         <v>301</v>
       </c>
+      <c r="B302" s="1">
+        <v>423121641</v>
+      </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
       </c>
@@ -3803,6 +4069,9 @@
         <f t="shared" si="4"/>
         <v>302</v>
       </c>
+      <c r="B303" s="1">
+        <v>423333655</v>
+      </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
       </c>
@@ -3812,6 +4081,9 @@
         <f t="shared" si="4"/>
         <v>303</v>
       </c>
+      <c r="B304" s="1">
+        <v>423444148</v>
+      </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
       </c>
@@ -3821,6 +4093,9 @@
         <f t="shared" si="4"/>
         <v>304</v>
       </c>
+      <c r="B305" s="1">
+        <v>423028188</v>
+      </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
       </c>
@@ -3830,6 +4105,9 @@
         <f t="shared" si="4"/>
         <v>305</v>
       </c>
+      <c r="B306" s="1">
+        <v>423127365</v>
+      </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
       </c>
@@ -3839,6 +4117,9 @@
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
+      <c r="B307" s="1">
+        <v>423193954</v>
+      </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
       </c>
@@ -3848,6 +4129,9 @@
         <f t="shared" si="4"/>
         <v>307</v>
       </c>
+      <c r="B308" s="1">
+        <v>423257956</v>
+      </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
       </c>
@@ -3857,6 +4141,9 @@
         <f t="shared" si="4"/>
         <v>308</v>
       </c>
+      <c r="B309" s="1">
+        <v>423509413</v>
+      </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
       </c>
@@ -3865,6 +4152,9 @@
       <c r="A310" s="1">
         <f t="shared" si="4"/>
         <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>423228797</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E440C7B-5D7C-44B7-8193-88CE4ECE5AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F33D772-BC04-4664-810D-AE02C1D17BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:C1636"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>423503423</v>
+        <v>423396845</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>423388255</v>
+        <v>423503423</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>423680948</v>
+        <v>423388255</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>423141147</v>
+        <v>423680948</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>423259061</v>
+        <v>423141147</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>423452685</v>
+        <v>423259061</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>423598304</v>
+        <v>423452685</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>423042066</v>
+        <v>423598304</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>423313937</v>
+        <v>423042066</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>423053203</v>
+        <v>423313937</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>423120891</v>
+        <v>423683938</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>423041718</v>
+        <v>423053203</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>423193682</v>
+        <v>423120891</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>423358254</v>
+        <v>423041718</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>423579395</v>
+        <v>423193682</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>423082655</v>
+        <v>423358254</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>423128883</v>
+        <v>423579395</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -758,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>423320617</v>
+        <v>423082655</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -770,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>423423896</v>
+        <v>423128883</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>423488536</v>
+        <v>423210473</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>423596947</v>
+        <v>423320617</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>423020236</v>
+        <v>423423896</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>423032402</v>
+        <v>423488536</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>423067948</v>
+        <v>423596947</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>423204498</v>
+        <v>423020236</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>423427569</v>
+        <v>423032402</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>423001181</v>
+        <v>423067948</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>423023084</v>
+        <v>423204498</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>423212273</v>
+        <v>423349974</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>423374292</v>
+        <v>423427569</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>423578035</v>
+        <v>423001181</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>423239379</v>
+        <v>423169612</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>423341898</v>
+        <v>423416971</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>423026307</v>
+        <v>423023084</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>423154977</v>
+        <v>423212273</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>423325871</v>
+        <v>423236383</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>423640397</v>
+        <v>423374292</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>423057803</v>
+        <v>423578035</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>423518525</v>
+        <v>423239379</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>423031309</v>
+        <v>423341898</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>423071405</v>
+        <v>423026307</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>423336860</v>
+        <v>423069565</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>423395373</v>
+        <v>423154977</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>423027162</v>
+        <v>423325871</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>423154149</v>
+        <v>423640397</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>423528133</v>
+        <v>423057803</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>423354966</v>
+        <v>423098457</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>423357497</v>
+        <v>423518525</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>423595960</v>
+        <v>423031309</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>423197084</v>
+        <v>423071405</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -1154,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>423040653</v>
+        <v>423336860</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>423281965</v>
+        <v>423395373</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>423450481</v>
+        <v>423027162</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>423522087</v>
+        <v>423154149</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>423635868</v>
+        <v>423306462</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>423031136</v>
+        <v>423528133</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>423595421</v>
+        <v>423560300</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>423362289</v>
+        <v>423354966</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>423678748</v>
+        <v>423357497</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>423218867</v>
+        <v>423595960</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>423225390</v>
+        <v>423197084</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>423285061</v>
+        <v>423222572</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>423311081</v>
+        <v>423313335</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>423454609</v>
+        <v>423318970</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>423457713</v>
+        <v>423454598</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>423480884</v>
+        <v>423040653</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1346,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>423594582</v>
+        <v>423281965</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>423598212</v>
+        <v>423450481</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -1370,7 +1370,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>423011947</v>
+        <v>423522087</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>423083373</v>
+        <v>423635868</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>423123854</v>
+        <v>423031136</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>423132026</v>
+        <v>423595421</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>423171824</v>
+        <v>423189912</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>423289364</v>
+        <v>423362289</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>423408407</v>
+        <v>423678748</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>423430747</v>
+        <v>423218867</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>423054943</v>
+        <v>423225390</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>423167720</v>
+        <v>423285061</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>423277525</v>
+        <v>423311081</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>423290601</v>
+        <v>423454609</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>423318025</v>
+        <v>423457713</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -1526,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>423320702</v>
+        <v>423480884</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>423338752</v>
+        <v>423511490</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>423420456</v>
+        <v>423594582</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>423481801</v>
+        <v>423598212</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>423567773</v>
+        <v>423011947</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>423446216</v>
+        <v>423024190</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>423479535</v>
+        <v>423083373</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>423532227</v>
+        <v>423123854</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>423278385</v>
+        <v>423132026</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>423356393</v>
+        <v>423171824</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>423176727</v>
+        <v>423289364</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>423360860</v>
+        <v>423408407</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>423386882</v>
+        <v>423430747</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>423316724</v>
+        <v>423544901</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -1694,7 +1694,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>423588961</v>
+        <v>423049358</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -1706,7 +1706,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>423146273</v>
+        <v>423054943</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>423207975</v>
+        <v>423167720</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>423052778</v>
+        <v>423277525</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>423228584</v>
+        <v>423290601</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>423520832</v>
+        <v>423318025</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>423105749</v>
+        <v>423320702</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -1778,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>423166648</v>
+        <v>423338752</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>423494787</v>
+        <v>423360614</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>423612292</v>
+        <v>423363306</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>423142711</v>
+        <v>423420456</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>423206102</v>
+        <v>423481801</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>423259089</v>
+        <v>423567773</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>423310938</v>
+        <v>423446216</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>423448781</v>
+        <v>423479535</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>423546564</v>
+        <v>423532227</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>423001341</v>
+        <v>423271728</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>423091920</v>
+        <v>423278385</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>423397241</v>
+        <v>423356393</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>423472284</v>
+        <v>423119525</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>423603714</v>
+        <v>423176727</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>423002156</v>
+        <v>423360860</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>423248868</v>
+        <v>423386882</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>423289514</v>
+        <v>423127290</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>423334069</v>
+        <v>423177554</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>423303714</v>
+        <v>423316724</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>423429073</v>
+        <v>423342784</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>423032582</v>
+        <v>423588961</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>423450358</v>
+        <v>423146273</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>423268417</v>
+        <v>423207975</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>423321645</v>
+        <v>423250761</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>423085597</v>
+        <v>423052778</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>423416245</v>
+        <v>423228584</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>423461184</v>
+        <v>423379464</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>423402236</v>
+        <v>423520832</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>423094680</v>
+        <v>423105749</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>423005859</v>
+        <v>423166648</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>423043755</v>
+        <v>423494787</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>423220208</v>
+        <v>423612292</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>423562516</v>
+        <v>423142711</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>423481191</v>
+        <v>423206102</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>423529328</v>
+        <v>423259089</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>423125330</v>
+        <v>423310938</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>423550867</v>
+        <v>423448781</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>423099304</v>
+        <v>423546564</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2234,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>423294289</v>
+        <v>423001250</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>423320603</v>
+        <v>423001341</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>423160096</v>
+        <v>423091920</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>423269285</v>
+        <v>423397241</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>423587136</v>
+        <v>423472284</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>423384323</v>
+        <v>423603714</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>423026910</v>
+        <v>423002156</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>423205660</v>
+        <v>423248868</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>423293793</v>
+        <v>423289514</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>423133763</v>
+        <v>423334069</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -2354,7 +2354,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>423325132</v>
+        <v>423303714</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>423344317</v>
+        <v>423429073</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>423140446</v>
+        <v>423032582</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>423181490</v>
+        <v>423447155</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>423604349</v>
+        <v>423450358</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>423074904</v>
+        <v>423268417</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>423076236</v>
+        <v>423321645</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -2438,7 +2438,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>423342347</v>
+        <v>423085597</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>423497553</v>
+        <v>423416245</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>423508957</v>
+        <v>423461184</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>423236330</v>
+        <v>423402236</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>423245830</v>
+        <v>423094680</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>423247661</v>
+        <v>423408544</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>423384896</v>
+        <v>423005859</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>423569438</v>
+        <v>423043755</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -2534,7 +2534,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>423257420</v>
+        <v>423087841</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -2546,7 +2546,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>423265144</v>
+        <v>423220208</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>423412389</v>
+        <v>423562516</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>423580477</v>
+        <v>423093574</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>423063317</v>
+        <v>423101710</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>423357400</v>
+        <v>423481191</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>423427002</v>
+        <v>423527884</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -2618,7 +2618,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>423428292</v>
+        <v>423529328</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>423085116</v>
+        <v>423125330</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>423154015</v>
+        <v>423550867</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>423226821</v>
+        <v>423099304</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>423528772</v>
+        <v>423294289</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>423223610</v>
+        <v>423320603</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>423421010</v>
+        <v>423160096</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -2702,7 +2702,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>423301726</v>
+        <v>423269285</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>423476180</v>
+        <v>423297033</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>423005099</v>
+        <v>423511245</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>423282784</v>
+        <v>423587136</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>423411419</v>
+        <v>423384323</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>423427799</v>
+        <v>423026910</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>423585005</v>
+        <v>423205660</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>423081916</v>
+        <v>423293793</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>423222274</v>
+        <v>423347679</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>423342260</v>
+        <v>423133763</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>423425499</v>
+        <v>423325132</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>423646785</v>
+        <v>423344317</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>423441467</v>
+        <v>423140446</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -2858,7 +2858,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>423492999</v>
+        <v>423181490</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>423071336</v>
+        <v>423604349</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>423691418</v>
+        <v>423074904</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>423114145</v>
+        <v>423076236</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>423169874</v>
+        <v>423342347</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>423287828</v>
+        <v>423497553</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>423384021</v>
+        <v>423508957</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>423452535</v>
+        <v>423236330</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>423189447</v>
+        <v>423245830</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>423244678</v>
+        <v>423247661</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>423305403</v>
+        <v>423309967</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>423190128</v>
+        <v>423384896</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>423330913</v>
+        <v>423569438</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -3014,7 +3014,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>423500426</v>
+        <v>423001566</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -3026,7 +3026,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>423168253</v>
+        <v>423257420</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -3038,7 +3038,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>423383839</v>
+        <v>423265144</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -3050,7 +3050,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>423509345</v>
+        <v>423412389</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>423073089</v>
+        <v>423580477</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -3074,7 +3074,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>423411181</v>
+        <v>423659522</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>423445211</v>
+        <v>423063317</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>423569396</v>
+        <v>423357400</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -3110,7 +3110,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>423098756</v>
+        <v>423427002</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>423016637</v>
+        <v>423428292</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -3134,7 +3134,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>423186333</v>
+        <v>423085116</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -3146,7 +3146,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>423487636</v>
+        <v>423154015</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>423214648</v>
+        <v>423226821</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>423448240</v>
+        <v>423221641</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>423506696</v>
+        <v>423528772</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>423302820</v>
+        <v>423084862</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -3206,7 +3206,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>423514169</v>
+        <v>423223610</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>423562528</v>
+        <v>423421010</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>423437162</v>
+        <v>423301726</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>423605761</v>
+        <v>423476180</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -3254,7 +3254,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>423341700</v>
+        <v>423251404</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>423071867</v>
+        <v>423499444</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>423295887</v>
+        <v>423005099</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -3290,7 +3290,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>423489651</v>
+        <v>423282784</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -3302,7 +3302,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>423490707</v>
+        <v>423386260</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>423024217</v>
+        <v>423411419</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>423478521</v>
+        <v>423427799</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>423564410</v>
+        <v>423585005</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>423148049</v>
+        <v>423081916</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -3362,7 +3362,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>423404487</v>
+        <v>423222274</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>423064711</v>
+        <v>423342260</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>423072221</v>
+        <v>423425499</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>423194335</v>
+        <v>423646785</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>423410331</v>
+        <v>423139256</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>423452920</v>
+        <v>423441467</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>423033847</v>
+        <v>423492999</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -3446,7 +3446,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>423052756</v>
+        <v>423071336</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -3458,7 +3458,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>423476901</v>
+        <v>423691418</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>423419505</v>
+        <v>423114145</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>423624321</v>
+        <v>423169874</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>423012784</v>
+        <v>423287828</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>423243726</v>
+        <v>423384021</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -3518,7 +3518,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>423403519</v>
+        <v>423452535</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -3530,7 +3530,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>423403666</v>
+        <v>423172200</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>423064834</v>
+        <v>423189447</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -3554,7 +3554,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>423546164</v>
+        <v>423244678</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>423619864</v>
+        <v>423305403</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>423315329</v>
+        <v>423604622</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -3590,7 +3590,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>423326580</v>
+        <v>423190128</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -3602,7 +3602,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>423500200</v>
+        <v>423330913</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -3614,7 +3614,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>423157414</v>
+        <v>423500426</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -3626,7 +3626,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>423253785</v>
+        <v>423520833</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>423434077</v>
+        <v>423168253</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>423600860</v>
+        <v>423300354</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -3662,7 +3662,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>423379820</v>
+        <v>423383839</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -3674,7 +3674,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>423419892</v>
+        <v>423509345</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>423118615</v>
+        <v>423073089</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -3698,7 +3698,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>423393853</v>
+        <v>423411181</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>423616686</v>
+        <v>423445211</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -3722,7 +3722,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>423037207</v>
+        <v>423569396</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>423292697</v>
+        <v>423098756</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>423375534</v>
+        <v>423016637</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -3758,7 +3758,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>423224212</v>
+        <v>423186333</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>423538870</v>
+        <v>423049379</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>423077068</v>
+        <v>423299571</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>423274298</v>
+        <v>423487636</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -3806,7 +3806,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>423291817</v>
+        <v>423214648</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -3818,7 +3818,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>423397782</v>
+        <v>423287220</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -3830,7 +3830,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>423020222</v>
+        <v>423448240</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>423267167</v>
+        <v>423183151</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -3854,7 +3854,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>423319006</v>
+        <v>423506696</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -3866,7 +3866,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>423412226</v>
+        <v>423604730</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -3878,7 +3878,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>423070583</v>
+        <v>423302820</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>423242443</v>
+        <v>423514169</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>423318723</v>
+        <v>423562528</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -3914,7 +3914,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>423419637</v>
+        <v>423437162</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -3926,7 +3926,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>423364443</v>
+        <v>423605761</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -3938,7 +3938,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>423007884</v>
+        <v>423341700</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>423057658</v>
+        <v>423071867</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>423090336</v>
+        <v>423269384</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -3974,7 +3974,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>423513295</v>
+        <v>423295887</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -3986,7 +3986,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>423075670</v>
+        <v>423489651</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>423097674</v>
+        <v>423490707</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -4010,7 +4010,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>423171965</v>
+        <v>423024191</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -4022,7 +4022,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>423186795</v>
+        <v>423024217</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>423558662</v>
+        <v>423478521</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -4046,7 +4046,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>423580496</v>
+        <v>423564410</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -4058,7 +4058,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>423121641</v>
+        <v>423148049</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>423333655</v>
+        <v>423315512</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>423444148</v>
+        <v>423404487</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>423028188</v>
+        <v>423064711</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -4106,7 +4106,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>423127365</v>
+        <v>423072221</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -4118,7 +4118,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>423193954</v>
+        <v>423194335</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -4130,7 +4130,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>423257956</v>
+        <v>423410331</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>423509413</v>
+        <v>423452920</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -4154,7 +4154,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>423228797</v>
+        <v>423033847</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -4165,6 +4165,9 @@
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
+      <c r="B311" s="1">
+        <v>423052756</v>
+      </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
       </c>
@@ -4174,6 +4177,9 @@
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
+      <c r="B312" s="1">
+        <v>423088589</v>
+      </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
       </c>
@@ -4183,6 +4189,9 @@
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
+      <c r="B313" s="1">
+        <v>423476901</v>
+      </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
       </c>
@@ -4192,6 +4201,9 @@
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
+      <c r="B314" s="1">
+        <v>423507276</v>
+      </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
       </c>
@@ -4201,6 +4213,9 @@
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
+      <c r="B315" s="1">
+        <v>423419505</v>
+      </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
       </c>
@@ -4210,6 +4225,9 @@
         <f t="shared" si="4"/>
         <v>315</v>
       </c>
+      <c r="B316" s="1">
+        <v>423624321</v>
+      </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
       </c>
@@ -4219,6 +4237,9 @@
         <f t="shared" si="4"/>
         <v>316</v>
       </c>
+      <c r="B317" s="1">
+        <v>423012784</v>
+      </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
       </c>
@@ -4228,6 +4249,9 @@
         <f t="shared" si="4"/>
         <v>317</v>
       </c>
+      <c r="B318" s="1">
+        <v>423163172</v>
+      </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
       </c>
@@ -4237,6 +4261,9 @@
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
+      <c r="B319" s="1">
+        <v>423243726</v>
+      </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
       </c>
@@ -4246,6 +4273,9 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
+      <c r="B320" s="1">
+        <v>423403519</v>
+      </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
       </c>
@@ -4255,6 +4285,9 @@
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
+      <c r="B321" s="1">
+        <v>423403666</v>
+      </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
       </c>
@@ -4264,6 +4297,9 @@
         <f t="shared" ref="A322:A385" si="5">+A321+1</f>
         <v>321</v>
       </c>
+      <c r="B322" s="1">
+        <v>423064834</v>
+      </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
       </c>
@@ -4273,6 +4309,9 @@
         <f t="shared" si="5"/>
         <v>322</v>
       </c>
+      <c r="B323" s="1">
+        <v>423454063</v>
+      </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
       </c>
@@ -4282,6 +4321,9 @@
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
+      <c r="B324" s="1">
+        <v>423546164</v>
+      </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
       </c>
@@ -4291,6 +4333,9 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
+      <c r="B325" s="1">
+        <v>423619864</v>
+      </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
       </c>
@@ -4300,6 +4345,9 @@
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
+      <c r="B326" s="1">
+        <v>423315329</v>
+      </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
       </c>
@@ -4309,6 +4357,9 @@
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
+      <c r="B327" s="1">
+        <v>423326580</v>
+      </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
       </c>
@@ -4318,6 +4369,9 @@
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
+      <c r="B328" s="1">
+        <v>423496053</v>
+      </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
       </c>
@@ -4327,6 +4381,9 @@
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
+      <c r="B329" s="1">
+        <v>423500200</v>
+      </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
       </c>
@@ -4336,6 +4393,9 @@
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
+      <c r="B330" s="1">
+        <v>423157414</v>
+      </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
       </c>
@@ -4345,6 +4405,9 @@
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
+      <c r="B331" s="1">
+        <v>423253785</v>
+      </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
       </c>
@@ -4354,6 +4417,9 @@
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
+      <c r="B332" s="1">
+        <v>423353515</v>
+      </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
       </c>
@@ -4363,6 +4429,9 @@
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
+      <c r="B333" s="1">
+        <v>423408232</v>
+      </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
       </c>
@@ -4372,6 +4441,9 @@
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
+      <c r="B334" s="1">
+        <v>423434077</v>
+      </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
       </c>
@@ -4381,6 +4453,9 @@
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
+      <c r="B335" s="1">
+        <v>423600860</v>
+      </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
       </c>
@@ -4390,6 +4465,9 @@
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
+      <c r="B336" s="1">
+        <v>423379820</v>
+      </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
       </c>
@@ -4399,6 +4477,9 @@
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
+      <c r="B337" s="1">
+        <v>423419892</v>
+      </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
       </c>
@@ -4408,6 +4489,9 @@
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
+      <c r="B338" s="1">
+        <v>423433920</v>
+      </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
       </c>
@@ -4417,6 +4501,9 @@
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
+      <c r="B339" s="1">
+        <v>423014184</v>
+      </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
       </c>
@@ -4426,6 +4513,9 @@
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
+      <c r="B340" s="1">
+        <v>423050092</v>
+      </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
       </c>
@@ -4435,6 +4525,9 @@
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
+      <c r="B341" s="1">
+        <v>423118615</v>
+      </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
       </c>
@@ -4444,6 +4537,9 @@
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
+      <c r="B342" s="1">
+        <v>423393853</v>
+      </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
       </c>
@@ -4453,6 +4549,9 @@
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
+      <c r="B343" s="1">
+        <v>423595723</v>
+      </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
       </c>
@@ -4462,6 +4561,9 @@
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
+      <c r="B344" s="1">
+        <v>423616686</v>
+      </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
       </c>
@@ -4471,6 +4573,9 @@
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
+      <c r="B345" s="1">
+        <v>423037207</v>
+      </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
       </c>
@@ -4480,6 +4585,9 @@
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
+      <c r="B346" s="1">
+        <v>423292697</v>
+      </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
       </c>
@@ -4489,6 +4597,9 @@
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
+      <c r="B347" s="1">
+        <v>423375534</v>
+      </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
       </c>
@@ -4498,6 +4609,9 @@
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
+      <c r="B348" s="1">
+        <v>423224212</v>
+      </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
       </c>
@@ -4507,6 +4621,9 @@
         <f t="shared" si="5"/>
         <v>348</v>
       </c>
+      <c r="B349" s="1">
+        <v>423538870</v>
+      </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
       </c>
@@ -4516,6 +4633,9 @@
         <f t="shared" si="5"/>
         <v>349</v>
       </c>
+      <c r="B350" s="1">
+        <v>423674225</v>
+      </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
       </c>
@@ -4525,6 +4645,9 @@
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
+      <c r="B351" s="1">
+        <v>423077068</v>
+      </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
       </c>
@@ -4534,6 +4657,9 @@
         <f t="shared" si="5"/>
         <v>351</v>
       </c>
+      <c r="B352" s="1">
+        <v>423274298</v>
+      </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
       </c>
@@ -4543,6 +4669,9 @@
         <f t="shared" si="5"/>
         <v>352</v>
       </c>
+      <c r="B353" s="1">
+        <v>423291817</v>
+      </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
       </c>
@@ -4552,6 +4681,9 @@
         <f t="shared" si="5"/>
         <v>353</v>
       </c>
+      <c r="B354" s="1">
+        <v>423397782</v>
+      </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
       </c>
@@ -4561,6 +4693,9 @@
         <f t="shared" si="5"/>
         <v>354</v>
       </c>
+      <c r="B355" s="1">
+        <v>423020222</v>
+      </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
       </c>
@@ -4570,6 +4705,9 @@
         <f t="shared" si="5"/>
         <v>355</v>
       </c>
+      <c r="B356" s="1">
+        <v>423079042</v>
+      </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
       </c>
@@ -4579,6 +4717,9 @@
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
+      <c r="B357" s="1">
+        <v>423250570</v>
+      </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
       </c>
@@ -4588,6 +4729,9 @@
         <f t="shared" si="5"/>
         <v>357</v>
       </c>
+      <c r="B358" s="1">
+        <v>423267167</v>
+      </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
       </c>
@@ -4597,6 +4741,9 @@
         <f t="shared" si="5"/>
         <v>358</v>
       </c>
+      <c r="B359" s="1">
+        <v>423319006</v>
+      </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
       </c>
@@ -4606,6 +4753,9 @@
         <f t="shared" si="5"/>
         <v>359</v>
       </c>
+      <c r="B360" s="1">
+        <v>423412226</v>
+      </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
       </c>
@@ -4615,6 +4765,9 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
+      <c r="B361" s="1">
+        <v>423143110</v>
+      </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
       </c>
@@ -4624,6 +4777,9 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
+      <c r="B362" s="1">
+        <v>423220653</v>
+      </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
       </c>
@@ -4633,6 +4789,9 @@
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
+      <c r="B363" s="1">
+        <v>423442741</v>
+      </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
       </c>
@@ -4642,6 +4801,9 @@
         <f t="shared" si="5"/>
         <v>363</v>
       </c>
+      <c r="B364" s="1">
+        <v>423070583</v>
+      </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
       </c>
@@ -4651,6 +4813,9 @@
         <f t="shared" si="5"/>
         <v>364</v>
       </c>
+      <c r="B365" s="1">
+        <v>423242443</v>
+      </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
       </c>
@@ -4660,6 +4825,9 @@
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
+      <c r="B366" s="1">
+        <v>423318723</v>
+      </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
       </c>
@@ -4669,6 +4837,9 @@
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
+      <c r="B367" s="1">
+        <v>423419637</v>
+      </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
       </c>
@@ -4678,6 +4849,9 @@
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
+      <c r="B368" s="1">
+        <v>423567624</v>
+      </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
       </c>
@@ -4687,6 +4861,9 @@
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
+      <c r="B369" s="1">
+        <v>423364443</v>
+      </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
       </c>
@@ -4696,6 +4873,9 @@
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
+      <c r="B370" s="1">
+        <v>423007884</v>
+      </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
       </c>
@@ -4705,6 +4885,9 @@
         <f t="shared" si="5"/>
         <v>370</v>
       </c>
+      <c r="B371" s="1">
+        <v>423057658</v>
+      </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
       </c>
@@ -4714,6 +4897,9 @@
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
+      <c r="B372" s="1">
+        <v>423090336</v>
+      </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
       </c>
@@ -4723,6 +4909,9 @@
         <f t="shared" si="5"/>
         <v>372</v>
       </c>
+      <c r="B373" s="1">
+        <v>423399676</v>
+      </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
       </c>
@@ -4732,6 +4921,9 @@
         <f t="shared" si="5"/>
         <v>373</v>
       </c>
+      <c r="B374" s="1">
+        <v>423513295</v>
+      </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
       </c>
@@ -4741,6 +4933,9 @@
         <f t="shared" si="5"/>
         <v>374</v>
       </c>
+      <c r="B375" s="1">
+        <v>423002507</v>
+      </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
       </c>
@@ -4750,6 +4945,9 @@
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
+      <c r="B376" s="1">
+        <v>423075670</v>
+      </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
       </c>
@@ -4759,6 +4957,9 @@
         <f t="shared" si="5"/>
         <v>376</v>
       </c>
+      <c r="B377" s="1">
+        <v>423097674</v>
+      </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
       </c>
@@ -4768,6 +4969,9 @@
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
+      <c r="B378" s="1">
+        <v>423171965</v>
+      </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
       </c>
@@ -4777,6 +4981,9 @@
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
+      <c r="B379" s="1">
+        <v>423186795</v>
+      </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
       </c>
@@ -4786,6 +4993,9 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
+      <c r="B380" s="1">
+        <v>423558662</v>
+      </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
       </c>
@@ -4795,6 +5005,9 @@
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
+      <c r="B381" s="1">
+        <v>423580496</v>
+      </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
       </c>
@@ -4804,6 +5017,9 @@
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
+      <c r="B382" s="1">
+        <v>423121641</v>
+      </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
       </c>
@@ -4813,6 +5029,9 @@
         <f t="shared" si="5"/>
         <v>382</v>
       </c>
+      <c r="B383" s="1">
+        <v>423333655</v>
+      </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
       </c>
@@ -4822,6 +5041,9 @@
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
+      <c r="B384" s="1">
+        <v>423444148</v>
+      </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
       </c>
@@ -4831,6 +5053,9 @@
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
+      <c r="B385" s="1">
+        <v>423028188</v>
+      </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
       </c>
@@ -4840,6 +5065,9 @@
         <f t="shared" ref="A386:A449" si="6">+A385+1</f>
         <v>385</v>
       </c>
+      <c r="B386" s="1">
+        <v>423127365</v>
+      </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
       </c>
@@ -4849,6 +5077,9 @@
         <f t="shared" si="6"/>
         <v>386</v>
       </c>
+      <c r="B387" s="1">
+        <v>423193954</v>
+      </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
       </c>
@@ -4858,6 +5089,9 @@
         <f t="shared" si="6"/>
         <v>387</v>
       </c>
+      <c r="B388" s="1">
+        <v>423257956</v>
+      </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
       </c>
@@ -4867,6 +5101,9 @@
         <f t="shared" si="6"/>
         <v>388</v>
       </c>
+      <c r="B389" s="1">
+        <v>423509413</v>
+      </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
       </c>
@@ -4875,6 +5112,9 @@
       <c r="A390" s="1">
         <f t="shared" si="6"/>
         <v>389</v>
+      </c>
+      <c r="B390" s="1">
+        <v>423228797</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F33D772-BC04-4664-810D-AE02C1D17BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2B997-E9F9-4B6C-93EC-AB4529D92F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,8 +431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C498" sqref="C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>423440327</v>
+        <v>423202679</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>423290257</v>
+        <v>423440327</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>423089765</v>
+        <v>423290257</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>423195911</v>
+        <v>423089765</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>423362905</v>
+        <v>423195911</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>423091524</v>
+        <v>423362905</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>423343128</v>
+        <v>423091524</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>423069936</v>
+        <v>423613473</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>423396845</v>
+        <v>423343128</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>423503423</v>
+        <v>423069936</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>423388255</v>
+        <v>423396845</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>423680948</v>
+        <v>423503423</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>423141147</v>
+        <v>423388255</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>423259061</v>
+        <v>423680948</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>423452685</v>
+        <v>423141147</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>423598304</v>
+        <v>423259061</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>423042066</v>
+        <v>423320262</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>423313937</v>
+        <v>423452685</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>423683938</v>
+        <v>423598304</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>423053203</v>
+        <v>423600395</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>423120891</v>
+        <v>423024173</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>423041718</v>
+        <v>423042066</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>423193682</v>
+        <v>423313937</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>423358254</v>
+        <v>423683938</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>423579395</v>
+        <v>423053203</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -758,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>423082655</v>
+        <v>423120891</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -770,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>423128883</v>
+        <v>423041718</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>423210473</v>
+        <v>423193682</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>423320617</v>
+        <v>423257258</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>423423896</v>
+        <v>423358254</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>423488536</v>
+        <v>423579395</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>423596947</v>
+        <v>423043591</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>423020236</v>
+        <v>423051012</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>423032402</v>
+        <v>423082655</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>423067948</v>
+        <v>423128883</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>423204498</v>
+        <v>423183678</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>423349974</v>
+        <v>423210473</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>423427569</v>
+        <v>423320617</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>423001181</v>
+        <v>423423896</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>423169612</v>
+        <v>423488536</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>423416971</v>
+        <v>423538219</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>423023084</v>
+        <v>423592120</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>423212273</v>
+        <v>423596947</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>423236383</v>
+        <v>423020236</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>423374292</v>
+        <v>423032402</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>423578035</v>
+        <v>423067948</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>423239379</v>
+        <v>423204498</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>423341898</v>
+        <v>423349974</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>423026307</v>
+        <v>423380832</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>423069565</v>
+        <v>423427569</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>423154977</v>
+        <v>423467029</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>423325871</v>
+        <v>423001181</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>423640397</v>
+        <v>423073604</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>423057803</v>
+        <v>423169612</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>423098457</v>
+        <v>423282408</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>423518525</v>
+        <v>423301242</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>423031309</v>
+        <v>423416971</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>423071405</v>
+        <v>423023084</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -1154,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>423336860</v>
+        <v>423212273</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>423395373</v>
+        <v>423236383</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>423027162</v>
+        <v>423374292</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>423154149</v>
+        <v>423578035</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>423306462</v>
+        <v>423217746</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>423528133</v>
+        <v>423239379</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>423560300</v>
+        <v>423341898</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>423354966</v>
+        <v>423350228</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>423357497</v>
+        <v>423026307</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>423595960</v>
+        <v>423069565</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>423197084</v>
+        <v>423154977</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>423222572</v>
+        <v>423264092</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>423313335</v>
+        <v>423325871</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>423318970</v>
+        <v>423640397</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>423454598</v>
+        <v>423057803</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>423040653</v>
+        <v>423098457</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1346,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>423281965</v>
+        <v>423210232</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>423450481</v>
+        <v>423518525</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -1370,7 +1370,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>423522087</v>
+        <v>423665579</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>423635868</v>
+        <v>423031309</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>423031136</v>
+        <v>423071405</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>423595421</v>
+        <v>423201278</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>423189912</v>
+        <v>423299595</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>423362289</v>
+        <v>423336860</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>423678748</v>
+        <v>423395373</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>423218867</v>
+        <v>423027162</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>423225390</v>
+        <v>423133536</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>423285061</v>
+        <v>423154149</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>423311081</v>
+        <v>423306462</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>423454609</v>
+        <v>423528133</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>423457713</v>
+        <v>423560300</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -1526,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>423480884</v>
+        <v>423354966</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>423511490</v>
+        <v>423357497</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>423594582</v>
+        <v>423379099</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>423598212</v>
+        <v>423542129</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>423011947</v>
+        <v>423072775</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>423024190</v>
+        <v>423435651</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>423083373</v>
+        <v>423595960</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>423123854</v>
+        <v>423227418</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>423132026</v>
+        <v>423153738</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>423171824</v>
+        <v>423197084</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>423289364</v>
+        <v>423222572</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>423408407</v>
+        <v>423313335</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>423430747</v>
+        <v>423318970</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>423544901</v>
+        <v>423454598</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -1694,7 +1694,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>423049358</v>
+        <v>423505067</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -1706,7 +1706,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>423054943</v>
+        <v>423040653</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>423167720</v>
+        <v>423281965</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>423277525</v>
+        <v>423450481</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>423290601</v>
+        <v>423522087</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>423318025</v>
+        <v>423635868</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>423320702</v>
+        <v>423031136</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -1778,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>423338752</v>
+        <v>423595421</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>423360614</v>
+        <v>423189912</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>423363306</v>
+        <v>423392559</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>423420456</v>
+        <v>423362289</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>423481801</v>
+        <v>423678748</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>423567773</v>
+        <v>423577626</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>423446216</v>
+        <v>423218867</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>423479535</v>
+        <v>423225390</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>423532227</v>
+        <v>423285061</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>423271728</v>
+        <v>423311081</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>423278385</v>
+        <v>423454609</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>423356393</v>
+        <v>423457713</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>423119525</v>
+        <v>423480884</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>423176727</v>
+        <v>423511490</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>423360860</v>
+        <v>423594582</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>423386882</v>
+        <v>423598212</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>423127290</v>
+        <v>423011947</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>423177554</v>
+        <v>423024190</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>423316724</v>
+        <v>423083373</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>423342784</v>
+        <v>423123854</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>423588961</v>
+        <v>423132026</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>423146273</v>
+        <v>423171824</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>423207975</v>
+        <v>423202502</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>423250761</v>
+        <v>423289364</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>423052778</v>
+        <v>423407662</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>423228584</v>
+        <v>423408407</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>423379464</v>
+        <v>423430747</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>423520832</v>
+        <v>423491199</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>423105749</v>
+        <v>423544901</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>423166648</v>
+        <v>423578610</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>423494787</v>
+        <v>423041755</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>423612292</v>
+        <v>423049358</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>423142711</v>
+        <v>423054943</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>423206102</v>
+        <v>423167720</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>423259089</v>
+        <v>423277525</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>423310938</v>
+        <v>423287736</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>423448781</v>
+        <v>423290601</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>423546564</v>
+        <v>423318025</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2234,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>423001250</v>
+        <v>423320702</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>423001341</v>
+        <v>423338752</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>423091920</v>
+        <v>423360614</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>423397241</v>
+        <v>423363306</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>423472284</v>
+        <v>423420456</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>423603714</v>
+        <v>423481801</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>423002156</v>
+        <v>423523538</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>423248868</v>
+        <v>423567773</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>423289514</v>
+        <v>423305081</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>423334069</v>
+        <v>423446216</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -2354,7 +2354,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>423303714</v>
+        <v>423479535</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>423429073</v>
+        <v>423532227</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>423032582</v>
+        <v>423072634</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>423447155</v>
+        <v>423271728</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>423450358</v>
+        <v>423278385</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>423268417</v>
+        <v>423356393</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>423321645</v>
+        <v>423017554</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -2438,7 +2438,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>423085597</v>
+        <v>423119525</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>423416245</v>
+        <v>423176727</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>423461184</v>
+        <v>423214010</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>423402236</v>
+        <v>423360860</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>423094680</v>
+        <v>423386882</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>423408544</v>
+        <v>423038144</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>423005859</v>
+        <v>423040228</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>423043755</v>
+        <v>423127290</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -2534,7 +2534,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>423087841</v>
+        <v>423177554</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -2546,7 +2546,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>423220208</v>
+        <v>423316724</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>423562516</v>
+        <v>423342784</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>423093574</v>
+        <v>423355609</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>423101710</v>
+        <v>423588961</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>423481191</v>
+        <v>423146273</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>423527884</v>
+        <v>423207975</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -2618,7 +2618,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>423529328</v>
+        <v>423250761</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>423125330</v>
+        <v>423581906</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>423550867</v>
+        <v>423052778</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>423099304</v>
+        <v>423198791</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>423294289</v>
+        <v>423228584</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>423320603</v>
+        <v>423379464</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>423160096</v>
+        <v>423520832</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -2702,7 +2702,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>423269285</v>
+        <v>423105749</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>423297033</v>
+        <v>423166648</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>423511245</v>
+        <v>423494787</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>423587136</v>
+        <v>423612292</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>423384323</v>
+        <v>423142711</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>423026910</v>
+        <v>423197765</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>423205660</v>
+        <v>423206102</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>423293793</v>
+        <v>423259089</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>423347679</v>
+        <v>423310938</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>423133763</v>
+        <v>423448781</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>423325132</v>
+        <v>423449086</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>423344317</v>
+        <v>423546564</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>423140446</v>
+        <v>423001250</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -2858,7 +2858,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>423181490</v>
+        <v>423001341</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>423604349</v>
+        <v>423091920</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>423074904</v>
+        <v>423397241</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>423076236</v>
+        <v>423472284</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>423342347</v>
+        <v>423603714</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>423497553</v>
+        <v>423674152</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>423508957</v>
+        <v>423002156</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>423236330</v>
+        <v>423248868</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>423245830</v>
+        <v>423289514</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>423247661</v>
+        <v>423334069</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>423309967</v>
+        <v>423362137</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>423384896</v>
+        <v>423303714</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>423569438</v>
+        <v>423103162</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -3014,7 +3014,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>423001566</v>
+        <v>423429073</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -3026,7 +3026,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>423257420</v>
+        <v>423032582</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -3038,7 +3038,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>423265144</v>
+        <v>423447155</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -3050,7 +3050,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>423412389</v>
+        <v>423450358</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>423580477</v>
+        <v>423211663</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -3074,7 +3074,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>423659522</v>
+        <v>423212122</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>423063317</v>
+        <v>423268417</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>423357400</v>
+        <v>423321645</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -3110,7 +3110,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>423427002</v>
+        <v>423085597</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>423428292</v>
+        <v>423109693</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -3134,7 +3134,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>423085116</v>
+        <v>423416245</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -3146,7 +3146,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>423154015</v>
+        <v>423461184</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>423226821</v>
+        <v>423402236</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>423221641</v>
+        <v>423094680</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>423528772</v>
+        <v>423408544</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>423084862</v>
+        <v>423005859</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -3206,7 +3206,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>423223610</v>
+        <v>423043755</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>423421010</v>
+        <v>423087841</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>423301726</v>
+        <v>423138002</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>423476180</v>
+        <v>423220208</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -3254,7 +3254,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>423251404</v>
+        <v>423221999</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>423499444</v>
+        <v>423477725</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>423005099</v>
+        <v>423562516</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -3290,7 +3290,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>423282784</v>
+        <v>423093574</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -3302,7 +3302,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>423386260</v>
+        <v>423101710</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>423411419</v>
+        <v>423187917</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>423427799</v>
+        <v>423407413</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>423585005</v>
+        <v>423481191</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>423081916</v>
+        <v>423527884</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -3362,7 +3362,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>423222274</v>
+        <v>423529328</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>423342260</v>
+        <v>423125330</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>423425499</v>
+        <v>423550867</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>423646785</v>
+        <v>423099304</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>423139256</v>
+        <v>423180880</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>423441467</v>
+        <v>423294289</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>423492999</v>
+        <v>423320603</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -3446,7 +3446,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>423071336</v>
+        <v>423431165</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -3458,7 +3458,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>423691418</v>
+        <v>423259772</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>423114145</v>
+        <v>423160096</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>423169874</v>
+        <v>423269285</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>423287828</v>
+        <v>423297033</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>423384021</v>
+        <v>423511245</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -3518,7 +3518,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>423452535</v>
+        <v>423587136</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -3530,7 +3530,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>423172200</v>
+        <v>423384323</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>423189447</v>
+        <v>423026910</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -3554,7 +3554,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>423244678</v>
+        <v>423205660</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>423305403</v>
+        <v>423293793</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>423604622</v>
+        <v>423347679</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -3590,7 +3590,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>423190128</v>
+        <v>423590354</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -3602,7 +3602,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>423330913</v>
+        <v>423133763</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -3614,7 +3614,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>423500426</v>
+        <v>423325132</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -3626,7 +3626,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>423520833</v>
+        <v>423344317</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>423168253</v>
+        <v>423559004</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>423300354</v>
+        <v>423140446</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -3662,7 +3662,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>423383839</v>
+        <v>423181490</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -3674,7 +3674,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>423509345</v>
+        <v>423604349</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>423073089</v>
+        <v>423074904</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -3698,7 +3698,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>423411181</v>
+        <v>423076236</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>423445211</v>
+        <v>423342347</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -3722,7 +3722,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>423569396</v>
+        <v>423478389</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>423098756</v>
+        <v>423497553</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>423016637</v>
+        <v>423508957</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -3758,7 +3758,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>423186333</v>
+        <v>423586345</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>423049379</v>
+        <v>423236330</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>423299571</v>
+        <v>423245830</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>423487636</v>
+        <v>423247661</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -3806,7 +3806,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>423214648</v>
+        <v>423309967</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -3818,7 +3818,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>423287220</v>
+        <v>423384896</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -3830,7 +3830,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>423448240</v>
+        <v>423569438</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>423183151</v>
+        <v>423001566</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -3854,7 +3854,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>423506696</v>
+        <v>423257420</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -3866,7 +3866,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>423604730</v>
+        <v>423265144</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -3878,7 +3878,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>423302820</v>
+        <v>423412389</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>423514169</v>
+        <v>423580477</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>423562528</v>
+        <v>423659522</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -3914,7 +3914,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>423437162</v>
+        <v>423063317</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -3926,7 +3926,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>423605761</v>
+        <v>423357400</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -3938,7 +3938,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>423341700</v>
+        <v>423427002</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>423071867</v>
+        <v>423428292</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>423269384</v>
+        <v>423085116</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -3974,7 +3974,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>423295887</v>
+        <v>423154015</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -3986,7 +3986,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>423489651</v>
+        <v>423589200</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>423490707</v>
+        <v>423660775</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -4010,7 +4010,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>423024191</v>
+        <v>423226821</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -4022,7 +4022,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>423024217</v>
+        <v>423221641</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>423478521</v>
+        <v>423393361</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -4046,7 +4046,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>423564410</v>
+        <v>423528772</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -4058,7 +4058,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>423148049</v>
+        <v>423603870</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>423315512</v>
+        <v>423084862</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>423404487</v>
+        <v>423223610</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>423064711</v>
+        <v>423421010</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -4106,7 +4106,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>423072221</v>
+        <v>423015829</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -4118,7 +4118,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>423194335</v>
+        <v>423301726</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -4130,7 +4130,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>423410331</v>
+        <v>423355608</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>423452920</v>
+        <v>423473270</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -4154,7 +4154,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>423033847</v>
+        <v>423476180</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>423052756</v>
+        <v>423479702</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -4178,7 +4178,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>423088589</v>
+        <v>423251404</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -4190,7 +4190,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>423476901</v>
+        <v>423499444</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -4202,7 +4202,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>423507276</v>
+        <v>423005099</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -4214,7 +4214,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>423419505</v>
+        <v>423282784</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -4226,7 +4226,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>423624321</v>
+        <v>423386260</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -4238,7 +4238,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>423012784</v>
+        <v>423411419</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -4250,7 +4250,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>423163172</v>
+        <v>423427799</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -4262,7 +4262,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>423243726</v>
+        <v>423585005</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -4274,7 +4274,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>423403519</v>
+        <v>423081916</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>423403666</v>
+        <v>423222274</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>423064834</v>
+        <v>423342260</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -4310,7 +4310,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>423454063</v>
+        <v>423425499</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -4322,7 +4322,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>423546164</v>
+        <v>423646785</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>423619864</v>
+        <v>423139256</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -4346,7 +4346,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>423315329</v>
+        <v>423441467</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>423326580</v>
+        <v>423492999</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -4370,7 +4370,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>423496053</v>
+        <v>423071336</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -4382,7 +4382,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>423500200</v>
+        <v>423300381</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -4394,7 +4394,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>423157414</v>
+        <v>423691418</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -4406,7 +4406,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>423253785</v>
+        <v>423114145</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>423353515</v>
+        <v>423163723</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>423408232</v>
+        <v>423169874</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -4442,7 +4442,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>423434077</v>
+        <v>423170410</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -4454,7 +4454,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>423600860</v>
+        <v>423287828</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -4466,7 +4466,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>423379820</v>
+        <v>423384021</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -4478,7 +4478,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>423419892</v>
+        <v>423452535</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -4490,7 +4490,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>423433920</v>
+        <v>423547573</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>423014184</v>
+        <v>423113146</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -4514,7 +4514,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>423050092</v>
+        <v>423172200</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>423118615</v>
+        <v>423189447</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>423393853</v>
+        <v>423244678</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>423595723</v>
+        <v>423193551</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -4562,7 +4562,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>423616686</v>
+        <v>423305403</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -4574,7 +4574,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>423037207</v>
+        <v>423562652</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -4586,7 +4586,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>423292697</v>
+        <v>423604622</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -4598,7 +4598,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>423375534</v>
+        <v>423190128</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -4610,7 +4610,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>423224212</v>
+        <v>423330913</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -4622,7 +4622,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>423538870</v>
+        <v>423500426</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -4634,7 +4634,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>423674225</v>
+        <v>423520833</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -4646,7 +4646,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>423077068</v>
+        <v>423168253</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -4658,7 +4658,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>423274298</v>
+        <v>423214618</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -4670,7 +4670,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>423291817</v>
+        <v>423300354</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>423397782</v>
+        <v>423383839</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -4694,7 +4694,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>423020222</v>
+        <v>423509345</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>423079042</v>
+        <v>423073089</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -4718,7 +4718,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>423250570</v>
+        <v>423411181</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -4730,7 +4730,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>423267167</v>
+        <v>423445211</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>423319006</v>
+        <v>423557628</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -4754,7 +4754,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>423412226</v>
+        <v>423569396</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -4766,7 +4766,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>423143110</v>
+        <v>423098756</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -4778,7 +4778,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>423220653</v>
+        <v>423016637</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>423442741</v>
+        <v>423047107</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>423070583</v>
+        <v>423186333</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>423242443</v>
+        <v>423419589</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>423318723</v>
+        <v>423461944</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -4838,7 +4838,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>423419637</v>
+        <v>423486118</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -4850,7 +4850,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>423567624</v>
+        <v>423049379</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -4862,7 +4862,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>423364443</v>
+        <v>423082085</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -4874,7 +4874,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>423007884</v>
+        <v>423299571</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -4886,7 +4886,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>423057658</v>
+        <v>423487636</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -4898,7 +4898,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>423090336</v>
+        <v>423214648</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>423399676</v>
+        <v>423287220</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -4922,7 +4922,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>423513295</v>
+        <v>423448240</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -4934,7 +4934,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>423002507</v>
+        <v>423183151</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -4946,7 +4946,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>423075670</v>
+        <v>423506696</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>423097674</v>
+        <v>423293490</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -4970,7 +4970,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>423171965</v>
+        <v>423604730</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -4982,7 +4982,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>423186795</v>
+        <v>423302820</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -4994,7 +4994,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>423558662</v>
+        <v>423514169</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>423580496</v>
+        <v>423562528</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -5018,7 +5018,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>423121641</v>
+        <v>423081708</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -5030,7 +5030,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>423333655</v>
+        <v>423437162</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>423444148</v>
+        <v>423605761</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -5054,7 +5054,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>423028188</v>
+        <v>423295785</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -5066,7 +5066,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>423127365</v>
+        <v>423341700</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>423193954</v>
+        <v>423593476</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -5090,7 +5090,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>423257956</v>
+        <v>423071867</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>423509413</v>
+        <v>423475619</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -5114,7 +5114,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>423228797</v>
+        <v>423269384</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -5125,6 +5125,9 @@
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
+      <c r="B391" s="1">
+        <v>423295887</v>
+      </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
       </c>
@@ -5134,6 +5137,9 @@
         <f t="shared" si="6"/>
         <v>391</v>
       </c>
+      <c r="B392" s="1">
+        <v>423359676</v>
+      </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
       </c>
@@ -5143,6 +5149,9 @@
         <f t="shared" si="6"/>
         <v>392</v>
       </c>
+      <c r="B393" s="1">
+        <v>423489651</v>
+      </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
       </c>
@@ -5152,6 +5161,9 @@
         <f t="shared" si="6"/>
         <v>393</v>
       </c>
+      <c r="B394" s="1">
+        <v>423490707</v>
+      </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
       </c>
@@ -5161,6 +5173,9 @@
         <f t="shared" si="6"/>
         <v>394</v>
       </c>
+      <c r="B395" s="1">
+        <v>423024191</v>
+      </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
       </c>
@@ -5170,6 +5185,9 @@
         <f t="shared" si="6"/>
         <v>395</v>
       </c>
+      <c r="B396" s="1">
+        <v>423024217</v>
+      </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
       </c>
@@ -5179,6 +5197,9 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
+      <c r="B397" s="1">
+        <v>423390896</v>
+      </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
       </c>
@@ -5188,6 +5209,9 @@
         <f t="shared" si="6"/>
         <v>397</v>
       </c>
+      <c r="B398" s="1">
+        <v>423478521</v>
+      </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
       </c>
@@ -5197,6 +5221,9 @@
         <f t="shared" si="6"/>
         <v>398</v>
       </c>
+      <c r="B399" s="1">
+        <v>423564410</v>
+      </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
       </c>
@@ -5206,6 +5233,9 @@
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
+      <c r="B400" s="1">
+        <v>423148049</v>
+      </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
       </c>
@@ -5215,6 +5245,9 @@
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
+      <c r="B401" s="1">
+        <v>423315512</v>
+      </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
       </c>
@@ -5224,6 +5257,9 @@
         <f t="shared" si="6"/>
         <v>401</v>
       </c>
+      <c r="B402" s="1">
+        <v>423404487</v>
+      </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
       </c>
@@ -5233,6 +5269,9 @@
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
+      <c r="B403" s="1">
+        <v>423064711</v>
+      </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
       </c>
@@ -5242,6 +5281,9 @@
         <f t="shared" si="6"/>
         <v>403</v>
       </c>
+      <c r="B404" s="1">
+        <v>423072221</v>
+      </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
       </c>
@@ -5251,6 +5293,9 @@
         <f t="shared" si="6"/>
         <v>404</v>
       </c>
+      <c r="B405" s="1">
+        <v>423194335</v>
+      </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
       </c>
@@ -5260,6 +5305,9 @@
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
+      <c r="B406" s="1">
+        <v>423199766</v>
+      </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
       </c>
@@ -5269,6 +5317,9 @@
         <f t="shared" si="6"/>
         <v>406</v>
       </c>
+      <c r="B407" s="1">
+        <v>423234416</v>
+      </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
       </c>
@@ -5278,6 +5329,9 @@
         <f t="shared" si="6"/>
         <v>407</v>
       </c>
+      <c r="B408" s="1">
+        <v>423410331</v>
+      </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
       </c>
@@ -5287,6 +5341,9 @@
         <f t="shared" si="6"/>
         <v>408</v>
       </c>
+      <c r="B409" s="1">
+        <v>423452920</v>
+      </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
       </c>
@@ -5296,6 +5353,9 @@
         <f t="shared" si="6"/>
         <v>409</v>
       </c>
+      <c r="B410" s="1">
+        <v>423033847</v>
+      </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
       </c>
@@ -5305,6 +5365,9 @@
         <f t="shared" si="6"/>
         <v>410</v>
       </c>
+      <c r="B411" s="1">
+        <v>423052756</v>
+      </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
       </c>
@@ -5314,6 +5377,9 @@
         <f t="shared" si="6"/>
         <v>411</v>
       </c>
+      <c r="B412" s="1">
+        <v>423088589</v>
+      </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
       </c>
@@ -5323,6 +5389,9 @@
         <f t="shared" si="6"/>
         <v>412</v>
       </c>
+      <c r="B413" s="1">
+        <v>423476901</v>
+      </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
       </c>
@@ -5332,6 +5401,9 @@
         <f t="shared" si="6"/>
         <v>413</v>
       </c>
+      <c r="B414" s="1">
+        <v>423507276</v>
+      </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
       </c>
@@ -5341,6 +5413,9 @@
         <f t="shared" si="6"/>
         <v>414</v>
       </c>
+      <c r="B415" s="1">
+        <v>423025328</v>
+      </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
       </c>
@@ -5350,6 +5425,9 @@
         <f t="shared" si="6"/>
         <v>415</v>
       </c>
+      <c r="B416" s="1">
+        <v>423419505</v>
+      </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
       </c>
@@ -5359,6 +5437,9 @@
         <f t="shared" si="6"/>
         <v>416</v>
       </c>
+      <c r="B417" s="1">
+        <v>423624321</v>
+      </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
       </c>
@@ -5368,6 +5449,9 @@
         <f t="shared" si="6"/>
         <v>417</v>
       </c>
+      <c r="B418" s="1">
+        <v>423012784</v>
+      </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
       </c>
@@ -5377,6 +5461,9 @@
         <f t="shared" si="6"/>
         <v>418</v>
       </c>
+      <c r="B419" s="1">
+        <v>423163172</v>
+      </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
       </c>
@@ -5386,6 +5473,9 @@
         <f t="shared" si="6"/>
         <v>419</v>
       </c>
+      <c r="B420" s="1">
+        <v>423243726</v>
+      </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
       </c>
@@ -5395,6 +5485,9 @@
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
+      <c r="B421" s="1">
+        <v>423356992</v>
+      </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
       </c>
@@ -5404,6 +5497,9 @@
         <f t="shared" si="6"/>
         <v>421</v>
       </c>
+      <c r="B422" s="1">
+        <v>423403519</v>
+      </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
       </c>
@@ -5413,6 +5509,9 @@
         <f t="shared" si="6"/>
         <v>422</v>
       </c>
+      <c r="B423" s="1">
+        <v>423382486</v>
+      </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
       </c>
@@ -5422,6 +5521,9 @@
         <f t="shared" si="6"/>
         <v>423</v>
       </c>
+      <c r="B424" s="1">
+        <v>423403666</v>
+      </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
       </c>
@@ -5431,6 +5533,9 @@
         <f t="shared" si="6"/>
         <v>424</v>
       </c>
+      <c r="B425" s="1">
+        <v>423064834</v>
+      </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
       </c>
@@ -5440,6 +5545,9 @@
         <f t="shared" si="6"/>
         <v>425</v>
       </c>
+      <c r="B426" s="1">
+        <v>423454063</v>
+      </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
       </c>
@@ -5449,6 +5557,9 @@
         <f t="shared" si="6"/>
         <v>426</v>
       </c>
+      <c r="B427" s="1">
+        <v>423546164</v>
+      </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
       </c>
@@ -5458,6 +5569,9 @@
         <f t="shared" si="6"/>
         <v>427</v>
       </c>
+      <c r="B428" s="1">
+        <v>423619864</v>
+      </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
       </c>
@@ -5467,6 +5581,9 @@
         <f t="shared" si="6"/>
         <v>428</v>
       </c>
+      <c r="B429" s="1">
+        <v>423315329</v>
+      </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
       </c>
@@ -5476,6 +5593,9 @@
         <f t="shared" si="6"/>
         <v>429</v>
       </c>
+      <c r="B430" s="1">
+        <v>423326580</v>
+      </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
       </c>
@@ -5485,6 +5605,9 @@
         <f t="shared" si="6"/>
         <v>430</v>
       </c>
+      <c r="B431" s="1">
+        <v>423496053</v>
+      </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
       </c>
@@ -5494,6 +5617,9 @@
         <f t="shared" si="6"/>
         <v>431</v>
       </c>
+      <c r="B432" s="1">
+        <v>423500200</v>
+      </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
       </c>
@@ -5503,6 +5629,9 @@
         <f t="shared" si="6"/>
         <v>432</v>
       </c>
+      <c r="B433" s="1">
+        <v>423157414</v>
+      </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
       </c>
@@ -5512,6 +5641,9 @@
         <f t="shared" si="6"/>
         <v>433</v>
       </c>
+      <c r="B434" s="1">
+        <v>423253785</v>
+      </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
       </c>
@@ -5521,6 +5653,9 @@
         <f t="shared" si="6"/>
         <v>434</v>
       </c>
+      <c r="B435" s="1">
+        <v>423298045</v>
+      </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
       </c>
@@ -5530,6 +5665,9 @@
         <f t="shared" si="6"/>
         <v>435</v>
       </c>
+      <c r="B436" s="1">
+        <v>423353515</v>
+      </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
       </c>
@@ -5539,6 +5677,9 @@
         <f t="shared" si="6"/>
         <v>436</v>
       </c>
+      <c r="B437" s="1">
+        <v>423408232</v>
+      </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
       </c>
@@ -5548,6 +5689,9 @@
         <f t="shared" si="6"/>
         <v>437</v>
       </c>
+      <c r="B438" s="1">
+        <v>423434077</v>
+      </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
       </c>
@@ -5557,6 +5701,9 @@
         <f t="shared" si="6"/>
         <v>438</v>
       </c>
+      <c r="B439" s="1">
+        <v>423600860</v>
+      </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
       </c>
@@ -5566,6 +5713,9 @@
         <f t="shared" si="6"/>
         <v>439</v>
       </c>
+      <c r="B440" s="1">
+        <v>423379820</v>
+      </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
       </c>
@@ -5575,6 +5725,9 @@
         <f t="shared" si="6"/>
         <v>440</v>
       </c>
+      <c r="B441" s="1">
+        <v>423419892</v>
+      </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
       </c>
@@ -5584,6 +5737,9 @@
         <f t="shared" si="6"/>
         <v>441</v>
       </c>
+      <c r="B442" s="1">
+        <v>423433920</v>
+      </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
       </c>
@@ -5593,6 +5749,9 @@
         <f t="shared" si="6"/>
         <v>442</v>
       </c>
+      <c r="B443" s="1">
+        <v>423014184</v>
+      </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
       </c>
@@ -5602,6 +5761,9 @@
         <f t="shared" si="6"/>
         <v>443</v>
       </c>
+      <c r="B444" s="1">
+        <v>423035766</v>
+      </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
       </c>
@@ -5611,6 +5773,9 @@
         <f t="shared" si="6"/>
         <v>444</v>
       </c>
+      <c r="B445" s="1">
+        <v>423050092</v>
+      </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
       </c>
@@ -5620,6 +5785,9 @@
         <f t="shared" si="6"/>
         <v>445</v>
       </c>
+      <c r="B446" s="1">
+        <v>423118615</v>
+      </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
       </c>
@@ -5629,6 +5797,9 @@
         <f t="shared" si="6"/>
         <v>446</v>
       </c>
+      <c r="B447" s="1">
+        <v>423393853</v>
+      </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
       </c>
@@ -5638,6 +5809,9 @@
         <f t="shared" si="6"/>
         <v>447</v>
       </c>
+      <c r="B448" s="1">
+        <v>423595723</v>
+      </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
       </c>
@@ -5647,6 +5821,9 @@
         <f t="shared" si="6"/>
         <v>448</v>
       </c>
+      <c r="B449" s="1">
+        <v>423017459</v>
+      </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
       </c>
@@ -5656,6 +5833,9 @@
         <f t="shared" ref="A450:A513" si="7">+A449+1</f>
         <v>449</v>
       </c>
+      <c r="B450" s="1">
+        <v>423616686</v>
+      </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
       </c>
@@ -5665,6 +5845,9 @@
         <f t="shared" si="7"/>
         <v>450</v>
       </c>
+      <c r="B451" s="1">
+        <v>423037207</v>
+      </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
       </c>
@@ -5674,6 +5857,9 @@
         <f t="shared" si="7"/>
         <v>451</v>
       </c>
+      <c r="B452" s="1">
+        <v>423292697</v>
+      </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
       </c>
@@ -5683,6 +5869,9 @@
         <f t="shared" si="7"/>
         <v>452</v>
       </c>
+      <c r="B453" s="1">
+        <v>423375534</v>
+      </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
       </c>
@@ -5692,6 +5881,9 @@
         <f t="shared" si="7"/>
         <v>453</v>
       </c>
+      <c r="B454" s="1">
+        <v>423224212</v>
+      </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
       </c>
@@ -5701,6 +5893,9 @@
         <f t="shared" si="7"/>
         <v>454</v>
       </c>
+      <c r="B455" s="1">
+        <v>423538870</v>
+      </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
       </c>
@@ -5710,6 +5905,9 @@
         <f t="shared" si="7"/>
         <v>455</v>
       </c>
+      <c r="B456" s="1">
+        <v>423543380</v>
+      </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
       </c>
@@ -5719,6 +5917,9 @@
         <f t="shared" si="7"/>
         <v>456</v>
       </c>
+      <c r="B457" s="1">
+        <v>423626939</v>
+      </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
       </c>
@@ -5728,6 +5929,9 @@
         <f t="shared" si="7"/>
         <v>457</v>
       </c>
+      <c r="B458" s="1">
+        <v>423674225</v>
+      </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
       </c>
@@ -5737,6 +5941,9 @@
         <f t="shared" si="7"/>
         <v>458</v>
       </c>
+      <c r="B459" s="1">
+        <v>423077068</v>
+      </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
       </c>
@@ -5746,6 +5953,9 @@
         <f t="shared" si="7"/>
         <v>459</v>
       </c>
+      <c r="B460" s="1">
+        <v>423274298</v>
+      </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
       </c>
@@ -5755,6 +5965,9 @@
         <f t="shared" si="7"/>
         <v>460</v>
       </c>
+      <c r="B461" s="1">
+        <v>423291817</v>
+      </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
       </c>
@@ -5764,6 +5977,9 @@
         <f t="shared" si="7"/>
         <v>461</v>
       </c>
+      <c r="B462" s="1">
+        <v>423397782</v>
+      </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
       </c>
@@ -5773,6 +5989,9 @@
         <f t="shared" si="7"/>
         <v>462</v>
       </c>
+      <c r="B463" s="1">
+        <v>423020222</v>
+      </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
       </c>
@@ -5782,6 +6001,9 @@
         <f t="shared" si="7"/>
         <v>463</v>
       </c>
+      <c r="B464" s="1">
+        <v>423079042</v>
+      </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
       </c>
@@ -5791,6 +6013,9 @@
         <f t="shared" si="7"/>
         <v>464</v>
       </c>
+      <c r="B465" s="1">
+        <v>423167705</v>
+      </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
       </c>
@@ -5800,6 +6025,9 @@
         <f t="shared" si="7"/>
         <v>465</v>
       </c>
+      <c r="B466" s="1">
+        <v>423250570</v>
+      </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
       </c>
@@ -5809,6 +6037,9 @@
         <f t="shared" si="7"/>
         <v>466</v>
       </c>
+      <c r="B467" s="1">
+        <v>423267167</v>
+      </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
       </c>
@@ -5818,6 +6049,9 @@
         <f t="shared" si="7"/>
         <v>467</v>
       </c>
+      <c r="B468" s="1">
+        <v>423319006</v>
+      </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
       </c>
@@ -5827,6 +6061,9 @@
         <f t="shared" si="7"/>
         <v>468</v>
       </c>
+      <c r="B469" s="1">
+        <v>423412226</v>
+      </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
       </c>
@@ -5836,6 +6073,9 @@
         <f t="shared" si="7"/>
         <v>469</v>
       </c>
+      <c r="B470" s="1">
+        <v>423570307</v>
+      </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
       </c>
@@ -5845,6 +6085,9 @@
         <f t="shared" si="7"/>
         <v>470</v>
       </c>
+      <c r="B471" s="1">
+        <v>423143110</v>
+      </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
       </c>
@@ -5854,6 +6097,9 @@
         <f t="shared" si="7"/>
         <v>471</v>
       </c>
+      <c r="B472" s="1">
+        <v>423220653</v>
+      </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
       </c>
@@ -5863,6 +6109,9 @@
         <f t="shared" si="7"/>
         <v>472</v>
       </c>
+      <c r="B473" s="1">
+        <v>423442741</v>
+      </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
       </c>
@@ -5872,6 +6121,9 @@
         <f t="shared" si="7"/>
         <v>473</v>
       </c>
+      <c r="B474" s="1">
+        <v>423070583</v>
+      </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
       </c>
@@ -5881,6 +6133,9 @@
         <f t="shared" si="7"/>
         <v>474</v>
       </c>
+      <c r="B475" s="1">
+        <v>423075377</v>
+      </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
       </c>
@@ -5890,6 +6145,9 @@
         <f t="shared" si="7"/>
         <v>475</v>
       </c>
+      <c r="B476" s="1">
+        <v>423242443</v>
+      </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
       </c>
@@ -5899,6 +6157,9 @@
         <f t="shared" si="7"/>
         <v>476</v>
       </c>
+      <c r="B477" s="1">
+        <v>423318723</v>
+      </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
       </c>
@@ -5908,6 +6169,9 @@
         <f t="shared" si="7"/>
         <v>477</v>
       </c>
+      <c r="B478" s="1">
+        <v>423419637</v>
+      </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
       </c>
@@ -5917,6 +6181,9 @@
         <f t="shared" si="7"/>
         <v>478</v>
       </c>
+      <c r="B479" s="1">
+        <v>423559876</v>
+      </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
       </c>
@@ -5926,6 +6193,9 @@
         <f t="shared" si="7"/>
         <v>479</v>
       </c>
+      <c r="B480" s="1">
+        <v>423567624</v>
+      </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
       </c>
@@ -5935,6 +6205,9 @@
         <f t="shared" si="7"/>
         <v>480</v>
       </c>
+      <c r="B481" s="1">
+        <v>423364443</v>
+      </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
       </c>
@@ -5944,6 +6217,9 @@
         <f t="shared" si="7"/>
         <v>481</v>
       </c>
+      <c r="B482" s="1">
+        <v>423007884</v>
+      </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
       </c>
@@ -5953,6 +6229,9 @@
         <f t="shared" si="7"/>
         <v>482</v>
       </c>
+      <c r="B483" s="1">
+        <v>423057658</v>
+      </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
       </c>
@@ -5962,6 +6241,9 @@
         <f t="shared" si="7"/>
         <v>483</v>
       </c>
+      <c r="B484" s="1">
+        <v>423090336</v>
+      </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
       </c>
@@ -5971,6 +6253,9 @@
         <f t="shared" si="7"/>
         <v>484</v>
       </c>
+      <c r="B485" s="1">
+        <v>423304274</v>
+      </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
       </c>
@@ -5980,6 +6265,9 @@
         <f t="shared" si="7"/>
         <v>485</v>
       </c>
+      <c r="B486" s="1">
+        <v>423399676</v>
+      </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
       </c>
@@ -5989,6 +6277,9 @@
         <f t="shared" si="7"/>
         <v>486</v>
       </c>
+      <c r="B487" s="1">
+        <v>423513295</v>
+      </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
       </c>
@@ -5998,6 +6289,9 @@
         <f t="shared" si="7"/>
         <v>487</v>
       </c>
+      <c r="B488" s="1">
+        <v>423002507</v>
+      </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
       </c>
@@ -6007,6 +6301,9 @@
         <f t="shared" si="7"/>
         <v>488</v>
       </c>
+      <c r="B489" s="1">
+        <v>423075670</v>
+      </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
       </c>
@@ -6016,6 +6313,9 @@
         <f t="shared" si="7"/>
         <v>489</v>
       </c>
+      <c r="B490" s="1">
+        <v>423097674</v>
+      </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
       </c>
@@ -6025,6 +6325,9 @@
         <f t="shared" si="7"/>
         <v>490</v>
       </c>
+      <c r="B491" s="1">
+        <v>423171965</v>
+      </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
       </c>
@@ -6034,6 +6337,9 @@
         <f t="shared" si="7"/>
         <v>491</v>
       </c>
+      <c r="B492" s="1">
+        <v>423186795</v>
+      </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
       </c>
@@ -6043,6 +6349,9 @@
         <f t="shared" si="7"/>
         <v>492</v>
       </c>
+      <c r="B493" s="1">
+        <v>423558662</v>
+      </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
       </c>
@@ -6052,6 +6361,9 @@
         <f t="shared" si="7"/>
         <v>493</v>
       </c>
+      <c r="B494" s="1">
+        <v>423580496</v>
+      </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
       </c>
@@ -6061,6 +6373,9 @@
         <f t="shared" si="7"/>
         <v>494</v>
       </c>
+      <c r="B495" s="1">
+        <v>423017615</v>
+      </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
       </c>
@@ -6070,6 +6385,9 @@
         <f t="shared" si="7"/>
         <v>495</v>
       </c>
+      <c r="B496" s="1">
+        <v>423331457</v>
+      </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
       </c>
@@ -6079,6 +6397,9 @@
         <f t="shared" si="7"/>
         <v>496</v>
       </c>
+      <c r="B497" s="1">
+        <v>423619522</v>
+      </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
       </c>
@@ -6088,6 +6409,9 @@
         <f t="shared" si="7"/>
         <v>497</v>
       </c>
+      <c r="B498" s="1">
+        <v>423121641</v>
+      </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
       </c>
@@ -6097,6 +6421,9 @@
         <f t="shared" si="7"/>
         <v>498</v>
       </c>
+      <c r="B499" s="1">
+        <v>423333655</v>
+      </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
       </c>
@@ -6106,6 +6433,9 @@
         <f t="shared" si="7"/>
         <v>499</v>
       </c>
+      <c r="B500" s="1">
+        <v>423444148</v>
+      </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
       </c>
@@ -6115,6 +6445,9 @@
         <f t="shared" si="7"/>
         <v>500</v>
       </c>
+      <c r="B501" s="1">
+        <v>423608283</v>
+      </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
       </c>
@@ -6124,6 +6457,9 @@
         <f t="shared" si="7"/>
         <v>501</v>
       </c>
+      <c r="B502" s="1">
+        <v>423028188</v>
+      </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
       </c>
@@ -6133,6 +6469,9 @@
         <f t="shared" si="7"/>
         <v>502</v>
       </c>
+      <c r="B503" s="1">
+        <v>423127365</v>
+      </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
       </c>
@@ -6142,6 +6481,9 @@
         <f t="shared" si="7"/>
         <v>503</v>
       </c>
+      <c r="B504" s="1">
+        <v>423193954</v>
+      </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
       </c>
@@ -6151,6 +6493,9 @@
         <f t="shared" si="7"/>
         <v>504</v>
       </c>
+      <c r="B505" s="1">
+        <v>423257956</v>
+      </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
       </c>
@@ -6160,6 +6505,9 @@
         <f t="shared" si="7"/>
         <v>505</v>
       </c>
+      <c r="B506" s="1">
+        <v>423509413</v>
+      </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
       </c>
@@ -6169,6 +6517,9 @@
         <f t="shared" si="7"/>
         <v>506</v>
       </c>
+      <c r="B507" s="1">
+        <v>423509642</v>
+      </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
       </c>
@@ -6178,6 +6529,9 @@
         <f t="shared" si="7"/>
         <v>507</v>
       </c>
+      <c r="B508" s="1">
+        <v>423001376</v>
+      </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
       </c>
@@ -6186,6 +6540,9 @@
       <c r="A509" s="1">
         <f t="shared" si="7"/>
         <v>508</v>
+      </c>
+      <c r="B509" s="1">
+        <v>423228797</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F2B997-E9F9-4B6C-93EC-AB4529D92F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE04169-5C89-4846-A9F0-10B8653B2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,8 +431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C498" sqref="C498"/>
+    <sheetView tabSelected="1" topLeftCell="A634" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E651" sqref="E651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>423091524</v>
+        <v>423445836</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>423613473</v>
+        <v>423466806</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>423343128</v>
+        <v>423091524</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>423069936</v>
+        <v>423437482</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>423396845</v>
+        <v>423613473</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>423503423</v>
+        <v>423343128</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>423388255</v>
+        <v>423069936</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>423680948</v>
+        <v>423396845</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>423141147</v>
+        <v>423503423</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>423259061</v>
+        <v>423388255</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>423320262</v>
+        <v>423680948</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>423452685</v>
+        <v>423141147</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>423598304</v>
+        <v>423191031</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>423600395</v>
+        <v>423259061</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -698,7 +698,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>423024173</v>
+        <v>423320262</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>423042066</v>
+        <v>423452685</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -722,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>423313937</v>
+        <v>423598304</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>423683938</v>
+        <v>423600395</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>423053203</v>
+        <v>423024173</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -758,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>423120891</v>
+        <v>423042066</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -770,7 +770,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>423041718</v>
+        <v>423156961</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>423193682</v>
+        <v>423313937</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -794,7 +794,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>423257258</v>
+        <v>423415114</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -806,7 +806,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>423358254</v>
+        <v>423683938</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
@@ -818,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>423579395</v>
+        <v>423053203</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -830,7 +830,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>423043591</v>
+        <v>423120891</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>423051012</v>
+        <v>423041718</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>423082655</v>
+        <v>423193682</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -866,7 +866,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>423128883</v>
+        <v>423257258</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -878,7 +878,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>423183678</v>
+        <v>423358254</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>423210473</v>
+        <v>423579395</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>423320617</v>
+        <v>423043591</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>423423896</v>
+        <v>423045624</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>423488536</v>
+        <v>423051012</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>423538219</v>
+        <v>423082655</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>423592120</v>
+        <v>423128883</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>2</v>
@@ -962,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>423596947</v>
+        <v>423183678</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>423020236</v>
+        <v>423210473</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>2</v>
@@ -986,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>423032402</v>
+        <v>423320617</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>423067948</v>
+        <v>423409915</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
@@ -1010,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>423204498</v>
+        <v>423423896</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1022,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>423349974</v>
+        <v>423488536</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>423380832</v>
+        <v>423538219</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>423427569</v>
+        <v>423592120</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>423467029</v>
+        <v>423596947</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>423001181</v>
+        <v>423020236</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>2</v>
@@ -1082,7 +1082,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>423073604</v>
+        <v>423032402</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>423169612</v>
+        <v>423067948</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>2</v>
@@ -1106,7 +1106,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>423282408</v>
+        <v>423146554</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1118,7 +1118,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>423301242</v>
+        <v>423157181</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>423416971</v>
+        <v>423204498</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>423023084</v>
+        <v>423349974</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>2</v>
@@ -1154,7 +1154,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1">
-        <v>423212273</v>
+        <v>423380832</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1">
-        <v>423236383</v>
+        <v>423384739</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1178,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1">
-        <v>423374292</v>
+        <v>423427569</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>423578035</v>
+        <v>423467029</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>423217746</v>
+        <v>423001181</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1">
-        <v>423239379</v>
+        <v>423073604</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1">
-        <v>423341898</v>
+        <v>423169612</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1238,7 +1238,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>423350228</v>
+        <v>423197754</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -1250,7 +1250,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>423026307</v>
+        <v>423214176</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>423069565</v>
+        <v>423282408</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>2</v>
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1">
-        <v>423154977</v>
+        <v>423301242</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>423264092</v>
+        <v>423416971</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1">
-        <v>423325871</v>
+        <v>423023084</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>423640397</v>
+        <v>423116625</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>2</v>
@@ -1322,7 +1322,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>423057803</v>
+        <v>423212273</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>423098457</v>
+        <v>423236383</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
@@ -1346,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1">
-        <v>423210232</v>
+        <v>423374292</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1358,7 +1358,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1">
-        <v>423518525</v>
+        <v>423446748</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>2</v>
@@ -1370,7 +1370,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1">
-        <v>423665579</v>
+        <v>423578035</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -1382,7 +1382,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>423031309</v>
+        <v>423662953</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>2</v>
@@ -1394,7 +1394,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1">
-        <v>423071405</v>
+        <v>423079852</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1">
-        <v>423201278</v>
+        <v>423217746</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>423299595</v>
+        <v>423239379</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -1430,7 +1430,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1">
-        <v>423336860</v>
+        <v>423341898</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>423395373</v>
+        <v>423350228</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1">
-        <v>423027162</v>
+        <v>423026307</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>2</v>
@@ -1466,7 +1466,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1">
-        <v>423133536</v>
+        <v>423069565</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1">
-        <v>423154149</v>
+        <v>423149198</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1">
-        <v>423306462</v>
+        <v>423154977</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -1502,7 +1502,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1">
-        <v>423528133</v>
+        <v>423264092</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1">
-        <v>423560300</v>
+        <v>423325871</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -1526,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>423354966</v>
+        <v>423583710</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1">
-        <v>423357497</v>
+        <v>423640397</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1">
-        <v>423379099</v>
+        <v>423057803</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>423542129</v>
+        <v>423098457</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -1574,7 +1574,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>423072775</v>
+        <v>423210232</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>2</v>
@@ -1586,7 +1586,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>423435651</v>
+        <v>423368953</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1">
-        <v>423595960</v>
+        <v>423442729</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1">
-        <v>423227418</v>
+        <v>423518525</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1">
-        <v>423153738</v>
+        <v>423665579</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1">
-        <v>423197084</v>
+        <v>423031309</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1">
-        <v>423222572</v>
+        <v>423071405</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1">
-        <v>423313335</v>
+        <v>423201278</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -1670,7 +1670,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1">
-        <v>423318970</v>
+        <v>423299595</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1">
-        <v>423454598</v>
+        <v>423336860</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -1694,7 +1694,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1">
-        <v>423505067</v>
+        <v>423395373</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>2</v>
@@ -1706,7 +1706,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1">
-        <v>423040653</v>
+        <v>423027162</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1">
-        <v>423281965</v>
+        <v>423133536</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1">
-        <v>423450481</v>
+        <v>423154149</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -1742,7 +1742,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1">
-        <v>423522087</v>
+        <v>423306462</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>2</v>
@@ -1754,7 +1754,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>423635868</v>
+        <v>423528133</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>423031136</v>
+        <v>423560300</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>2</v>
@@ -1778,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1">
-        <v>423595421</v>
+        <v>423020346</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1">
-        <v>423189912</v>
+        <v>423051838</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>423392559</v>
+        <v>423354966</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1">
-        <v>423362289</v>
+        <v>423357497</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1">
-        <v>423678748</v>
+        <v>423379099</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>423577626</v>
+        <v>423440016</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>2</v>
@@ -1850,7 +1850,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1">
-        <v>423218867</v>
+        <v>423542129</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>423225390</v>
+        <v>423072775</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1">
-        <v>423285061</v>
+        <v>423126515</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -1886,7 +1886,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1">
-        <v>423311081</v>
+        <v>423248343</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1">
-        <v>423454609</v>
+        <v>423435651</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1">
-        <v>423457713</v>
+        <v>423595960</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1">
-        <v>423480884</v>
+        <v>423350714</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -1934,7 +1934,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1">
-        <v>423511490</v>
+        <v>423227418</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>423594582</v>
+        <v>423153738</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>423598212</v>
+        <v>423197084</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>2</v>
@@ -1970,7 +1970,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1">
-        <v>423011947</v>
+        <v>423376159</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>423024190</v>
+        <v>423566050</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>423083373</v>
+        <v>423002006</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>423123854</v>
+        <v>423222572</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>423132026</v>
+        <v>423313335</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -2030,7 +2030,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>423171824</v>
+        <v>423318970</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>2</v>
@@ -2042,7 +2042,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>423202502</v>
+        <v>423454598</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>423289364</v>
+        <v>423599787</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1">
-        <v>423407662</v>
+        <v>423117195</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -2078,7 +2078,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1">
-        <v>423408407</v>
+        <v>423223003</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1">
-        <v>423430747</v>
+        <v>423505067</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1">
-        <v>423491199</v>
+        <v>423040653</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>2</v>
@@ -2114,7 +2114,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1">
-        <v>423544901</v>
+        <v>423281965</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -2126,7 +2126,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1">
-        <v>423578610</v>
+        <v>423450481</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>2</v>
@@ -2138,7 +2138,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1">
-        <v>423041755</v>
+        <v>423522087</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1">
-        <v>423049358</v>
+        <v>423635868</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>2</v>
@@ -2162,7 +2162,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1">
-        <v>423054943</v>
+        <v>423031136</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -2174,7 +2174,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1">
-        <v>423167720</v>
+        <v>423072477</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1">
-        <v>423277525</v>
+        <v>423250005</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -2198,7 +2198,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1">
-        <v>423287736</v>
+        <v>423595421</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1">
-        <v>423290601</v>
+        <v>423601815</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -2222,7 +2222,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1">
-        <v>423318025</v>
+        <v>423189912</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>2</v>
@@ -2234,7 +2234,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1">
-        <v>423320702</v>
+        <v>423392559</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -2246,7 +2246,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1">
-        <v>423338752</v>
+        <v>423480814</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>2</v>
@@ -2258,7 +2258,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1">
-        <v>423360614</v>
+        <v>423541900</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1">
-        <v>423363306</v>
+        <v>423205192</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>2</v>
@@ -2282,7 +2282,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1">
-        <v>423420456</v>
+        <v>423362289</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -2294,7 +2294,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1">
-        <v>423481801</v>
+        <v>423678748</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1">
-        <v>423523538</v>
+        <v>423577626</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1">
-        <v>423567773</v>
+        <v>423110853</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>2</v>
@@ -2330,7 +2330,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1">
-        <v>423305081</v>
+        <v>423218867</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -2342,7 +2342,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1">
-        <v>423446216</v>
+        <v>423225390</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>2</v>
@@ -2354,7 +2354,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1">
-        <v>423479535</v>
+        <v>423285061</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -2366,7 +2366,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1">
-        <v>423532227</v>
+        <v>423311081</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1">
-        <v>423072634</v>
+        <v>423372567</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1">
-        <v>423271728</v>
+        <v>423454609</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1">
-        <v>423278385</v>
+        <v>423457713</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -2414,7 +2414,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1">
-        <v>423356393</v>
+        <v>423480884</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2426,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1">
-        <v>423017554</v>
+        <v>423511490</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -2438,7 +2438,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1">
-        <v>423119525</v>
+        <v>423513293</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1">
-        <v>423176727</v>
+        <v>423594582</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1">
-        <v>423214010</v>
+        <v>423598212</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>2</v>
@@ -2474,7 +2474,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1">
-        <v>423360860</v>
+        <v>423011947</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -2486,7 +2486,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1">
-        <v>423386882</v>
+        <v>423024190</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>2</v>
@@ -2498,7 +2498,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1">
-        <v>423038144</v>
+        <v>423083373</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -2510,7 +2510,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1">
-        <v>423040228</v>
+        <v>423123854</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>2</v>
@@ -2522,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1">
-        <v>423127290</v>
+        <v>423132026</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -2534,7 +2534,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1">
-        <v>423177554</v>
+        <v>423171824</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>2</v>
@@ -2546,7 +2546,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1">
-        <v>423316724</v>
+        <v>423202502</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1">
-        <v>423342784</v>
+        <v>423214348</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>2</v>
@@ -2570,7 +2570,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1">
-        <v>423355609</v>
+        <v>423276097</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -2582,7 +2582,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1">
-        <v>423588961</v>
+        <v>423289364</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>2</v>
@@ -2594,7 +2594,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1">
-        <v>423146273</v>
+        <v>423407662</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>2</v>
@@ -2606,7 +2606,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1">
-        <v>423207975</v>
+        <v>423408407</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>2</v>
@@ -2618,7 +2618,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1">
-        <v>423250761</v>
+        <v>423430747</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>2</v>
@@ -2630,7 +2630,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1">
-        <v>423581906</v>
+        <v>423481720</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>2</v>
@@ -2642,7 +2642,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1">
-        <v>423052778</v>
+        <v>423491199</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1">
-        <v>423198791</v>
+        <v>423544901</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1">
-        <v>423228584</v>
+        <v>423578610</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1">
-        <v>423379464</v>
+        <v>423607853</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1">
-        <v>423520832</v>
+        <v>423689790</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>2</v>
@@ -2702,7 +2702,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1">
-        <v>423105749</v>
+        <v>423041755</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>2</v>
@@ -2714,7 +2714,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1">
-        <v>423166648</v>
+        <v>423049358</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>2</v>
@@ -2726,7 +2726,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1">
-        <v>423494787</v>
+        <v>423054943</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>2</v>
@@ -2738,7 +2738,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1">
-        <v>423612292</v>
+        <v>423158009</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>2</v>
@@ -2750,7 +2750,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1">
-        <v>423142711</v>
+        <v>423167720</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>2</v>
@@ -2762,7 +2762,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1">
-        <v>423197765</v>
+        <v>423212278</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1">
-        <v>423206102</v>
+        <v>423277525</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1">
-        <v>423259089</v>
+        <v>423287736</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>423310938</v>
+        <v>423290601</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>2</v>
@@ -2810,7 +2810,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>423448781</v>
+        <v>423318025</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>2</v>
@@ -2822,7 +2822,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>423449086</v>
+        <v>423320702</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>423546564</v>
+        <v>423338752</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>2</v>
@@ -2846,7 +2846,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>423001250</v>
+        <v>423360614</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>2</v>
@@ -2858,7 +2858,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>423001341</v>
+        <v>423363306</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>2</v>
@@ -2870,7 +2870,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>423091920</v>
+        <v>423397544</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>2</v>
@@ -2882,7 +2882,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>423397241</v>
+        <v>423420456</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>2</v>
@@ -2894,7 +2894,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>423472284</v>
+        <v>423481801</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>2</v>
@@ -2906,7 +2906,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>423603714</v>
+        <v>423523538</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>423674152</v>
+        <v>423567773</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>423002156</v>
+        <v>423305081</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>2</v>
@@ -2942,7 +2942,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>423248868</v>
+        <v>423398810</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>423289514</v>
+        <v>423446216</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>423334069</v>
+        <v>423479535</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>2</v>
@@ -2978,7 +2978,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>423362137</v>
+        <v>423532227</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>2</v>
@@ -2990,7 +2990,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>423303714</v>
+        <v>423072634</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1">
-        <v>423103162</v>
+        <v>423271728</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>2</v>
@@ -3014,7 +3014,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1">
-        <v>423429073</v>
+        <v>423278385</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>2</v>
@@ -3026,7 +3026,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1">
-        <v>423032582</v>
+        <v>423339314</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>2</v>
@@ -3038,7 +3038,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1">
-        <v>423447155</v>
+        <v>423356393</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>2</v>
@@ -3050,7 +3050,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1">
-        <v>423450358</v>
+        <v>423017554</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>2</v>
@@ -3062,7 +3062,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1">
-        <v>423211663</v>
+        <v>423068410</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>2</v>
@@ -3074,7 +3074,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1">
-        <v>423212122</v>
+        <v>423119525</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1">
-        <v>423268417</v>
+        <v>423176727</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>2</v>
@@ -3098,7 +3098,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1">
-        <v>423321645</v>
+        <v>423214010</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>2</v>
@@ -3110,7 +3110,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1">
-        <v>423085597</v>
+        <v>423360860</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>2</v>
@@ -3122,7 +3122,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1">
-        <v>423109693</v>
+        <v>423386882</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>2</v>
@@ -3134,7 +3134,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1">
-        <v>423416245</v>
+        <v>423038144</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>2</v>
@@ -3146,7 +3146,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1">
-        <v>423461184</v>
+        <v>423040228</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>2</v>
@@ -3158,7 +3158,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1">
-        <v>423402236</v>
+        <v>423115802</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>2</v>
@@ -3170,7 +3170,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>423094680</v>
+        <v>423127290</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>2</v>
@@ -3182,7 +3182,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1">
-        <v>423408544</v>
+        <v>423177554</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1">
-        <v>423005859</v>
+        <v>423269529</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>2</v>
@@ -3206,7 +3206,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1">
-        <v>423043755</v>
+        <v>423316724</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>2</v>
@@ -3218,7 +3218,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1">
-        <v>423087841</v>
+        <v>423342784</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>2</v>
@@ -3230,7 +3230,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1">
-        <v>423138002</v>
+        <v>423355609</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>2</v>
@@ -3242,7 +3242,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1">
-        <v>423220208</v>
+        <v>423384563</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>2</v>
@@ -3254,7 +3254,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1">
-        <v>423221999</v>
+        <v>423588961</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>2</v>
@@ -3266,7 +3266,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1">
-        <v>423477725</v>
+        <v>423146273</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1">
-        <v>423562516</v>
+        <v>423207975</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>2</v>
@@ -3290,7 +3290,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1">
-        <v>423093574</v>
+        <v>423250761</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>2</v>
@@ -3302,7 +3302,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1">
-        <v>423101710</v>
+        <v>423440287</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1">
-        <v>423187917</v>
+        <v>423486323</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>2</v>
@@ -3326,7 +3326,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1">
-        <v>423407413</v>
+        <v>423581906</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1">
-        <v>423481191</v>
+        <v>423052778</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1">
-        <v>423527884</v>
+        <v>423198791</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>2</v>
@@ -3362,7 +3362,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1">
-        <v>423529328</v>
+        <v>423228584</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>2</v>
@@ -3374,7 +3374,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1">
-        <v>423125330</v>
+        <v>423379464</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1">
-        <v>423550867</v>
+        <v>423429109</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>2</v>
@@ -3398,7 +3398,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1">
-        <v>423099304</v>
+        <v>423520832</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1">
-        <v>423180880</v>
+        <v>423105749</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>2</v>
@@ -3422,7 +3422,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1">
-        <v>423294289</v>
+        <v>423166648</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3434,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1">
-        <v>423320603</v>
+        <v>423494787</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>2</v>
@@ -3446,7 +3446,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1">
-        <v>423431165</v>
+        <v>423612292</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>2</v>
@@ -3458,7 +3458,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1">
-        <v>423259772</v>
+        <v>423142711</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1">
-        <v>423160096</v>
+        <v>423197765</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>2</v>
@@ -3482,7 +3482,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1">
-        <v>423269285</v>
+        <v>423206102</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1">
-        <v>423297033</v>
+        <v>423259089</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>2</v>
@@ -3506,7 +3506,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1">
-        <v>423511245</v>
+        <v>423310938</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>2</v>
@@ -3518,7 +3518,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1">
-        <v>423587136</v>
+        <v>423432173</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>2</v>
@@ -3530,7 +3530,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1">
-        <v>423384323</v>
+        <v>423448781</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>2</v>
@@ -3542,7 +3542,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1">
-        <v>423026910</v>
+        <v>423449086</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>2</v>
@@ -3554,7 +3554,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1">
-        <v>423205660</v>
+        <v>423546564</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>2</v>
@@ -3566,7 +3566,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1">
-        <v>423293793</v>
+        <v>423001250</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>2</v>
@@ -3578,7 +3578,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1">
-        <v>423347679</v>
+        <v>423001341</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>2</v>
@@ -3590,7 +3590,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1">
-        <v>423590354</v>
+        <v>423091920</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>2</v>
@@ -3602,7 +3602,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1">
-        <v>423133763</v>
+        <v>423102958</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>2</v>
@@ -3614,7 +3614,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1">
-        <v>423325132</v>
+        <v>423397241</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>2</v>
@@ -3626,7 +3626,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1">
-        <v>423344317</v>
+        <v>423472284</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>2</v>
@@ -3638,7 +3638,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1">
-        <v>423559004</v>
+        <v>423484615</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>2</v>
@@ -3650,7 +3650,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1">
-        <v>423140446</v>
+        <v>423519942</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>2</v>
@@ -3662,7 +3662,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1">
-        <v>423181490</v>
+        <v>423530061</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>2</v>
@@ -3674,7 +3674,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1">
-        <v>423604349</v>
+        <v>423603714</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>2</v>
@@ -3686,7 +3686,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1">
-        <v>423074904</v>
+        <v>423674152</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>2</v>
@@ -3698,7 +3698,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1">
-        <v>423076236</v>
+        <v>423002156</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>2</v>
@@ -3710,7 +3710,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1">
-        <v>423342347</v>
+        <v>423248868</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>2</v>
@@ -3722,7 +3722,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1">
-        <v>423478389</v>
+        <v>423289514</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>2</v>
@@ -3734,7 +3734,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1">
-        <v>423497553</v>
+        <v>423334069</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>2</v>
@@ -3746,7 +3746,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1">
-        <v>423508957</v>
+        <v>423353061</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>2</v>
@@ -3758,7 +3758,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1">
-        <v>423586345</v>
+        <v>423362137</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1">
-        <v>423236330</v>
+        <v>423303714</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1">
-        <v>423245830</v>
+        <v>423340683</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>2</v>
@@ -3794,7 +3794,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1">
-        <v>423247661</v>
+        <v>423546984</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>2</v>
@@ -3806,7 +3806,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1">
-        <v>423309967</v>
+        <v>423103162</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>2</v>
@@ -3818,7 +3818,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1">
-        <v>423384896</v>
+        <v>423429073</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>2</v>
@@ -3830,7 +3830,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1">
-        <v>423569438</v>
+        <v>423032582</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>2</v>
@@ -3842,7 +3842,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1">
-        <v>423001566</v>
+        <v>423447155</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>2</v>
@@ -3854,7 +3854,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1">
-        <v>423257420</v>
+        <v>423450358</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>2</v>
@@ -3866,7 +3866,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1">
-        <v>423265144</v>
+        <v>423211663</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>2</v>
@@ -3878,7 +3878,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1">
-        <v>423412389</v>
+        <v>423212122</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1">
-        <v>423580477</v>
+        <v>423225028</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>2</v>
@@ -3902,7 +3902,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1">
-        <v>423659522</v>
+        <v>423268417</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>2</v>
@@ -3914,7 +3914,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1">
-        <v>423063317</v>
+        <v>423321645</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>2</v>
@@ -3926,7 +3926,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1">
-        <v>423357400</v>
+        <v>423445028</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>2</v>
@@ -3938,7 +3938,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1">
-        <v>423427002</v>
+        <v>423482060</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1">
-        <v>423428292</v>
+        <v>423085597</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1">
-        <v>423085116</v>
+        <v>423109693</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>2</v>
@@ -3974,7 +3974,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1">
-        <v>423154015</v>
+        <v>423416245</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>2</v>
@@ -3986,7 +3986,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1">
-        <v>423589200</v>
+        <v>423461184</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1">
-        <v>423660775</v>
+        <v>423402236</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>2</v>
@@ -4010,7 +4010,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1">
-        <v>423226821</v>
+        <v>423094680</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>2</v>
@@ -4022,7 +4022,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1">
-        <v>423221641</v>
+        <v>423123855</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>2</v>
@@ -4034,7 +4034,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1">
-        <v>423393361</v>
+        <v>423251687</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>2</v>
@@ -4046,7 +4046,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1">
-        <v>423528772</v>
+        <v>423408544</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>2</v>
@@ -4058,7 +4058,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1">
-        <v>423603870</v>
+        <v>423005859</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>2</v>
@@ -4070,7 +4070,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1">
-        <v>423084862</v>
+        <v>423043755</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1">
-        <v>423223610</v>
+        <v>423331128</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>2</v>
@@ -4094,7 +4094,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1">
-        <v>423421010</v>
+        <v>423087841</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>2</v>
@@ -4106,7 +4106,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1">
-        <v>423015829</v>
+        <v>423138002</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>2</v>
@@ -4118,7 +4118,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1">
-        <v>423301726</v>
+        <v>423220208</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>2</v>
@@ -4130,7 +4130,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1">
-        <v>423355608</v>
+        <v>423221999</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1">
-        <v>423473270</v>
+        <v>423269913</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>2</v>
@@ -4154,7 +4154,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1">
-        <v>423476180</v>
+        <v>423430061</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1">
-        <v>423479702</v>
+        <v>423477725</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>2</v>
@@ -4178,7 +4178,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1">
-        <v>423251404</v>
+        <v>423562516</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>2</v>
@@ -4190,7 +4190,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1">
-        <v>423499444</v>
+        <v>423591718</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>2</v>
@@ -4202,7 +4202,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1">
-        <v>423005099</v>
+        <v>423093574</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>2</v>
@@ -4214,7 +4214,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1">
-        <v>423282784</v>
+        <v>423101710</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>2</v>
@@ -4226,7 +4226,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1">
-        <v>423386260</v>
+        <v>423187917</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>2</v>
@@ -4238,7 +4238,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1">
-        <v>423411419</v>
+        <v>423269528</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>2</v>
@@ -4250,7 +4250,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1">
-        <v>423427799</v>
+        <v>423407413</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>2</v>
@@ -4262,7 +4262,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1">
-        <v>423585005</v>
+        <v>423481191</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>2</v>
@@ -4274,7 +4274,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1">
-        <v>423081916</v>
+        <v>423527884</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>2</v>
@@ -4286,7 +4286,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1">
-        <v>423222274</v>
+        <v>423529328</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1">
-        <v>423342260</v>
+        <v>423125330</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>2</v>
@@ -4310,7 +4310,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1">
-        <v>423425499</v>
+        <v>423156991</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>2</v>
@@ -4322,7 +4322,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1">
-        <v>423646785</v>
+        <v>423550867</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>2</v>
@@ -4334,7 +4334,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1">
-        <v>423139256</v>
+        <v>423099304</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>2</v>
@@ -4346,7 +4346,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1">
-        <v>423441467</v>
+        <v>423180880</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>2</v>
@@ -4358,7 +4358,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1">
-        <v>423492999</v>
+        <v>423294289</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>2</v>
@@ -4370,7 +4370,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1">
-        <v>423071336</v>
+        <v>423320603</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>2</v>
@@ -4382,7 +4382,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1">
-        <v>423300381</v>
+        <v>423431165</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>2</v>
@@ -4394,7 +4394,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1">
-        <v>423691418</v>
+        <v>423490450</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>2</v>
@@ -4406,7 +4406,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1">
-        <v>423114145</v>
+        <v>423259772</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>2</v>
@@ -4418,7 +4418,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1">
-        <v>423163723</v>
+        <v>423489485</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>2</v>
@@ -4430,7 +4430,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1">
-        <v>423169874</v>
+        <v>423623891</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>2</v>
@@ -4442,7 +4442,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1">
-        <v>423170410</v>
+        <v>423160096</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>2</v>
@@ -4454,7 +4454,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1">
-        <v>423287828</v>
+        <v>423269285</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>2</v>
@@ -4466,7 +4466,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1">
-        <v>423384021</v>
+        <v>423297033</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>2</v>
@@ -4478,7 +4478,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1">
-        <v>423452535</v>
+        <v>423299186</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>2</v>
@@ -4490,7 +4490,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1">
-        <v>423547573</v>
+        <v>423511245</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>2</v>
@@ -4502,7 +4502,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1">
-        <v>423113146</v>
+        <v>423587136</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>2</v>
@@ -4514,7 +4514,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1">
-        <v>423172200</v>
+        <v>423384323</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1">
-        <v>423189447</v>
+        <v>423663009</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>2</v>
@@ -4538,7 +4538,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1">
-        <v>423244678</v>
+        <v>423026910</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1">
-        <v>423193551</v>
+        <v>423205660</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>2</v>
@@ -4562,7 +4562,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1">
-        <v>423305403</v>
+        <v>423293793</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>2</v>
@@ -4574,7 +4574,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1">
-        <v>423562652</v>
+        <v>423299226</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>2</v>
@@ -4586,7 +4586,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1">
-        <v>423604622</v>
+        <v>423347679</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>2</v>
@@ -4598,7 +4598,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1">
-        <v>423190128</v>
+        <v>423590354</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>2</v>
@@ -4610,7 +4610,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1">
-        <v>423330913</v>
+        <v>423133763</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>2</v>
@@ -4622,7 +4622,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1">
-        <v>423500426</v>
+        <v>423198618</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>2</v>
@@ -4634,7 +4634,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1">
-        <v>423520833</v>
+        <v>423265673</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>2</v>
@@ -4646,7 +4646,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1">
-        <v>423168253</v>
+        <v>423285771</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>2</v>
@@ -4658,7 +4658,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1">
-        <v>423214618</v>
+        <v>423325132</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>2</v>
@@ -4670,7 +4670,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1">
-        <v>423300354</v>
+        <v>423344317</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1">
-        <v>423383839</v>
+        <v>423559004</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>2</v>
@@ -4694,7 +4694,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1">
-        <v>423509345</v>
+        <v>423140446</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1">
-        <v>423073089</v>
+        <v>423181490</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>2</v>
@@ -4718,7 +4718,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1">
-        <v>423411181</v>
+        <v>423604349</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>2</v>
@@ -4730,7 +4730,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1">
-        <v>423445211</v>
+        <v>423606282</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>2</v>
@@ -4742,7 +4742,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1">
-        <v>423557628</v>
+        <v>423074904</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>2</v>
@@ -4754,7 +4754,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1">
-        <v>423569396</v>
+        <v>423076236</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>2</v>
@@ -4766,7 +4766,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1">
-        <v>423098756</v>
+        <v>423182033</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>2</v>
@@ -4778,7 +4778,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1">
-        <v>423016637</v>
+        <v>423342347</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1">
-        <v>423047107</v>
+        <v>423478389</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1">
-        <v>423186333</v>
+        <v>423490171</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1">
-        <v>423419589</v>
+        <v>423497553</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1">
-        <v>423461944</v>
+        <v>423508957</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>2</v>
@@ -4838,7 +4838,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1">
-        <v>423486118</v>
+        <v>423580144</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>2</v>
@@ -4850,7 +4850,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1">
-        <v>423049379</v>
+        <v>423586345</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>2</v>
@@ -4862,7 +4862,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1">
-        <v>423082085</v>
+        <v>423028443</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>2</v>
@@ -4874,7 +4874,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1">
-        <v>423299571</v>
+        <v>423223998</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>2</v>
@@ -4886,7 +4886,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1">
-        <v>423487636</v>
+        <v>423236330</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>2</v>
@@ -4898,7 +4898,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1">
-        <v>423214648</v>
+        <v>423245830</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>2</v>
@@ -4910,7 +4910,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1">
-        <v>423287220</v>
+        <v>423247661</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>2</v>
@@ -4922,7 +4922,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1">
-        <v>423448240</v>
+        <v>423282486</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>2</v>
@@ -4934,7 +4934,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1">
-        <v>423183151</v>
+        <v>423309967</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>2</v>
@@ -4946,7 +4946,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1">
-        <v>423506696</v>
+        <v>423384896</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>2</v>
@@ -4958,7 +4958,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1">
-        <v>423293490</v>
+        <v>423569438</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>2</v>
@@ -4970,7 +4970,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1">
-        <v>423604730</v>
+        <v>423001566</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>2</v>
@@ -4982,7 +4982,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1">
-        <v>423302820</v>
+        <v>423257420</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>2</v>
@@ -4994,7 +4994,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1">
-        <v>423514169</v>
+        <v>423265144</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>2</v>
@@ -5006,7 +5006,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1">
-        <v>423562528</v>
+        <v>423412389</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>2</v>
@@ -5018,7 +5018,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1">
-        <v>423081708</v>
+        <v>423580477</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>2</v>
@@ -5030,7 +5030,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1">
-        <v>423437162</v>
+        <v>423659522</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>2</v>
@@ -5042,7 +5042,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1">
-        <v>423605761</v>
+        <v>423063317</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>2</v>
@@ -5054,7 +5054,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1">
-        <v>423295785</v>
+        <v>423357400</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>2</v>
@@ -5066,7 +5066,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1">
-        <v>423341700</v>
+        <v>423427002</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>2</v>
@@ -5078,7 +5078,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1">
-        <v>423593476</v>
+        <v>423428292</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>2</v>
@@ -5090,7 +5090,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1">
-        <v>423071867</v>
+        <v>423085116</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1">
-        <v>423475619</v>
+        <v>423154015</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>2</v>
@@ -5114,7 +5114,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1">
-        <v>423269384</v>
+        <v>423589200</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>2</v>
@@ -5126,7 +5126,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1">
-        <v>423295887</v>
+        <v>423660775</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>2</v>
@@ -5138,7 +5138,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1">
-        <v>423359676</v>
+        <v>423226821</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>2</v>
@@ -5150,7 +5150,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1">
-        <v>423489651</v>
+        <v>423221641</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1">
-        <v>423490707</v>
+        <v>423393361</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>2</v>
@@ -5174,7 +5174,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1">
-        <v>423024191</v>
+        <v>423450355</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>2</v>
@@ -5186,7 +5186,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1">
-        <v>423024217</v>
+        <v>423512912</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>2</v>
@@ -5198,7 +5198,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1">
-        <v>423390896</v>
+        <v>423528772</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>2</v>
@@ -5210,7 +5210,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1">
-        <v>423478521</v>
+        <v>423406843</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>2</v>
@@ -5222,7 +5222,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1">
-        <v>423564410</v>
+        <v>423603870</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>2</v>
@@ -5234,7 +5234,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1">
-        <v>423148049</v>
+        <v>423084862</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1">
-        <v>423315512</v>
+        <v>423089665</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>2</v>
@@ -5258,7 +5258,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1">
-        <v>423404487</v>
+        <v>423111038</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>2</v>
@@ -5270,7 +5270,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1">
-        <v>423064711</v>
+        <v>423223610</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>2</v>
@@ -5282,7 +5282,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1">
-        <v>423072221</v>
+        <v>423421010</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>2</v>
@@ -5294,7 +5294,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1">
-        <v>423194335</v>
+        <v>423015829</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>2</v>
@@ -5306,7 +5306,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1">
-        <v>423199766</v>
+        <v>423301726</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>2</v>
@@ -5318,7 +5318,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1">
-        <v>423234416</v>
+        <v>423355608</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1">
-        <v>423410331</v>
+        <v>423473270</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>2</v>
@@ -5342,7 +5342,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1">
-        <v>423452920</v>
+        <v>423476180</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>2</v>
@@ -5354,7 +5354,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1">
-        <v>423033847</v>
+        <v>423479702</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>2</v>
@@ -5366,7 +5366,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1">
-        <v>423052756</v>
+        <v>423251404</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>2</v>
@@ -5378,7 +5378,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1">
-        <v>423088589</v>
+        <v>423252874</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>2</v>
@@ -5390,7 +5390,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1">
-        <v>423476901</v>
+        <v>423499444</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>2</v>
@@ -5402,7 +5402,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1">
-        <v>423507276</v>
+        <v>423005099</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>2</v>
@@ -5414,7 +5414,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1">
-        <v>423025328</v>
+        <v>423282784</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>2</v>
@@ -5426,7 +5426,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1">
-        <v>423419505</v>
+        <v>423373182</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>2</v>
@@ -5438,7 +5438,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1">
-        <v>423624321</v>
+        <v>423386260</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>2</v>
@@ -5450,7 +5450,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1">
-        <v>423012784</v>
+        <v>423411419</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>2</v>
@@ -5462,7 +5462,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1">
-        <v>423163172</v>
+        <v>423427799</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>2</v>
@@ -5474,7 +5474,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1">
-        <v>423243726</v>
+        <v>423585005</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>2</v>
@@ -5486,7 +5486,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1">
-        <v>423356992</v>
+        <v>423081916</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>2</v>
@@ -5498,7 +5498,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1">
-        <v>423403519</v>
+        <v>423222274</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>2</v>
@@ -5510,7 +5510,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="1">
-        <v>423382486</v>
+        <v>423249308</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>2</v>
@@ -5522,7 +5522,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="1">
-        <v>423403666</v>
+        <v>423342260</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>2</v>
@@ -5534,7 +5534,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="1">
-        <v>423064834</v>
+        <v>423425499</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>2</v>
@@ -5546,7 +5546,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="1">
-        <v>423454063</v>
+        <v>423646785</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>2</v>
@@ -5558,7 +5558,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="1">
-        <v>423546164</v>
+        <v>423139256</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>2</v>
@@ -5570,7 +5570,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="1">
-        <v>423619864</v>
+        <v>423441467</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>2</v>
@@ -5582,7 +5582,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="1">
-        <v>423315329</v>
+        <v>423492999</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>2</v>
@@ -5594,7 +5594,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="1">
-        <v>423326580</v>
+        <v>423071336</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="1">
-        <v>423496053</v>
+        <v>423300381</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>2</v>
@@ -5618,7 +5618,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="1">
-        <v>423500200</v>
+        <v>423470228</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="1">
-        <v>423157414</v>
+        <v>423691418</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>2</v>
@@ -5642,7 +5642,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="1">
-        <v>423253785</v>
+        <v>423114145</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -5654,7 +5654,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="1">
-        <v>423298045</v>
+        <v>423163723</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>2</v>
@@ -5666,7 +5666,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="1">
-        <v>423353515</v>
+        <v>423169874</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>2</v>
@@ -5678,7 +5678,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="1">
-        <v>423408232</v>
+        <v>423170410</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>2</v>
@@ -5690,7 +5690,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="1">
-        <v>423434077</v>
+        <v>423287828</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="1">
-        <v>423600860</v>
+        <v>423373410</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -5714,7 +5714,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="1">
-        <v>423379820</v>
+        <v>423384021</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -5726,7 +5726,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="1">
-        <v>423419892</v>
+        <v>423452535</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -5738,7 +5738,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="1">
-        <v>423433920</v>
+        <v>423547573</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -5750,7 +5750,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="1">
-        <v>423014184</v>
+        <v>423100047</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -5762,7 +5762,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="1">
-        <v>423035766</v>
+        <v>423113146</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -5774,7 +5774,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="1">
-        <v>423050092</v>
+        <v>423172200</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>2</v>
@@ -5786,7 +5786,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="1">
-        <v>423118615</v>
+        <v>423189447</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>2</v>
@@ -5798,7 +5798,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="1">
-        <v>423393853</v>
+        <v>423244678</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>2</v>
@@ -5810,7 +5810,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="1">
-        <v>423595723</v>
+        <v>423193551</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>2</v>
@@ -5822,7 +5822,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="1">
-        <v>423017459</v>
+        <v>423259185</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>2</v>
@@ -5834,7 +5834,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="1">
-        <v>423616686</v>
+        <v>423305403</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>2</v>
@@ -5846,7 +5846,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="1">
-        <v>423037207</v>
+        <v>423330165</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>2</v>
@@ -5858,7 +5858,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="1">
-        <v>423292697</v>
+        <v>423562652</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>2</v>
@@ -5870,7 +5870,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="1">
-        <v>423375534</v>
+        <v>423604622</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>2</v>
@@ -5882,7 +5882,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="1">
-        <v>423224212</v>
+        <v>423190128</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>2</v>
@@ -5894,7 +5894,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="1">
-        <v>423538870</v>
+        <v>423234968</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>2</v>
@@ -5906,7 +5906,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="1">
-        <v>423543380</v>
+        <v>423330913</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>2</v>
@@ -5918,7 +5918,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="1">
-        <v>423626939</v>
+        <v>423355693</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>2</v>
@@ -5930,7 +5930,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="1">
-        <v>423674225</v>
+        <v>423500426</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>2</v>
@@ -5942,7 +5942,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="1">
-        <v>423077068</v>
+        <v>423520833</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>2</v>
@@ -5954,7 +5954,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="1">
-        <v>423274298</v>
+        <v>423168253</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>2</v>
@@ -5966,7 +5966,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="1">
-        <v>423291817</v>
+        <v>423214618</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2</v>
@@ -5978,7 +5978,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="1">
-        <v>423397782</v>
+        <v>423237209</v>
       </c>
       <c r="C462" s="1" t="s">
         <v>2</v>
@@ -5990,7 +5990,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="1">
-        <v>423020222</v>
+        <v>423300354</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>2</v>
@@ -6002,7 +6002,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="1">
-        <v>423079042</v>
+        <v>423383839</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>2</v>
@@ -6014,7 +6014,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="1">
-        <v>423167705</v>
+        <v>423431855</v>
       </c>
       <c r="C465" s="1" t="s">
         <v>2</v>
@@ -6026,7 +6026,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="1">
-        <v>423250570</v>
+        <v>423509345</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>2</v>
@@ -6038,7 +6038,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="1">
-        <v>423267167</v>
+        <v>423073089</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>2</v>
@@ -6050,7 +6050,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="1">
-        <v>423319006</v>
+        <v>423225963</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
@@ -6062,7 +6062,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="1">
-        <v>423412226</v>
+        <v>423411181</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>2</v>
@@ -6074,7 +6074,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="1">
-        <v>423570307</v>
+        <v>423445211</v>
       </c>
       <c r="C470" s="1" t="s">
         <v>2</v>
@@ -6086,7 +6086,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="1">
-        <v>423143110</v>
+        <v>423557628</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>2</v>
@@ -6098,7 +6098,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="1">
-        <v>423220653</v>
+        <v>423569396</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>2</v>
@@ -6110,7 +6110,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="1">
-        <v>423442741</v>
+        <v>423098756</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>2</v>
@@ -6122,7 +6122,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="1">
-        <v>423070583</v>
+        <v>423016637</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>2</v>
@@ -6134,7 +6134,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="1">
-        <v>423075377</v>
+        <v>423047107</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="1">
-        <v>423242443</v>
+        <v>423186333</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>2</v>
@@ -6158,7 +6158,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="1">
-        <v>423318723</v>
+        <v>423303866</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>2</v>
@@ -6170,7 +6170,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="1">
-        <v>423419637</v>
+        <v>423419589</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>2</v>
@@ -6182,7 +6182,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="1">
-        <v>423559876</v>
+        <v>423461944</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>2</v>
@@ -6194,7 +6194,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="1">
-        <v>423567624</v>
+        <v>423486118</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>2</v>
@@ -6206,7 +6206,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="1">
-        <v>423364443</v>
+        <v>423049379</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>2</v>
@@ -6218,7 +6218,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="1">
-        <v>423007884</v>
+        <v>423082085</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>2</v>
@@ -6230,7 +6230,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="1">
-        <v>423057658</v>
+        <v>423299571</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>2</v>
@@ -6242,7 +6242,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1">
-        <v>423090336</v>
+        <v>423487636</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>2</v>
@@ -6254,7 +6254,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="1">
-        <v>423304274</v>
+        <v>423612695</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>2</v>
@@ -6266,7 +6266,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="1">
-        <v>423399676</v>
+        <v>423028771</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>2</v>
@@ -6278,7 +6278,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="1">
-        <v>423513295</v>
+        <v>423214648</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>2</v>
@@ -6290,7 +6290,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="1">
-        <v>423002507</v>
+        <v>423287220</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>2</v>
@@ -6302,7 +6302,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="1">
-        <v>423075670</v>
+        <v>423448240</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>2</v>
@@ -6314,7 +6314,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="1">
-        <v>423097674</v>
+        <v>423595450</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>2</v>
@@ -6326,7 +6326,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="1">
-        <v>423171965</v>
+        <v>423040895</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>2</v>
@@ -6338,7 +6338,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="1">
-        <v>423186795</v>
+        <v>423183151</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>2</v>
@@ -6350,7 +6350,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="1">
-        <v>423558662</v>
+        <v>423149896</v>
       </c>
       <c r="C493" s="1" t="s">
         <v>2</v>
@@ -6362,7 +6362,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="1">
-        <v>423580496</v>
+        <v>423506696</v>
       </c>
       <c r="C494" s="1" t="s">
         <v>2</v>
@@ -6374,7 +6374,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="1">
-        <v>423017615</v>
+        <v>423157299</v>
       </c>
       <c r="C495" s="1" t="s">
         <v>2</v>
@@ -6386,7 +6386,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="1">
-        <v>423331457</v>
+        <v>423293490</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="1">
-        <v>423619522</v>
+        <v>423604730</v>
       </c>
       <c r="C497" s="1" t="s">
         <v>2</v>
@@ -6410,7 +6410,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="1">
-        <v>423121641</v>
+        <v>423212480</v>
       </c>
       <c r="C498" s="1" t="s">
         <v>2</v>
@@ -6422,7 +6422,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="1">
-        <v>423333655</v>
+        <v>423302820</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>2</v>
@@ -6434,7 +6434,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="1">
-        <v>423444148</v>
+        <v>423375030</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="1">
-        <v>423608283</v>
+        <v>423514169</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>2</v>
@@ -6458,7 +6458,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="1">
-        <v>423028188</v>
+        <v>423562528</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>2</v>
@@ -6470,7 +6470,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="1">
-        <v>423127365</v>
+        <v>423081708</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>2</v>
@@ -6482,7 +6482,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="1">
-        <v>423193954</v>
+        <v>423298496</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>2</v>
@@ -6494,7 +6494,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="1">
-        <v>423257956</v>
+        <v>423437162</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>2</v>
@@ -6506,7 +6506,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="1">
-        <v>423509413</v>
+        <v>423605761</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>2</v>
@@ -6518,7 +6518,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="1">
-        <v>423509642</v>
+        <v>423295785</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>2</v>
@@ -6530,7 +6530,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="1">
-        <v>423001376</v>
+        <v>423341700</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>2</v>
@@ -6542,7 +6542,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="1">
-        <v>423228797</v>
+        <v>423593476</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>2</v>
@@ -6553,6 +6553,9 @@
         <f t="shared" si="7"/>
         <v>509</v>
       </c>
+      <c r="B510" s="1">
+        <v>423071867</v>
+      </c>
       <c r="C510" s="1" t="s">
         <v>2</v>
       </c>
@@ -6562,6 +6565,9 @@
         <f t="shared" si="7"/>
         <v>510</v>
       </c>
+      <c r="B511" s="1">
+        <v>423475619</v>
+      </c>
       <c r="C511" s="1" t="s">
         <v>2</v>
       </c>
@@ -6571,6 +6577,9 @@
         <f t="shared" si="7"/>
         <v>511</v>
       </c>
+      <c r="B512" s="1">
+        <v>423513016</v>
+      </c>
       <c r="C512" s="1" t="s">
         <v>2</v>
       </c>
@@ -6580,6 +6589,9 @@
         <f t="shared" si="7"/>
         <v>512</v>
       </c>
+      <c r="B513" s="1">
+        <v>423269384</v>
+      </c>
       <c r="C513" s="1" t="s">
         <v>2</v>
       </c>
@@ -6589,6 +6601,9 @@
         <f t="shared" ref="A514:A577" si="8">+A513+1</f>
         <v>513</v>
       </c>
+      <c r="B514" s="1">
+        <v>423295887</v>
+      </c>
       <c r="C514" s="1" t="s">
         <v>2</v>
       </c>
@@ -6598,7 +6613,9 @@
         <f t="shared" si="8"/>
         <v>514</v>
       </c>
-      <c r="B515"/>
+      <c r="B515">
+        <v>423357407</v>
+      </c>
       <c r="C515" s="1" t="s">
         <v>2</v>
       </c>
@@ -6608,6 +6625,9 @@
         <f t="shared" si="8"/>
         <v>515</v>
       </c>
+      <c r="B516" s="1">
+        <v>423359676</v>
+      </c>
       <c r="C516" s="1" t="s">
         <v>2</v>
       </c>
@@ -6617,6 +6637,9 @@
         <f t="shared" si="8"/>
         <v>516</v>
       </c>
+      <c r="B517" s="1">
+        <v>423489651</v>
+      </c>
       <c r="C517" s="1" t="s">
         <v>2</v>
       </c>
@@ -6626,6 +6649,9 @@
         <f t="shared" si="8"/>
         <v>517</v>
       </c>
+      <c r="B518" s="1">
+        <v>423186244</v>
+      </c>
       <c r="C518" s="1" t="s">
         <v>2</v>
       </c>
@@ -6635,6 +6661,9 @@
         <f t="shared" si="8"/>
         <v>518</v>
       </c>
+      <c r="B519" s="1">
+        <v>423232089</v>
+      </c>
       <c r="C519" s="1" t="s">
         <v>2</v>
       </c>
@@ -6644,6 +6673,9 @@
         <f t="shared" si="8"/>
         <v>519</v>
       </c>
+      <c r="B520" s="1">
+        <v>423490707</v>
+      </c>
       <c r="C520" s="1" t="s">
         <v>2</v>
       </c>
@@ -6653,6 +6685,9 @@
         <f t="shared" si="8"/>
         <v>520</v>
       </c>
+      <c r="B521" s="1">
+        <v>423024191</v>
+      </c>
       <c r="C521" s="1" t="s">
         <v>2</v>
       </c>
@@ -6662,7 +6697,9 @@
         <f t="shared" si="8"/>
         <v>521</v>
       </c>
-      <c r="B522" s="2"/>
+      <c r="B522" s="2">
+        <v>423024217</v>
+      </c>
       <c r="C522" s="1" t="s">
         <v>2</v>
       </c>
@@ -6672,6 +6709,9 @@
         <f t="shared" si="8"/>
         <v>522</v>
       </c>
+      <c r="B523" s="1">
+        <v>423390896</v>
+      </c>
       <c r="C523" s="1" t="s">
         <v>2</v>
       </c>
@@ -6681,6 +6721,9 @@
         <f t="shared" si="8"/>
         <v>523</v>
       </c>
+      <c r="B524" s="1">
+        <v>423478521</v>
+      </c>
       <c r="C524" s="1" t="s">
         <v>2</v>
       </c>
@@ -6690,6 +6733,9 @@
         <f t="shared" si="8"/>
         <v>524</v>
       </c>
+      <c r="B525" s="1">
+        <v>423564410</v>
+      </c>
       <c r="C525" s="1" t="s">
         <v>2</v>
       </c>
@@ -6699,6 +6745,9 @@
         <f t="shared" si="8"/>
         <v>525</v>
       </c>
+      <c r="B526" s="1">
+        <v>423281316</v>
+      </c>
       <c r="C526" s="1" t="s">
         <v>2</v>
       </c>
@@ -6708,6 +6757,9 @@
         <f t="shared" si="8"/>
         <v>526</v>
       </c>
+      <c r="B527" s="1">
+        <v>423148049</v>
+      </c>
       <c r="C527" s="1" t="s">
         <v>2</v>
       </c>
@@ -6717,6 +6769,9 @@
         <f t="shared" si="8"/>
         <v>527</v>
       </c>
+      <c r="B528" s="1">
+        <v>423315512</v>
+      </c>
       <c r="C528" s="1" t="s">
         <v>2</v>
       </c>
@@ -6726,6 +6781,9 @@
         <f t="shared" si="8"/>
         <v>528</v>
       </c>
+      <c r="B529" s="1">
+        <v>423404487</v>
+      </c>
       <c r="C529" s="1" t="s">
         <v>2</v>
       </c>
@@ -6735,6 +6793,9 @@
         <f t="shared" si="8"/>
         <v>529</v>
       </c>
+      <c r="B530" s="1">
+        <v>423064711</v>
+      </c>
       <c r="C530" s="1" t="s">
         <v>2</v>
       </c>
@@ -6744,6 +6805,9 @@
         <f t="shared" si="8"/>
         <v>530</v>
       </c>
+      <c r="B531" s="1">
+        <v>423072221</v>
+      </c>
       <c r="C531" s="1" t="s">
         <v>2</v>
       </c>
@@ -6753,6 +6817,9 @@
         <f t="shared" si="8"/>
         <v>531</v>
       </c>
+      <c r="B532" s="1">
+        <v>423076040</v>
+      </c>
       <c r="C532" s="1" t="s">
         <v>2</v>
       </c>
@@ -6762,6 +6829,9 @@
         <f t="shared" si="8"/>
         <v>532</v>
       </c>
+      <c r="B533" s="1">
+        <v>423194335</v>
+      </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
       </c>
@@ -6771,6 +6841,9 @@
         <f t="shared" si="8"/>
         <v>533</v>
       </c>
+      <c r="B534" s="1">
+        <v>423199766</v>
+      </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
       </c>
@@ -6780,6 +6853,9 @@
         <f t="shared" si="8"/>
         <v>534</v>
       </c>
+      <c r="B535" s="1">
+        <v>423234416</v>
+      </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
       </c>
@@ -6789,6 +6865,9 @@
         <f t="shared" si="8"/>
         <v>535</v>
       </c>
+      <c r="B536" s="1">
+        <v>423410331</v>
+      </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
       </c>
@@ -6798,6 +6877,9 @@
         <f t="shared" si="8"/>
         <v>536</v>
       </c>
+      <c r="B537" s="1">
+        <v>423452920</v>
+      </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
       </c>
@@ -6807,6 +6889,9 @@
         <f t="shared" si="8"/>
         <v>537</v>
       </c>
+      <c r="B538" s="1">
+        <v>423033847</v>
+      </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
       </c>
@@ -6816,6 +6901,9 @@
         <f t="shared" si="8"/>
         <v>538</v>
       </c>
+      <c r="B539" s="1">
+        <v>423052756</v>
+      </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
       </c>
@@ -6825,6 +6913,9 @@
         <f t="shared" si="8"/>
         <v>539</v>
       </c>
+      <c r="B540" s="1">
+        <v>423088589</v>
+      </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
       </c>
@@ -6834,6 +6925,9 @@
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
+      <c r="B541" s="1">
+        <v>423476901</v>
+      </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
       </c>
@@ -6843,6 +6937,9 @@
         <f t="shared" si="8"/>
         <v>541</v>
       </c>
+      <c r="B542" s="1">
+        <v>423507276</v>
+      </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
       </c>
@@ -6852,6 +6949,9 @@
         <f t="shared" si="8"/>
         <v>542</v>
       </c>
+      <c r="B543" s="1">
+        <v>423562896</v>
+      </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
       </c>
@@ -6861,6 +6961,9 @@
         <f t="shared" si="8"/>
         <v>543</v>
       </c>
+      <c r="B544" s="1">
+        <v>423025328</v>
+      </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
       </c>
@@ -6870,6 +6973,9 @@
         <f t="shared" si="8"/>
         <v>544</v>
       </c>
+      <c r="B545" s="1">
+        <v>423419505</v>
+      </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
       </c>
@@ -6879,6 +6985,9 @@
         <f t="shared" si="8"/>
         <v>545</v>
       </c>
+      <c r="B546" s="1">
+        <v>423624321</v>
+      </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
       </c>
@@ -6888,6 +6997,9 @@
         <f t="shared" si="8"/>
         <v>546</v>
       </c>
+      <c r="B547" s="1">
+        <v>423425848</v>
+      </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
       </c>
@@ -6897,6 +7009,9 @@
         <f t="shared" si="8"/>
         <v>547</v>
       </c>
+      <c r="B548" s="1">
+        <v>423012784</v>
+      </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
       </c>
@@ -6906,6 +7021,9 @@
         <f t="shared" si="8"/>
         <v>548</v>
       </c>
+      <c r="B549" s="1">
+        <v>423163172</v>
+      </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
       </c>
@@ -6915,7 +7033,9 @@
         <f t="shared" si="8"/>
         <v>549</v>
       </c>
-      <c r="B550"/>
+      <c r="B550">
+        <v>423166086</v>
+      </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
       </c>
@@ -6925,6 +7045,9 @@
         <f t="shared" si="8"/>
         <v>550</v>
       </c>
+      <c r="B551" s="1">
+        <v>423170460</v>
+      </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
       </c>
@@ -6934,6 +7057,9 @@
         <f t="shared" si="8"/>
         <v>551</v>
       </c>
+      <c r="B552" s="1">
+        <v>423243726</v>
+      </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
       </c>
@@ -6943,6 +7069,9 @@
         <f t="shared" si="8"/>
         <v>552</v>
       </c>
+      <c r="B553" s="1">
+        <v>423356992</v>
+      </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
       </c>
@@ -6952,6 +7081,9 @@
         <f t="shared" si="8"/>
         <v>553</v>
       </c>
+      <c r="B554" s="1">
+        <v>423403519</v>
+      </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
       </c>
@@ -6961,6 +7093,9 @@
         <f t="shared" si="8"/>
         <v>554</v>
       </c>
+      <c r="B555" s="1">
+        <v>423144351</v>
+      </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
       </c>
@@ -6970,6 +7105,9 @@
         <f t="shared" si="8"/>
         <v>555</v>
       </c>
+      <c r="B556" s="1">
+        <v>423382486</v>
+      </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
       </c>
@@ -6979,6 +7117,9 @@
         <f t="shared" si="8"/>
         <v>556</v>
       </c>
+      <c r="B557" s="1">
+        <v>423403666</v>
+      </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
       </c>
@@ -6988,6 +7129,9 @@
         <f t="shared" si="8"/>
         <v>557</v>
       </c>
+      <c r="B558" s="1">
+        <v>423064834</v>
+      </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
       </c>
@@ -6997,6 +7141,9 @@
         <f t="shared" si="8"/>
         <v>558</v>
       </c>
+      <c r="B559" s="1">
+        <v>423454063</v>
+      </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
       </c>
@@ -7006,6 +7153,9 @@
         <f t="shared" si="8"/>
         <v>559</v>
       </c>
+      <c r="B560" s="1">
+        <v>423546164</v>
+      </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
       </c>
@@ -7015,6 +7165,9 @@
         <f t="shared" si="8"/>
         <v>560</v>
       </c>
+      <c r="B561" s="1">
+        <v>423619864</v>
+      </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
       </c>
@@ -7024,6 +7177,9 @@
         <f t="shared" si="8"/>
         <v>561</v>
       </c>
+      <c r="B562" s="1">
+        <v>423315329</v>
+      </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
       </c>
@@ -7033,6 +7189,9 @@
         <f t="shared" si="8"/>
         <v>562</v>
       </c>
+      <c r="B563" s="1">
+        <v>423326580</v>
+      </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
       </c>
@@ -7042,6 +7201,9 @@
         <f t="shared" si="8"/>
         <v>563</v>
       </c>
+      <c r="B564" s="1">
+        <v>423496053</v>
+      </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
       </c>
@@ -7051,6 +7213,9 @@
         <f t="shared" si="8"/>
         <v>564</v>
       </c>
+      <c r="B565" s="1">
+        <v>423500200</v>
+      </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
       </c>
@@ -7060,6 +7225,9 @@
         <f t="shared" si="8"/>
         <v>565</v>
       </c>
+      <c r="B566" s="1">
+        <v>423157414</v>
+      </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
       </c>
@@ -7069,6 +7237,9 @@
         <f t="shared" si="8"/>
         <v>566</v>
       </c>
+      <c r="B567" s="1">
+        <v>423253785</v>
+      </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
       </c>
@@ -7078,6 +7249,9 @@
         <f t="shared" si="8"/>
         <v>567</v>
       </c>
+      <c r="B568" s="1">
+        <v>423298045</v>
+      </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
       </c>
@@ -7087,6 +7261,9 @@
         <f t="shared" si="8"/>
         <v>568</v>
       </c>
+      <c r="B569" s="1">
+        <v>423353515</v>
+      </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
       </c>
@@ -7096,6 +7273,9 @@
         <f t="shared" si="8"/>
         <v>569</v>
       </c>
+      <c r="B570" s="1">
+        <v>423408232</v>
+      </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
       </c>
@@ -7105,6 +7285,9 @@
         <f t="shared" si="8"/>
         <v>570</v>
       </c>
+      <c r="B571" s="1">
+        <v>423434077</v>
+      </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
       </c>
@@ -7114,6 +7297,9 @@
         <f t="shared" si="8"/>
         <v>571</v>
       </c>
+      <c r="B572" s="1">
+        <v>423434515</v>
+      </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
       </c>
@@ -7123,6 +7309,9 @@
         <f t="shared" si="8"/>
         <v>572</v>
       </c>
+      <c r="B573" s="1">
+        <v>423461114</v>
+      </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
       </c>
@@ -7132,6 +7321,9 @@
         <f t="shared" si="8"/>
         <v>573</v>
       </c>
+      <c r="B574" s="1">
+        <v>423556505</v>
+      </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
       </c>
@@ -7141,6 +7333,9 @@
         <f t="shared" si="8"/>
         <v>574</v>
       </c>
+      <c r="B575" s="1">
+        <v>423600860</v>
+      </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
       </c>
@@ -7150,6 +7345,9 @@
         <f t="shared" si="8"/>
         <v>575</v>
       </c>
+      <c r="B576" s="1">
+        <v>423379820</v>
+      </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
       </c>
@@ -7159,6 +7357,9 @@
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
+      <c r="B577" s="1">
+        <v>423419892</v>
+      </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
       </c>
@@ -7168,6 +7369,9 @@
         <f t="shared" ref="A578:A641" si="9">+A577+1</f>
         <v>577</v>
       </c>
+      <c r="B578" s="1">
+        <v>423433920</v>
+      </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
       </c>
@@ -7177,6 +7381,9 @@
         <f t="shared" si="9"/>
         <v>578</v>
       </c>
+      <c r="B579" s="1">
+        <v>423014184</v>
+      </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
       </c>
@@ -7186,6 +7393,9 @@
         <f t="shared" si="9"/>
         <v>579</v>
       </c>
+      <c r="B580" s="1">
+        <v>423035766</v>
+      </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
       </c>
@@ -7195,6 +7405,9 @@
         <f t="shared" si="9"/>
         <v>580</v>
       </c>
+      <c r="B581" s="1">
+        <v>423050092</v>
+      </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
       </c>
@@ -7204,6 +7417,9 @@
         <f t="shared" si="9"/>
         <v>581</v>
       </c>
+      <c r="B582" s="1">
+        <v>423118615</v>
+      </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
       </c>
@@ -7213,6 +7429,9 @@
         <f t="shared" si="9"/>
         <v>582</v>
       </c>
+      <c r="B583" s="1">
+        <v>423393853</v>
+      </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
       </c>
@@ -7222,6 +7441,9 @@
         <f t="shared" si="9"/>
         <v>583</v>
       </c>
+      <c r="B584" s="1">
+        <v>423595723</v>
+      </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
       </c>
@@ -7231,6 +7453,9 @@
         <f t="shared" si="9"/>
         <v>584</v>
       </c>
+      <c r="B585" s="1">
+        <v>423017459</v>
+      </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
       </c>
@@ -7240,6 +7465,9 @@
         <f t="shared" si="9"/>
         <v>585</v>
       </c>
+      <c r="B586" s="1">
+        <v>423345334</v>
+      </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
       </c>
@@ -7249,6 +7477,9 @@
         <f t="shared" si="9"/>
         <v>586</v>
       </c>
+      <c r="B587" s="1">
+        <v>423616686</v>
+      </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
       </c>
@@ -7258,6 +7489,9 @@
         <f t="shared" si="9"/>
         <v>587</v>
       </c>
+      <c r="B588" s="1">
+        <v>423037207</v>
+      </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
       </c>
@@ -7267,6 +7501,9 @@
         <f t="shared" si="9"/>
         <v>588</v>
       </c>
+      <c r="B589" s="1">
+        <v>423292697</v>
+      </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
       </c>
@@ -7276,6 +7513,9 @@
         <f t="shared" si="9"/>
         <v>589</v>
       </c>
+      <c r="B590" s="1">
+        <v>423375534</v>
+      </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
       </c>
@@ -7285,6 +7525,9 @@
         <f t="shared" si="9"/>
         <v>590</v>
       </c>
+      <c r="B591" s="1">
+        <v>423410246</v>
+      </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
       </c>
@@ -7294,6 +7537,9 @@
         <f t="shared" si="9"/>
         <v>591</v>
       </c>
+      <c r="B592" s="1">
+        <v>423224212</v>
+      </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
       </c>
@@ -7303,6 +7549,9 @@
         <f t="shared" si="9"/>
         <v>592</v>
       </c>
+      <c r="B593" s="1">
+        <v>423363454</v>
+      </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
       </c>
@@ -7312,6 +7561,9 @@
         <f t="shared" si="9"/>
         <v>593</v>
       </c>
+      <c r="B594" s="1">
+        <v>423538870</v>
+      </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
       </c>
@@ -7321,6 +7573,9 @@
         <f t="shared" si="9"/>
         <v>594</v>
       </c>
+      <c r="B595" s="1">
+        <v>423543380</v>
+      </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
       </c>
@@ -7330,6 +7585,9 @@
         <f t="shared" si="9"/>
         <v>595</v>
       </c>
+      <c r="B596" s="1">
+        <v>423626939</v>
+      </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
       </c>
@@ -7339,6 +7597,9 @@
         <f t="shared" si="9"/>
         <v>596</v>
       </c>
+      <c r="B597" s="1">
+        <v>423674225</v>
+      </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
       </c>
@@ -7348,6 +7609,9 @@
         <f t="shared" si="9"/>
         <v>597</v>
       </c>
+      <c r="B598" s="1">
+        <v>423077068</v>
+      </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
       </c>
@@ -7357,6 +7621,9 @@
         <f t="shared" si="9"/>
         <v>598</v>
       </c>
+      <c r="B599" s="1">
+        <v>423274298</v>
+      </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
       </c>
@@ -7366,6 +7633,9 @@
         <f t="shared" si="9"/>
         <v>599</v>
       </c>
+      <c r="B600" s="1">
+        <v>423288303</v>
+      </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
       </c>
@@ -7375,6 +7645,9 @@
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
+      <c r="B601" s="1">
+        <v>423291817</v>
+      </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
       </c>
@@ -7384,6 +7657,9 @@
         <f t="shared" si="9"/>
         <v>601</v>
       </c>
+      <c r="B602" s="1">
+        <v>423397782</v>
+      </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
       </c>
@@ -7393,6 +7669,9 @@
         <f t="shared" si="9"/>
         <v>602</v>
       </c>
+      <c r="B603" s="1">
+        <v>423020222</v>
+      </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
       </c>
@@ -7402,6 +7681,9 @@
         <f t="shared" si="9"/>
         <v>603</v>
       </c>
+      <c r="B604" s="1">
+        <v>423072898</v>
+      </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
       </c>
@@ -7411,6 +7693,9 @@
         <f t="shared" si="9"/>
         <v>604</v>
       </c>
+      <c r="B605" s="1">
+        <v>423079042</v>
+      </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
       </c>
@@ -7420,6 +7705,9 @@
         <f t="shared" si="9"/>
         <v>605</v>
       </c>
+      <c r="B606" s="1">
+        <v>423167705</v>
+      </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
       </c>
@@ -7429,6 +7717,9 @@
         <f t="shared" si="9"/>
         <v>606</v>
       </c>
+      <c r="B607" s="1">
+        <v>423250570</v>
+      </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
       </c>
@@ -7438,6 +7729,9 @@
         <f t="shared" si="9"/>
         <v>607</v>
       </c>
+      <c r="B608" s="1">
+        <v>423267167</v>
+      </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
       </c>
@@ -7447,6 +7741,9 @@
         <f t="shared" si="9"/>
         <v>608</v>
       </c>
+      <c r="B609" s="1">
+        <v>423319006</v>
+      </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
       </c>
@@ -7456,6 +7753,9 @@
         <f t="shared" si="9"/>
         <v>609</v>
       </c>
+      <c r="B610" s="1">
+        <v>423412226</v>
+      </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
       </c>
@@ -7465,6 +7765,9 @@
         <f t="shared" si="9"/>
         <v>610</v>
       </c>
+      <c r="B611" s="1">
+        <v>423570307</v>
+      </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
       </c>
@@ -7474,6 +7777,9 @@
         <f t="shared" si="9"/>
         <v>611</v>
       </c>
+      <c r="B612" s="1">
+        <v>423670331</v>
+      </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
       </c>
@@ -7483,6 +7789,9 @@
         <f t="shared" si="9"/>
         <v>612</v>
       </c>
+      <c r="B613" s="1">
+        <v>423132642</v>
+      </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
       </c>
@@ -7492,6 +7801,9 @@
         <f t="shared" si="9"/>
         <v>613</v>
       </c>
+      <c r="B614" s="1">
+        <v>423143110</v>
+      </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
       </c>
@@ -7501,6 +7813,9 @@
         <f t="shared" si="9"/>
         <v>614</v>
       </c>
+      <c r="B615" s="1">
+        <v>423174874</v>
+      </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
       </c>
@@ -7510,6 +7825,9 @@
         <f t="shared" si="9"/>
         <v>615</v>
       </c>
+      <c r="B616" s="1">
+        <v>423220653</v>
+      </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
       </c>
@@ -7519,6 +7837,9 @@
         <f t="shared" si="9"/>
         <v>616</v>
       </c>
+      <c r="B617" s="1">
+        <v>423442741</v>
+      </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
       </c>
@@ -7528,6 +7849,9 @@
         <f t="shared" si="9"/>
         <v>617</v>
       </c>
+      <c r="B618" s="1">
+        <v>423070583</v>
+      </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
       </c>
@@ -7537,6 +7861,9 @@
         <f t="shared" si="9"/>
         <v>618</v>
       </c>
+      <c r="B619" s="1">
+        <v>423075377</v>
+      </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
       </c>
@@ -7546,6 +7873,9 @@
         <f t="shared" si="9"/>
         <v>619</v>
       </c>
+      <c r="B620" s="1">
+        <v>423242443</v>
+      </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
       </c>
@@ -7555,6 +7885,9 @@
         <f t="shared" si="9"/>
         <v>620</v>
       </c>
+      <c r="B621" s="1">
+        <v>423318723</v>
+      </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
       </c>
@@ -7564,6 +7897,9 @@
         <f t="shared" si="9"/>
         <v>621</v>
       </c>
+      <c r="B622" s="1">
+        <v>423419637</v>
+      </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
       </c>
@@ -7573,6 +7909,9 @@
         <f t="shared" si="9"/>
         <v>622</v>
       </c>
+      <c r="B623" s="1">
+        <v>423513009</v>
+      </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
       </c>
@@ -7582,6 +7921,9 @@
         <f t="shared" si="9"/>
         <v>623</v>
       </c>
+      <c r="B624" s="1">
+        <v>423559876</v>
+      </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
       </c>
@@ -7591,6 +7933,9 @@
         <f t="shared" si="9"/>
         <v>624</v>
       </c>
+      <c r="B625" s="1">
+        <v>423567624</v>
+      </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
       </c>
@@ -7600,6 +7945,9 @@
         <f t="shared" si="9"/>
         <v>625</v>
       </c>
+      <c r="B626" s="1">
+        <v>423364443</v>
+      </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
       </c>
@@ -7609,6 +7957,9 @@
         <f t="shared" si="9"/>
         <v>626</v>
       </c>
+      <c r="B627" s="1">
+        <v>423007884</v>
+      </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
       </c>
@@ -7618,6 +7969,9 @@
         <f t="shared" si="9"/>
         <v>627</v>
       </c>
+      <c r="B628" s="1">
+        <v>423057658</v>
+      </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
       </c>
@@ -7627,6 +7981,9 @@
         <f t="shared" si="9"/>
         <v>628</v>
       </c>
+      <c r="B629" s="1">
+        <v>423090336</v>
+      </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
       </c>
@@ -7636,6 +7993,9 @@
         <f t="shared" si="9"/>
         <v>629</v>
       </c>
+      <c r="B630" s="1">
+        <v>423141320</v>
+      </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
       </c>
@@ -7645,6 +8005,9 @@
         <f t="shared" si="9"/>
         <v>630</v>
       </c>
+      <c r="B631" s="1">
+        <v>423304274</v>
+      </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
       </c>
@@ -7654,6 +8017,9 @@
         <f t="shared" si="9"/>
         <v>631</v>
       </c>
+      <c r="B632" s="1">
+        <v>423399676</v>
+      </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
       </c>
@@ -7663,6 +8029,9 @@
         <f t="shared" si="9"/>
         <v>632</v>
       </c>
+      <c r="B633" s="1">
+        <v>423513295</v>
+      </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
       </c>
@@ -7672,6 +8041,9 @@
         <f t="shared" si="9"/>
         <v>633</v>
       </c>
+      <c r="B634" s="1">
+        <v>423002507</v>
+      </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
       </c>
@@ -7681,6 +8053,9 @@
         <f t="shared" si="9"/>
         <v>634</v>
       </c>
+      <c r="B635" s="1">
+        <v>423075670</v>
+      </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
       </c>
@@ -7690,6 +8065,9 @@
         <f t="shared" si="9"/>
         <v>635</v>
       </c>
+      <c r="B636" s="1">
+        <v>423097674</v>
+      </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
       </c>
@@ -7699,6 +8077,9 @@
         <f t="shared" si="9"/>
         <v>636</v>
       </c>
+      <c r="B637" s="1">
+        <v>423171965</v>
+      </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
       </c>
@@ -7708,6 +8089,9 @@
         <f t="shared" si="9"/>
         <v>637</v>
       </c>
+      <c r="B638" s="1">
+        <v>423186795</v>
+      </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
       </c>
@@ -7717,6 +8101,9 @@
         <f t="shared" si="9"/>
         <v>638</v>
       </c>
+      <c r="B639" s="1">
+        <v>423218583</v>
+      </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
       </c>
@@ -7726,6 +8113,9 @@
         <f t="shared" si="9"/>
         <v>639</v>
       </c>
+      <c r="B640" s="1">
+        <v>423558662</v>
+      </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
       </c>
@@ -7735,6 +8125,9 @@
         <f t="shared" si="9"/>
         <v>640</v>
       </c>
+      <c r="B641" s="1">
+        <v>423580496</v>
+      </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
       </c>
@@ -7744,6 +8137,9 @@
         <f t="shared" ref="A642:A705" si="10">+A641+1</f>
         <v>641</v>
       </c>
+      <c r="B642" s="1">
+        <v>423017615</v>
+      </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
       </c>
@@ -7753,6 +8149,9 @@
         <f t="shared" si="10"/>
         <v>642</v>
       </c>
+      <c r="B643" s="1">
+        <v>423331457</v>
+      </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
       </c>
@@ -7762,6 +8161,9 @@
         <f t="shared" si="10"/>
         <v>643</v>
       </c>
+      <c r="B644" s="1">
+        <v>423344681</v>
+      </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
       </c>
@@ -7771,6 +8173,9 @@
         <f t="shared" si="10"/>
         <v>644</v>
       </c>
+      <c r="B645" s="1">
+        <v>423619522</v>
+      </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
       </c>
@@ -7780,6 +8185,9 @@
         <f t="shared" si="10"/>
         <v>645</v>
       </c>
+      <c r="B646" s="1">
+        <v>423121641</v>
+      </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
       </c>
@@ -7789,6 +8197,9 @@
         <f t="shared" si="10"/>
         <v>646</v>
       </c>
+      <c r="B647" s="1">
+        <v>423333655</v>
+      </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
       </c>
@@ -7798,6 +8209,9 @@
         <f t="shared" si="10"/>
         <v>647</v>
       </c>
+      <c r="B648" s="1">
+        <v>423444148</v>
+      </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
       </c>
@@ -7807,6 +8221,9 @@
         <f t="shared" si="10"/>
         <v>648</v>
       </c>
+      <c r="B649" s="1">
+        <v>423608283</v>
+      </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
       </c>
@@ -7816,6 +8233,9 @@
         <f t="shared" si="10"/>
         <v>649</v>
       </c>
+      <c r="B650" s="1">
+        <v>423028188</v>
+      </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
       </c>
@@ -7825,6 +8245,9 @@
         <f t="shared" si="10"/>
         <v>650</v>
       </c>
+      <c r="B651" s="1">
+        <v>423127365</v>
+      </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
       </c>
@@ -7834,6 +8257,9 @@
         <f t="shared" si="10"/>
         <v>651</v>
       </c>
+      <c r="B652" s="1">
+        <v>423193954</v>
+      </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
       </c>
@@ -7843,6 +8269,9 @@
         <f t="shared" si="10"/>
         <v>652</v>
       </c>
+      <c r="B653" s="1">
+        <v>423195862</v>
+      </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
       </c>
@@ -7852,6 +8281,9 @@
         <f t="shared" si="10"/>
         <v>653</v>
       </c>
+      <c r="B654" s="1">
+        <v>423257956</v>
+      </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
       </c>
@@ -7861,6 +8293,9 @@
         <f t="shared" si="10"/>
         <v>654</v>
       </c>
+      <c r="B655" s="1">
+        <v>423336917</v>
+      </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
       </c>
@@ -7870,6 +8305,9 @@
         <f t="shared" si="10"/>
         <v>655</v>
       </c>
+      <c r="B656" s="1">
+        <v>423473253</v>
+      </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
       </c>
@@ -7879,6 +8317,9 @@
         <f t="shared" si="10"/>
         <v>656</v>
       </c>
+      <c r="B657" s="1">
+        <v>423509413</v>
+      </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
       </c>
@@ -7888,6 +8329,9 @@
         <f t="shared" si="10"/>
         <v>657</v>
       </c>
+      <c r="B658" s="1">
+        <v>423509642</v>
+      </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
       </c>
@@ -7897,6 +8341,9 @@
         <f t="shared" si="10"/>
         <v>658</v>
       </c>
+      <c r="B659" s="1">
+        <v>423001376</v>
+      </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
       </c>
@@ -7905,6 +8352,9 @@
       <c r="A660" s="1">
         <f t="shared" si="10"/>
         <v>659</v>
+      </c>
+      <c r="B660" s="1">
+        <v>423228797</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>2</v>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF906E-DFA6-4A9D-A1A4-6B46CF8FDC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE005DCC-11C7-4BF4-A1FD-7CDBA68AB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19847,8 +19847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>423002006</v>
+        <v>423141147</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>423599787</v>
+        <v>423207166</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -19883,7 +19883,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>423316724</v>
+        <v>423390329</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -19891,383 +19891,590 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>423598827</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>423572262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>423025267</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>423640397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>423005662</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>423360147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>423227765</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>423002006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>423599787</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>423613722</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>423205192</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>423083556</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>423508077</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>423511490</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>423594582</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>423016364</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>423337249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>423479535</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>423091775</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>423177554</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>423316724</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>423663350</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>423448781</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>423397241</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>423045505</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>423233902</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>423414974</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>423074896</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>423402236</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>423484649</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>423527884</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>423490450</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>423243429</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>423293793</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>423586345</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>423384896</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>423572241</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>423302739</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>423189447</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>423204287</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>423448240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>423607832</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>423115697</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>423147277</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>423205573</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>423598980</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>423476901</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>423419505</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>423425848</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>423356992</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>423546164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>423408232</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>423458632</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>423379820</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>423419892</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>423014184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>423081098</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>423294836</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>423224212</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>423079042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>423174874</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>423220653</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>423318723</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>423090336</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>423218583</v>
+      </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>423580496</v>
+      </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>423649375</v>
+      </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>423328919</v>
+      </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>423003579</v>
+      </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>423042695</v>
+      </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE005DCC-11C7-4BF4-A1FD-7CDBA68AB7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98771A74-3445-4726-80A9-31D10DBB7F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19847,8 +19847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A171734F-300B-437F-BAE5-46845BE7C47A}">
   <dimension ref="A1:B1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>423141147</v>
+        <v>423413976</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>423207166</v>
+        <v>423396845</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -19883,7 +19883,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>423390329</v>
+        <v>423204084</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -19891,7 +19891,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>423598827</v>
+        <v>423634843</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>423572262</v>
+        <v>423141147</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>423025267</v>
+        <v>423156961</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>423640397</v>
+        <v>423683938</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -19923,7 +19923,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>423005662</v>
+        <v>423207166</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -19931,7 +19931,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>423360147</v>
+        <v>423390329</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>423227765</v>
+        <v>423488536</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>423002006</v>
+        <v>423598827</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -19955,7 +19955,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>423599787</v>
+        <v>423460458</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>423613722</v>
+        <v>423572262</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -19971,7 +19971,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>423205192</v>
+        <v>423031487</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>423083556</v>
+        <v>423217746</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>423508077</v>
+        <v>423239379</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>423511490</v>
+        <v>423025267</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -20003,7 +20003,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>423594582</v>
+        <v>423154977</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -20011,7 +20011,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>423016364</v>
+        <v>423615028</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>423337249</v>
+        <v>423640397</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>423479535</v>
+        <v>423386864</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -20035,7 +20035,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>423091775</v>
+        <v>423005662</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -20043,7 +20043,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>423177554</v>
+        <v>423031309</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>423316724</v>
+        <v>423477662</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>423663350</v>
+        <v>423360147</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>423448781</v>
+        <v>423440016</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>423397241</v>
+        <v>423227765</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -20083,7 +20083,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>423045505</v>
+        <v>423595960</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>423233902</v>
+        <v>423227418</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>423414974</v>
+        <v>423153738</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -20107,7 +20107,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>423074896</v>
+        <v>423002006</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -20115,7 +20115,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>423402236</v>
+        <v>423318970</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -20123,7 +20123,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>423484649</v>
+        <v>423599787</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>423527884</v>
+        <v>423610420</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>423490450</v>
+        <v>423613722</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>423243429</v>
+        <v>423281965</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>423293793</v>
+        <v>423344860</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>423586345</v>
+        <v>423205192</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -20171,7 +20171,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>423384896</v>
+        <v>423083556</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>423572241</v>
+        <v>423508077</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -20187,7 +20187,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>423302739</v>
+        <v>423511490</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>423189447</v>
+        <v>423513293</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>423204287</v>
+        <v>423594582</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>423448240</v>
+        <v>423011947</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>423607832</v>
+        <v>423016364</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>423115697</v>
+        <v>423171824</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>423147277</v>
+        <v>423276097</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>423205573</v>
+        <v>423337249</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>423598980</v>
+        <v>423408407</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -20259,7 +20259,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>423476901</v>
+        <v>423609372</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>423419505</v>
+        <v>423021439</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -20275,7 +20275,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>423425848</v>
+        <v>423338752</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -20283,7 +20283,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>423356992</v>
+        <v>423514958</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -20291,7 +20291,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>423546164</v>
+        <v>423479535</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>423408232</v>
+        <v>423091775</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>423458632</v>
+        <v>423177554</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>423379820</v>
+        <v>423316724</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -20323,7 +20323,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>423419892</v>
+        <v>423663350</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>423014184</v>
+        <v>423381619</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -20339,7 +20339,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>423081098</v>
+        <v>423448781</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -20347,7 +20347,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>423294836</v>
+        <v>423397241</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>423224212</v>
+        <v>423666981</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>423079042</v>
+        <v>423045505</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -20371,7 +20371,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>423174874</v>
+        <v>423233902</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -20379,7 +20379,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>423220653</v>
+        <v>423414974</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -20387,7 +20387,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>423318723</v>
+        <v>423688737</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>423090336</v>
+        <v>423074896</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>423218583</v>
+        <v>423365017</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>423580496</v>
+        <v>423450358</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>423649375</v>
+        <v>423290074</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -20427,7 +20427,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>423328919</v>
+        <v>423445028</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -20435,7 +20435,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>423003579</v>
+        <v>423477583</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -20443,518 +20443,815 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
+        <v>423151483</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>423461184</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>423402236</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>423220208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>423430061</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>423481191</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>423484649</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>423527884</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>423550867</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>423490450</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>423160096</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>423243429</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>423293793</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>423299226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>423347679</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>423531305</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>423342347</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>423586345</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>423384896</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>423583373</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>423572241</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>423111038</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>423123240</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>423301726</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>423117857</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>423406272</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>423411419</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>423441467</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>423302739</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>423114145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>423287828</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>423189447</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>423204287</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>423079060</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>423225963</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>423430429</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>423041658</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>423448240</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>423607832</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>423040895</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>423115697</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>423183151</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>423147277</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>423149896</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>423205573</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>423293490</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>423598980</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>423344443</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>423002087</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>423530966</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>423564410</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>423637051</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>423315512</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>423476901</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>423562896</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>423419505</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>423425848</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>423163172</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>423356992</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>423454063</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>423546164</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>423119455</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>423437030</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>423408232</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>423434077</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>423458632</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>423461114</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>423194501</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>423379820</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>423419892</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>423014184</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>423050092</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>423081098</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>423294836</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>423181933</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>423224212</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>423288303</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>423079042</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>423167705</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>423268794</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>423132642</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>423174874</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>423220653</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>423318723</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>423324805</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>423402522</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>423057658</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>423090336</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>423489226</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>423171965</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>423218583</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>423580496</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>423649375</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>423328919</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>423003579</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>423028188</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
         <v>423042695</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>423127365</v>
+      </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>423257956</v>
+      </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>423403295</v>
+      </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98771A74-3445-4726-80A9-31D10DBB7F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2474E-835A-44DA-AB32-5AAD0C38B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19848,7 +19848,7 @@
   <dimension ref="A1:B1636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>423396845</v>
+        <v>423362905</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -19883,7 +19883,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>423204084</v>
+        <v>423396845</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -19891,7 +19891,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>423634843</v>
+        <v>423204084</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>423141147</v>
+        <v>423634843</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>423156961</v>
+        <v>423141147</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>423683938</v>
+        <v>423320262</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -19923,7 +19923,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>423207166</v>
+        <v>423156961</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -19931,7 +19931,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>423390329</v>
+        <v>423683938</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>423488536</v>
+        <v>423565556</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>423598827</v>
+        <v>423207166</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -19955,7 +19955,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>423460458</v>
+        <v>423220760</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>423572262</v>
+        <v>423390329</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -19971,7 +19971,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>423031487</v>
+        <v>423488536</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>423217746</v>
+        <v>423598827</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>423239379</v>
+        <v>423149484</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>423025267</v>
+        <v>423194018</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -20003,7 +20003,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>423154977</v>
+        <v>423460458</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -20011,7 +20011,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>423615028</v>
+        <v>423524997</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>423640397</v>
+        <v>423572262</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>423386864</v>
+        <v>423581462</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -20035,7 +20035,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>423005662</v>
+        <v>423031487</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -20043,7 +20043,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>423031309</v>
+        <v>423079852</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>423477662</v>
+        <v>423217746</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>423360147</v>
+        <v>423239379</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>423440016</v>
+        <v>423025267</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>423227765</v>
+        <v>423154977</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -20083,7 +20083,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>423595960</v>
+        <v>423615028</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>423227418</v>
+        <v>423640397</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>423153738</v>
+        <v>423359895</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -20107,7 +20107,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>423002006</v>
+        <v>423386864</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -20115,7 +20115,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>423318970</v>
+        <v>423005662</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -20123,7 +20123,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>423599787</v>
+        <v>423031309</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>423610420</v>
+        <v>423477662</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>423613722</v>
+        <v>423640754</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>423281965</v>
+        <v>423133536</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>423344860</v>
+        <v>423154149</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>423205192</v>
+        <v>423360147</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -20171,7 +20171,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>423083556</v>
+        <v>423440016</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>423508077</v>
+        <v>423227765</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -20187,7 +20187,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>423511490</v>
+        <v>423595960</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>423513293</v>
+        <v>423227418</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>423594582</v>
+        <v>423153738</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>423011947</v>
+        <v>423002006</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>423016364</v>
+        <v>423039523</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>423171824</v>
+        <v>423318970</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>423276097</v>
+        <v>423599787</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>423337249</v>
+        <v>423610420</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>423408407</v>
+        <v>423613722</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -20259,7 +20259,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>423609372</v>
+        <v>423281965</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>423021439</v>
+        <v>423344860</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -20275,7 +20275,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>423338752</v>
+        <v>423205192</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -20283,7 +20283,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>423514958</v>
+        <v>423233244</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -20291,7 +20291,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>423479535</v>
+        <v>423013110</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>423091775</v>
+        <v>423083556</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>423177554</v>
+        <v>423211149</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>423316724</v>
+        <v>423218867</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -20323,7 +20323,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>423663350</v>
+        <v>423442603</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>423381619</v>
+        <v>423508077</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -20339,7 +20339,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>423448781</v>
+        <v>423511490</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -20347,7 +20347,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>423397241</v>
+        <v>423513293</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>423666981</v>
+        <v>423594582</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>423045505</v>
+        <v>423011947</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -20371,7 +20371,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>423233902</v>
+        <v>423016364</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -20379,7 +20379,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>423414974</v>
+        <v>423171824</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -20387,7 +20387,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>423688737</v>
+        <v>423276097</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>423074896</v>
+        <v>423337249</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>423365017</v>
+        <v>423366855</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>423450358</v>
+        <v>423408407</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>423290074</v>
+        <v>423422117</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -20427,7 +20427,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>423445028</v>
+        <v>423452836</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -20435,7 +20435,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>423477583</v>
+        <v>423572820</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -20443,7 +20443,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>423151483</v>
+        <v>423609372</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -20451,7 +20451,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>423461184</v>
+        <v>423021439</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -20459,7 +20459,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>423402236</v>
+        <v>423071525</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>423220208</v>
+        <v>423338752</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -20475,7 +20475,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>423430061</v>
+        <v>423514958</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>423481191</v>
+        <v>423398810</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>423484649</v>
+        <v>423479535</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>423527884</v>
+        <v>423297731</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -20507,7 +20507,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>423550867</v>
+        <v>423386882</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -20515,7 +20515,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>423490450</v>
+        <v>423091775</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>423160096</v>
+        <v>423152226</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -20531,7 +20531,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>423243429</v>
+        <v>423177554</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>423293793</v>
+        <v>423316724</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -20547,7 +20547,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>423299226</v>
+        <v>423390787</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>423347679</v>
+        <v>423630202</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -20563,7 +20563,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>423531305</v>
+        <v>423663350</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>423342347</v>
+        <v>423310938</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>423586345</v>
+        <v>423381619</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>423384896</v>
+        <v>423448781</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -20595,7 +20595,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>423583373</v>
+        <v>423689371</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>423572241</v>
+        <v>423397241</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -20611,7 +20611,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>423111038</v>
+        <v>423666981</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -20619,7 +20619,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>423123240</v>
+        <v>423045505</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -20627,7 +20627,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>423301726</v>
+        <v>423233902</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -20635,7 +20635,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>423117857</v>
+        <v>423414974</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -20643,7 +20643,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>423406272</v>
+        <v>423688737</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>423411419</v>
+        <v>423074896</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -20659,7 +20659,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>423441467</v>
+        <v>423365017</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>423302739</v>
+        <v>423450358</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -20675,7 +20675,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>423114145</v>
+        <v>423211663</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -20683,7 +20683,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>423287828</v>
+        <v>423290074</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>423189447</v>
+        <v>423445028</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>423204287</v>
+        <v>423477583</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -20707,7 +20707,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>423079060</v>
+        <v>423085597</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>423225963</v>
+        <v>423151483</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -20723,7 +20723,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>423430429</v>
+        <v>423391365</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -20731,7 +20731,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>423041658</v>
+        <v>423461184</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -20739,7 +20739,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>423448240</v>
+        <v>423402236</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -20747,7 +20747,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>423607832</v>
+        <v>423560719</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -20755,7 +20755,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>423040895</v>
+        <v>423220208</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -20763,7 +20763,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>423115697</v>
+        <v>423430061</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -20771,7 +20771,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>423183151</v>
+        <v>423591718</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>423147277</v>
+        <v>423185778</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -20787,7 +20787,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>423149896</v>
+        <v>423481191</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -20795,7 +20795,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>423205573</v>
+        <v>423484649</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -20803,7 +20803,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>423293490</v>
+        <v>423527884</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -20811,7 +20811,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>423598980</v>
+        <v>423156991</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -20819,7 +20819,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>423344443</v>
+        <v>423218881</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -20827,7 +20827,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>423002087</v>
+        <v>423550867</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>423530966</v>
+        <v>423490450</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -20843,7 +20843,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>423564410</v>
+        <v>423160096</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -20851,7 +20851,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>423637051</v>
+        <v>423243429</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -20859,7 +20859,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>423315512</v>
+        <v>423384323</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>423476901</v>
+        <v>423293793</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -20875,7 +20875,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>423562896</v>
+        <v>423299226</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -20883,7 +20883,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>423419505</v>
+        <v>423347679</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -20891,7 +20891,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>423425848</v>
+        <v>423531305</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -20899,7 +20899,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>423163172</v>
+        <v>423223579</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>423356992</v>
+        <v>423076236</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -20915,7 +20915,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>423454063</v>
+        <v>423342347</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -20923,7 +20923,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>423546164</v>
+        <v>423586345</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -20931,7 +20931,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>423119455</v>
+        <v>423028443</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -20939,7 +20939,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>423437030</v>
+        <v>423384896</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -20947,7 +20947,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>423408232</v>
+        <v>423583373</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>423434077</v>
+        <v>423063317</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>423458632</v>
+        <v>423564238</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>423461114</v>
+        <v>423439444</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -20979,7 +20979,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>423194501</v>
+        <v>423572241</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>423379820</v>
+        <v>423111038</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -20995,7 +20995,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>423419892</v>
+        <v>423114487</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -21003,7 +21003,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>423014184</v>
+        <v>423123240</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>423050092</v>
+        <v>423301726</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -21019,7 +21019,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>423081098</v>
+        <v>423117857</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -21027,7 +21027,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>423294836</v>
+        <v>423406272</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -21035,7 +21035,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>423181933</v>
+        <v>423386260</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>423224212</v>
+        <v>423411419</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -21051,7 +21051,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>423288303</v>
+        <v>423041379</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>423079042</v>
+        <v>423441467</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>423167705</v>
+        <v>423302739</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -21075,7 +21075,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>423268794</v>
+        <v>423114145</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>423132642</v>
+        <v>423287828</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -21091,7 +21091,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>423174874</v>
+        <v>423189447</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -21099,7 +21099,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>423220653</v>
+        <v>423204287</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -21107,7 +21107,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>423318723</v>
+        <v>423079060</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>423324805</v>
+        <v>423147503</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -21123,7 +21123,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>423402522</v>
+        <v>423225963</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>423057658</v>
+        <v>423430429</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>423090336</v>
+        <v>423041658</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -21147,7 +21147,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>423489226</v>
+        <v>423448240</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -21155,7 +21155,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>423171965</v>
+        <v>423607832</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -21163,7 +21163,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>423218583</v>
+        <v>423040895</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>423580496</v>
+        <v>423115697</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>423649375</v>
+        <v>423183151</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -21187,7 +21187,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>423328919</v>
+        <v>423147277</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>423003579</v>
+        <v>423149896</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -21203,7 +21203,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>423028188</v>
+        <v>423205573</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -21211,7 +21211,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>423042695</v>
+        <v>423293490</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>423127365</v>
+        <v>423598980</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -21227,7 +21227,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>423257956</v>
+        <v>423344443</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -21235,343 +21235,541 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
+        <v>423489651</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>423232089</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>423572579</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>423002087</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>423530966</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>423564410</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>423637051</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>423315512</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>423476901</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>423562896</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>423419505</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>423425848</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>423163172</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>423337919</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>423356992</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>423454063</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>423546164</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>423119367</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>423119455</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>423437030</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>423408232</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>423434077</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>423458632</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>423461114</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>423194501</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>423379820</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>423419892</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>423014184</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>423050092</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>423081098</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>423294836</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>423181933</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>423217702</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>423224212</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>423333919</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>423538870</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>423274298</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>423288303</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>423397782</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>423079042</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>423167705</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>423268794</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>423412226</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>423670331</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>423132642</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>423174874</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>423220653</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>423318723</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>423324805</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>423402522</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>423057658</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>423090336</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>423489226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>423002507</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>423075670</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>423171965</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>423218583</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>423580496</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>423649375</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>423328919</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>423003579</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>423028188</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>423042695</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>423127365</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>423257956</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
         <v>423403295</v>
       </c>
-      <c r="B173" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>423214931</v>
+      </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2474E-835A-44DA-AB32-5AAD0C38B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C69DA9-44DF-4036-9352-95444081630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19848,7 +19848,7 @@
   <dimension ref="A1:B1636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19883,7 +19883,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>423396845</v>
+        <v>423475577</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -19891,7 +19891,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>423204084</v>
+        <v>423396845</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>423634843</v>
+        <v>423204084</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>423141147</v>
+        <v>423634843</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>423320262</v>
+        <v>423141147</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -19923,7 +19923,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>423156961</v>
+        <v>423320262</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -19931,7 +19931,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>423683938</v>
+        <v>423414907</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>423565556</v>
+        <v>423156961</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>423207166</v>
+        <v>423683938</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -19955,7 +19955,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>423220760</v>
+        <v>423003434</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>423390329</v>
+        <v>423565556</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -19971,7 +19971,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>423488536</v>
+        <v>423689956</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>423598827</v>
+        <v>423043591</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>423149484</v>
+        <v>423207166</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>423194018</v>
+        <v>423220760</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -20003,7 +20003,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>423460458</v>
+        <v>423390329</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -20011,7 +20011,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>423524997</v>
+        <v>423488536</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>423572262</v>
+        <v>423020236</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>423581462</v>
+        <v>423032402</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -20035,7 +20035,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>423031487</v>
+        <v>423529262</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -20043,7 +20043,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>423079852</v>
+        <v>423598827</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>423217746</v>
+        <v>423149484</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>423239379</v>
+        <v>423194018</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>423025267</v>
+        <v>423214176</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>423154977</v>
+        <v>423460458</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -20083,7 +20083,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>423615028</v>
+        <v>423524997</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>423640397</v>
+        <v>423572262</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>423359895</v>
+        <v>423581462</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -20107,7 +20107,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>423386864</v>
+        <v>423192996</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -20115,7 +20115,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>423005662</v>
+        <v>423031487</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -20123,7 +20123,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>423031309</v>
+        <v>423079852</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>423477662</v>
+        <v>423217746</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>423640754</v>
+        <v>423239379</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>423133536</v>
+        <v>423527897</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>423154149</v>
+        <v>423025267</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>423360147</v>
+        <v>423069565</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -20171,7 +20171,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>423440016</v>
+        <v>423154977</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>423227765</v>
+        <v>423615028</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -20187,7 +20187,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>423595960</v>
+        <v>423640397</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>423227418</v>
+        <v>423231725</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>423153738</v>
+        <v>423245666</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>423002006</v>
+        <v>423359895</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>423039523</v>
+        <v>423386864</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>423318970</v>
+        <v>423518525</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>423599787</v>
+        <v>423005662</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>423610420</v>
+        <v>423031309</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>423613722</v>
+        <v>423477662</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -20259,7 +20259,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>423281965</v>
+        <v>423640754</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>423344860</v>
+        <v>423133536</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -20275,7 +20275,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>423205192</v>
+        <v>423154149</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -20283,7 +20283,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>423233244</v>
+        <v>423360147</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -20291,7 +20291,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>423013110</v>
+        <v>423231830</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>423083556</v>
+        <v>423440016</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>423211149</v>
+        <v>423227765</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>423218867</v>
+        <v>423595960</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -20323,7 +20323,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>423442603</v>
+        <v>423227418</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>423508077</v>
+        <v>423153738</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -20339,7 +20339,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>423511490</v>
+        <v>423002006</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -20347,7 +20347,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>423513293</v>
+        <v>423039523</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>423594582</v>
+        <v>423318970</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>423011947</v>
+        <v>423599787</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -20371,7 +20371,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>423016364</v>
+        <v>423610420</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -20379,7 +20379,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>423171824</v>
+        <v>423613722</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -20387,7 +20387,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>423276097</v>
+        <v>423281965</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>423337249</v>
+        <v>423344860</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>423366855</v>
+        <v>423279563</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>423408407</v>
+        <v>423447732</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>423422117</v>
+        <v>423621928</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -20427,7 +20427,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>423452836</v>
+        <v>423205192</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -20435,7 +20435,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>423572820</v>
+        <v>423473386</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -20443,7 +20443,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>423609372</v>
+        <v>423233244</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -20451,7 +20451,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>423021439</v>
+        <v>423013110</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -20459,7 +20459,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>423071525</v>
+        <v>423083556</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>423338752</v>
+        <v>423211149</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -20475,7 +20475,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>423514958</v>
+        <v>423218867</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>423398810</v>
+        <v>423372567</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>423479535</v>
+        <v>423442603</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>423297731</v>
+        <v>423508077</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -20507,7 +20507,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>423386882</v>
+        <v>423511490</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -20515,7 +20515,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>423091775</v>
+        <v>423513293</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>423152226</v>
+        <v>423594582</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -20531,7 +20531,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>423177554</v>
+        <v>423011947</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>423316724</v>
+        <v>423016364</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -20547,7 +20547,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>423390787</v>
+        <v>423171824</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>423630202</v>
+        <v>423214348</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -20563,7 +20563,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>423663350</v>
+        <v>423276097</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>423310938</v>
+        <v>423337249</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>423381619</v>
+        <v>423366855</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>423448781</v>
+        <v>423408407</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -20595,7 +20595,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>423689371</v>
+        <v>423422117</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>423397241</v>
+        <v>423452836</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -20611,7 +20611,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>423666981</v>
+        <v>423454622</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -20619,7 +20619,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>423045505</v>
+        <v>423572820</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -20627,7 +20627,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>423233902</v>
+        <v>423609372</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -20635,7 +20635,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>423414974</v>
+        <v>423021439</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -20643,7 +20643,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>423688737</v>
+        <v>423071525</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>423074896</v>
+        <v>423277525</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -20659,7 +20659,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>423365017</v>
+        <v>423338752</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>423450358</v>
+        <v>423514958</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -20675,7 +20675,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>423211663</v>
+        <v>423398810</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -20683,7 +20683,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>423290074</v>
+        <v>423479535</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>423445028</v>
+        <v>423532227</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>423477583</v>
+        <v>423085899</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -20707,7 +20707,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>423085597</v>
+        <v>423297731</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>423151483</v>
+        <v>423386882</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -20723,7 +20723,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>423391365</v>
+        <v>423091775</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -20731,7 +20731,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>423461184</v>
+        <v>423115802</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -20739,7 +20739,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>423402236</v>
+        <v>423127290</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -20747,7 +20747,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>423560719</v>
+        <v>423152226</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -20755,7 +20755,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>423220208</v>
+        <v>423177554</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -20763,7 +20763,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>423430061</v>
+        <v>423316724</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -20771,7 +20771,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>423591718</v>
+        <v>423390787</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>423185778</v>
+        <v>423531505</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -20787,7 +20787,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>423481191</v>
+        <v>423160680</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -20795,7 +20795,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>423484649</v>
+        <v>423551720</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -20803,7 +20803,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>423527884</v>
+        <v>423630202</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -20811,7 +20811,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>423156991</v>
+        <v>423663350</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -20819,7 +20819,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>423218881</v>
+        <v>423310938</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -20827,7 +20827,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>423550867</v>
+        <v>423381619</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>423490450</v>
+        <v>423448781</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -20843,7 +20843,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>423160096</v>
+        <v>423689371</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -20851,7 +20851,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>423243429</v>
+        <v>423397241</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -20859,7 +20859,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>423384323</v>
+        <v>423666981</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>423293793</v>
+        <v>423045505</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -20875,7 +20875,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>423299226</v>
+        <v>423233902</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -20883,7 +20883,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>423347679</v>
+        <v>423414974</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -20891,7 +20891,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>423531305</v>
+        <v>423467340</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -20899,7 +20899,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>423223579</v>
+        <v>423688737</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>423076236</v>
+        <v>423074896</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -20915,7 +20915,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>423342347</v>
+        <v>423188524</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -20923,7 +20923,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>423586345</v>
+        <v>423365017</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -20931,7 +20931,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>423028443</v>
+        <v>423429073</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -20939,7 +20939,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>423384896</v>
+        <v>423032582</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -20947,7 +20947,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>423583373</v>
+        <v>423450358</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>423063317</v>
+        <v>423211663</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>423564238</v>
+        <v>423290074</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>423439444</v>
+        <v>423445028</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -20979,7 +20979,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>423572241</v>
+        <v>423477583</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>423111038</v>
+        <v>423085597</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -20995,7 +20995,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>423114487</v>
+        <v>423151483</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -21003,7 +21003,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>423123240</v>
+        <v>423093452</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>423301726</v>
+        <v>423391365</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -21019,7 +21019,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>423117857</v>
+        <v>423416245</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -21027,7 +21027,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>423406272</v>
+        <v>423461184</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -21035,7 +21035,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>423386260</v>
+        <v>423402236</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>423411419</v>
+        <v>423560719</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -21051,7 +21051,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>423041379</v>
+        <v>423220208</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>423441467</v>
+        <v>423430061</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>423302739</v>
+        <v>423591718</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -21075,7 +21075,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>423114145</v>
+        <v>423093574</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>423287828</v>
+        <v>423185778</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -21091,7 +21091,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>423189447</v>
+        <v>423481191</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -21099,7 +21099,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>423204287</v>
+        <v>423484649</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -21107,7 +21107,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>423079060</v>
+        <v>423527884</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>423147503</v>
+        <v>423529328</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -21123,7 +21123,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>423225963</v>
+        <v>423156991</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>423430429</v>
+        <v>423218881</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>423041658</v>
+        <v>423550867</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -21147,7 +21147,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>423448240</v>
+        <v>423490450</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -21155,7 +21155,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>423607832</v>
+        <v>423160096</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -21163,7 +21163,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>423040895</v>
+        <v>423243429</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>423115697</v>
+        <v>423384323</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>423183151</v>
+        <v>423205660</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -21187,7 +21187,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>423147277</v>
+        <v>423293793</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>423149896</v>
+        <v>423299226</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -21203,7 +21203,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>423205573</v>
+        <v>423347679</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -21211,7 +21211,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>423293490</v>
+        <v>423531305</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>423598980</v>
+        <v>423285771</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -21227,7 +21227,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>423344443</v>
+        <v>423223579</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -21235,7 +21235,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>423489651</v>
+        <v>423295878</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>423232089</v>
+        <v>423076236</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -21251,7 +21251,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>423572579</v>
+        <v>423342347</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>423002087</v>
+        <v>423508957</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -21267,7 +21267,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>423530966</v>
+        <v>423586345</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -21275,7 +21275,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>423564410</v>
+        <v>423028443</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>423637051</v>
+        <v>423384896</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -21291,7 +21291,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>423315512</v>
+        <v>423580477</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>423476901</v>
+        <v>423583373</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>423562896</v>
+        <v>423063317</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -21315,7 +21315,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>423419505</v>
+        <v>423564238</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -21323,7 +21323,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>423425848</v>
+        <v>423393361</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -21331,7 +21331,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>423163172</v>
+        <v>423439444</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -21339,7 +21339,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>423337919</v>
+        <v>423572241</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -21347,7 +21347,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>423356992</v>
+        <v>423084862</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>423454063</v>
+        <v>423111038</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -21363,7 +21363,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>423546164</v>
+        <v>423114487</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -21371,7 +21371,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>423119367</v>
+        <v>423123240</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -21379,7 +21379,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>423119455</v>
+        <v>423301726</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -21387,7 +21387,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>423437030</v>
+        <v>423117857</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>423408232</v>
+        <v>423251404</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -21403,7 +21403,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>423434077</v>
+        <v>423406272</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -21411,7 +21411,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>423458632</v>
+        <v>423386260</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -21419,7 +21419,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>423461114</v>
+        <v>423411419</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -21427,7 +21427,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>423194501</v>
+        <v>423041379</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>423379820</v>
+        <v>423441467</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -21443,7 +21443,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>423419892</v>
+        <v>423302739</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -21451,7 +21451,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>423014184</v>
+        <v>423356978</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>423050092</v>
+        <v>423114145</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -21467,7 +21467,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>423081098</v>
+        <v>423287828</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -21475,7 +21475,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>423294836</v>
+        <v>423189447</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>423181933</v>
+        <v>423204287</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -21491,7 +21491,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>423217702</v>
+        <v>423190128</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>423224212</v>
+        <v>423234968</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -21507,7 +21507,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>423333919</v>
+        <v>423079060</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -21515,7 +21515,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>423538870</v>
+        <v>423147503</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -21523,7 +21523,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>423274298</v>
+        <v>423237209</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -21531,7 +21531,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>423288303</v>
+        <v>423225963</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -21539,7 +21539,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>423397782</v>
+        <v>423430429</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -21547,7 +21547,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>423079042</v>
+        <v>423041658</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>423167705</v>
+        <v>423448240</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -21563,7 +21563,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>423268794</v>
+        <v>423607832</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -21571,7 +21571,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>423412226</v>
+        <v>423040895</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>423670331</v>
+        <v>423115697</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>423132642</v>
+        <v>423183151</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -21595,7 +21595,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>423174874</v>
+        <v>423128561</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -21603,7 +21603,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>423220653</v>
+        <v>423147277</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -21611,7 +21611,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>423318723</v>
+        <v>423149896</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -21619,7 +21619,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>423324805</v>
+        <v>423205573</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -21627,7 +21627,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>423402522</v>
+        <v>423293490</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -21635,7 +21635,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>423057658</v>
+        <v>423341700</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -21643,7 +21643,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>423090336</v>
+        <v>423598980</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -21651,7 +21651,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>423489226</v>
+        <v>423178576</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -21659,7 +21659,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>423002507</v>
+        <v>423344443</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -21667,7 +21667,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>423075670</v>
+        <v>423489651</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -21675,7 +21675,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>423171965</v>
+        <v>423232089</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -21683,7 +21683,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>423218583</v>
+        <v>423572579</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -21691,7 +21691,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>423580496</v>
+        <v>423002087</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>423649375</v>
+        <v>423390896</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>423328919</v>
+        <v>423530966</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -21715,7 +21715,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>423003579</v>
+        <v>423564410</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -21723,7 +21723,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>423028188</v>
+        <v>423637051</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -21731,7 +21731,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>423042695</v>
+        <v>423315512</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -21739,7 +21739,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>423127365</v>
+        <v>423052756</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -21747,7 +21747,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>423257956</v>
+        <v>423476901</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>423403295</v>
+        <v>423562896</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -21763,413 +21763,626 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
+        <v>423419505</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>423624321</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>423425848</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>423163172</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>423337919</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>423356992</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>423143857</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>423454063</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>423546164</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>423119367</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>423119455</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>423315329</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>423437030</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>423323437</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>423353515</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>423408232</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>423434077</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>423458632</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>423461114</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>423194501</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>423379820</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>423419892</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>423014184</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>423050092</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>423085284</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>423000772</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>423081098</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>423294836</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>423253942</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>423181933</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>423217702</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>423224212</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>423333919</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>423538870</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>423626939</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>423077068</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>423274298</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>423288303</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>423397782</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>423079042</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>423167705</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>423268794</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>423412226</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>423670331</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>423021830</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>423132642</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>423174874</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>423220653</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>423318723</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>423324805</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>423290023</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>423402522</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>423572346</v>
+      </c>
+      <c r="B291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>423057658</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>423090336</v>
+      </c>
+      <c r="B293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>423139972</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>423489226</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>423002507</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>423075670</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>423171965</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>423218583</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>423580496</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>423082929</v>
+      </c>
+      <c r="B301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>423649375</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>423328919</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>423003579</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>423028188</v>
+      </c>
+      <c r="B305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>423042695</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>423127365</v>
+      </c>
+      <c r="B307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>423257956</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>423403295</v>
+      </c>
+      <c r="B309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
         <v>423214931</v>
       </c>
-      <c r="B239" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B240" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B284" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B286" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B288" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B291" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B295" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B297" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B299" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B301" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B303" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C69DA9-44DF-4036-9352-95444081630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CCF562-B30B-4BBA-AA43-728B6D7732B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19848,7 +19848,7 @@
   <dimension ref="A1:B1636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19867,7 +19867,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>423413976</v>
+        <v>423607219</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>423362905</v>
+        <v>423413976</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -19883,7 +19883,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>423475577</v>
+        <v>423362905</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -19891,7 +19891,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>423396845</v>
+        <v>423475577</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -19899,7 +19899,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>423204084</v>
+        <v>423396845</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>423634843</v>
+        <v>423204084</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -19915,7 +19915,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>423141147</v>
+        <v>423634843</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -19923,7 +19923,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>423320262</v>
+        <v>423141147</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -19931,7 +19931,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>423414907</v>
+        <v>423320262</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>423156961</v>
+        <v>423414907</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>423683938</v>
+        <v>423156961</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -19955,7 +19955,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>423003434</v>
+        <v>423683938</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>423565556</v>
+        <v>423003434</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -19971,7 +19971,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>423689956</v>
+        <v>423565556</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -19979,7 +19979,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>423043591</v>
+        <v>423689956</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -19987,7 +19987,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>423207166</v>
+        <v>423043591</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -19995,7 +19995,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>423220760</v>
+        <v>423082655</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -20003,7 +20003,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>423390329</v>
+        <v>423207166</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -20011,7 +20011,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>423488536</v>
+        <v>423220760</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>423020236</v>
+        <v>423390329</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -20027,7 +20027,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>423032402</v>
+        <v>423488536</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -20035,7 +20035,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>423529262</v>
+        <v>423020236</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -20043,7 +20043,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>423598827</v>
+        <v>423032402</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>423149484</v>
+        <v>423529262</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>423194018</v>
+        <v>423598827</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -20067,7 +20067,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>423214176</v>
+        <v>423149484</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>423460458</v>
+        <v>423194018</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -20083,7 +20083,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>423524997</v>
+        <v>423214176</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>423572262</v>
+        <v>423460458</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>423581462</v>
+        <v>423524997</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -20107,7 +20107,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>423192996</v>
+        <v>423572262</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -20115,7 +20115,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>423031487</v>
+        <v>423581462</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -20123,7 +20123,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>423079852</v>
+        <v>423192996</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -20131,7 +20131,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>423217746</v>
+        <v>423031487</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>423239379</v>
+        <v>423079852</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -20147,7 +20147,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>423527897</v>
+        <v>423217746</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -20155,7 +20155,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>423025267</v>
+        <v>423239379</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -20163,7 +20163,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>423069565</v>
+        <v>423527897</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -20171,7 +20171,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>423154977</v>
+        <v>423025267</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -20179,7 +20179,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>423615028</v>
+        <v>423069565</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -20187,7 +20187,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>423640397</v>
+        <v>423154977</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -20195,7 +20195,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>423231725</v>
+        <v>423615028</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -20203,7 +20203,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>423245666</v>
+        <v>423640397</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -20211,7 +20211,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>423359895</v>
+        <v>423231725</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -20219,7 +20219,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>423386864</v>
+        <v>423245666</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>423518525</v>
+        <v>423260797</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -20235,7 +20235,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>423005662</v>
+        <v>423359895</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
@@ -20243,7 +20243,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>423031309</v>
+        <v>423386864</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
@@ -20251,7 +20251,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>423477662</v>
+        <v>423518525</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
@@ -20259,7 +20259,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>423640754</v>
+        <v>423005662</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
@@ -20267,7 +20267,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>423133536</v>
+        <v>423031309</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -20275,7 +20275,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>423154149</v>
+        <v>423477662</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
@@ -20283,7 +20283,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>423360147</v>
+        <v>423640754</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -20291,7 +20291,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>423231830</v>
+        <v>423133536</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>423440016</v>
+        <v>423154149</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>423227765</v>
+        <v>423360147</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>423595960</v>
+        <v>423528133</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -20323,7 +20323,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>423227418</v>
+        <v>423231830</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>423153738</v>
+        <v>423440016</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
@@ -20339,7 +20339,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>423002006</v>
+        <v>423227765</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -20347,7 +20347,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>423039523</v>
+        <v>423595960</v>
       </c>
       <c r="B62" t="s">
         <v>5</v>
@@ -20355,7 +20355,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>423318970</v>
+        <v>423227418</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>423599787</v>
+        <v>423153738</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -20371,7 +20371,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>423610420</v>
+        <v>423408359</v>
       </c>
       <c r="B65" t="s">
         <v>5</v>
@@ -20379,7 +20379,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>423613722</v>
+        <v>423002006</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
@@ -20387,7 +20387,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>423281965</v>
+        <v>423039523</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -20395,7 +20395,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>423344860</v>
+        <v>423318970</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>423279563</v>
+        <v>423599787</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
@@ -20411,7 +20411,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>423447732</v>
+        <v>423610420</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -20419,7 +20419,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>423621928</v>
+        <v>423613722</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -20427,7 +20427,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>423205192</v>
+        <v>423281965</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -20435,7 +20435,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>423473386</v>
+        <v>423522087</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
@@ -20443,7 +20443,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>423233244</v>
+        <v>423344860</v>
       </c>
       <c r="B74" t="s">
         <v>5</v>
@@ -20451,7 +20451,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>423013110</v>
+        <v>423279563</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -20459,7 +20459,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>423083556</v>
+        <v>423447732</v>
       </c>
       <c r="B76" t="s">
         <v>5</v>
@@ -20467,7 +20467,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>423211149</v>
+        <v>423621928</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -20475,7 +20475,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>423218867</v>
+        <v>423205192</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
@@ -20483,7 +20483,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>423372567</v>
+        <v>423473386</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>423442603</v>
+        <v>423233244</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>423508077</v>
+        <v>423013110</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -20507,7 +20507,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>423511490</v>
+        <v>423083556</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -20515,7 +20515,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>423513293</v>
+        <v>423211149</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>423594582</v>
+        <v>423218867</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
@@ -20531,7 +20531,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>423011947</v>
+        <v>423285061</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -20539,7 +20539,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>423016364</v>
+        <v>423372567</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
@@ -20547,7 +20547,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>423171824</v>
+        <v>423442603</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>423214348</v>
+        <v>423508077</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
@@ -20563,7 +20563,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>423276097</v>
+        <v>423511490</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -20571,7 +20571,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>423337249</v>
+        <v>423513293</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>423366855</v>
+        <v>423594582</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>423408407</v>
+        <v>423011947</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -20595,7 +20595,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>423422117</v>
+        <v>423016364</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>423452836</v>
+        <v>423171824</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
@@ -20611,7 +20611,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>423454622</v>
+        <v>423214348</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -20619,7 +20619,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>423572820</v>
+        <v>423276097</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -20627,7 +20627,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>423609372</v>
+        <v>423337249</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -20635,7 +20635,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>423021439</v>
+        <v>423366855</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
@@ -20643,7 +20643,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>423071525</v>
+        <v>423408407</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>423277525</v>
+        <v>423422117</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -20659,7 +20659,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>423338752</v>
+        <v>423452836</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>423514958</v>
+        <v>423454622</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
@@ -20675,7 +20675,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>423398810</v>
+        <v>423572820</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -20683,7 +20683,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>423479535</v>
+        <v>423609372</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>423532227</v>
+        <v>423021439</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
@@ -20699,7 +20699,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>423085899</v>
+        <v>423071525</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
@@ -20707,7 +20707,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>423297731</v>
+        <v>423167720</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>423386882</v>
+        <v>423277525</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -20723,7 +20723,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>423091775</v>
+        <v>423338752</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
@@ -20731,7 +20731,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>423115802</v>
+        <v>423514958</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
@@ -20739,7 +20739,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>423127290</v>
+        <v>423398810</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -20747,7 +20747,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>423152226</v>
+        <v>423279871</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
@@ -20755,7 +20755,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>423177554</v>
+        <v>423479535</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
@@ -20763,7 +20763,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>423316724</v>
+        <v>423532227</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -20771,7 +20771,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>423390787</v>
+        <v>423085899</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>423531505</v>
+        <v>423297731</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -20787,7 +20787,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>423160680</v>
+        <v>423386882</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -20795,7 +20795,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>423551720</v>
+        <v>423091775</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -20803,7 +20803,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>423630202</v>
+        <v>423115802</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -20811,7 +20811,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>423663350</v>
+        <v>423127290</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -20819,7 +20819,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>423310938</v>
+        <v>423152226</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -20827,7 +20827,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>423381619</v>
+        <v>423177554</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>423448781</v>
+        <v>423316724</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -20843,7 +20843,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>423689371</v>
+        <v>423390787</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -20851,7 +20851,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>423397241</v>
+        <v>423531505</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -20859,7 +20859,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>423666981</v>
+        <v>423160680</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>423045505</v>
+        <v>423551720</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -20875,7 +20875,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>423233902</v>
+        <v>423630202</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -20883,7 +20883,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>423414974</v>
+        <v>423663350</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -20891,7 +20891,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>423467340</v>
+        <v>423310938</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -20899,7 +20899,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>423688737</v>
+        <v>423381619</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -20907,7 +20907,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>423074896</v>
+        <v>423448781</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -20915,7 +20915,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>423188524</v>
+        <v>423689371</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -20923,7 +20923,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>423365017</v>
+        <v>423397241</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -20931,7 +20931,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>423429073</v>
+        <v>423666981</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -20939,7 +20939,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>423032582</v>
+        <v>423045505</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -20947,7 +20947,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>423450358</v>
+        <v>423233902</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>423211663</v>
+        <v>423414974</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>423290074</v>
+        <v>423467340</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -20971,7 +20971,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>423445028</v>
+        <v>423688737</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -20979,7 +20979,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>423477583</v>
+        <v>423074896</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -20987,7 +20987,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>423085597</v>
+        <v>423188524</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -20995,7 +20995,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>423151483</v>
+        <v>423365017</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -21003,7 +21003,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>423093452</v>
+        <v>423429073</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -21011,7 +21011,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>423391365</v>
+        <v>423032582</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -21019,7 +21019,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>423416245</v>
+        <v>423450358</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -21027,7 +21027,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>423461184</v>
+        <v>423211663</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -21035,7 +21035,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>423402236</v>
+        <v>423290074</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>423560719</v>
+        <v>423445028</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -21051,7 +21051,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>423220208</v>
+        <v>423477583</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>423430061</v>
+        <v>423085597</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>423591718</v>
+        <v>423151483</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -21075,7 +21075,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>423093574</v>
+        <v>423093452</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>423185778</v>
+        <v>423391365</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -21091,7 +21091,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>423481191</v>
+        <v>423416245</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -21099,7 +21099,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>423484649</v>
+        <v>423461184</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -21107,7 +21107,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>423527884</v>
+        <v>423402236</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>423529328</v>
+        <v>423560719</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -21123,7 +21123,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>423156991</v>
+        <v>423220208</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>423218881</v>
+        <v>423430061</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -21139,7 +21139,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>423550867</v>
+        <v>423591718</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -21147,7 +21147,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>423490450</v>
+        <v>423093574</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -21155,7 +21155,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>423160096</v>
+        <v>423128732</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -21163,7 +21163,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>423243429</v>
+        <v>423185778</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -21171,7 +21171,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>423384323</v>
+        <v>423481191</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -21179,7 +21179,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>423205660</v>
+        <v>423484649</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -21187,7 +21187,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>423293793</v>
+        <v>423527884</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -21195,7 +21195,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>423299226</v>
+        <v>423529328</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -21203,7 +21203,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>423347679</v>
+        <v>423684575</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -21211,7 +21211,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>423531305</v>
+        <v>423156991</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>423285771</v>
+        <v>423218881</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -21227,7 +21227,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>423223579</v>
+        <v>423550867</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -21235,7 +21235,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>423295878</v>
+        <v>423030559</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>423076236</v>
+        <v>423490450</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -21251,7 +21251,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>423342347</v>
+        <v>423160096</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -21259,7 +21259,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>423508957</v>
+        <v>423243429</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -21267,7 +21267,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>423586345</v>
+        <v>423384323</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -21275,7 +21275,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>423028443</v>
+        <v>423205660</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -21283,7 +21283,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>423384896</v>
+        <v>423293793</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -21291,7 +21291,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>423580477</v>
+        <v>423299226</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -21299,7 +21299,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>423583373</v>
+        <v>423347679</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>423063317</v>
+        <v>423531305</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -21315,7 +21315,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>423564238</v>
+        <v>423285771</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -21323,7 +21323,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>423393361</v>
+        <v>423223579</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -21331,7 +21331,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>423439444</v>
+        <v>423295878</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -21339,7 +21339,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>423572241</v>
+        <v>423076236</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -21347,7 +21347,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>423084862</v>
+        <v>423342347</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -21355,7 +21355,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>423111038</v>
+        <v>423508957</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -21363,7 +21363,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>423114487</v>
+        <v>423586345</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -21371,7 +21371,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>423123240</v>
+        <v>423028443</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -21379,7 +21379,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>423301726</v>
+        <v>423384896</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -21387,7 +21387,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>423117857</v>
+        <v>423580477</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>423251404</v>
+        <v>423583373</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -21403,7 +21403,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>423406272</v>
+        <v>423063317</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -21411,7 +21411,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>423386260</v>
+        <v>423133989</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -21419,7 +21419,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>423411419</v>
+        <v>423564238</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -21427,7 +21427,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>423041379</v>
+        <v>423393361</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -21435,7 +21435,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>423441467</v>
+        <v>423439444</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -21443,7 +21443,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>423302739</v>
+        <v>423512912</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -21451,7 +21451,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>423356978</v>
+        <v>423572241</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -21459,7 +21459,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>423114145</v>
+        <v>423084862</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -21467,7 +21467,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>423287828</v>
+        <v>423089665</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -21475,7 +21475,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>423189447</v>
+        <v>423111038</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>423204287</v>
+        <v>423114487</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -21491,7 +21491,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>423190128</v>
+        <v>423123240</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>423234968</v>
+        <v>423301726</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -21507,7 +21507,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>423079060</v>
+        <v>423117857</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -21515,7 +21515,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>423147503</v>
+        <v>423251404</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -21523,7 +21523,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>423237209</v>
+        <v>423406272</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -21531,7 +21531,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>423225963</v>
+        <v>423386260</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -21539,7 +21539,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>423430429</v>
+        <v>423411419</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -21547,7 +21547,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>423041658</v>
+        <v>423041379</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -21555,7 +21555,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>423448240</v>
+        <v>423441467</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -21563,7 +21563,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>423607832</v>
+        <v>423302739</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -21571,7 +21571,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>423040895</v>
+        <v>423356978</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -21579,7 +21579,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>423115697</v>
+        <v>423114145</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>423183151</v>
+        <v>423287828</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -21595,7 +21595,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>423128561</v>
+        <v>423189447</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -21603,7 +21603,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>423147277</v>
+        <v>423204287</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -21611,7 +21611,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>423149896</v>
+        <v>423190128</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -21619,7 +21619,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>423205573</v>
+        <v>423234968</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -21627,7 +21627,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>423293490</v>
+        <v>423079060</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -21635,7 +21635,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>423341700</v>
+        <v>423147503</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -21643,7 +21643,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>423598980</v>
+        <v>423237209</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -21651,7 +21651,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>423178576</v>
+        <v>423225963</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -21659,7 +21659,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>423344443</v>
+        <v>423430429</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -21667,7 +21667,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>423489651</v>
+        <v>423041658</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -21675,7 +21675,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>423232089</v>
+        <v>423448240</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -21683,7 +21683,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>423572579</v>
+        <v>423607832</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -21691,7 +21691,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>423002087</v>
+        <v>423040895</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -21699,7 +21699,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>423390896</v>
+        <v>423115697</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -21707,7 +21707,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>423530966</v>
+        <v>423183151</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
@@ -21715,7 +21715,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>423564410</v>
+        <v>423128561</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -21723,7 +21723,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>423637051</v>
+        <v>423147277</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -21731,7 +21731,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>423315512</v>
+        <v>423149896</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -21739,7 +21739,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>423052756</v>
+        <v>423205573</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -21747,7 +21747,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>423476901</v>
+        <v>423293490</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>423562896</v>
+        <v>423341700</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -21763,7 +21763,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>423419505</v>
+        <v>423598980</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -21771,7 +21771,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>423624321</v>
+        <v>423178576</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -21779,7 +21779,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>423425848</v>
+        <v>423344443</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -21787,7 +21787,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>423163172</v>
+        <v>423489651</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -21795,7 +21795,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>423337919</v>
+        <v>423232089</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -21803,7 +21803,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>423356992</v>
+        <v>423572579</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -21811,7 +21811,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>423143857</v>
+        <v>423002087</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -21819,7 +21819,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>423454063</v>
+        <v>423390896</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -21827,7 +21827,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>423546164</v>
+        <v>423478521</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -21835,7 +21835,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>423119367</v>
+        <v>423530966</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -21843,7 +21843,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>423119455</v>
+        <v>423564410</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -21851,7 +21851,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>423315329</v>
+        <v>423637051</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>423437030</v>
+        <v>423315512</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -21867,7 +21867,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>423323437</v>
+        <v>423052756</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -21875,7 +21875,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>423353515</v>
+        <v>423476901</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -21883,7 +21883,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>423408232</v>
+        <v>423562896</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -21891,7 +21891,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>423434077</v>
+        <v>423419505</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -21899,7 +21899,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>423458632</v>
+        <v>423624321</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -21907,7 +21907,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>423461114</v>
+        <v>423425848</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -21915,7 +21915,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>423194501</v>
+        <v>423163172</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -21923,7 +21923,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>423379820</v>
+        <v>423337919</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -21931,7 +21931,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>423419892</v>
+        <v>423356992</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -21939,7 +21939,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>423014184</v>
+        <v>423143857</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>423050092</v>
+        <v>423454063</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -21955,7 +21955,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>423085284</v>
+        <v>423546164</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -21963,7 +21963,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>423000772</v>
+        <v>423119367</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -21971,7 +21971,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>423081098</v>
+        <v>423119455</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -21979,7 +21979,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>423294836</v>
+        <v>423315329</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -21987,7 +21987,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>423253942</v>
+        <v>423437030</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -21995,7 +21995,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>423181933</v>
+        <v>423260730</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -22003,7 +22003,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>423217702</v>
+        <v>423323437</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -22011,7 +22011,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>423224212</v>
+        <v>423353515</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -22019,7 +22019,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>423333919</v>
+        <v>423408232</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -22027,7 +22027,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>423538870</v>
+        <v>423434077</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -22035,7 +22035,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>423626939</v>
+        <v>423458632</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -22043,7 +22043,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>423077068</v>
+        <v>423461114</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -22051,7 +22051,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>423274298</v>
+        <v>423194501</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -22059,7 +22059,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>423288303</v>
+        <v>423379820</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -22067,7 +22067,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>423397782</v>
+        <v>423419892</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -22075,7 +22075,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>423079042</v>
+        <v>423014184</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -22083,7 +22083,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>423167705</v>
+        <v>423050092</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -22091,7 +22091,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>423268794</v>
+        <v>423085284</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -22099,7 +22099,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>423412226</v>
+        <v>423000772</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -22107,7 +22107,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>423670331</v>
+        <v>423081098</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -22115,7 +22115,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>423021830</v>
+        <v>423294836</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -22123,7 +22123,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>423132642</v>
+        <v>423253942</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -22131,7 +22131,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>423174874</v>
+        <v>423181933</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -22139,7 +22139,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>423220653</v>
+        <v>423217702</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -22147,7 +22147,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>423318723</v>
+        <v>423224212</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -22155,7 +22155,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>423324805</v>
+        <v>423333919</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -22163,7 +22163,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>423290023</v>
+        <v>423538870</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -22171,7 +22171,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>423402522</v>
+        <v>423626939</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -22179,7 +22179,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>423572346</v>
+        <v>423077068</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -22187,7 +22187,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>423057658</v>
+        <v>423274298</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -22195,7 +22195,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>423090336</v>
+        <v>423288303</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -22203,7 +22203,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>423139972</v>
+        <v>423397782</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -22211,7 +22211,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>423489226</v>
+        <v>423079042</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -22219,7 +22219,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>423002507</v>
+        <v>423167705</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -22227,7 +22227,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>423075670</v>
+        <v>423268794</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -22235,7 +22235,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>423171965</v>
+        <v>423412226</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>423218583</v>
+        <v>423670331</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -22251,7 +22251,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>423580496</v>
+        <v>423021830</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -22259,7 +22259,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>423082929</v>
+        <v>423132642</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -22267,7 +22267,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>423649375</v>
+        <v>423174874</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -22275,7 +22275,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>423328919</v>
+        <v>423220653</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -22283,7 +22283,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>423003579</v>
+        <v>423318723</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
@@ -22291,7 +22291,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>423028188</v>
+        <v>423324805</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>423042695</v>
+        <v>423290023</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -22307,7 +22307,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>423127365</v>
+        <v>423402522</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -22315,7 +22315,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>423257956</v>
+        <v>423572346</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -22323,7 +22323,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>423403295</v>
+        <v>423057658</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -22331,138 +22331,192 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
+        <v>423090336</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>423139972</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>423489226</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>423002507</v>
+      </c>
+      <c r="B313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>423075670</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>423171965</v>
+      </c>
+      <c r="B315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>423218583</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>423565834</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>423580496</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>423082929</v>
+      </c>
+      <c r="B319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>423649375</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>423328919</v>
+      </c>
+      <c r="B321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>423003579</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>423028188</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>423042695</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>423127365</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>423257956</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>423403295</v>
+      </c>
+      <c r="B327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
         <v>423214931</v>
       </c>
-      <c r="B310" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B311" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B312" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B314" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B315" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B316" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B317" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B318" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B319" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B320" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B324" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>5</v>
       </c>

--- a/Sudah Registrasi.xlsx
+++ b/Sudah Registrasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C750848-DE2C-4F59-94A2-26533C411CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66650AB9-54E3-4E49-992A-50BF7DB95800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,8 +431,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C1636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1561" sqref="E1561"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6830,7 +6830,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="1">
-        <v>423397544</v>
+        <v>423384428</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>2</v>
@@ -6842,7 +6842,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="1">
-        <v>423413838</v>
+        <v>423397544</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>2</v>
@@ -6854,7 +6854,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="1">
-        <v>423418582</v>
+        <v>423413838</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>2</v>
@@ -6866,7 +6866,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="1">
-        <v>423420456</v>
+        <v>423418582</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>2</v>
@@ -6878,7 +6878,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="1">
-        <v>423436315</v>
+        <v>423420456</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>2</v>
@@ -6890,7 +6890,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="1">
-        <v>423444436</v>
+        <v>423436315</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>2</v>
@@ -6902,7 +6902,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="1">
-        <v>423481801</v>
+        <v>423444436</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>2</v>
@@ -6914,7 +6914,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="1">
-        <v>423486930</v>
+        <v>423481801</v>
       </c>
       <c r="C540" s="1" t="s">
         <v>2</v>
@@ -6926,7 +6926,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="1">
-        <v>423487936</v>
+        <v>423486930</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>2</v>
@@ -6938,7 +6938,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="1">
-        <v>423489268</v>
+        <v>423487936</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>2</v>
@@ -6950,7 +6950,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="1">
-        <v>423514958</v>
+        <v>423489268</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>2</v>
@@ -6962,7 +6962,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="1">
-        <v>423523538</v>
+        <v>423514958</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>2</v>
@@ -6974,7 +6974,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="1">
-        <v>423554510</v>
+        <v>423523538</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>2</v>
@@ -6986,7 +6986,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="1">
-        <v>423567773</v>
+        <v>423554510</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>2</v>
@@ -6998,7 +6998,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="1">
-        <v>423569414</v>
+        <v>423567773</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>2</v>
@@ -7010,7 +7010,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="1">
-        <v>423574161</v>
+        <v>423569414</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>2</v>
@@ -7022,7 +7022,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="1">
-        <v>423583852</v>
+        <v>423574161</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>2</v>
@@ -7034,7 +7034,7 @@
         <v>549</v>
       </c>
       <c r="B550">
-        <v>423590994</v>
+        <v>423583852</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>2</v>
@@ -7046,7 +7046,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="1">
-        <v>423595719</v>
+        <v>423590994</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>2</v>
@@ -7058,7 +7058,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="1">
-        <v>423629615</v>
+        <v>423595719</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>2</v>
@@ -7070,7 +7070,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="1">
-        <v>423651977</v>
+        <v>423629615</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>2</v>
@@ -7082,7 +7082,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="1">
-        <v>423105932</v>
+        <v>423651977</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>2</v>
@@ -7094,7 +7094,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="1">
-        <v>423173576</v>
+        <v>423105932</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>2</v>
@@ -7106,7 +7106,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="1">
-        <v>423297838</v>
+        <v>423173576</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>2</v>
@@ -7118,7 +7118,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="1">
-        <v>423305081</v>
+        <v>423297838</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>2</v>
@@ -7130,7 +7130,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="1">
-        <v>423398810</v>
+        <v>423305081</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>2</v>
@@ -7142,7 +7142,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="1">
-        <v>423410076</v>
+        <v>423398810</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>2</v>
@@ -7154,7 +7154,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="1">
-        <v>423453728</v>
+        <v>423410076</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>2</v>
@@ -7166,7 +7166,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="1">
-        <v>423497965</v>
+        <v>423453728</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>2</v>
@@ -7178,7 +7178,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="1">
-        <v>423590130</v>
+        <v>423497965</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>2</v>
@@ -7190,7 +7190,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="1">
-        <v>423188214</v>
+        <v>423590130</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>2</v>
@@ -7202,7 +7202,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="1">
-        <v>423252431</v>
+        <v>423188214</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>2</v>
@@ -7214,7 +7214,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="1">
-        <v>423490727</v>
+        <v>423252431</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>2</v>
@@ -7226,7 +7226,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="1">
-        <v>423594268</v>
+        <v>423490727</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>2</v>
@@ -7238,7 +7238,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="1">
-        <v>423279871</v>
+        <v>423594268</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="1">
-        <v>423446216</v>
+        <v>423279871</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>2</v>
@@ -7262,7 +7262,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="1">
-        <v>423479535</v>
+        <v>423446216</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>2</v>
@@ -7274,7 +7274,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="1">
-        <v>423532227</v>
+        <v>423479535</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>2</v>
@@ -7286,7 +7286,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="1">
-        <v>423666192</v>
+        <v>423532227</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>2</v>
@@ -7298,7 +7298,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="1">
-        <v>423072634</v>
+        <v>423666192</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
@@ -7310,7 +7310,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="1">
-        <v>423349468</v>
+        <v>423072634</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
@@ -7322,7 +7322,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="1">
-        <v>423478668</v>
+        <v>423349468</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
@@ -7334,7 +7334,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="1">
-        <v>423587317</v>
+        <v>423478668</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
@@ -7346,7 +7346,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="1">
-        <v>423072697</v>
+        <v>423587317</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>2</v>
@@ -7358,7 +7358,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="1">
-        <v>423271728</v>
+        <v>423072697</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>2</v>
@@ -7370,7 +7370,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="1">
-        <v>423278385</v>
+        <v>423271728</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>2</v>
@@ -7382,7 +7382,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="1">
-        <v>423339314</v>
+        <v>423278385</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>2</v>
@@ -7394,7 +7394,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="1">
-        <v>423356393</v>
+        <v>423339314</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>2</v>
@@ -7406,7 +7406,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="1">
-        <v>423515115</v>
+        <v>423356393</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>2</v>
@@ -7418,7 +7418,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="1">
-        <v>423017554</v>
+        <v>423515115</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>2</v>
@@ -7430,7 +7430,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="1">
-        <v>423057466</v>
+        <v>423017554</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>2</v>
@@ -7442,7 +7442,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="1">
-        <v>423068410</v>
+        <v>423057466</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>2</v>
@@ -7454,7 +7454,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="1">
-        <v>423074671</v>
+        <v>423068410</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>2</v>
@@ -7466,7 +7466,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="1">
-        <v>423078092</v>
+        <v>423074671</v>
       </c>
       <c r="C586" s="1" t="s">
         <v>2</v>
@@ -7478,7 +7478,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="1">
-        <v>423085899</v>
+        <v>423078092</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>2</v>
@@ -7490,7 +7490,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="1">
-        <v>423119525</v>
+        <v>423085899</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>2</v>
@@ -7502,7 +7502,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="1">
-        <v>423139202</v>
+        <v>423119525</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>2</v>
@@ -7514,7 +7514,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="1">
-        <v>423176727</v>
+        <v>423139202</v>
       </c>
       <c r="C590" s="1" t="s">
         <v>2</v>
@@ -7526,7 +7526,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="1">
-        <v>423184155</v>
+        <v>423176727</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>2</v>
@@ -7538,7 +7538,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="1">
-        <v>423214010</v>
+        <v>423184155</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>2</v>
@@ -7550,7 +7550,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="1">
-        <v>423240666</v>
+        <v>423214010</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>2</v>
@@ -7562,7 +7562,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="1">
-        <v>423276113</v>
+        <v>423240666</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>2</v>
@@ -7574,7 +7574,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="1">
-        <v>423277480</v>
+        <v>423276113</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>2</v>
@@ -7586,7 +7586,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="1">
-        <v>423285728</v>
+        <v>423277480</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>2</v>
@@ -7598,7 +7598,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="1">
-        <v>423293958</v>
+        <v>423285728</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>2</v>
@@ -7610,7 +7610,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="1">
-        <v>423297731</v>
+        <v>423293958</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>2</v>
@@ -7622,7 +7622,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="1">
-        <v>423355150</v>
+        <v>423297731</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>2</v>
@@ -7634,7 +7634,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="1">
-        <v>423360860</v>
+        <v>423355150</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>2</v>
@@ -7646,7 +7646,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="1">
-        <v>423386882</v>
+        <v>423360860</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>2</v>
@@ -7658,7 +7658,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="1">
-        <v>423386992</v>
+        <v>423386882</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>2</v>
@@ -7670,7 +7670,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="1">
-        <v>423387541</v>
+        <v>423386992</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>2</v>
@@ -7682,7 +7682,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="1">
-        <v>423414978</v>
+        <v>423387541</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>2</v>
@@ -7694,7 +7694,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="1">
-        <v>423415991</v>
+        <v>423414978</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>2</v>
@@ -7706,7 +7706,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="1">
-        <v>423038144</v>
+        <v>423415991</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>2</v>
@@ -7718,7 +7718,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="1">
-        <v>423040228</v>
+        <v>423038144</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="1">
-        <v>423091775</v>
+        <v>423040228</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>2</v>
@@ -7742,7 +7742,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="1">
-        <v>423096791</v>
+        <v>423091775</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>2</v>
@@ -7754,7 +7754,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="1">
-        <v>423115802</v>
+        <v>423096791</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="1">
-        <v>423127290</v>
+        <v>423115802</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>2</v>
@@ -7778,7 +7778,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1">
-        <v>423144748</v>
+        <v>423127290</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>2</v>
@@ -7790,7 +7790,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="1">
-        <v>423152226</v>
+        <v>423144748</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>2</v>
@@ -7802,7 +7802,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="1">
-        <v>423177554</v>
+        <v>423152226</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>2</v>
@@ -7814,7 +7814,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="1">
-        <v>423269529</v>
+        <v>423177554</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>2</v>
@@ -7826,7 +7826,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="1">
-        <v>423316724</v>
+        <v>423269529</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>2</v>
@@ -7838,7 +7838,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="1">
-        <v>423335588</v>
+        <v>423316724</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>2</v>
@@ -7850,7 +7850,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="1">
-        <v>423342784</v>
+        <v>423335588</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>2</v>
@@ -7862,7 +7862,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="1">
-        <v>423355609</v>
+        <v>423342784</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>2</v>
@@ -7874,7 +7874,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="1">
-        <v>423384563</v>
+        <v>423355609</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>2</v>
@@ -7886,7 +7886,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="1">
-        <v>423390787</v>
+        <v>423384563</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>2</v>
@@ -7898,7 +7898,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="1">
-        <v>423571213</v>
+        <v>423390787</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>2</v>
@@ -7910,7 +7910,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="1">
-        <v>423588961</v>
+        <v>423571213</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>2</v>
@@ -7922,7 +7922,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="1">
-        <v>423617571</v>
+        <v>423588961</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>2</v>
@@ -7934,7 +7934,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="1">
-        <v>423652948</v>
+        <v>423617571</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>2</v>
@@ -7946,7 +7946,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="1">
-        <v>423663986</v>
+        <v>423652948</v>
       </c>
       <c r="C626" s="1" t="s">
         <v>2</v>
@@ -7958,7 +7958,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>423001377</v>
+        <v>423663986</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>2</v>
@@ -7970,7 +7970,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>423146273</v>
+        <v>423001377</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>2</v>
@@ -7982,7 +7982,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>423207975</v>
+        <v>423146273</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>2</v>
@@ -7994,7 +7994,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>423234736</v>
+        <v>423207975</v>
       </c>
       <c r="C630" s="1" t="s">
         <v>2</v>
@@ -8006,7 +8006,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>423250761</v>
+        <v>423234736</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>2</v>
@@ -8018,7 +8018,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>423277822</v>
+        <v>423250761</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>2</v>
@@ -8030,7 +8030,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>423279959</v>
+        <v>423277822</v>
       </c>
       <c r="C633" s="1" t="s">
         <v>2</v>
@@ -8042,7 +8042,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>423315054</v>
+        <v>423279959</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>2</v>
@@ -8054,7 +8054,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>423344409</v>
+        <v>423315054</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>2</v>
@@ -8066,7 +8066,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>423390481</v>
+        <v>423344409</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>2</v>
@@ -8078,7 +8078,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>423401170</v>
+        <v>423390481</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>2</v>
@@ -8090,7 +8090,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>423410079</v>
+        <v>423401170</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>2</v>
@@ -8102,7 +8102,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>423440287</v>
+        <v>423410079</v>
       </c>
       <c r="C639" s="1" t="s">
         <v>2</v>
@@ -8114,7 +8114,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>423466424</v>
+        <v>423440287</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>2</v>
@@ -8126,7 +8126,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>423484132</v>
+        <v>423466424</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>2</v>
@@ -8138,7 +8138,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>423486323</v>
+        <v>423484132</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>2</v>
@@ -8150,7 +8150,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>423531505</v>
+        <v>423486323</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>2</v>
@@ -8162,7 +8162,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>423576586</v>
+        <v>423531505</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>2</v>
@@ -8174,7 +8174,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>423581906</v>
+        <v>423576586</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>2</v>
@@ -8186,7 +8186,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>423647919</v>
+        <v>423581906</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>2</v>
@@ -8198,7 +8198,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>423653035</v>
+        <v>423647919</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>2</v>
@@ -8210,7 +8210,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>423688167</v>
+        <v>423653035</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>2</v>
@@ -8222,7 +8222,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>423052778</v>
+        <v>423688167</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>2</v>
@@ -8234,7 +8234,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>423063649</v>
+        <v>423052778</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>2</v>
@@ -8246,7 +8246,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>423097526</v>
+        <v>423063649</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>2</v>
@@ -8258,7 +8258,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>423160680</v>
+        <v>423097526</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>423198791</v>
+        <v>423160680</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>2</v>
@@ -8282,7 +8282,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>423207723</v>
+        <v>423198791</v>
       </c>
       <c r="C654" s="1" t="s">
         <v>2</v>
@@ -8294,7 +8294,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>423228584</v>
+        <v>423207723</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>2</v>
@@ -8306,7 +8306,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="1">
-        <v>423248348</v>
+        <v>423228584</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>2</v>
@@ -8318,7 +8318,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>423275240</v>
+        <v>423248348</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>2</v>
@@ -8330,7 +8330,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>423356502</v>
+        <v>423275240</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>2</v>
@@ -8342,7 +8342,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>423367122</v>
+        <v>423356502</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>2</v>
@@ -8354,7 +8354,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="1">
-        <v>423379464</v>
+        <v>423367122</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>2</v>
@@ -8366,7 +8366,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="1">
-        <v>423397370</v>
+        <v>423379464</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>2</v>
@@ -8378,7 +8378,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="1">
-        <v>423429109</v>
+        <v>423397370</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>2</v>
@@ -8390,7 +8390,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="1">
-        <v>423505734</v>
+        <v>423429109</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>2</v>
@@ -8402,7 +8402,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="1">
-        <v>423520832</v>
+        <v>423505734</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>2</v>
@@ -8414,7 +8414,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="1">
-        <v>423551720</v>
+        <v>423520832</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>2</v>
@@ -8426,7 +8426,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="1">
-        <v>423590308</v>
+        <v>423551720</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>2</v>
@@ -8438,7 +8438,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="1">
-        <v>423619106</v>
+        <v>423590308</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>2</v>
@@ -8450,7 +8450,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="1">
-        <v>423630202</v>
+        <v>423619106</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>2</v>
@@ -8462,7 +8462,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="1">
-        <v>423663350</v>
+        <v>423630202</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>2</v>
@@ -8474,7 +8474,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="1">
-        <v>423032132</v>
+        <v>423663350</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>2</v>
@@ -8486,7 +8486,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="1">
-        <v>423068881</v>
+        <v>423032132</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>2</v>
@@ -8498,7 +8498,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="1">
-        <v>423084341</v>
+        <v>423068881</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>2</v>
@@ -8510,7 +8510,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="1">
-        <v>423105749</v>
+        <v>423084341</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>2</v>
@@ -8522,7 +8522,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="1">
-        <v>423166648</v>
+        <v>423105749</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>2</v>
@@ -8534,7 +8534,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="1">
-        <v>423318042</v>
+        <v>423166648</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="1">
-        <v>423364177</v>
+        <v>423318042</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>2</v>
@@ -8558,7 +8558,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="1">
-        <v>423394907</v>
+        <v>423364177</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>2</v>
@@ -8570,7 +8570,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="1">
-        <v>423494787</v>
+        <v>423394907</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>2</v>
@@ -8582,7 +8582,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="1">
-        <v>423516251</v>
+        <v>423494787</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>2</v>
@@ -8594,7 +8594,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="1">
-        <v>423600126</v>
+        <v>423516251</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>2</v>
@@ -8606,7 +8606,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="1">
-        <v>423612292</v>
+        <v>423600126</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>2</v>
@@ -8618,7 +8618,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="1">
-        <v>423637340</v>
+        <v>423612292</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>2</v>
@@ -8630,7 +8630,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="1">
-        <v>423001171</v>
+        <v>423637340</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>2</v>
@@ -8642,7 +8642,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="1">
-        <v>423138257</v>
+        <v>423001171</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>2</v>
@@ -8654,7 +8654,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="1">
-        <v>423142711</v>
+        <v>423138257</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>2</v>
@@ -8666,7 +8666,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="1">
-        <v>423197765</v>
+        <v>423142711</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>2</v>
@@ -8678,7 +8678,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="1">
-        <v>423206102</v>
+        <v>423197765</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>2</v>
@@ -8690,7 +8690,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="1">
-        <v>423259089</v>
+        <v>423206102</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>2</v>
@@ -8702,7 +8702,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="1">
-        <v>423310938</v>
+        <v>423259089</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>2</v>
@@ -8714,7 +8714,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="1">
-        <v>423369223</v>
+        <v>423310938</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>2</v>
@@ -8726,7 +8726,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="1">
-        <v>423381619</v>
+        <v>423369223</v>
       </c>
       <c r="C691" s="1" t="s">
         <v>2</v>
@@ -8738,7 +8738,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="1">
-        <v>423432173</v>
+        <v>423381619</v>
       </c>
       <c r="C692" s="1" t="s">
         <v>2</v>
@@ -8750,7 +8750,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="1">
-        <v>423448781</v>
+        <v>423432173</v>
       </c>
       <c r="C693" s="1" t="s">
         <v>2</v>
@@ -8762,7 +8762,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="1">
-        <v>423449086</v>
+        <v>423448781</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>2</v>
@@ -8774,7 +8774,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="1">
-        <v>423546564</v>
+        <v>423449086</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>2</v>
@@ -8786,7 +8786,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="1">
-        <v>423618189</v>
+        <v>423546564</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>2</v>
@@ -8798,7 +8798,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="1">
-        <v>423676596</v>
+        <v>423618189</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="1">
-        <v>423689371</v>
+        <v>423676596</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>2</v>
@@ -8822,7 +8822,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="1">
-        <v>423001250</v>
+        <v>423689371</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>2</v>
@@ -8834,7 +8834,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="1">
-        <v>423001341</v>
+        <v>423001250</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>2</v>
@@ -8846,7 +8846,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="1">
-        <v>423047113</v>
+        <v>423001341</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>2</v>
@@ -8858,7 +8858,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="1">
-        <v>423073833</v>
+        <v>423047113</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>2</v>
@@ -8870,7 +8870,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="1">
-        <v>423080626</v>
+        <v>423073833</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>2</v>
@@ -8882,7 +8882,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="1">
-        <v>423091920</v>
+        <v>423080626</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>2</v>
@@ -8894,7 +8894,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="1">
-        <v>423102958</v>
+        <v>423091920</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>2</v>
@@ -8906,7 +8906,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="1">
-        <v>423215401</v>
+        <v>423102958</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>2</v>
@@ -8918,7 +8918,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="1">
-        <v>423222653</v>
+        <v>423215401</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>2</v>
@@ -8930,7 +8930,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="1">
-        <v>423397241</v>
+        <v>423222653</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>2</v>
@@ -8942,7 +8942,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="1">
-        <v>423444838</v>
+        <v>423397241</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>2</v>
@@ -8954,7 +8954,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="1">
-        <v>423472284</v>
+        <v>423444838</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>2</v>
@@ -8966,7 +8966,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="1">
-        <v>423483912</v>
+        <v>423472284</v>
       </c>
       <c r="C711" s="1" t="s">
         <v>2</v>
@@ -8978,7 +8978,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="1">
-        <v>423484615</v>
+        <v>423483912</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>2</v>
@@ -8990,7 +8990,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="1">
-        <v>423498599</v>
+        <v>423484615</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>2</v>
@@ -9002,7 +9002,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="1">
-        <v>423519942</v>
+        <v>423498599</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>2</v>
@@ -9014,7 +9014,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="1">
-        <v>423530061</v>
+        <v>423519942</v>
       </c>
       <c r="C715" s="1" t="s">
         <v>2</v>
@@ -9026,7 +9026,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="1">
-        <v>423601255</v>
+        <v>423530061</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>2</v>
@@ -9038,7 +9038,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="1">
-        <v>423603714</v>
+        <v>423601255</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>2</v>
@@ -9050,7 +9050,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="1">
-        <v>423666981</v>
+        <v>423603714</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>2</v>
@@ -9062,7 +9062,7 @@
         <v>718</v>
       </c>
       <c r="B719" s="1">
-        <v>423674152</v>
+        <v>423666981</v>
       </c>
       <c r="C719" s="1" t="s">
         <v>2</v>
@@ -9074,7 +9074,7 @@
         <v>719</v>
       </c>
       <c r="B720" s="1">
-        <v>423674896</v>
+        <v>423674152</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>2</v>
@@ -9086,7 +9086,7 @@
         <v>720</v>
       </c>
       <c r="B721" s="1">
-        <v>423002156</v>
+        <v>423674896</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>2</v>
@@ -9098,7 +9098,7 @@
         <v>721</v>
       </c>
       <c r="B722" s="1">
-        <v>423248868</v>
+        <v>423002156</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>2</v>
@@ -9110,7 +9110,7 @@
         <v>722</v>
       </c>
       <c r="B723" s="1">
-        <v>423289514</v>
+        <v>423248868</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>2</v>
@@ -9122,7 +9122,7 @@
         <v>723</v>
       </c>
       <c r="B724" s="1">
-        <v>423334069</v>
+        <v>423289514</v>
       </c>
       <c r="C724" s="1" t="s">
         <v>2</v>
@@ -9134,7 +9134,7 @@
         <v>724</v>
       </c>
       <c r="B725" s="1">
-        <v>423353061</v>
+        <v>423334069</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>2</v>
@@ -9146,7 +9146,7 @@
         <v>725</v>
       </c>
       <c r="B726" s="1">
-        <v>423362137</v>
+        <v>423353061</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>2</v>
@@ -9158,7 +9158,7 @@
         <v>726</v>
       </c>
       <c r="B727" s="1">
-        <v>423399543</v>
+        <v>423362137</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>2</v>
@@ -9170,7 +9170,7 @@
         <v>727</v>
       </c>
       <c r="B728" s="1">
-        <v>423517796</v>
+        <v>423399543</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>2</v>
@@ -9182,7 +9182,7 @@
         <v>728</v>
       </c>
       <c r="B729" s="1">
-        <v>423688055</v>
+        <v>423517796</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>2</v>
@@ -9194,7 +9194,7 @@
         <v>729</v>
       </c>
       <c r="B730" s="1">
-        <v>423042506</v>
+        <v>423688055</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>2</v>
@@ -9206,7 +9206,7 @@
         <v>730</v>
       </c>
       <c r="B731" s="1">
-        <v>423045505</v>
+        <v>423042506</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>2</v>
@@ -9218,7 +9218,7 @@
         <v>731</v>
       </c>
       <c r="B732" s="1">
-        <v>423132188</v>
+        <v>423045505</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>2</v>
@@ -9230,7 +9230,7 @@
         <v>732</v>
       </c>
       <c r="B733" s="1">
-        <v>423233902</v>
+        <v>423132188</v>
       </c>
       <c r="C733" s="1" t="s">
         <v>2</v>
@@ -9242,7 +9242,7 @@
         <v>733</v>
       </c>
       <c r="B734" s="1">
-        <v>423252627</v>
+        <v>423233902</v>
       </c>
       <c r="C734" s="1" t="s">
         <v>2</v>
@@ -9254,7 +9254,7 @@
         <v>734</v>
       </c>
       <c r="B735" s="1">
-        <v>423303714</v>
+        <v>423252627</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>2</v>
@@ -9266,7 +9266,7 @@
         <v>735</v>
       </c>
       <c r="B736" s="1">
-        <v>423340683</v>
+        <v>423303714</v>
       </c>
       <c r="C736" s="1" t="s">
         <v>2</v>
@@ -9278,7 +9278,7 @@
         <v>736</v>
       </c>
       <c r="B737" s="1">
-        <v>423403652</v>
+        <v>423340683</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>2</v>
@@ -9290,7 +9290,7 @@
         <v>737</v>
       </c>
       <c r="B738" s="1">
-        <v>423414974</v>
+        <v>423403652</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>2</v>
@@ -9302,7 +9302,7 @@
         <v>738</v>
       </c>
       <c r="B739" s="1">
-        <v>423467340</v>
+        <v>423414974</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>2</v>
@@ -9314,7 +9314,7 @@
         <v>739</v>
       </c>
       <c r="B740" s="1">
-        <v>423484591</v>
+        <v>423467340</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>2</v>
@@ -9326,7 +9326,7 @@
         <v>740</v>
       </c>
       <c r="B741" s="1">
-        <v>423525231</v>
+        <v>423484591</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>2</v>
@@ -9338,7 +9338,7 @@
         <v>741</v>
       </c>
       <c r="B742" s="1">
-        <v>423544335</v>
+        <v>423525231</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>2</v>
@@ -9350,7 +9350,7 @@
         <v>742</v>
       </c>
       <c r="B743" s="1">
-        <v>423545313</v>
+        <v>423544335</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>743</v>
       </c>
       <c r="B744" s="1">
-        <v>423546984</v>
+        <v>423545313</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>2</v>
@@ -9374,7 +9374,7 @@
         <v>744</v>
       </c>
       <c r="B745" s="1">
-        <v>423688737</v>
+        <v>423546984</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>2</v>
@@ -9386,7 +9386,7 @@
         <v>745</v>
       </c>
       <c r="B746" s="1">
-        <v>423074896</v>
+        <v>423688737</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>2</v>
@@ -9398,7 +9398,7 @@
         <v>746</v>
       </c>
       <c r="B747" s="1">
-        <v>423103162</v>
+        <v>423074896</v>
       </c>
       <c r="C747" s="1" t="s">
         <v>2</v>
@@ -9410,7 +9410,7 @@
         <v>747</v>
       </c>
       <c r="B748" s="1">
-        <v>423188524</v>
+        <v>423103162</v>
       </c>
       <c r="C748" s="1" t="s">
         <v>2</v>
@@ -9422,7 +9422,7 @@
         <v>748</v>
       </c>
       <c r="B749" s="1">
-        <v>423291910</v>
+        <v>423188524</v>
       </c>
       <c r="C749" s="1" t="s">
         <v>2</v>
@@ -9434,7 +9434,7 @@
         <v>749</v>
       </c>
       <c r="B750" s="1">
-        <v>423365017</v>
+        <v>423291910</v>
       </c>
       <c r="C750" s="1" t="s">
         <v>2</v>
@@ -9446,7 +9446,7 @@
         <v>750</v>
       </c>
       <c r="B751" s="1">
-        <v>423419581</v>
+        <v>423365017</v>
       </c>
       <c r="C751" s="1" t="s">
         <v>2</v>
@@ -9458,7 +9458,7 @@
         <v>751</v>
       </c>
       <c r="B752" s="1">
-        <v>423429073</v>
+        <v>423419581</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>2</v>
@@ -9470,7 +9470,7 @@
         <v>752</v>
       </c>
       <c r="B753" s="1">
-        <v>423032582</v>
+        <v>423429073</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>2</v>
@@ -9482,7 +9482,7 @@
         <v>753</v>
       </c>
       <c r="B754" s="1">
-        <v>423289219</v>
+        <v>423032582</v>
       </c>
       <c r="C754" s="1" t="s">
         <v>2</v>
@@ -9494,7 +9494,7 @@
         <v>754</v>
       </c>
       <c r="B755" s="1">
-        <v>423290036</v>
+        <v>423289219</v>
       </c>
       <c r="C755" s="1" t="s">
         <v>2</v>
@@ -9506,7 +9506,7 @@
         <v>755</v>
       </c>
       <c r="B756" s="1">
-        <v>423291608</v>
+        <v>423290036</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>2</v>
@@ -9518,7 +9518,7 @@
         <v>756</v>
       </c>
       <c r="B757" s="1">
-        <v>423293471</v>
+        <v>423291608</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>2</v>
@@ -9530,7 +9530,7 @@
         <v>757</v>
       </c>
       <c r="B758" s="1">
-        <v>423357417</v>
+        <v>423293471</v>
       </c>
       <c r="C758" s="1" t="s">
         <v>2</v>
@@ -9542,7 +9542,7 @@
         <v>758</v>
       </c>
       <c r="B759" s="1">
-        <v>423411645</v>
+        <v>423357417</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>2</v>
@@ -9554,7 +9554,7 @@
         <v>759</v>
       </c>
       <c r="B760" s="1">
-        <v>423447155</v>
+        <v>423411645</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>2</v>
@@ -9566,7 +9566,7 @@
         <v>760</v>
       </c>
       <c r="B761" s="1">
-        <v>423450358</v>
+        <v>423447155</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>2</v>
@@ -9578,7 +9578,7 @@
         <v>761</v>
       </c>
       <c r="B762" s="1">
-        <v>423211663</v>
+        <v>423450358</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>2</v>
@@ -9590,7 +9590,7 @@
         <v>762</v>
       </c>
       <c r="B763" s="1">
-        <v>423212122</v>
+        <v>423211663</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>2</v>
@@ -9602,7 +9602,7 @@
         <v>763</v>
       </c>
       <c r="B764" s="1">
-        <v>423225028</v>
+        <v>423212122</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>2</v>
@@ -9614,7 +9614,7 @@
         <v>764</v>
       </c>
       <c r="B765" s="1">
-        <v>423268417</v>
+        <v>423225028</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>2</v>
@@ -9626,7 +9626,7 @@
         <v>765</v>
       </c>
       <c r="B766" s="1">
-        <v>423277944</v>
+        <v>423268417</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>2</v>
@@ -9638,7 +9638,7 @@
         <v>766</v>
       </c>
       <c r="B767" s="1">
-        <v>423290074</v>
+        <v>423277944</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>2</v>
@@ -9650,7 +9650,7 @@
         <v>767</v>
       </c>
       <c r="B768" s="1">
-        <v>423321645</v>
+        <v>423290074</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>2</v>
@@ -9662,7 +9662,7 @@
         <v>768</v>
       </c>
       <c r="B769" s="1">
-        <v>423439565</v>
+        <v>423321645</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>2</v>
@@ -9674,7 +9674,7 @@
         <v>769</v>
       </c>
       <c r="B770" s="1">
-        <v>423445028</v>
+        <v>423439565</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>2</v>
@@ -9686,7 +9686,7 @@
         <v>770</v>
       </c>
       <c r="B771" s="1">
-        <v>423451711</v>
+        <v>423445028</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>2</v>
@@ -9698,7 +9698,7 @@
         <v>771</v>
       </c>
       <c r="B772" s="1">
-        <v>423477583</v>
+        <v>423451711</v>
       </c>
       <c r="C772" s="1" t="s">
         <v>2</v>
@@ -9710,7 +9710,7 @@
         <v>772</v>
       </c>
       <c r="B773" s="1">
-        <v>423482060</v>
+        <v>423477583</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>2</v>
@@ -9722,7 +9722,7 @@
         <v>773</v>
       </c>
       <c r="B774" s="1">
-        <v>423563646</v>
+        <v>423482060</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>2</v>
@@ -9734,7 +9734,7 @@
         <v>774</v>
       </c>
       <c r="B775" s="1">
-        <v>423085597</v>
+        <v>423563646</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>2</v>
@@ -9746,7 +9746,7 @@
         <v>775</v>
       </c>
       <c r="B776" s="1">
-        <v>423109693</v>
+        <v>423085597</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>2</v>
@@ -9758,7 +9758,7 @@
         <v>776</v>
       </c>
       <c r="B777" s="1">
-        <v>423133643</v>
+        <v>423109693</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>2</v>
@@ -9770,7 +9770,7 @@
         <v>777</v>
       </c>
       <c r="B778" s="1">
-        <v>423151483</v>
+        <v>423133643</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>2</v>
@@ -9782,7 +9782,7 @@
         <v>778</v>
       </c>
       <c r="B779" s="1">
-        <v>423585047</v>
+        <v>423151483</v>
       </c>
       <c r="C779" s="1" t="s">
         <v>2</v>
@@ -9794,7 +9794,7 @@
         <v>779</v>
       </c>
       <c r="B780" s="1">
-        <v>423093452</v>
+        <v>423585047</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>2</v>
@@ -9806,7 +9806,7 @@
         <v>780</v>
       </c>
       <c r="B781" s="1">
-        <v>423391365</v>
+        <v>423093452</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>2</v>
@@ -9818,7 +9818,7 @@
         <v>781</v>
       </c>
       <c r="B782" s="1">
-        <v>423416245</v>
+        <v>423391365</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>2</v>
@@ -9830,7 +9830,7 @@
         <v>782</v>
       </c>
       <c r="B783" s="1">
-        <v>423461184</v>
+        <v>423416245</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>2</v>
@@ -9842,7 +9842,7 @@
         <v>783</v>
       </c>
       <c r="B784" s="1">
-        <v>423502486</v>
+        <v>423461184</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>2</v>
@@ -9854,7 +9854,7 @@
         <v>784</v>
       </c>
       <c r="B785" s="1">
-        <v>423402236</v>
+        <v>423502486</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>2</v>
@@ -9866,7 +9866,7 @@
         <v>785</v>
       </c>
       <c r="B786" s="1">
-        <v>423523232</v>
+        <v>423402236</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>2</v>
@@ -9878,7 +9878,7 @@
         <v>786</v>
       </c>
       <c r="B787" s="1">
-        <v>423094680</v>
+        <v>423523232</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>2</v>
@@ -9890,7 +9890,7 @@
         <v>787</v>
       </c>
       <c r="B788" s="1">
-        <v>423123855</v>
+        <v>423094680</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>2</v>
@@ -9902,7 +9902,7 @@
         <v>788</v>
       </c>
       <c r="B789" s="1">
-        <v>423251687</v>
+        <v>423123855</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>2</v>
@@ -9914,7 +9914,7 @@
         <v>789</v>
       </c>
       <c r="B790" s="1">
-        <v>423408544</v>
+        <v>423251687</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>2</v>
@@ -9926,7 +9926,7 @@
         <v>790</v>
       </c>
       <c r="B791" s="1">
-        <v>423005859</v>
+        <v>423408544</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>2</v>
@@ -9938,7 +9938,7 @@
         <v>791</v>
       </c>
       <c r="B792" s="1">
-        <v>423375191</v>
+        <v>423005859</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>2</v>
@@ -9950,7 +9950,7 @@
         <v>792</v>
       </c>
       <c r="B793" s="1">
-        <v>423043755</v>
+        <v>423375191</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>2</v>
@@ -9962,7 +9962,7 @@
         <v>793</v>
       </c>
       <c r="B794" s="1">
-        <v>423331128</v>
+        <v>423043755</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>2</v>
@@ -9974,7 +9974,7 @@
         <v>794</v>
       </c>
       <c r="B795" s="1">
-        <v>423525858</v>
+        <v>423331128</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>2</v>
@@ -9986,7 +9986,7 @@
         <v>795</v>
       </c>
       <c r="B796" s="1">
-        <v>423560719</v>
+        <v>423525858</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>2</v>
@@ -9998,7 +9998,7 @@
         <v>796</v>
       </c>
       <c r="B797" s="1">
-        <v>423058849</v>
+        <v>423560719</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>2</v>
@@ -10010,7 +10010,7 @@
         <v>797</v>
       </c>
       <c r="B798" s="1">
-        <v>423087841</v>
+        <v>423058849</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>2</v>
@@ -10022,7 +10022,7 @@
         <v>798</v>
       </c>
       <c r="B799" s="1">
-        <v>423100029</v>
+        <v>423087841</v>
       </c>
       <c r="C799" s="1" t="s">
         <v>2</v>
@@ -10034,7 +10034,7 @@
         <v>799</v>
       </c>
       <c r="B800" s="1">
-        <v>423138002</v>
+        <v>423100029</v>
       </c>
       <c r="C800" s="1" t="s">
         <v>2</v>
@@ -10046,7 +10046,7 @@
         <v>800</v>
       </c>
       <c r="B801" s="1">
-        <v>423220208</v>
+        <v>423138002</v>
       </c>
       <c r="C801" s="1" t="s">
         <v>2</v>
@@ -10058,7 +10058,7 @@
         <v>801</v>
       </c>
       <c r="B802" s="1">
-        <v>423221999</v>
+        <v>423220208</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>2</v>
@@ -10070,7 +10070,7 @@
         <v>802</v>
       </c>
       <c r="B803" s="1">
-        <v>423260916</v>
+        <v>423221999</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>2</v>
@@ -10082,7 +10082,7 @@
         <v>803</v>
       </c>
       <c r="B804" s="1">
-        <v>423269913</v>
+        <v>423260916</v>
       </c>
       <c r="C804" s="1" t="s">
         <v>2</v>
@@ -10094,7 +10094,7 @@
         <v>804</v>
       </c>
       <c r="B805" s="1">
-        <v>423275823</v>
+        <v>423269913</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>2</v>
@@ -10106,7 +10106,7 @@
         <v>805</v>
       </c>
       <c r="B806" s="1">
-        <v>423430061</v>
+        <v>423275823</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>2</v>
@@ -10118,7 +10118,7 @@
         <v>806</v>
       </c>
       <c r="B807" s="1">
-        <v>423477725</v>
+        <v>423430061</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>2</v>
@@ -10130,7 +10130,7 @@
         <v>807</v>
       </c>
       <c r="B808" s="1">
-        <v>423562516</v>
+        <v>423477725</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>2</v>
@@ -10142,7 +10142,7 @@
         <v>808</v>
       </c>
       <c r="B809" s="1">
-        <v>423591718</v>
+        <v>423562516</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>2</v>
@@ -10154,7 +10154,7 @@
         <v>809</v>
       </c>
       <c r="B810" s="1">
-        <v>423093574</v>
+        <v>423591718</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>810</v>
       </c>
       <c r="B811" s="1">
-        <v>423101710</v>
+        <v>423093574</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>2</v>
@@ -10178,7 +10178,7 @@
         <v>811</v>
       </c>
       <c r="B812" s="1">
-        <v>423128732</v>
+        <v>423101710</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>2</v>
@@ -10190,7 +10190,7 @@
         <v>812</v>
       </c>
       <c r="B813" s="1">
-        <v>423167559</v>
+        <v>423128732</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>2</v>
@@ -10202,7 +10202,7 @@
         <v>813</v>
       </c>
       <c r="B814" s="1">
-        <v>423185778</v>
+        <v>423167559</v>
       </c>
       <c r="C814" s="1" t="s">
         <v>2</v>
@@ -10214,7 +10214,7 @@
         <v>814</v>
       </c>
       <c r="B815" s="1">
-        <v>423187917</v>
+        <v>423185778</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>2</v>
@@ -10226,7 +10226,7 @@
         <v>815</v>
       </c>
       <c r="B816" s="1">
-        <v>423269528</v>
+        <v>423187917</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>2</v>
@@ -10238,7 +10238,7 @@
         <v>816</v>
       </c>
       <c r="B817" s="1">
-        <v>423357315</v>
+        <v>423269528</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>2</v>
@@ -10250,7 +10250,7 @@
         <v>817</v>
       </c>
       <c r="B818" s="1">
-        <v>423407413</v>
+        <v>423357315</v>
       </c>
       <c r="C818" s="1" t="s">
         <v>2</v>
@@ -10262,7 +10262,7 @@
         <v>818</v>
       </c>
       <c r="B819" s="1">
-        <v>423481191</v>
+        <v>423407413</v>
       </c>
       <c r="C819" s="1" t="s">
         <v>2</v>
@@ -10274,7 +10274,7 @@
         <v>819</v>
       </c>
       <c r="B820" s="1">
-        <v>423484649</v>
+        <v>423481191</v>
       </c>
       <c r="C820" s="1" t="s">
         <v>2</v>
@@ -10286,7 +10286,7 @@
         <v>820</v>
       </c>
       <c r="B821" s="1">
-        <v>423527884</v>
+        <v>423484649</v>
       </c>
       <c r="C821" s="1" t="s">
         <v>2</v>
@@ -10298,7 +10298,7 @@
         <v>821</v>
       </c>
       <c r="B822" s="1">
-        <v>423529328</v>
+        <v>423527884</v>
       </c>
       <c r="C822" s="1" t="s">
         <v>2</v>
@@ -10310,7 +10310,7 @@
         <v>822</v>
       </c>
       <c r="B823" s="1">
-        <v>423684575</v>
+        <v>423529328</v>
       </c>
       <c r="C823" s="1" t="s">
         <v>2</v>
@@ -10322,7 +10322,7 @@
         <v>823</v>
       </c>
       <c r="B824" s="1">
-        <v>423002568</v>
+        <v>423684575</v>
       </c>
       <c r="C824" s="1" t="s">
         <v>2</v>
@@ -10334,7 +10334,7 @@
         <v>824</v>
       </c>
       <c r="B825" s="1">
-        <v>423074361</v>
+        <v>423002568</v>
       </c>
       <c r="C825" s="1" t="s">
         <v>2</v>
@@ -10346,7 +10346,7 @@
         <v>825</v>
       </c>
       <c r="B826" s="1">
-        <v>423092372</v>
+        <v>423074361</v>
       </c>
       <c r="C826" s="1" t="s">
         <v>2</v>
@@ -10358,7 +10358,7 @@
         <v>826</v>
       </c>
       <c r="B827" s="1">
-        <v>423125330</v>
+        <v>423092372</v>
       </c>
       <c r="C827" s="1" t="s">
         <v>2</v>
@@ -10370,7 +10370,7 @@
         <v>827</v>
       </c>
       <c r="B828" s="1">
-        <v>423156991</v>
+        <v>423125330</v>
       </c>
       <c r="C828" s="1" t="s">
         <v>2</v>
@@ -10382,7 +10382,7 @@
         <v>828</v>
       </c>
       <c r="B829" s="1">
-        <v>423202416</v>
+        <v>423156991</v>
       </c>
       <c r="C829" s="1" t="s">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>829</v>
       </c>
       <c r="B830" s="1">
-        <v>423218881</v>
+        <v>423202416</v>
       </c>
       <c r="C830" s="1" t="s">
         <v>2</v>
@@ -10406,7 +10406,7 @@
         <v>830</v>
       </c>
       <c r="B831" s="1">
-        <v>423323143</v>
+        <v>423218881</v>
       </c>
       <c r="C831" s="1" t="s">
         <v>2</v>
@@ -10418,7 +10418,7 @@
         <v>831</v>
       </c>
       <c r="B832" s="1">
-        <v>423438715</v>
+        <v>423323143</v>
       </c>
       <c r="C832" s="1" t="s">
         <v>2</v>
@@ -10430,7 +10430,7 @@
         <v>832</v>
       </c>
       <c r="B833" s="1">
-        <v>423460748</v>
+        <v>423438715</v>
       </c>
       <c r="C833" s="1" t="s">
         <v>2</v>
@@ -10442,7 +10442,7 @@
         <v>833</v>
       </c>
       <c r="B834" s="1">
-        <v>423507180</v>
+        <v>423460748</v>
       </c>
       <c r="C834" s="1" t="s">
         <v>2</v>
@@ -10454,7 +10454,7 @@
         <v>834</v>
       </c>
       <c r="B835" s="1">
-        <v>423550867</v>
+        <v>423507180</v>
       </c>
       <c r="C835" s="1" t="s">
         <v>2</v>
@@ -10466,7 +10466,7 @@
         <v>835</v>
       </c>
       <c r="B836" s="1">
-        <v>423562776</v>
+        <v>423550867</v>
       </c>
       <c r="C836" s="1" t="s">
         <v>2</v>
@@ -10478,7 +10478,7 @@
         <v>836</v>
       </c>
       <c r="B837" s="1">
-        <v>423569985</v>
+        <v>423562776</v>
       </c>
       <c r="C837" s="1" t="s">
         <v>2</v>
@@ -10490,7 +10490,7 @@
         <v>837</v>
       </c>
       <c r="B838" s="1">
-        <v>423627106</v>
+        <v>423569985</v>
       </c>
       <c r="C838" s="1" t="s">
         <v>2</v>
@@ -10502,7 +10502,7 @@
         <v>838</v>
       </c>
       <c r="B839" s="1">
-        <v>423660733</v>
+        <v>423627106</v>
       </c>
       <c r="C839" s="1" t="s">
         <v>2</v>
@@ -10514,7 +10514,7 @@
         <v>839</v>
       </c>
       <c r="B840" s="1">
-        <v>423030559</v>
+        <v>423660733</v>
       </c>
       <c r="C840" s="1" t="s">
         <v>2</v>
@@ -10526,7 +10526,7 @@
         <v>840</v>
       </c>
       <c r="B841" s="1">
-        <v>423099304</v>
+        <v>423030559</v>
       </c>
       <c r="C841" s="1" t="s">
         <v>2</v>
@@ -10538,7 +10538,7 @@
         <v>841</v>
       </c>
       <c r="B842" s="1">
-        <v>423107822</v>
+        <v>423099304</v>
       </c>
       <c r="C842" s="1" t="s">
         <v>2</v>
@@ -10550,7 +10550,7 @@
         <v>842</v>
       </c>
       <c r="B843" s="1">
-        <v>423161079</v>
+        <v>423107822</v>
       </c>
       <c r="C843" s="1" t="s">
         <v>2</v>
@@ -10562,7 +10562,7 @@
         <v>843</v>
       </c>
       <c r="B844" s="1">
-        <v>423180880</v>
+        <v>423161079</v>
       </c>
       <c r="C844" s="1" t="s">
         <v>2</v>
@@ -10574,7 +10574,7 @@
         <v>844</v>
       </c>
       <c r="B845" s="1">
-        <v>423204764</v>
+        <v>423180880</v>
       </c>
       <c r="C845" s="1" t="s">
         <v>2</v>
@@ -10586,7 +10586,7 @@
         <v>845</v>
       </c>
       <c r="B846" s="1">
-        <v>423294289</v>
+        <v>423204764</v>
       </c>
       <c r="C846" s="1" t="s">
         <v>2</v>
@@ -10598,7 +10598,7 @@
         <v>846</v>
       </c>
       <c r="B847" s="1">
-        <v>423320603</v>
+        <v>423294289</v>
       </c>
       <c r="C847" s="1" t="s">
         <v>2</v>
@@ -10610,7 +10610,7 @@
         <v>847</v>
       </c>
       <c r="B848" s="1">
-        <v>423383602</v>
+        <v>423320603</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>2</v>
@@ -10622,7 +10622,7 @@
         <v>848</v>
       </c>
       <c r="B849" s="1">
-        <v>423403627</v>
+        <v>423383602</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>2</v>
@@ -10634,7 +10634,7 @@
         <v>849</v>
       </c>
       <c r="B850" s="1">
-        <v>423431165</v>
+        <v>423403627</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>2</v>
@@ -10646,7 +10646,7 @@
         <v>850</v>
       </c>
       <c r="B851" s="1">
-        <v>423451962</v>
+        <v>423431165</v>
       </c>
       <c r="C851" s="1" t="s">
         <v>2</v>
@@ -10658,7 +10658,7 @@
         <v>851</v>
       </c>
       <c r="B852" s="1">
-        <v>423490450</v>
+        <v>423451962</v>
       </c>
       <c r="C852" s="1" t="s">
         <v>2</v>
@@ -10670,7 +10670,7 @@
         <v>852</v>
       </c>
       <c r="B853" s="1">
-        <v>423097613</v>
+        <v>423490450</v>
       </c>
       <c r="C853" s="1" t="s">
         <v>2</v>
@@ -10682,7 +10682,7 @@
         <v>853</v>
       </c>
       <c r="B854" s="1">
-        <v>423175104</v>
+        <v>423097613</v>
       </c>
       <c r="C854" s="1" t="s">
         <v>2</v>
@@ -10694,7 +10694,7 @@
         <v>854</v>
       </c>
       <c r="B855" s="1">
-        <v>423259772</v>
+        <v>423175104</v>
       </c>
       <c r="C855" s="1" t="s">
         <v>2</v>
@@ -10706,7 +10706,7 @@
         <v>855</v>
       </c>
       <c r="B856" s="1">
-        <v>423310851</v>
+        <v>423259772</v>
       </c>
       <c r="C856" s="1" t="s">
         <v>2</v>
@@ -10718,7 +10718,7 @@
         <v>856</v>
       </c>
       <c r="B857" s="1">
-        <v>423341440</v>
+        <v>423310851</v>
       </c>
       <c r="C857" s="1" t="s">
         <v>2</v>
@@ -10730,7 +10730,7 @@
         <v>857</v>
       </c>
       <c r="B858" s="1">
-        <v>423371254</v>
+        <v>423341440</v>
       </c>
       <c r="C858" s="1" t="s">
         <v>2</v>
@@ -10742,7 +10742,7 @@
         <v>858</v>
       </c>
       <c r="B859" s="1">
-        <v>423489485</v>
+        <v>423371254</v>
       </c>
       <c r="C859" s="1" t="s">
         <v>2</v>
@@ -10754,7 +10754,7 @@
         <v>859</v>
       </c>
       <c r="B860" s="1">
-        <v>423542025</v>
+        <v>423489485</v>
       </c>
       <c r="C860" s="1" t="s">
         <v>2</v>
@@ -10766,7 +10766,7 @@
         <v>860</v>
       </c>
       <c r="B861" s="1">
-        <v>423593351</v>
+        <v>423542025</v>
       </c>
       <c r="C861" s="1" t="s">
         <v>2</v>
@@ -10778,7 +10778,7 @@
         <v>861</v>
       </c>
       <c r="B862" s="1">
-        <v>423623891</v>
+        <v>423593351</v>
       </c>
       <c r="C862" s="1" t="s">
         <v>2</v>
@@ -10790,7 +10790,7 @@
         <v>862</v>
       </c>
       <c r="B863" s="1">
-        <v>423053135</v>
+        <v>423623891</v>
       </c>
       <c r="C863" s="1" t="s">
         <v>2</v>
@@ -10802,7 +10802,7 @@
         <v>863</v>
       </c>
       <c r="B864" s="1">
-        <v>423129036</v>
+        <v>423053135</v>
       </c>
       <c r="C864" s="1" t="s">
         <v>2</v>
@@ -10814,7 +10814,7 @@
         <v>864</v>
       </c>
       <c r="B865" s="1">
-        <v>423160096</v>
+        <v>423129036</v>
       </c>
       <c r="C865" s="1" t="s">
         <v>2</v>
@@ -10826,7 +10826,7 @@
         <v>865</v>
       </c>
       <c r="B866" s="1">
-        <v>423247573</v>
+        <v>423160096</v>
       </c>
       <c r="C866" s="1" t="s">
         <v>2</v>
@@ -10838,7 +10838,7 @@
         <v>866</v>
       </c>
       <c r="B867" s="1">
-        <v>423251630</v>
+        <v>423247573</v>
       </c>
       <c r="C867" s="1" t="s">
         <v>2</v>
@@ -10850,7 +10850,7 @@
         <v>867</v>
       </c>
       <c r="B868" s="1">
-        <v>423269285</v>
+        <v>423251630</v>
       </c>
       <c r="C868" s="1" t="s">
         <v>2</v>
@@ -10862,7 +10862,7 @@
         <v>868</v>
       </c>
       <c r="B869" s="1">
-        <v>423297033</v>
+        <v>423269285</v>
       </c>
       <c r="C869" s="1" t="s">
         <v>2</v>
@@ -10874,7 +10874,7 @@
         <v>869</v>
       </c>
       <c r="B870" s="1">
-        <v>423299186</v>
+        <v>423297033</v>
       </c>
       <c r="C870" s="1" t="s">
         <v>2</v>
@@ -10886,7 +10886,7 @@
         <v>870</v>
       </c>
       <c r="B871" s="1">
-        <v>423343399</v>
+        <v>423299186</v>
       </c>
       <c r="C871" s="1" t="s">
         <v>2</v>
@@ -10898,7 +10898,7 @@
         <v>871</v>
       </c>
       <c r="B872" s="1">
-        <v>423357613</v>
+        <v>423343399</v>
       </c>
       <c r="C872" s="1" t="s">
         <v>2</v>
@@ -10910,7 +10910,7 @@
         <v>872</v>
       </c>
       <c r="B873" s="1">
-        <v>423511245</v>
+        <v>423357613</v>
       </c>
       <c r="C873" s="1" t="s">
         <v>2</v>
@@ -10922,7 +10922,7 @@
         <v>873</v>
       </c>
       <c r="B874" s="1">
-        <v>423517902</v>
+        <v>423511245</v>
       </c>
       <c r="C874" s="1" t="s">
         <v>2</v>
@@ -10934,7 +10934,7 @@
         <v>874</v>
       </c>
       <c r="B875" s="1">
-        <v>423587136</v>
+        <v>423517902</v>
       </c>
       <c r="C875" s="1" t="s">
         <v>2</v>
@@ -10946,7 +10946,7 @@
         <v>875</v>
       </c>
       <c r="B876" s="1">
-        <v>423132955</v>
+        <v>423587136</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>876</v>
       </c>
       <c r="B877" s="1">
-        <v>423243429</v>
+        <v>423132955</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>2</v>
@@ -10970,7 +10970,7 @@
         <v>877</v>
       </c>
       <c r="B878" s="1">
-        <v>423322016</v>
+        <v>423243429</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>2</v>
@@ -10982,7 +10982,7 @@
         <v>878</v>
       </c>
       <c r="B879" s="1">
-        <v>423322020</v>
+        <v>423322016</v>
       </c>
       <c r="C879" s="1" t="s">
         <v>2</v>
@@ -10994,7 +10994,7 @@
         <v>879</v>
       </c>
       <c r="B880" s="1">
-        <v>423335050</v>
+        <v>423322020</v>
       </c>
       <c r="C880" s="1" t="s">
         <v>2</v>
@@ -11006,7 +11006,7 @@
         <v>880</v>
       </c>
       <c r="B881" s="1">
-        <v>423384323</v>
+        <v>423335050</v>
       </c>
       <c r="C881" s="1" t="s">
         <v>2</v>
@@ -11018,7 +11018,7 @@
         <v>881</v>
       </c>
       <c r="B882" s="1">
-        <v>423497550</v>
+        <v>423384323</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>2</v>
@@ -11030,7 +11030,7 @@
         <v>882</v>
       </c>
       <c r="B883" s="1">
-        <v>423527965</v>
+        <v>423497550</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>2</v>
@@ -11042,7 +11042,7 @@
         <v>883</v>
       </c>
       <c r="B884" s="1">
-        <v>423576534</v>
+        <v>423527965</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>2</v>
@@ -11054,7 +11054,7 @@
         <v>884</v>
       </c>
       <c r="B885" s="1">
-        <v>423663009</v>
+        <v>423576534</v>
       </c>
       <c r="C885" s="1" t="s">
         <v>2</v>
@@ -11066,7 +11066,7 @@
         <v>885</v>
       </c>
       <c r="B886" s="1">
-        <v>423026910</v>
+        <v>423663009</v>
       </c>
       <c r="C886" s="1" t="s">
         <v>2</v>
@@ -11078,7 +11078,7 @@
         <v>886</v>
       </c>
       <c r="B887" s="1">
-        <v>423205660</v>
+        <v>423026910</v>
       </c>
       <c r="C887" s="1" t="s">
         <v>2</v>
@@ -11090,7 +11090,7 @@
         <v>887</v>
       </c>
       <c r="B888" s="1">
-        <v>423231352</v>
+        <v>423205660</v>
       </c>
       <c r="C888" s="1" t="s">
         <v>2</v>
@@ -11102,7 +11102,7 @@
         <v>888</v>
       </c>
       <c r="B889" s="1">
-        <v>423290020</v>
+        <v>423231352</v>
       </c>
       <c r="C889" s="1" t="s">
         <v>2</v>
@@ -11114,7 +11114,7 @@
         <v>889</v>
       </c>
       <c r="B890" s="1">
-        <v>423293793</v>
+        <v>423290020</v>
       </c>
       <c r="C890" s="1" t="s">
         <v>2</v>
@@ -11126,7 +11126,7 @@
         <v>890</v>
       </c>
       <c r="B891" s="1">
-        <v>423299226</v>
+        <v>423293793</v>
       </c>
       <c r="C891" s="1" t="s">
         <v>2</v>
@@ -11138,7 +11138,7 @@
         <v>891</v>
       </c>
       <c r="B892" s="1">
-        <v>423325035</v>
+        <v>423299226</v>
       </c>
       <c r="C892" s="1" t="s">
         <v>2</v>
@@ -11150,7 +11150,7 @@
         <v>892</v>
       </c>
       <c r="B893" s="1">
-        <v>423347679</v>
+        <v>423325035</v>
       </c>
       <c r="C893" s="1" t="s">
         <v>2</v>
@@ -11162,7 +11162,7 @@
         <v>893</v>
       </c>
       <c r="B894" s="1">
-        <v>423531305</v>
+        <v>423347679</v>
       </c>
       <c r="C894" s="1" t="s">
         <v>2</v>
@@ -11174,7 +11174,7 @@
         <v>894</v>
       </c>
       <c r="B895" s="1">
-        <v>423590354</v>
+        <v>423531305</v>
       </c>
       <c r="C895" s="1" t="s">
         <v>2</v>
@@ -11186,7 +11186,7 @@
         <v>895</v>
       </c>
       <c r="B896" s="1">
-        <v>423646032</v>
+        <v>423590354</v>
       </c>
       <c r="C896" s="1" t="s">
         <v>2</v>
@@ -11198,7 +11198,7 @@
         <v>896</v>
       </c>
       <c r="B897" s="1">
-        <v>423646848</v>
+        <v>423646032</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>2</v>
@@ -11210,7 +11210,7 @@
         <v>897</v>
       </c>
       <c r="B898" s="1">
-        <v>423662961</v>
+        <v>423646848</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>2</v>
@@ -11222,7 +11222,7 @@
         <v>898</v>
       </c>
       <c r="B899" s="1">
-        <v>423080446</v>
+        <v>423662961</v>
       </c>
       <c r="C899" s="1" t="s">
         <v>2</v>
@@ -11234,7 +11234,7 @@
         <v>899</v>
       </c>
       <c r="B900" s="1">
-        <v>423128144</v>
+        <v>423080446</v>
       </c>
       <c r="C900" s="1" t="s">
         <v>2</v>
@@ -11246,7 +11246,7 @@
         <v>900</v>
       </c>
       <c r="B901" s="1">
-        <v>423133763</v>
+        <v>423128144</v>
       </c>
       <c r="C901" s="1" t="s">
         <v>2</v>
@@ -11258,7 +11258,7 @@
         <v>901</v>
       </c>
       <c r="B902" s="1">
-        <v>423198618</v>
+        <v>423133763</v>
       </c>
       <c r="C902" s="1" t="s">
         <v>2</v>
@@ -11270,7 +11270,7 @@
         <v>902</v>
       </c>
       <c r="B903" s="1">
-        <v>423265673</v>
+        <v>423198618</v>
       </c>
       <c r="C903" s="1" t="s">
         <v>2</v>
@@ -11282,7 +11282,7 @@
         <v>903</v>
       </c>
       <c r="B904" s="1">
-        <v>423285771</v>
+        <v>423265673</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>2</v>
@@ -11294,7 +11294,7 @@
         <v>904</v>
       </c>
       <c r="B905" s="1">
-        <v>423325132</v>
+        <v>423285771</v>
       </c>
       <c r="C905" s="1" t="s">
         <v>2</v>
@@ -11306,7 +11306,7 @@
         <v>905</v>
       </c>
       <c r="B906" s="1">
-        <v>423335937</v>
+        <v>423325132</v>
       </c>
       <c r="C906" s="1" t="s">
         <v>2</v>
@@ -11318,7 +11318,7 @@
         <v>906</v>
       </c>
       <c r="B907" s="1">
-        <v>423344317</v>
+        <v>423335937</v>
       </c>
       <c r="C907" s="1" t="s">
         <v>2</v>
@@ -11330,7 +11330,7 @@
         <v>907</v>
       </c>
       <c r="B908" s="1">
-        <v>423477644</v>
+        <v>423344317</v>
       </c>
       <c r="C908" s="1" t="s">
         <v>2</v>
@@ -11342,7 +11342,7 @@
         <v>908</v>
       </c>
       <c r="B909" s="1">
-        <v>423559004</v>
+        <v>423477644</v>
       </c>
       <c r="C909" s="1" t="s">
         <v>2</v>
@@ -11354,7 +11354,7 @@
         <v>909</v>
       </c>
       <c r="B910" s="1">
-        <v>423572489</v>
+        <v>423559004</v>
       </c>
       <c r="C910" s="1" t="s">
         <v>2</v>
@@ -11366,7 +11366,7 @@
         <v>910</v>
       </c>
       <c r="B911" s="1">
-        <v>423594349</v>
+        <v>423572489</v>
       </c>
       <c r="C911" s="1" t="s">
         <v>2</v>
@@ -11378,7 +11378,7 @@
         <v>911</v>
       </c>
       <c r="B912" s="1">
-        <v>423688666</v>
+        <v>423594349</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>2</v>
@@ -11390,7 +11390,7 @@
         <v>912</v>
       </c>
       <c r="B913" s="1">
-        <v>423010752</v>
+        <v>423688666</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>2</v>
@@ -11402,7 +11402,7 @@
         <v>913</v>
       </c>
       <c r="B914" s="1">
-        <v>423140446</v>
+        <v>423010752</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>2</v>
@@ -11414,7 +11414,7 @@
         <v>914</v>
       </c>
       <c r="B915" s="1">
-        <v>423178566</v>
+        <v>423140446</v>
       </c>
       <c r="C915" s="1" t="s">
         <v>2</v>
@@ -11426,7 +11426,7 @@
         <v>915</v>
       </c>
       <c r="B916" s="1">
-        <v>423181490</v>
+        <v>423178566</v>
       </c>
       <c r="C916" s="1" t="s">
         <v>2</v>
@@ -11438,7 +11438,7 @@
         <v>916</v>
       </c>
       <c r="B917" s="1">
-        <v>423223579</v>
+        <v>423181490</v>
       </c>
       <c r="C917" s="1" t="s">
         <v>2</v>
@@ -11450,7 +11450,7 @@
         <v>917</v>
       </c>
       <c r="B918" s="1">
-        <v>423295878</v>
+        <v>423223579</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>2</v>
@@ -11462,7 +11462,7 @@
         <v>918</v>
       </c>
       <c r="B919" s="1">
-        <v>423297455</v>
+        <v>423295878</v>
       </c>
       <c r="C919" s="1" t="s">
         <v>2</v>
@@ -11474,7 +11474,7 @@
         <v>919</v>
       </c>
       <c r="B920" s="1">
-        <v>423595536</v>
+        <v>423297455</v>
       </c>
       <c r="C920" s="1" t="s">
         <v>2</v>
@@ -11486,7 +11486,7 @@
         <v>920</v>
       </c>
       <c r="B921" s="1">
-        <v>423604349</v>
+        <v>423595536</v>
       </c>
       <c r="C921" s="1" t="s">
         <v>2</v>
@@ -11498,7 +11498,7 @@
         <v>921</v>
       </c>
       <c r="B922" s="1">
-        <v>423606282</v>
+        <v>423604349</v>
       </c>
       <c r="C922" s="1" t="s">
         <v>2</v>
@@ -11510,7 +11510,7 @@
         <v>922</v>
       </c>
       <c r="B923" s="1">
-        <v>423002037</v>
+        <v>423606282</v>
       </c>
       <c r="C923" s="1" t="s">
         <v>2</v>
@@ -11522,7 +11522,7 @@
         <v>923</v>
       </c>
       <c r="B924" s="1">
-        <v>423074904</v>
+        <v>423002037</v>
       </c>
       <c r="C924" s="1" t="s">
         <v>2</v>
@@ -11534,7 +11534,7 @@
         <v>924</v>
       </c>
       <c r="B925" s="1">
-        <v>423076236</v>
+        <v>423074904</v>
       </c>
       <c r="C925" s="1" t="s">
         <v>2</v>
@@ -11546,7 +11546,7 @@
         <v>925</v>
       </c>
       <c r="B926" s="1">
-        <v>423182033</v>
+        <v>423076236</v>
       </c>
       <c r="C926" s="1" t="s">
         <v>2</v>
@@ -11558,7 +11558,7 @@
         <v>926</v>
       </c>
       <c r="B927" s="1">
-        <v>423235604</v>
+        <v>423182033</v>
       </c>
       <c r="C927" s="1" t="s">
         <v>2</v>
@@ -11570,7 +11570,7 @@
         <v>927</v>
       </c>
       <c r="B928" s="1">
-        <v>423342019</v>
+        <v>423235604</v>
       </c>
       <c r="C928" s="1" t="s">
         <v>2</v>
@@ -11582,7 +11582,7 @@
         <v>928</v>
       </c>
       <c r="B929" s="1">
-        <v>423342347</v>
+        <v>423342019</v>
       </c>
       <c r="C929" s="1" t="s">
         <v>2</v>
@@ -11594,7 +11594,7 @@
         <v>929</v>
       </c>
       <c r="B930" s="1">
-        <v>423383076</v>
+        <v>423342347</v>
       </c>
       <c r="C930" s="1" t="s">
         <v>2</v>
@@ -11606,7 +11606,7 @@
         <v>930</v>
       </c>
       <c r="B931" s="1">
-        <v>423438783</v>
+        <v>423383076</v>
       </c>
       <c r="C931" s="1" t="s">
         <v>2</v>
@@ -11618,7 +11618,7 @@
         <v>931</v>
       </c>
       <c r="B932" s="1">
-        <v>423478389</v>
+        <v>423438783</v>
       </c>
       <c r="C932" s="1" t="s">
         <v>2</v>
@@ -11630,7 +11630,7 @@
         <v>932</v>
       </c>
       <c r="B933" s="1">
-        <v>423490171</v>
+        <v>423478389</v>
       </c>
       <c r="C933" s="1" t="s">
         <v>2</v>
@@ -11642,7 +11642,7 @@
         <v>933</v>
       </c>
       <c r="B934" s="1">
-        <v>423497553</v>
+        <v>423490171</v>
       </c>
       <c r="C934" s="1" t="s">
         <v>2</v>
@@ -11654,7 +11654,7 @@
         <v>934</v>
       </c>
       <c r="B935" s="1">
-        <v>423508957</v>
+        <v>423497553</v>
       </c>
       <c r="C935" s="1" t="s">
         <v>2</v>
@@ -11666,7 +11666,7 @@
         <v>935</v>
       </c>
       <c r="B936" s="1">
-        <v>423580144</v>
+        <v>423508957</v>
       </c>
       <c r="C936" s="1" t="s">
         <v>2</v>
@@ -11678,7 +11678,7 @@
         <v>936</v>
       </c>
       <c r="B937" s="1">
-        <v>423586345</v>
+        <v>423580144</v>
       </c>
       <c r="C937" s="1" t="s">
         <v>2</v>
@@ -11690,7 +11690,7 @@
         <v>937</v>
       </c>
       <c r="B938" s="1">
-        <v>423028443</v>
+        <v>423586345</v>
       </c>
       <c r="C938" s="1" t="s">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         <v>938</v>
       </c>
       <c r="B939" s="1">
-        <v>423079626</v>
+        <v>423028443</v>
       </c>
       <c r="C939" s="1" t="s">
         <v>2</v>
@@ -11714,7 +11714,7 @@
         <v>939</v>
       </c>
       <c r="B940" s="1">
-        <v>423082685</v>
+        <v>423079626</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>2</v>
@@ -11726,7 +11726,7 @@
         <v>940</v>
       </c>
       <c r="B941" s="1">
-        <v>423120698</v>
+        <v>423082685</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>2</v>
@@ -11738,7 +11738,7 @@
         <v>941</v>
       </c>
       <c r="B942" s="1">
-        <v>423200169</v>
+        <v>423120698</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>2</v>
@@ -11750,7 +11750,7 @@
         <v>942</v>
       </c>
       <c r="B943" s="1">
-        <v>423223998</v>
+        <v>423200169</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>2</v>
@@ -11762,7 +11762,7 @@
         <v>943</v>
       </c>
       <c r="B944" s="1">
-        <v>423236330</v>
+        <v>423223998</v>
       </c>
       <c r="C944" s="1" t="s">
         <v>2</v>
@@ -11774,7 +11774,7 @@
         <v>944</v>
       </c>
       <c r="B945" s="1">
-        <v>423245830</v>
+        <v>423236330</v>
       </c>
       <c r="C945" s="1" t="s">
         <v>2</v>
@@ -11786,7 +11786,7 @@
         <v>945</v>
       </c>
       <c r="B946" s="1">
-        <v>423247661</v>
+        <v>423245830</v>
       </c>
       <c r="C946" s="1" t="s">
         <v>2</v>
@@ -11798,7 +11798,7 @@
         <v>946</v>
       </c>
       <c r="B947" s="1">
-        <v>423282486</v>
+        <v>423247661</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>2</v>
@@ -11810,7 +11810,7 @@
         <v>947</v>
       </c>
       <c r="B948" s="1">
-        <v>423309967</v>
+        <v>423282486</v>
       </c>
       <c r="C948" s="1" t="s">
         <v>2</v>
@@ -11822,7 +11822,7 @@
         <v>948</v>
       </c>
       <c r="B949" s="1">
-        <v>423384896</v>
+        <v>423309967</v>
       </c>
       <c r="C949" s="1" t="s">
         <v>2</v>
@@ -11834,7 +11834,7 @@
         <v>949</v>
       </c>
       <c r="B950" s="1">
-        <v>423436601</v>
+        <v>423384896</v>
       </c>
       <c r="C950" s="1" t="s">
         <v>2</v>
@@ -11846,7 +11846,7 @@
         <v>950</v>
       </c>
       <c r="B951" s="1">
-        <v>423569438</v>
+        <v>423436601</v>
       </c>
       <c r="C951" s="1" t="s">
         <v>2</v>
@@ -11858,7 +11858,7 @@
         <v>951</v>
       </c>
       <c r="B952" s="1">
-        <v>423001566</v>
+        <v>423569438</v>
       </c>
       <c r="C952" s="1" t="s">
         <v>2</v>
@@ -11870,7 +11870,7 @@
         <v>952</v>
       </c>
       <c r="B953" s="1">
-        <v>423257420</v>
+        <v>423001566</v>
       </c>
       <c r="C953" s="1" t="s">
         <v>2</v>
@@ -11882,7 +11882,7 @@
         <v>953</v>
       </c>
       <c r="B954" s="1">
-        <v>423265144</v>
+        <v>423257420</v>
       </c>
       <c r="C954" s="1" t="s">
         <v>2</v>
@@ -11894,7 +11894,7 @@
         <v>954</v>
       </c>
       <c r="B955" s="1">
-        <v>423412389</v>
+        <v>423265144</v>
       </c>
       <c r="C955" s="1" t="s">
         <v>2</v>
@@ -11906,7 +11906,7 @@
         <v>955</v>
       </c>
       <c r="B956" s="1">
-        <v>423580477</v>
+        <v>423412389</v>
       </c>
       <c r="C956" s="1" t="s">
         <v>2</v>
@@ -11918,7 +11918,7 @@
         <v>956</v>
       </c>
       <c r="B957" s="1">
-        <v>423583373</v>
+        <v>423580477</v>
       </c>
       <c r="C957" s="1" t="s">
         <v>2</v>
@@ -11930,7 +11930,7 @@
         <v>957</v>
       </c>
       <c r="B958" s="1">
-        <v>423659522</v>
+        <v>423583373</v>
       </c>
       <c r="C958" s="1" t="s">
         <v>2</v>
@@ -11942,7 +11942,7 @@
         <v>958</v>
       </c>
       <c r="B959" s="1">
-        <v>423035166</v>
+        <v>423659522</v>
       </c>
       <c r="C959" s="1" t="s">
         <v>2</v>
@@ -11954,7 +11954,7 @@
         <v>959</v>
       </c>
       <c r="B960" s="1">
-        <v>423063317</v>
+        <v>423035166</v>
       </c>
       <c r="C960" s="1" t="s">
         <v>2</v>
@@ -11966,7 +11966,7 @@
         <v>960</v>
       </c>
       <c r="B961" s="1">
-        <v>423249313</v>
+        <v>423063317</v>
       </c>
       <c r="C961" s="1" t="s">
         <v>2</v>
@@ -11978,7 +11978,7 @@
         <v>961</v>
       </c>
       <c r="B962" s="1">
-        <v>423357400</v>
+        <v>423249313</v>
       </c>
       <c r="C962" s="1" t="s">
         <v>2</v>
@@ -11990,7 +11990,7 @@
         <v>962</v>
       </c>
       <c r="B963" s="1">
-        <v>423427002</v>
+        <v>423357400</v>
       </c>
       <c r="C963" s="1" t="s">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>963</v>
       </c>
       <c r="B964" s="1">
-        <v>423428292</v>
+        <v>423427002</v>
       </c>
       <c r="C964" s="1" t="s">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>964</v>
       </c>
       <c r="B965" s="1">
-        <v>423495769</v>
+        <v>423428292</v>
       </c>
       <c r="C965" s="1" t="s">
         <v>2</v>
@@ -12026,7 +12026,7 @@
         <v>965</v>
       </c>
       <c r="B966" s="1">
-        <v>423085116</v>
+        <v>423495769</v>
       </c>
       <c r="C966" s="1" t="s">
         <v>2</v>
@@ -12038,7 +12038,7 @@
         <v>966</v>
       </c>
       <c r="B967" s="1">
-        <v>423154015</v>
+        <v>423085116</v>
       </c>
       <c r="C967" s="1" t="s">
         <v>2</v>
@@ -12050,7 +12050,7 @@
         <v>967</v>
       </c>
       <c r="B968" s="1">
-        <v>423224112</v>
+        <v>423154015</v>
       </c>
       <c r="C968" s="1" t="s">
         <v>2</v>
@@ -12062,7 +12062,7 @@
         <v>968</v>
       </c>
       <c r="B969" s="1">
-        <v>423589200</v>
+        <v>423224112</v>
       </c>
       <c r="C969" s="1" t="s">
         <v>2</v>
@@ -12074,7 +12074,7 @@
         <v>969</v>
       </c>
       <c r="B970" s="1">
-        <v>423660775</v>
+        <v>423589200</v>
       </c>
       <c r="C970" s="1" t="s">
         <v>2</v>
@@ -12086,7 +12086,7 @@
         <v>970</v>
       </c>
       <c r="B971" s="1">
-        <v>423674657</v>
+        <v>423660775</v>
       </c>
       <c r="C971" s="1" t="s">
         <v>2</v>
@@ -12098,7 +12098,7 @@
         <v>971</v>
       </c>
       <c r="B972" s="1">
-        <v>423004814</v>
+        <v>423674657</v>
       </c>
       <c r="C972" s="1" t="s">
         <v>2</v>
@@ -12110,7 +12110,7 @@
         <v>972</v>
       </c>
       <c r="B973" s="1">
-        <v>423064066</v>
+        <v>423004814</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>2</v>
@@ -12122,7 +12122,7 @@
         <v>973</v>
       </c>
       <c r="B974" s="1">
-        <v>423133989</v>
+        <v>423064066</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>2</v>
@@ -12134,7 +12134,7 @@
         <v>974</v>
       </c>
       <c r="B975" s="1">
-        <v>423226821</v>
+        <v>423133989</v>
       </c>
       <c r="C975" s="1" t="s">
         <v>2</v>
@@ -12146,7 +12146,7 @@
         <v>975</v>
       </c>
       <c r="B976" s="1">
-        <v>423230025</v>
+        <v>423226821</v>
       </c>
       <c r="C976" s="1" t="s">
         <v>2</v>
@@ -12158,7 +12158,7 @@
         <v>976</v>
       </c>
       <c r="B977" s="1">
-        <v>423251216</v>
+        <v>423230025</v>
       </c>
       <c r="C977" s="1" t="s">
         <v>2</v>
@@ -12170,7 +12170,7 @@
         <v>977</v>
       </c>
       <c r="B978" s="1">
-        <v>423450915</v>
+        <v>423251216</v>
       </c>
       <c r="C978" s="1" t="s">
         <v>2</v>
@@ -12182,7 +12182,7 @@
         <v>978</v>
       </c>
       <c r="B979" s="1">
-        <v>423564238</v>
+        <v>423450915</v>
       </c>
       <c r="C979" s="1" t="s">
         <v>2</v>
@@ -12194,7 +12194,7 @@
         <v>979</v>
       </c>
       <c r="B980" s="1">
-        <v>423635270</v>
+        <v>423564238</v>
       </c>
       <c r="C980" s="1" t="s">
         <v>2</v>
@@ -12206,7 +12206,7 @@
         <v>980</v>
       </c>
       <c r="B981" s="1">
-        <v>423660006</v>
+        <v>423635270</v>
       </c>
       <c r="C981" s="1" t="s">
         <v>2</v>
@@ -12218,7 +12218,7 @@
         <v>981</v>
       </c>
       <c r="B982" s="1">
-        <v>423221641</v>
+        <v>423660006</v>
       </c>
       <c r="C982" s="1" t="s">
         <v>2</v>
@@ -12230,7 +12230,7 @@
         <v>982</v>
       </c>
       <c r="B983" s="1">
-        <v>423390550</v>
+        <v>423221641</v>
       </c>
       <c r="C983" s="1" t="s">
         <v>2</v>
@@ -12242,7 +12242,7 @@
         <v>983</v>
       </c>
       <c r="B984" s="1">
-        <v>423393361</v>
+        <v>423390550</v>
       </c>
       <c r="C984" s="1" t="s">
         <v>2</v>
@@ -12254,7 +12254,7 @@
         <v>984</v>
       </c>
       <c r="B985" s="1">
-        <v>423439444</v>
+        <v>423393361</v>
       </c>
       <c r="C985" s="1" t="s">
         <v>2</v>
@@ -12266,7 +12266,7 @@
         <v>985</v>
       </c>
       <c r="B986" s="1">
-        <v>423450355</v>
+        <v>423439444</v>
       </c>
       <c r="C986" s="1" t="s">
         <v>2</v>
@@ -12278,7 +12278,7 @@
         <v>986</v>
       </c>
       <c r="B987" s="1">
-        <v>423512912</v>
+        <v>423450355</v>
       </c>
       <c r="C987" s="1" t="s">
         <v>2</v>
@@ -12290,7 +12290,7 @@
         <v>987</v>
       </c>
       <c r="B988" s="1">
-        <v>423528772</v>
+        <v>423512912</v>
       </c>
       <c r="C988" s="1" t="s">
         <v>2</v>
@@ -12302,7 +12302,7 @@
         <v>988</v>
       </c>
       <c r="B989" s="1">
-        <v>423542595</v>
+        <v>423528772</v>
       </c>
       <c r="C989" s="1" t="s">
         <v>2</v>
@@ -12314,7 +12314,7 @@
         <v>989</v>
       </c>
       <c r="B990" s="1">
-        <v>423078688</v>
+        <v>423542595</v>
       </c>
       <c r="C990" s="1" t="s">
         <v>2</v>
@@ -12326,7 +12326,7 @@
         <v>990</v>
       </c>
       <c r="B991" s="1">
-        <v>423177580</v>
+        <v>423078688</v>
       </c>
       <c r="C991" s="1" t="s">
         <v>2</v>
@@ -12338,7 +12338,7 @@
         <v>991</v>
       </c>
       <c r="B992" s="1">
-        <v>423362627</v>
+        <v>423177580</v>
       </c>
       <c r="C992" s="1" t="s">
         <v>2</v>
@@ -12350,7 +12350,7 @@
         <v>992</v>
       </c>
       <c r="B993" s="1">
-        <v>423406843</v>
+        <v>423362627</v>
       </c>
       <c r="C993" s="1" t="s">
         <v>2</v>
@@ -12362,7 +12362,7 @@
         <v>993</v>
       </c>
       <c r="B994" s="1">
-        <v>423479495</v>
+        <v>423406843</v>
       </c>
       <c r="C994" s="1" t="s">
         <v>2</v>
@@ -12374,7 +12374,7 @@
         <v>994</v>
       </c>
       <c r="B995" s="1">
-        <v>423564381</v>
+        <v>423479495</v>
       </c>
       <c r="C995" s="1" t="s">
         <v>2</v>
@@ -12386,7 +12386,7 @@
         <v>995</v>
       </c>
       <c r="B996" s="1">
-        <v>423572241</v>
+        <v>423564381</v>
       </c>
       <c r="C996" s="1" t="s">
         <v>2</v>
@@ -12398,7 +12398,7 @@
         <v>996</v>
       </c>
       <c r="B997" s="1">
-        <v>423603870</v>
+        <v>423572241</v>
       </c>
       <c r="C997" s="1" t="s">
         <v>2</v>
@@ -12410,7 +12410,7 @@
         <v>997</v>
       </c>
       <c r="B998" s="1">
-        <v>423084862</v>
+        <v>423603870</v>
       </c>
       <c r="C998" s="1" t="s">
         <v>2</v>
@@ -12422,7 +12422,7 @@
         <v>998</v>
       </c>
       <c r="B999" s="1">
-        <v>423089665</v>
+        <v>423084862</v>
       </c>
       <c r="C999" s="1" t="s">
         <v>2</v>
@@ -12434,7 +12434,7 @@
         <v>999</v>
       </c>
       <c r="B1000" s="1">
-        <v>423111038</v>
+        <v>423089665</v>
       </c>
       <c r="C1000" s="1" t="s">
         <v>2</v>
@@ -12446,7 +12446,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" s="1">
-        <v>423114487</v>
+        <v>423111038</v>
       </c>
       <c r="C1001" s="1" t="s">
         <v>2</v>
@@ -12458,7 +12458,7 @@
         <v>1001</v>
       </c>
       <c r="B1002" s="1">
-        <v>423223610</v>
+        <v>423114487</v>
       </c>
       <c r="C1002" s="1" t="s">
         <v>2</v>
@@ -12470,7 +12470,7 @@
         <v>1002</v>
       </c>
       <c r="B1003" s="1">
-        <v>423284630</v>
+        <v>423223610</v>
       </c>
       <c r="C1003" s="1" t="s">
         <v>2</v>
@@ -12482,7 +12482,7 @@
         <v>1003</v>
       </c>
       <c r="B1004" s="1">
-        <v>423421010</v>
+        <v>423284630</v>
       </c>
       <c r="C1004" s="1" t="s">
         <v>2</v>
@@ -12494,7 +12494,7 @@
         <v>1004</v>
       </c>
       <c r="B1005" s="1">
-        <v>423015829</v>
+        <v>423421010</v>
       </c>
       <c r="C1005" s="1" t="s">
         <v>2</v>
@@ -12506,7 +12506,7 @@
         <v>1005</v>
       </c>
       <c r="B1006" s="1">
-        <v>423123240</v>
+        <v>423015829</v>
       </c>
       <c r="C1006" s="1" t="s">
         <v>2</v>
@@ -12518,7 +12518,7 @@
         <v>1006</v>
       </c>
       <c r="B1007" s="1">
-        <v>423136667</v>
+        <v>423123240</v>
       </c>
       <c r="C1007" s="1" t="s">
         <v>2</v>
@@ -12530,7 +12530,7 @@
         <v>1007</v>
       </c>
       <c r="B1008" s="1">
-        <v>423137104</v>
+        <v>423136667</v>
       </c>
       <c r="C1008" s="1" t="s">
         <v>2</v>
@@ -12542,7 +12542,7 @@
         <v>1008</v>
       </c>
       <c r="B1009" s="1">
-        <v>423300929</v>
+        <v>423137104</v>
       </c>
       <c r="C1009" s="1" t="s">
         <v>2</v>
@@ -12554,7 +12554,7 @@
         <v>1009</v>
       </c>
       <c r="B1010" s="1">
-        <v>423301726</v>
+        <v>423300929</v>
       </c>
       <c r="C1010" s="1" t="s">
         <v>2</v>
@@ -12566,7 +12566,7 @@
         <v>1010</v>
       </c>
       <c r="B1011" s="1">
-        <v>423312393</v>
+        <v>423301726</v>
       </c>
       <c r="C1011" s="1" t="s">
         <v>2</v>
@@ -12578,7 +12578,7 @@
         <v>1011</v>
       </c>
       <c r="B1012" s="1">
-        <v>423355608</v>
+        <v>423312393</v>
       </c>
       <c r="C1012" s="1" t="s">
         <v>2</v>
@@ -12590,7 +12590,7 @@
         <v>1012</v>
       </c>
       <c r="B1013" s="1">
-        <v>423473270</v>
+        <v>423355608</v>
       </c>
       <c r="C1013" s="1" t="s">
         <v>2</v>
@@ -12602,7 +12602,7 @@
         <v>1013</v>
       </c>
       <c r="B1014" s="1">
-        <v>423476180</v>
+        <v>423473270</v>
       </c>
       <c r="C1014" s="1" t="s">
         <v>2</v>
@@ -12614,7 +12614,7 @@
         <v>1014</v>
       </c>
       <c r="B1015" s="1">
-        <v>423479702</v>
+        <v>423476180</v>
       </c>
       <c r="C1015" s="1" t="s">
         <v>2</v>
@@ -12626,7 +12626,7 @@
         <v>1015</v>
       </c>
       <c r="B1016" s="1">
-        <v>423577319</v>
+        <v>423479702</v>
       </c>
       <c r="C1016" s="1" t="s">
         <v>2</v>
@@ -12638,7 +12638,7 @@
         <v>1016</v>
       </c>
       <c r="B1017" s="1">
-        <v>423640121</v>
+        <v>423577319</v>
       </c>
       <c r="C1017" s="1" t="s">
         <v>2</v>
@@ -12650,7 +12650,7 @@
         <v>1017</v>
       </c>
       <c r="B1018" s="1">
-        <v>423015286</v>
+        <v>423640121</v>
       </c>
       <c r="C1018" s="1" t="s">
         <v>2</v>
@@ -12662,7 +12662,7 @@
         <v>1018</v>
       </c>
       <c r="B1019" s="1">
-        <v>423035609</v>
+        <v>423015286</v>
       </c>
       <c r="C1019" s="1" t="s">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>1019</v>
       </c>
       <c r="B1020" s="1">
-        <v>423117857</v>
+        <v>423035609</v>
       </c>
       <c r="C1020" s="1" t="s">
         <v>2</v>
@@ -12686,7 +12686,7 @@
         <v>1020</v>
       </c>
       <c r="B1021" s="1">
-        <v>423251404</v>
+        <v>423117857</v>
       </c>
       <c r="C1021" s="1" t="s">
         <v>2</v>
@@ -12698,7 +12698,7 @@
         <v>1021</v>
       </c>
       <c r="B1022" s="1">
-        <v>423252874</v>
+        <v>423251404</v>
       </c>
       <c r="C1022" s="1" t="s">
         <v>2</v>
@@ -12710,7 +12710,7 @@
         <v>1022</v>
       </c>
       <c r="B1023" s="1">
-        <v>423406272</v>
+        <v>423252874</v>
       </c>
       <c r="C1023" s="1" t="s">
         <v>2</v>
@@ -12722,7 +12722,7 @@
         <v>1023</v>
       </c>
       <c r="B1024" s="1">
-        <v>423499444</v>
+        <v>423406272</v>
       </c>
       <c r="C1024" s="1" t="s">
         <v>2</v>
@@ -12734,7 +12734,7 @@
         <v>1024</v>
       </c>
       <c r="B1025" s="1">
-        <v>423525153</v>
+        <v>423499444</v>
       </c>
       <c r="C1025" s="1" t="s">
         <v>2</v>
@@ -12746,7 +12746,7 @@
         <v>1025</v>
       </c>
       <c r="B1026" s="1">
-        <v>423005099</v>
+        <v>423525153</v>
       </c>
       <c r="C1026" s="1" t="s">
         <v>2</v>
@@ -12758,7 +12758,7 @@
         <v>1026</v>
       </c>
       <c r="B1027" s="1">
-        <v>423282784</v>
+        <v>423005099</v>
       </c>
       <c r="C1027" s="1" t="s">
         <v>2</v>
@@ -12770,7 +12770,7 @@
         <v>1027</v>
       </c>
       <c r="B1028" s="1">
-        <v>423373182</v>
+        <v>423282784</v>
       </c>
       <c r="C1028" s="1" t="s">
         <v>2</v>
@@ -12782,7 +12782,7 @@
         <v>1028</v>
       </c>
       <c r="B1029" s="1">
-        <v>423386260</v>
+        <v>423373182</v>
       </c>
       <c r="C1029" s="1" t="s">
         <v>2</v>
@@ -12794,7 +12794,7 @@
         <v>1029</v>
       </c>
       <c r="B1030" s="1">
-        <v>423411419</v>
+        <v>423386260</v>
       </c>
       <c r="C1030" s="1" t="s">
         <v>2</v>
@@ -12806,7 +12806,7 @@
         <v>1030</v>
       </c>
       <c r="B1031" s="1">
-        <v>423427799</v>
+        <v>423411419</v>
       </c>
       <c r="C1031" s="1" t="s">
         <v>2</v>
@@ -12818,7 +12818,7 @@
         <v>1031</v>
       </c>
       <c r="B1032" s="1">
-        <v>423569023</v>
+        <v>423427799</v>
       </c>
       <c r="C1032" s="1" t="s">
         <v>2</v>
@@ -12830,7 +12830,7 @@
         <v>1032</v>
       </c>
       <c r="B1033" s="1">
-        <v>423585005</v>
+        <v>423569023</v>
       </c>
       <c r="C1033" s="1" t="s">
         <v>2</v>
@@ -12842,7 +12842,7 @@
         <v>1033</v>
       </c>
       <c r="B1034" s="1">
-        <v>423081916</v>
+        <v>423585005</v>
       </c>
       <c r="C1034" s="1" t="s">
         <v>2</v>
@@ -12854,7 +12854,7 @@
         <v>1034</v>
       </c>
       <c r="B1035" s="1">
-        <v>423222274</v>
+        <v>423081916</v>
       </c>
       <c r="C1035" s="1" t="s">
         <v>2</v>
@@ -12866,7 +12866,7 @@
         <v>1035</v>
       </c>
       <c r="B1036" s="1">
-        <v>423227307</v>
+        <v>423222274</v>
       </c>
       <c r="C1036" s="1" t="s">
         <v>2</v>
@@ -12878,7 +12878,7 @@
         <v>1036</v>
       </c>
       <c r="B1037" s="1">
-        <v>423249308</v>
+        <v>423227307</v>
       </c>
       <c r="C1037" s="1" t="s">
         <v>2</v>
@@ -12890,7 +12890,7 @@
         <v>1037</v>
       </c>
       <c r="B1038" s="1">
-        <v>423342260</v>
+        <v>423249308</v>
       </c>
       <c r="C1038" s="1" t="s">
         <v>2</v>
@@ -12902,7 +12902,7 @@
         <v>1038</v>
       </c>
       <c r="B1039" s="1">
-        <v>423364299</v>
+        <v>423342260</v>
       </c>
       <c r="C1039" s="1" t="s">
         <v>2</v>
@@ -12914,7 +12914,7 @@
         <v>1039</v>
       </c>
       <c r="B1040" s="1">
-        <v>423425499</v>
+        <v>423364299</v>
       </c>
       <c r="C1040" s="1" t="s">
         <v>2</v>
@@ -12926,7 +12926,7 @@
         <v>1040</v>
       </c>
       <c r="B1041" s="1">
-        <v>423476808</v>
+        <v>423425499</v>
       </c>
       <c r="C1041" s="1" t="s">
         <v>2</v>
@@ -12938,7 +12938,7 @@
         <v>1041</v>
       </c>
       <c r="B1042" s="1">
-        <v>423189278</v>
+        <v>423476808</v>
       </c>
       <c r="C1042" s="1" t="s">
         <v>2</v>
@@ -12950,7 +12950,7 @@
         <v>1042</v>
       </c>
       <c r="B1043" s="1">
-        <v>423341332</v>
+        <v>423189278</v>
       </c>
       <c r="C1043" s="1" t="s">
         <v>2</v>
@@ -12962,7 +12962,7 @@
         <v>1043</v>
       </c>
       <c r="B1044" s="1">
-        <v>423513253</v>
+        <v>423341332</v>
       </c>
       <c r="C1044" s="1" t="s">
         <v>2</v>
@@ -12974,7 +12974,7 @@
         <v>1044</v>
       </c>
       <c r="B1045" s="1">
-        <v>423646785</v>
+        <v>423513253</v>
       </c>
       <c r="C1045" s="1" t="s">
         <v>2</v>
@@ -12986,7 +12986,7 @@
         <v>1045</v>
       </c>
       <c r="B1046" s="1">
-        <v>423041379</v>
+        <v>423646785</v>
       </c>
       <c r="C1046" s="1" t="s">
         <v>2</v>
@@ -12998,7 +12998,7 @@
         <v>1046</v>
       </c>
       <c r="B1047" s="1">
-        <v>423122444</v>
+        <v>423041379</v>
       </c>
       <c r="C1047" s="1" t="s">
         <v>2</v>
@@ -13010,7 +13010,7 @@
         <v>1047</v>
       </c>
       <c r="B1048" s="1">
-        <v>423138676</v>
+        <v>423122444</v>
       </c>
       <c r="C1048" s="1" t="s">
         <v>2</v>
@@ -13022,7 +13022,7 @@
         <v>1048</v>
       </c>
       <c r="B1049" s="1">
-        <v>423139256</v>
+        <v>423138676</v>
       </c>
       <c r="C1049" s="1" t="s">
         <v>2</v>
@@ -13034,7 +13034,7 @@
         <v>1049</v>
       </c>
       <c r="B1050" s="1">
-        <v>423145986</v>
+        <v>423139256</v>
       </c>
       <c r="C1050" s="1" t="s">
         <v>2</v>
@@ -13046,7 +13046,7 @@
         <v>1050</v>
       </c>
       <c r="B1051" s="1">
-        <v>423181202</v>
+        <v>423145986</v>
       </c>
       <c r="C1051" s="1" t="s">
         <v>2</v>
@@ -13058,7 +13058,7 @@
         <v>1051</v>
       </c>
       <c r="B1052" s="1">
-        <v>423382472</v>
+        <v>423181202</v>
       </c>
       <c r="C1052" s="1" t="s">
         <v>2</v>
@@ -13070,7 +13070,7 @@
         <v>1052</v>
       </c>
       <c r="B1053" s="1">
-        <v>423441467</v>
+        <v>423382472</v>
       </c>
       <c r="C1053" s="1" t="s">
         <v>2</v>
@@ -13082,7 +13082,7 @@
         <v>1053</v>
       </c>
       <c r="B1054" s="1">
-        <v>423492999</v>
+        <v>423441467</v>
       </c>
       <c r="C1054" s="1" t="s">
         <v>2</v>
@@ -13094,7 +13094,7 @@
         <v>1054</v>
       </c>
       <c r="B1055" s="1">
-        <v>423571166</v>
+        <v>423492999</v>
       </c>
       <c r="C1055" s="1" t="s">
         <v>2</v>
@@ -13106,7 +13106,7 @@
         <v>1055</v>
       </c>
       <c r="B1056" s="1">
-        <v>423048435</v>
+        <v>423571166</v>
       </c>
       <c r="C1056" s="1" t="s">
         <v>2</v>
@@ -13118,7 +13118,7 @@
         <v>1056</v>
       </c>
       <c r="B1057" s="1">
-        <v>423071336</v>
+        <v>423048435</v>
       </c>
       <c r="C1057" s="1" t="s">
         <v>2</v>
@@ -13130,7 +13130,7 @@
         <v>1057</v>
       </c>
       <c r="B1058" s="1">
-        <v>423116706</v>
+        <v>423071336</v>
       </c>
       <c r="C1058" s="1" t="s">
         <v>2</v>
@@ -13142,7 +13142,7 @@
         <v>1058</v>
       </c>
       <c r="B1059" s="1">
-        <v>423300381</v>
+        <v>423116706</v>
       </c>
       <c r="C1059" s="1" t="s">
         <v>2</v>
@@ -13154,7 +13154,7 @@
         <v>1059</v>
       </c>
       <c r="B1060" s="1">
-        <v>423302739</v>
+        <v>423300381</v>
       </c>
       <c r="C1060" s="1" t="s">
         <v>2</v>
@@ -13166,7 +13166,7 @@
         <v>1060</v>
       </c>
       <c r="B1061" s="1">
-        <v>423470228</v>
+        <v>423302739</v>
       </c>
       <c r="C1061" s="1" t="s">
         <v>2</v>
@@ -13178,7 +13178,7 @@
         <v>1061</v>
       </c>
       <c r="B1062" s="1">
-        <v>423691418</v>
+        <v>423470228</v>
       </c>
       <c r="C1062" s="1" t="s">
         <v>2</v>
@@ -13190,7 +13190,7 @@
         <v>1062</v>
       </c>
       <c r="B1063" s="1">
-        <v>423245385</v>
+        <v>423691418</v>
       </c>
       <c r="C1063" s="1" t="s">
         <v>2</v>
@@ -13202,7 +13202,7 @@
         <v>1063</v>
       </c>
       <c r="B1064" s="1">
-        <v>423356978</v>
+        <v>423245385</v>
       </c>
       <c r="C1064" s="1" t="s">
         <v>2</v>
@@ -13214,7 +13214,7 @@
         <v>1064</v>
       </c>
       <c r="B1065" s="1">
-        <v>423114145</v>
+        <v>423356978</v>
       </c>
       <c r="C1065" s="1" t="s">
         <v>2</v>
@@ -13226,7 +13226,7 @@
         <v>1065</v>
       </c>
       <c r="B1066" s="1">
-        <v>423163723</v>
+        <v>423114145</v>
       </c>
       <c r="C1066" s="1" t="s">
         <v>2</v>
@@ -13238,7 +13238,7 @@
         <v>1066</v>
       </c>
       <c r="B1067" s="1">
-        <v>423169874</v>
+        <v>423163723</v>
       </c>
       <c r="C1067" s="1" t="s">
         <v>2</v>
@@ -13250,7 +13250,7 @@
         <v>1067</v>
       </c>
       <c r="B1068" s="1">
-        <v>423170410</v>
+        <v>423169874</v>
       </c>
       <c r="C1068" s="1" t="s">
         <v>2</v>
@@ -13262,7 +13262,7 @@
         <v>1068</v>
       </c>
       <c r="B1069" s="1">
-        <v>423287828</v>
+        <v>423170410</v>
       </c>
       <c r="C1069" s="1" t="s">
         <v>2</v>
@@ -13274,7 +13274,7 @@
         <v>1069</v>
       </c>
       <c r="B1070" s="1">
-        <v>423373410</v>
+        <v>423287828</v>
       </c>
       <c r="C1070" s="1" t="s">
         <v>2</v>
@@ -13286,7 +13286,7 @@
         <v>1070</v>
       </c>
       <c r="B1071" s="1">
-        <v>423384021</v>
+        <v>423373410</v>
       </c>
       <c r="C1071" s="1" t="s">
         <v>2</v>
@@ -13298,7 +13298,7 @@
         <v>1071</v>
       </c>
       <c r="B1072" s="1">
-        <v>423452535</v>
+        <v>423384021</v>
       </c>
       <c r="C1072" s="1" t="s">
         <v>2</v>
@@ -13310,7 +13310,7 @@
         <v>1072</v>
       </c>
       <c r="B1073" s="1">
-        <v>423547573</v>
+        <v>423452535</v>
       </c>
       <c r="C1073" s="1" t="s">
         <v>2</v>
@@ -13322,7 +13322,7 @@
         <v>1073</v>
       </c>
       <c r="B1074" s="1">
-        <v>423100047</v>
+        <v>423547573</v>
       </c>
       <c r="C1074" s="1" t="s">
         <v>2</v>
@@ -13334,7 +13334,7 @@
         <v>1074</v>
       </c>
       <c r="B1075" s="1">
-        <v>423113146</v>
+        <v>423100047</v>
       </c>
       <c r="C1075" s="1" t="s">
         <v>2</v>
@@ -13346,7 +13346,7 @@
         <v>1075</v>
       </c>
       <c r="B1076" s="1">
-        <v>423172200</v>
+        <v>423113146</v>
       </c>
       <c r="C1076" s="1" t="s">
         <v>2</v>
@@ -13358,7 +13358,7 @@
         <v>1076</v>
       </c>
       <c r="B1077" s="1">
-        <v>423189447</v>
+        <v>423172200</v>
       </c>
       <c r="C1077" s="1" t="s">
         <v>2</v>
@@ -13370,7 +13370,7 @@
         <v>1077</v>
       </c>
       <c r="B1078" s="1">
-        <v>423244678</v>
+        <v>423189447</v>
       </c>
       <c r="C1078" s="1" t="s">
         <v>2</v>
@@ -13382,7 +13382,7 @@
         <v>1078</v>
       </c>
       <c r="B1079" s="1">
-        <v>423365561</v>
+        <v>423244678</v>
       </c>
       <c r="C1079" s="1" t="s">
         <v>2</v>
@@ -13394,7 +13394,7 @@
         <v>1079</v>
       </c>
       <c r="B1080" s="1">
-        <v>423573615</v>
+        <v>423365561</v>
       </c>
       <c r="C1080" s="1" t="s">
         <v>2</v>
@@ -13406,7 +13406,7 @@
         <v>1080</v>
       </c>
       <c r="B1081" s="1">
-        <v>423664998</v>
+        <v>423573615</v>
       </c>
       <c r="C1081" s="1" t="s">
         <v>2</v>
@@ -13418,7 +13418,7 @@
         <v>1081</v>
       </c>
       <c r="B1082" s="1">
-        <v>423048910</v>
+        <v>423664998</v>
       </c>
       <c r="C1082" s="1" t="s">
         <v>2</v>
@@ -13430,7 +13430,7 @@
         <v>1082</v>
       </c>
       <c r="B1083" s="1">
-        <v>423065582</v>
+        <v>423048910</v>
       </c>
       <c r="C1083" s="1" t="s">
         <v>2</v>
@@ -13442,7 +13442,7 @@
         <v>1083</v>
       </c>
       <c r="B1084" s="1">
-        <v>423193551</v>
+        <v>423065582</v>
       </c>
       <c r="C1084" s="1" t="s">
         <v>2</v>
@@ -13454,7 +13454,7 @@
         <v>1084</v>
       </c>
       <c r="B1085" s="1">
-        <v>423204287</v>
+        <v>423193551</v>
       </c>
       <c r="C1085" s="1" t="s">
         <v>2</v>
@@ -13466,7 +13466,7 @@
         <v>1085</v>
       </c>
       <c r="B1086" s="1">
-        <v>423256181</v>
+        <v>423204287</v>
       </c>
       <c r="C1086" s="1" t="s">
         <v>2</v>
@@ -13478,7 +13478,7 @@
         <v>1086</v>
       </c>
       <c r="B1087" s="1">
-        <v>423259185</v>
+        <v>423256181</v>
       </c>
       <c r="C1087" s="1" t="s">
         <v>2</v>
@@ -13490,7 +13490,7 @@
         <v>1087</v>
       </c>
       <c r="B1088" s="1">
-        <v>423305403</v>
+        <v>423259185</v>
       </c>
       <c r="C1088" s="1" t="s">
         <v>2</v>
@@ -13502,7 +13502,7 @@
         <v>1088</v>
       </c>
       <c r="B1089" s="1">
-        <v>423330165</v>
+        <v>423305403</v>
       </c>
       <c r="C1089" s="1" t="s">
         <v>2</v>
@@ -13514,7 +13514,7 @@
         <v>1089</v>
       </c>
       <c r="B1090" s="1">
-        <v>423476819</v>
+        <v>423330165</v>
       </c>
       <c r="C1090" s="1" t="s">
         <v>2</v>
@@ -13526,7 +13526,7 @@
         <v>1090</v>
       </c>
       <c r="B1091" s="1">
-        <v>423562652</v>
+        <v>423476819</v>
       </c>
       <c r="C1091" s="1" t="s">
         <v>2</v>
@@ -13538,7 +13538,7 @@
         <v>1091</v>
       </c>
       <c r="B1092" s="1">
-        <v>423604622</v>
+        <v>423562652</v>
       </c>
       <c r="C1092" s="1" t="s">
         <v>2</v>
@@ -13550,7 +13550,7 @@
         <v>1092</v>
       </c>
       <c r="B1093" s="1">
-        <v>423649820</v>
+        <v>423604622</v>
       </c>
       <c r="C1093" s="1" t="s">
         <v>2</v>
@@ -13562,7 +13562,7 @@
         <v>1093</v>
       </c>
       <c r="B1094" s="1">
-        <v>423056106</v>
+        <v>423649820</v>
       </c>
       <c r="C1094" s="1" t="s">
         <v>2</v>
@@ -13574,7 +13574,7 @@
         <v>1094</v>
       </c>
       <c r="B1095" s="1">
-        <v>423061924</v>
+        <v>423056106</v>
       </c>
       <c r="C1095" s="1" t="s">
         <v>2</v>
@@ -13586,7 +13586,7 @@
         <v>1095</v>
       </c>
       <c r="B1096" s="1">
-        <v>423190128</v>
+        <v>423061924</v>
       </c>
       <c r="C1096" s="1" t="s">
         <v>2</v>
@@ -13598,7 +13598,7 @@
         <v>1096</v>
       </c>
       <c r="B1097" s="1">
-        <v>423234968</v>
+        <v>423190128</v>
       </c>
       <c r="C1097" s="1" t="s">
         <v>2</v>
@@ -13610,7 +13610,7 @@
         <v>1097</v>
       </c>
       <c r="B1098" s="1">
-        <v>423322656</v>
+        <v>423234968</v>
       </c>
       <c r="C1098" s="1" t="s">
         <v>2</v>
@@ -13622,7 +13622,7 @@
         <v>1098</v>
       </c>
       <c r="B1099" s="1">
-        <v>423330913</v>
+        <v>423322656</v>
       </c>
       <c r="C1099" s="1" t="s">
         <v>2</v>
@@ -13634,7 +13634,7 @@
         <v>1099</v>
       </c>
       <c r="B1100" s="1">
-        <v>423355693</v>
+        <v>423330913</v>
       </c>
       <c r="C1100" s="1" t="s">
         <v>2</v>
@@ -13646,7 +13646,7 @@
         <v>1100</v>
       </c>
       <c r="B1101" s="1">
-        <v>423457687</v>
+        <v>423355693</v>
       </c>
       <c r="C1101" s="1" t="s">
         <v>2</v>
@@ -13658,7 +13658,7 @@
         <v>1101</v>
       </c>
       <c r="B1102" s="1">
-        <v>423461778</v>
+        <v>423457687</v>
       </c>
       <c r="C1102" s="1" t="s">
         <v>2</v>
@@ -13670,7 +13670,7 @@
         <v>1102</v>
       </c>
       <c r="B1103" s="1">
-        <v>423468858</v>
+        <v>423461778</v>
       </c>
       <c r="C1103" s="1" t="s">
         <v>2</v>
@@ -13682,7 +13682,7 @@
         <v>1103</v>
       </c>
       <c r="B1104" s="1">
-        <v>423487546</v>
+        <v>423468858</v>
       </c>
       <c r="C1104" s="1" t="s">
         <v>2</v>
@@ -13694,7 +13694,7 @@
         <v>1104</v>
       </c>
       <c r="B1105" s="1">
-        <v>423500426</v>
+        <v>423487546</v>
       </c>
       <c r="C1105" s="1" t="s">
         <v>2</v>
@@ -13706,7 +13706,7 @@
         <v>1105</v>
       </c>
       <c r="B1106" s="1">
-        <v>423520833</v>
+        <v>423500426</v>
       </c>
       <c r="C1106" s="1" t="s">
         <v>2</v>
@@ -13718,7 +13718,7 @@
         <v>1106</v>
       </c>
       <c r="B1107" s="1">
-        <v>423554350</v>
+        <v>423520833</v>
       </c>
       <c r="C1107" s="1" t="s">
         <v>2</v>
@@ -13730,7 +13730,7 @@
         <v>1107</v>
       </c>
       <c r="B1108" s="1">
-        <v>423079060</v>
+        <v>423554350</v>
       </c>
       <c r="C1108" s="1" t="s">
         <v>2</v>
@@ -13742,7 +13742,7 @@
         <v>1108</v>
       </c>
       <c r="B1109" s="1">
-        <v>423147503</v>
+        <v>423079060</v>
       </c>
       <c r="C1109" s="1" t="s">
         <v>2</v>
@@ -13754,7 +13754,7 @@
         <v>1109</v>
       </c>
       <c r="B1110" s="1">
-        <v>423168253</v>
+        <v>423147503</v>
       </c>
       <c r="C1110" s="1" t="s">
         <v>2</v>
@@ -13766,7 +13766,7 @@
         <v>1110</v>
       </c>
       <c r="B1111" s="1">
-        <v>423213593</v>
+        <v>423168253</v>
       </c>
       <c r="C1111" s="1" t="s">
         <v>2</v>
@@ -13778,7 +13778,7 @@
         <v>1111</v>
       </c>
       <c r="B1112" s="1">
-        <v>423214618</v>
+        <v>423213593</v>
       </c>
       <c r="C1112" s="1" t="s">
         <v>2</v>
@@ -13790,7 +13790,7 @@
         <v>1112</v>
       </c>
       <c r="B1113" s="1">
-        <v>423219026</v>
+        <v>423214618</v>
       </c>
       <c r="C1113" s="1" t="s">
         <v>2</v>
@@ -13802,7 +13802,7 @@
         <v>1113</v>
       </c>
       <c r="B1114" s="1">
-        <v>423237209</v>
+        <v>423219026</v>
       </c>
       <c r="C1114" s="1" t="s">
         <v>2</v>
@@ -13814,7 +13814,7 @@
         <v>1114</v>
       </c>
       <c r="B1115" s="1">
-        <v>423300354</v>
+        <v>423237209</v>
       </c>
       <c r="C1115" s="1" t="s">
         <v>2</v>
@@ -13826,7 +13826,7 @@
         <v>1115</v>
       </c>
       <c r="B1116" s="1">
-        <v>423303785</v>
+        <v>423300354</v>
       </c>
       <c r="C1116" s="1" t="s">
         <v>2</v>
@@ -13838,7 +13838,7 @@
         <v>1116</v>
       </c>
       <c r="B1117" s="1">
-        <v>423383839</v>
+        <v>423303785</v>
       </c>
       <c r="C1117" s="1" t="s">
         <v>2</v>
@@ -13850,7 +13850,7 @@
         <v>1117</v>
       </c>
       <c r="B1118" s="1">
-        <v>423431855</v>
+        <v>423383839</v>
       </c>
       <c r="C1118" s="1" t="s">
         <v>2</v>
@@ -13862,7 +13862,7 @@
         <v>1118</v>
       </c>
       <c r="B1119" s="1">
-        <v>423440926</v>
+        <v>423431855</v>
       </c>
       <c r="C1119" s="1" t="s">
         <v>2</v>
@@ -13874,7 +13874,7 @@
         <v>1119</v>
       </c>
       <c r="B1120" s="1">
-        <v>423509345</v>
+        <v>423440926</v>
       </c>
       <c r="C1120" s="1" t="s">
         <v>2</v>
@@ -13886,7 +13886,7 @@
         <v>1120</v>
       </c>
       <c r="B1121" s="1">
-        <v>423566743</v>
+        <v>423509345</v>
       </c>
       <c r="C1121" s="1" t="s">
         <v>2</v>
@@ -13898,7 +13898,7 @@
         <v>1121</v>
       </c>
       <c r="B1122" s="1">
-        <v>423073089</v>
+        <v>423566743</v>
       </c>
       <c r="C1122" s="1" t="s">
         <v>2</v>
@@ -13910,7 +13910,7 @@
         <v>1122</v>
       </c>
       <c r="B1123" s="1">
-        <v>423138696</v>
+        <v>423073089</v>
       </c>
       <c r="C1123" s="1" t="s">
         <v>2</v>
@@ -13922,7 +13922,7 @@
         <v>1123</v>
       </c>
       <c r="B1124" s="1">
-        <v>423225963</v>
+        <v>423138696</v>
       </c>
       <c r="C1124" s="1" t="s">
         <v>2</v>
@@ -13934,7 +13934,7 @@
         <v>1124</v>
       </c>
       <c r="B1125" s="1">
-        <v>423411181</v>
+        <v>423225963</v>
       </c>
       <c r="C1125" s="1" t="s">
         <v>2</v>
@@ -13946,7 +13946,7 @@
         <v>1125</v>
       </c>
       <c r="B1126" s="1">
-        <v>423411758</v>
+        <v>423411181</v>
       </c>
       <c r="C1126" s="1" t="s">
         <v>2</v>
@@ -13958,7 +13958,7 @@
         <v>1126</v>
       </c>
       <c r="B1127" s="1">
-        <v>423430429</v>
+        <v>423411758</v>
       </c>
       <c r="C1127" s="1" t="s">
         <v>2</v>
@@ -13970,7 +13970,7 @@
         <v>1127</v>
       </c>
       <c r="B1128" s="1">
-        <v>423445211</v>
+        <v>423430429</v>
       </c>
       <c r="C1128" s="1" t="s">
         <v>2</v>
@@ -13982,7 +13982,7 @@
         <v>1128</v>
       </c>
       <c r="B1129" s="1">
-        <v>423557628</v>
+        <v>423445211</v>
       </c>
       <c r="C1129" s="1" t="s">
         <v>2</v>
@@ -13994,7 +13994,7 @@
         <v>1129</v>
       </c>
       <c r="B1130" s="1">
-        <v>423569396</v>
+        <v>423557628</v>
       </c>
       <c r="C1130" s="1" t="s">
         <v>2</v>
@@ -14006,7 +14006,7 @@
         <v>1130</v>
       </c>
       <c r="B1131" s="1">
-        <v>423670904</v>
+        <v>423569396</v>
       </c>
       <c r="C1131" s="1" t="s">
         <v>2</v>
@@ -14018,7 +14018,7 @@
         <v>1131</v>
       </c>
       <c r="B1132" s="1">
-        <v>423098756</v>
+        <v>423670904</v>
       </c>
       <c r="C1132" s="1" t="s">
         <v>2</v>
@@ -14030,7 +14030,7 @@
         <v>1132</v>
       </c>
       <c r="B1133" s="1">
-        <v>423450263</v>
+        <v>423098756</v>
       </c>
       <c r="C1133" s="1" t="s">
         <v>2</v>
@@ -14042,7 +14042,7 @@
         <v>1133</v>
       </c>
       <c r="B1134" s="1">
-        <v>423504121</v>
+        <v>423450263</v>
       </c>
       <c r="C1134" s="1" t="s">
         <v>2</v>
@@ -14054,7 +14054,7 @@
         <v>1134</v>
       </c>
       <c r="B1135" s="1">
-        <v>423016637</v>
+        <v>423504121</v>
       </c>
       <c r="C1135" s="1" t="s">
         <v>2</v>
@@ -14066,7 +14066,7 @@
         <v>1135</v>
       </c>
       <c r="B1136" s="1">
-        <v>423041658</v>
+        <v>423016637</v>
       </c>
       <c r="C1136" s="1" t="s">
         <v>2</v>
@@ -14078,7 +14078,7 @@
         <v>1136</v>
       </c>
       <c r="B1137" s="1">
-        <v>423047107</v>
+        <v>423041658</v>
       </c>
       <c r="C1137" s="1" t="s">
         <v>2</v>
@@ -14090,7 +14090,7 @@
         <v>1137</v>
       </c>
       <c r="B1138" s="1">
-        <v>423142271</v>
+        <v>423047107</v>
       </c>
       <c r="C1138" s="1" t="s">
         <v>2</v>
@@ -14102,7 +14102,7 @@
         <v>1138</v>
       </c>
       <c r="B1139" s="1">
-        <v>423186333</v>
+        <v>423142271</v>
       </c>
       <c r="C1139" s="1" t="s">
         <v>2</v>
@@ -14114,7 +14114,7 @@
         <v>1139</v>
       </c>
       <c r="B1140" s="1">
-        <v>423299338</v>
+        <v>423186333</v>
       </c>
       <c r="C1140" s="1" t="s">
         <v>2</v>
@@ -14126,7 +14126,7 @@
         <v>1140</v>
       </c>
       <c r="B1141" s="1">
-        <v>423303866</v>
+        <v>423299338</v>
       </c>
       <c r="C1141" s="1" t="s">
         <v>2</v>
@@ -14138,7 +14138,7 @@
         <v>1141</v>
       </c>
       <c r="B1142" s="1">
-        <v>423419589</v>
+        <v>423303866</v>
       </c>
       <c r="C1142" s="1" t="s">
         <v>2</v>
@@ -14150,7 +14150,7 @@
         <v>1142</v>
       </c>
       <c r="B1143" s="1">
-        <v>423461944</v>
+        <v>423419589</v>
       </c>
       <c r="C1143" s="1" t="s">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>1143</v>
       </c>
       <c r="B1144" s="1">
-        <v>423486118</v>
+        <v>423461944</v>
       </c>
       <c r="C1144" s="1" t="s">
         <v>2</v>
@@ -14174,7 +14174,7 @@
         <v>1144</v>
       </c>
       <c r="B1145" s="1">
-        <v>423596462</v>
+        <v>423486118</v>
       </c>
       <c r="C1145" s="1" t="s">
         <v>2</v>
@@ -14186,7 +14186,7 @@
         <v>1145</v>
       </c>
       <c r="B1146" s="1">
-        <v>423666569</v>
+        <v>423596462</v>
       </c>
       <c r="C1146" s="1" t="s">
         <v>2</v>
@@ -14198,7 +14198,7 @@
         <v>1146</v>
       </c>
       <c r="B1147" s="1">
-        <v>423049379</v>
+        <v>423666569</v>
       </c>
       <c r="C1147" s="1" t="s">
         <v>2</v>
@@ -14210,7 +14210,7 @@
         <v>1147</v>
       </c>
       <c r="B1148" s="1">
-        <v>423063886</v>
+        <v>423049379</v>
       </c>
       <c r="C1148" s="1" t="s">
         <v>2</v>
@@ -14222,7 +14222,7 @@
         <v>1148</v>
       </c>
       <c r="B1149" s="1">
-        <v>423082085</v>
+        <v>423063886</v>
       </c>
       <c r="C1149" s="1" t="s">
         <v>2</v>
@@ -14234,7 +14234,7 @@
         <v>1149</v>
       </c>
       <c r="B1150" s="1">
-        <v>423169408</v>
+        <v>423082085</v>
       </c>
       <c r="C1150" s="1" t="s">
         <v>2</v>
@@ -14246,7 +14246,7 @@
         <v>1150</v>
       </c>
       <c r="B1151" s="1">
-        <v>423299571</v>
+        <v>423169408</v>
       </c>
       <c r="C1151" s="1" t="s">
         <v>2</v>
@@ -14258,7 +14258,7 @@
         <v>1151</v>
       </c>
       <c r="B1152" s="1">
-        <v>423350464</v>
+        <v>423299571</v>
       </c>
       <c r="C1152" s="1" t="s">
         <v>2</v>
@@ -14270,7 +14270,7 @@
         <v>1152</v>
       </c>
       <c r="B1153" s="1">
-        <v>423437515</v>
+        <v>423350464</v>
       </c>
       <c r="C1153" s="1" t="s">
         <v>2</v>
@@ -14282,7 +14282,7 @@
         <v>1153</v>
       </c>
       <c r="B1154" s="1">
-        <v>423487636</v>
+        <v>423437515</v>
       </c>
       <c r="C1154" s="1" t="s">
         <v>2</v>
@@ -14294,7 +14294,7 @@
         <v>1154</v>
       </c>
       <c r="B1155" s="1">
-        <v>423491452</v>
+        <v>423487636</v>
       </c>
       <c r="C1155" s="1" t="s">
         <v>2</v>
@@ -14306,7 +14306,7 @@
         <v>1155</v>
       </c>
       <c r="B1156" s="1">
-        <v>423588706</v>
+        <v>423491452</v>
       </c>
       <c r="C1156" s="1" t="s">
         <v>2</v>
@@ -14318,7 +14318,7 @@
         <v>1156</v>
       </c>
       <c r="B1157" s="1">
-        <v>423612695</v>
+        <v>423588706</v>
       </c>
       <c r="C1157" s="1" t="s">
         <v>2</v>
@@ -14330,7 +14330,7 @@
         <v>1157</v>
       </c>
       <c r="B1158" s="1">
-        <v>423028771</v>
+        <v>423612695</v>
       </c>
       <c r="C1158" s="1" t="s">
         <v>2</v>
@@ -14342,7 +14342,7 @@
         <v>1158</v>
       </c>
       <c r="B1159" s="1">
-        <v>423214648</v>
+        <v>423028771</v>
       </c>
       <c r="C1159" s="1" t="s">
         <v>2</v>
@@ -14354,7 +14354,7 @@
         <v>1159</v>
       </c>
       <c r="B1160" s="1">
-        <v>423287220</v>
+        <v>423214648</v>
       </c>
       <c r="C1160" s="1" t="s">
         <v>2</v>
@@ -14366,7 +14366,7 @@
         <v>1160</v>
       </c>
       <c r="B1161" s="1">
-        <v>423291383</v>
+        <v>423287220</v>
       </c>
       <c r="C1161" s="1" t="s">
         <v>2</v>
@@ -14378,7 +14378,7 @@
         <v>1161</v>
       </c>
       <c r="B1162" s="1">
-        <v>423448240</v>
+        <v>423291383</v>
       </c>
       <c r="C1162" s="1" t="s">
         <v>2</v>
@@ -14390,7 +14390,7 @@
         <v>1162</v>
       </c>
       <c r="B1163" s="1">
-        <v>423506657</v>
+        <v>423448240</v>
       </c>
       <c r="C1163" s="1" t="s">
         <v>2</v>
@@ -14402,7 +14402,7 @@
         <v>1163</v>
       </c>
       <c r="B1164" s="1">
-        <v>423595450</v>
+        <v>423506657</v>
       </c>
       <c r="C1164" s="1" t="s">
         <v>2</v>
@@ -14414,7 +14414,7 @@
         <v>1164</v>
       </c>
       <c r="B1165" s="1">
-        <v>423607832</v>
+        <v>423595450</v>
       </c>
       <c r="C1165" s="1" t="s">
         <v>2</v>
@@ -14426,7 +14426,7 @@
         <v>1165</v>
       </c>
       <c r="B1166" s="1">
-        <v>423011886</v>
+        <v>423607832</v>
       </c>
       <c r="C1166" s="1" t="s">
         <v>2</v>
@@ -14438,7 +14438,7 @@
         <v>1166</v>
       </c>
       <c r="B1167" s="1">
-        <v>423040895</v>
+        <v>423011886</v>
       </c>
       <c r="C1167" s="1" t="s">
         <v>2</v>
@@ -14450,7 +14450,7 @@
         <v>1167</v>
       </c>
       <c r="B1168" s="1">
-        <v>423115697</v>
+        <v>423040895</v>
       </c>
       <c r="C1168" s="1" t="s">
         <v>2</v>
@@ -14462,7 +14462,7 @@
         <v>1168</v>
       </c>
       <c r="B1169" s="1">
-        <v>423183151</v>
+        <v>423115697</v>
       </c>
       <c r="C1169" s="1" t="s">
         <v>2</v>
@@ -14474,7 +14474,7 @@
         <v>1169</v>
       </c>
       <c r="B1170" s="1">
-        <v>423128561</v>
+        <v>423183151</v>
       </c>
       <c r="C1170" s="1" t="s">
         <v>2</v>
@@ -14486,7 +14486,7 @@
         <v>1170</v>
       </c>
       <c r="B1171" s="1">
-        <v>423147277</v>
+        <v>423128561</v>
       </c>
       <c r="C1171" s="1" t="s">
         <v>2</v>
@@ -14498,7 +14498,7 @@
         <v>1171</v>
       </c>
       <c r="B1172" s="1">
-        <v>423149896</v>
+        <v>423147277</v>
       </c>
       <c r="C1172" s="1" t="s">
         <v>2</v>
@@ -14510,7 +14510,7 @@
         <v>1172</v>
       </c>
       <c r="B1173" s="1">
-        <v>423150743</v>
+        <v>423149896</v>
       </c>
       <c r="C1173" s="1" t="s">
         <v>2</v>
@@ -14522,7 +14522,7 @@
         <v>1173</v>
       </c>
       <c r="B1174" s="1">
-        <v>423205573</v>
+        <v>423150743</v>
       </c>
       <c r="C1174" s="1" t="s">
         <v>2</v>
@@ -14534,7 +14534,7 @@
         <v>1174</v>
       </c>
       <c r="B1175" s="1">
-        <v>423506696</v>
+        <v>423205573</v>
       </c>
       <c r="C1175" s="1" t="s">
         <v>2</v>
@@ -14546,7 +14546,7 @@
         <v>1175</v>
       </c>
       <c r="B1176" s="1">
-        <v>423621556</v>
+        <v>423506696</v>
       </c>
       <c r="C1176" s="1" t="s">
         <v>2</v>
@@ -14558,7 +14558,7 @@
         <v>1176</v>
       </c>
       <c r="B1177" s="1">
-        <v>423634973</v>
+        <v>423621556</v>
       </c>
       <c r="C1177" s="1" t="s">
         <v>2</v>
@@ -14570,7 +14570,7 @@
         <v>1177</v>
       </c>
       <c r="B1178" s="1">
-        <v>423152590</v>
+        <v>423634973</v>
       </c>
       <c r="C1178" s="1" t="s">
         <v>2</v>
@@ -14582,7 +14582,7 @@
         <v>1178</v>
       </c>
       <c r="B1179" s="1">
-        <v>423157299</v>
+        <v>423152590</v>
       </c>
       <c r="C1179" s="1" t="s">
         <v>2</v>
@@ -14594,7 +14594,7 @@
         <v>1179</v>
       </c>
       <c r="B1180" s="1">
-        <v>423293490</v>
+        <v>423157299</v>
       </c>
       <c r="C1180" s="1" t="s">
         <v>2</v>
@@ -14606,7 +14606,7 @@
         <v>1180</v>
       </c>
       <c r="B1181" s="1">
-        <v>423297871</v>
+        <v>423293490</v>
       </c>
       <c r="C1181" s="1" t="s">
         <v>2</v>
@@ -14618,7 +14618,7 @@
         <v>1181</v>
       </c>
       <c r="B1182" s="1">
-        <v>423326469</v>
+        <v>423297871</v>
       </c>
       <c r="C1182" s="1" t="s">
         <v>2</v>
@@ -14630,7 +14630,7 @@
         <v>1182</v>
       </c>
       <c r="B1183" s="1">
-        <v>423499766</v>
+        <v>423326469</v>
       </c>
       <c r="C1183" s="1" t="s">
         <v>2</v>
@@ -14642,7 +14642,7 @@
         <v>1183</v>
       </c>
       <c r="B1184" s="1">
-        <v>423604730</v>
+        <v>423499766</v>
       </c>
       <c r="C1184" s="1" t="s">
         <v>2</v>
@@ -14654,7 +14654,7 @@
         <v>1184</v>
       </c>
       <c r="B1185" s="1">
-        <v>423166044</v>
+        <v>423604730</v>
       </c>
       <c r="C1185" s="1" t="s">
         <v>2</v>
@@ -14666,7 +14666,7 @@
         <v>1185</v>
       </c>
       <c r="B1186" s="1">
-        <v>423212480</v>
+        <v>423166044</v>
       </c>
       <c r="C1186" s="1" t="s">
         <v>2</v>
@@ -14678,7 +14678,7 @@
         <v>1186</v>
       </c>
       <c r="B1187" s="1">
-        <v>423223019</v>
+        <v>423212480</v>
       </c>
       <c r="C1187" s="1" t="s">
         <v>2</v>
@@ -14690,7 +14690,7 @@
         <v>1187</v>
       </c>
       <c r="B1188" s="1">
-        <v>423302820</v>
+        <v>423223019</v>
       </c>
       <c r="C1188" s="1" t="s">
         <v>2</v>
@@ -14702,7 +14702,7 @@
         <v>1188</v>
       </c>
       <c r="B1189" s="1">
-        <v>423356421</v>
+        <v>423302820</v>
       </c>
       <c r="C1189" s="1" t="s">
         <v>2</v>
@@ -14714,7 +14714,7 @@
         <v>1189</v>
       </c>
       <c r="B1190" s="1">
-        <v>423375030</v>
+        <v>423356421</v>
       </c>
       <c r="C1190" s="1" t="s">
         <v>2</v>
@@ -14726,7 +14726,7 @@
         <v>1190</v>
       </c>
       <c r="B1191" s="1">
-        <v>423574409</v>
+        <v>423375030</v>
       </c>
       <c r="C1191" s="1" t="s">
         <v>2</v>
@@ -14738,7 +14738,7 @@
         <v>1191</v>
       </c>
       <c r="B1192" s="1">
-        <v>423585337</v>
+        <v>423574409</v>
       </c>
       <c r="C1192" s="1" t="s">
         <v>2</v>
@@ -14750,7 +14750,7 @@
         <v>1192</v>
       </c>
       <c r="B1193" s="1">
-        <v>423002244</v>
+        <v>423585337</v>
       </c>
       <c r="C1193" s="1" t="s">
         <v>2</v>
@@ -14762,7 +14762,7 @@
         <v>1193</v>
       </c>
       <c r="B1194" s="1">
-        <v>423498709</v>
+        <v>423002244</v>
       </c>
       <c r="C1194" s="1" t="s">
         <v>2</v>
@@ -14774,7 +14774,7 @@
         <v>1194</v>
       </c>
       <c r="B1195" s="1">
-        <v>423514169</v>
+        <v>423498709</v>
       </c>
       <c r="C1195" s="1" t="s">
         <v>2</v>
@@ -14786,7 +14786,7 @@
         <v>1195</v>
       </c>
       <c r="B1196" s="1">
-        <v>423562528</v>
+        <v>423514169</v>
       </c>
       <c r="C1196" s="1" t="s">
         <v>2</v>
@@ -14798,7 +14798,7 @@
         <v>1196</v>
       </c>
       <c r="B1197" s="1">
-        <v>423061232</v>
+        <v>423562528</v>
       </c>
       <c r="C1197" s="1" t="s">
         <v>2</v>
@@ -14810,7 +14810,7 @@
         <v>1197</v>
       </c>
       <c r="B1198" s="1">
-        <v>423081708</v>
+        <v>423061232</v>
       </c>
       <c r="C1198" s="1" t="s">
         <v>2</v>
@@ -14822,7 +14822,7 @@
         <v>1198</v>
       </c>
       <c r="B1199" s="1">
-        <v>423298496</v>
+        <v>423081708</v>
       </c>
       <c r="C1199" s="1" t="s">
         <v>2</v>
@@ -14834,7 +14834,7 @@
         <v>1199</v>
       </c>
       <c r="B1200" s="1">
-        <v>423336669</v>
+        <v>423298496</v>
       </c>
       <c r="C1200" s="1" t="s">
         <v>2</v>
@@ -14846,7 +14846,7 @@
         <v>1200</v>
       </c>
       <c r="B1201" s="1">
-        <v>423437162</v>
+        <v>423336669</v>
       </c>
       <c r="C1201" s="1" t="s">
         <v>2</v>
@@ -14858,7 +14858,7 @@
         <v>1201</v>
       </c>
       <c r="B1202" s="1">
-        <v>423605761</v>
+        <v>423437162</v>
       </c>
       <c r="C1202" s="1" t="s">
         <v>2</v>
@@ -14870,7 +14870,7 @@
         <v>1202</v>
       </c>
       <c r="B1203" s="1">
-        <v>423140199</v>
+        <v>423605761</v>
       </c>
       <c r="C1203" s="1" t="s">
         <v>2</v>
@@ -14882,7 +14882,7 @@
         <v>1203</v>
       </c>
       <c r="B1204" s="1">
-        <v>423283862</v>
+        <v>423140199</v>
       </c>
       <c r="C1204" s="1" t="s">
         <v>2</v>
@@ -14894,7 +14894,7 @@
         <v>1204</v>
       </c>
       <c r="B1205" s="1">
-        <v>423295785</v>
+        <v>423283862</v>
       </c>
       <c r="C1205" s="1" t="s">
         <v>2</v>
@@ -14906,7 +14906,7 @@
         <v>1205</v>
       </c>
       <c r="B1206" s="1">
-        <v>423341700</v>
+        <v>423295785</v>
       </c>
       <c r="C1206" s="1" t="s">
         <v>2</v>
@@ -14918,7 +14918,7 @@
         <v>1206</v>
       </c>
       <c r="B1207" s="1">
-        <v>423518981</v>
+        <v>423341700</v>
       </c>
       <c r="C1207" s="1" t="s">
         <v>2</v>
@@ -14930,7 +14930,7 @@
         <v>1207</v>
       </c>
       <c r="B1208" s="1">
-        <v>423534953</v>
+        <v>423518981</v>
       </c>
       <c r="C1208" s="1" t="s">
         <v>2</v>
@@ -14942,7 +14942,7 @@
         <v>1208</v>
       </c>
       <c r="B1209" s="1">
-        <v>423593476</v>
+        <v>423534953</v>
       </c>
       <c r="C1209" s="1" t="s">
         <v>2</v>
@@ -14954,7 +14954,7 @@
         <v>1209</v>
       </c>
       <c r="B1210" s="1">
-        <v>423071867</v>
+        <v>423593476</v>
       </c>
       <c r="C1210" s="1" t="s">
         <v>2</v>
@@ -14966,7 +14966,7 @@
         <v>1210</v>
       </c>
       <c r="B1211" s="1">
-        <v>423475619</v>
+        <v>423071867</v>
       </c>
       <c r="C1211" s="1" t="s">
         <v>2</v>
@@ -14978,7 +14978,7 @@
         <v>1211</v>
       </c>
       <c r="B1212" s="1">
-        <v>423490111</v>
+        <v>423475619</v>
       </c>
       <c r="C1212" s="1" t="s">
         <v>2</v>
@@ -14990,7 +14990,7 @@
         <v>1212</v>
       </c>
       <c r="B1213" s="1">
-        <v>423513016</v>
+        <v>423490111</v>
       </c>
       <c r="C1213" s="1" t="s">
         <v>2</v>
@@ -15002,7 +15002,7 @@
         <v>1213</v>
       </c>
       <c r="B1214" s="1">
-        <v>423521666</v>
+        <v>423513016</v>
       </c>
       <c r="C1214" s="1" t="s">
         <v>2</v>
@@ -15014,7 +15014,7 @@
         <v>1214</v>
       </c>
       <c r="B1215" s="1">
-        <v>423598980</v>
+        <v>423521666</v>
       </c>
       <c r="C1215" s="1" t="s">
         <v>2</v>
@@ -15026,7 +15026,7 @@
         <v>1215</v>
       </c>
       <c r="B1216" s="1">
-        <v>423053977</v>
+        <v>423598980</v>
       </c>
       <c r="C1216" s="1" t="s">
         <v>2</v>
@@ -15038,7 +15038,7 @@
         <v>1216</v>
       </c>
       <c r="B1217" s="1">
-        <v>423230028</v>
+        <v>423053977</v>
       </c>
       <c r="C1217" s="1" t="s">
         <v>2</v>
@@ -15050,7 +15050,7 @@
         <v>1217</v>
       </c>
       <c r="B1218" s="1">
-        <v>423178576</v>
+        <v>423230028</v>
       </c>
       <c r="C1218" s="1" t="s">
         <v>2</v>
@@ -15062,7 +15062,7 @@
         <v>1218</v>
       </c>
       <c r="B1219" s="1">
-        <v>423201446</v>
+        <v>423178576</v>
       </c>
       <c r="C1219" s="1" t="s">
         <v>2</v>
@@ -15074,7 +15074,7 @@
         <v>1219</v>
       </c>
       <c r="B1220" s="1">
-        <v>423228177</v>
+        <v>423201446</v>
       </c>
       <c r="C1220" s="1" t="s">
         <v>2</v>
@@ -15086,7 +15086,7 @@
         <v>1220</v>
       </c>
       <c r="B1221" s="1">
-        <v>423248120</v>
+        <v>423228177</v>
       </c>
       <c r="C1221" s="1" t="s">
         <v>2</v>
@@ -15098,7 +15098,7 @@
         <v>1221</v>
       </c>
       <c r="B1222" s="1">
-        <v>423269384</v>
+        <v>423248120</v>
       </c>
       <c r="C1222" s="1" t="s">
         <v>2</v>
@@ -15110,7 +15110,7 @@
         <v>1222</v>
       </c>
       <c r="B1223" s="1">
-        <v>423295887</v>
+        <v>423269384</v>
       </c>
       <c r="C1223" s="1" t="s">
         <v>2</v>
@@ -15122,7 +15122,7 @@
         <v>1223</v>
       </c>
       <c r="B1224" s="1">
-        <v>423344443</v>
+        <v>423295887</v>
       </c>
       <c r="C1224" s="1" t="s">
         <v>2</v>
@@ -15134,7 +15134,7 @@
         <v>1224</v>
       </c>
       <c r="B1225" s="1">
-        <v>423357407</v>
+        <v>423344443</v>
       </c>
       <c r="C1225" s="1" t="s">
         <v>2</v>
@@ -15146,7 +15146,7 @@
         <v>1225</v>
       </c>
       <c r="B1226" s="1">
-        <v>423359676</v>
+        <v>423357407</v>
       </c>
       <c r="C1226" s="1" t="s">
         <v>2</v>
@@ -15158,7 +15158,7 @@
         <v>1226</v>
       </c>
       <c r="B1227" s="1">
-        <v>423425590</v>
+        <v>423359676</v>
       </c>
       <c r="C1227" s="1" t="s">
         <v>2</v>
@@ -15170,7 +15170,7 @@
         <v>1227</v>
       </c>
       <c r="B1228" s="1">
-        <v>423489651</v>
+        <v>423425590</v>
       </c>
       <c r="C1228" s="1" t="s">
         <v>2</v>
@@ -15182,7 +15182,7 @@
         <v>1228</v>
       </c>
       <c r="B1229" s="1">
-        <v>423056847</v>
+        <v>423489651</v>
       </c>
       <c r="C1229" s="1" t="s">
         <v>2</v>
@@ -15194,7 +15194,7 @@
         <v>1229</v>
       </c>
       <c r="B1230" s="1">
-        <v>423186244</v>
+        <v>423056847</v>
       </c>
       <c r="C1230" s="1" t="s">
         <v>2</v>
@@ -15206,7 +15206,7 @@
         <v>1230</v>
       </c>
       <c r="B1231" s="1">
-        <v>423232089</v>
+        <v>423186244</v>
       </c>
       <c r="C1231" s="1" t="s">
         <v>2</v>
@@ -15218,7 +15218,7 @@
         <v>1231</v>
       </c>
       <c r="B1232" s="1">
-        <v>423279565</v>
+        <v>423232089</v>
       </c>
       <c r="C1232" s="1" t="s">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>1232</v>
       </c>
       <c r="B1233" s="1">
-        <v>423490707</v>
+        <v>423279565</v>
       </c>
       <c r="C1233" s="1" t="s">
         <v>2</v>
@@ -15242,7 +15242,7 @@
         <v>1233</v>
       </c>
       <c r="B1234" s="1">
-        <v>423572579</v>
+        <v>423490707</v>
       </c>
       <c r="C1234" s="1" t="s">
         <v>2</v>
@@ -15254,7 +15254,7 @@
         <v>1234</v>
       </c>
       <c r="B1235" s="1">
-        <v>423002087</v>
+        <v>423572579</v>
       </c>
       <c r="C1235" s="1" t="s">
         <v>2</v>
@@ -15266,7 +15266,7 @@
         <v>1235</v>
       </c>
       <c r="B1236" s="1">
-        <v>423024191</v>
+        <v>423002087</v>
       </c>
       <c r="C1236" s="1" t="s">
         <v>2</v>
@@ -15278,7 +15278,7 @@
         <v>1236</v>
       </c>
       <c r="B1237" s="1">
-        <v>423024217</v>
+        <v>423024191</v>
       </c>
       <c r="C1237" s="1" t="s">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>1237</v>
       </c>
       <c r="B1238" s="1">
-        <v>423325654</v>
+        <v>423024217</v>
       </c>
       <c r="C1238" s="1" t="s">
         <v>2</v>
@@ -15302,7 +15302,7 @@
         <v>1238</v>
       </c>
       <c r="B1239" s="1">
-        <v>423390896</v>
+        <v>423325654</v>
       </c>
       <c r="C1239" s="1" t="s">
         <v>2</v>
@@ -15314,7 +15314,7 @@
         <v>1239</v>
       </c>
       <c r="B1240" s="1">
-        <v>423478521</v>
+        <v>423390896</v>
       </c>
       <c r="C1240" s="1" t="s">
         <v>2</v>
@@ -15326,7 +15326,7 @@
         <v>1240</v>
       </c>
       <c r="B1241" s="1">
-        <v>423490346</v>
+        <v>423478521</v>
       </c>
       <c r="C1241" s="1" t="s">
         <v>2</v>
@@ -15338,7 +15338,7 @@
         <v>1241</v>
       </c>
       <c r="B1242" s="1">
-        <v>423530966</v>
+        <v>423490346</v>
       </c>
       <c r="C1242" s="1" t="s">
         <v>2</v>
@@ -15350,7 +15350,7 @@
         <v>1242</v>
       </c>
       <c r="B1243" s="1">
-        <v>423564410</v>
+        <v>423530966</v>
       </c>
       <c r="C1243" s="1" t="s">
         <v>2</v>
@@ -15362,7 +15362,7 @@
         <v>1243</v>
       </c>
       <c r="B1244" s="1">
-        <v>423637051</v>
+        <v>423564410</v>
       </c>
       <c r="C1244" s="1" t="s">
         <v>2</v>
@@ -15374,7 +15374,7 @@
         <v>1244</v>
       </c>
       <c r="B1245" s="1">
-        <v>423080699</v>
+        <v>423637051</v>
       </c>
       <c r="C1245" s="1" t="s">
         <v>2</v>
@@ -15386,7 +15386,7 @@
         <v>1245</v>
       </c>
       <c r="B1246" s="1">
-        <v>423255176</v>
+        <v>423080699</v>
       </c>
       <c r="C1246" s="1" t="s">
         <v>2</v>
@@ -15398,7 +15398,7 @@
         <v>1246</v>
       </c>
       <c r="B1247" s="1">
-        <v>423277128</v>
+        <v>423255176</v>
       </c>
       <c r="C1247" s="1" t="s">
         <v>2</v>
@@ -15410,7 +15410,7 @@
         <v>1247</v>
       </c>
       <c r="B1248" s="1">
-        <v>423281316</v>
+        <v>423277128</v>
       </c>
       <c r="C1248" s="1" t="s">
         <v>2</v>
@@ -15422,7 +15422,7 @@
         <v>1248</v>
       </c>
       <c r="B1249" s="1">
-        <v>423144336</v>
+        <v>423281316</v>
       </c>
       <c r="C1249" s="1" t="s">
         <v>2</v>
@@ -15434,7 +15434,7 @@
         <v>1249</v>
       </c>
       <c r="B1250" s="1">
-        <v>423148049</v>
+        <v>423144336</v>
       </c>
       <c r="C1250" s="1" t="s">
         <v>2</v>
@@ -15446,7 +15446,7 @@
         <v>1250</v>
       </c>
       <c r="B1251" s="1">
-        <v>423315512</v>
+        <v>423148049</v>
       </c>
       <c r="C1251" s="1" t="s">
         <v>2</v>
@@ -15458,7 +15458,7 @@
         <v>1251</v>
       </c>
       <c r="B1252" s="1">
-        <v>423361471</v>
+        <v>423315512</v>
       </c>
       <c r="C1252" s="1" t="s">
         <v>2</v>
@@ -15470,7 +15470,7 @@
         <v>1252</v>
       </c>
       <c r="B1253" s="1">
-        <v>423404487</v>
+        <v>423361471</v>
       </c>
       <c r="C1253" s="1" t="s">
         <v>2</v>
@@ -15482,7 +15482,7 @@
         <v>1253</v>
       </c>
       <c r="B1254" s="1">
-        <v>423064711</v>
+        <v>423404487</v>
       </c>
       <c r="C1254" s="1" t="s">
         <v>2</v>
@@ -15494,7 +15494,7 @@
         <v>1254</v>
       </c>
       <c r="B1255" s="1">
-        <v>423072221</v>
+        <v>423064711</v>
       </c>
       <c r="C1255" s="1" t="s">
         <v>2</v>
@@ -15506,7 +15506,7 @@
         <v>1255</v>
       </c>
       <c r="B1256" s="1">
-        <v>423076040</v>
+        <v>423072221</v>
       </c>
       <c r="C1256" s="1" t="s">
         <v>2</v>
@@ -15518,7 +15518,7 @@
         <v>1256</v>
       </c>
       <c r="B1257" s="1">
-        <v>423119746</v>
+        <v>423076040</v>
       </c>
       <c r="C1257" s="1" t="s">
         <v>2</v>
@@ -15530,7 +15530,7 @@
         <v>1257</v>
       </c>
       <c r="B1258" s="1">
-        <v>423194335</v>
+        <v>423119746</v>
       </c>
       <c r="C1258" s="1" t="s">
         <v>2</v>
@@ -15542,7 +15542,7 @@
         <v>1258</v>
       </c>
       <c r="B1259" s="1">
-        <v>423199766</v>
+        <v>423194335</v>
       </c>
       <c r="C1259" s="1" t="s">
         <v>2</v>
@@ -15554,7 +15554,7 @@
         <v>1259</v>
       </c>
       <c r="B1260" s="1">
-        <v>423230015</v>
+        <v>423199766</v>
       </c>
       <c r="C1260" s="1" t="s">
         <v>2</v>
@@ -15566,7 +15566,7 @@
         <v>1260</v>
       </c>
       <c r="B1261" s="1">
-        <v>423234416</v>
+        <v>423230015</v>
       </c>
       <c r="C1261" s="1" t="s">
         <v>2</v>
@@ -15578,7 +15578,7 @@
         <v>1261</v>
       </c>
       <c r="B1262" s="1">
-        <v>423410331</v>
+        <v>423234416</v>
       </c>
       <c r="C1262" s="1" t="s">
         <v>2</v>
@@ -15590,7 +15590,7 @@
         <v>1262</v>
       </c>
       <c r="B1263" s="1">
-        <v>423507324</v>
+        <v>423410331</v>
       </c>
       <c r="C1263" s="1" t="s">
         <v>2</v>
@@ -15602,7 +15602,7 @@
         <v>1263</v>
       </c>
       <c r="B1264" s="1">
-        <v>423219307</v>
+        <v>423507324</v>
       </c>
       <c r="C1264" s="1" t="s">
         <v>2</v>
@@ -15614,7 +15614,7 @@
         <v>1264</v>
       </c>
       <c r="B1265" s="1">
-        <v>423452920</v>
+        <v>423219307</v>
       </c>
       <c r="C1265" s="1" t="s">
         <v>2</v>
@@ -15626,7 +15626,7 @@
         <v>1265</v>
       </c>
       <c r="B1266" s="1">
-        <v>423511951</v>
+        <v>423452920</v>
       </c>
       <c r="C1266" s="1" t="s">
         <v>2</v>
@@ -15638,7 +15638,7 @@
         <v>1266</v>
       </c>
       <c r="B1267" s="1">
-        <v>423033847</v>
+        <v>423511951</v>
       </c>
       <c r="C1267" s="1" t="s">
         <v>2</v>
@@ -15650,7 +15650,7 @@
         <v>1267</v>
       </c>
       <c r="B1268" s="1">
-        <v>423052756</v>
+        <v>423033847</v>
       </c>
       <c r="C1268" s="1" t="s">
         <v>2</v>
@@ -15662,7 +15662,7 @@
         <v>1268</v>
       </c>
       <c r="B1269" s="1">
-        <v>423088589</v>
+        <v>423052756</v>
       </c>
       <c r="C1269" s="1" t="s">
         <v>2</v>
@@ -15674,7 +15674,7 @@
         <v>1269</v>
       </c>
       <c r="B1270" s="1">
-        <v>423361449</v>
+        <v>423088589</v>
       </c>
       <c r="C1270" s="1" t="s">
         <v>2</v>
@@ -15686,7 +15686,7 @@
         <v>1270</v>
       </c>
       <c r="B1271" s="1">
-        <v>423448652</v>
+        <v>423361449</v>
       </c>
       <c r="C1271" s="1" t="s">
         <v>2</v>
@@ -15698,7 +15698,7 @@
         <v>1271</v>
       </c>
       <c r="B1272" s="1">
-        <v>423476901</v>
+        <v>423448652</v>
       </c>
       <c r="C1272" s="1" t="s">
         <v>2</v>
@@ -15710,7 +15710,7 @@
         <v>1272</v>
       </c>
       <c r="B1273" s="1">
-        <v>423224059</v>
+        <v>423476901</v>
       </c>
       <c r="C1273" s="1" t="s">
         <v>2</v>
@@ -15722,7 +15722,7 @@
         <v>1273</v>
       </c>
       <c r="B1274" s="1">
-        <v>423438191</v>
+        <v>423224059</v>
       </c>
       <c r="C1274" s="1" t="s">
         <v>2</v>
@@ -15734,7 +15734,7 @@
         <v>1274</v>
       </c>
       <c r="B1275" s="1">
-        <v>423507276</v>
+        <v>423438191</v>
       </c>
       <c r="C1275" s="1" t="s">
         <v>2</v>
@@ -15746,7 +15746,7 @@
         <v>1275</v>
       </c>
       <c r="B1276" s="1">
-        <v>423562896</v>
+        <v>423507276</v>
       </c>
       <c r="C1276" s="1" t="s">
         <v>2</v>
@@ -15758,7 +15758,7 @@
         <v>1276</v>
       </c>
       <c r="B1277" s="1">
-        <v>423025328</v>
+        <v>423562896</v>
       </c>
       <c r="C1277" s="1" t="s">
         <v>2</v>
@@ -15770,7 +15770,7 @@
         <v>1277</v>
       </c>
       <c r="B1278" s="1">
-        <v>423419505</v>
+        <v>423025328</v>
       </c>
       <c r="C1278" s="1" t="s">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>1278</v>
       </c>
       <c r="B1279" s="1">
-        <v>423624321</v>
+        <v>423419505</v>
       </c>
       <c r="C1279" s="1" t="s">
         <v>2</v>
@@ -15794,7 +15794,7 @@
         <v>1279</v>
       </c>
       <c r="B1280" s="1">
-        <v>423656990</v>
+        <v>423624321</v>
       </c>
       <c r="C1280" s="1" t="s">
         <v>2</v>
@@ -15806,7 +15806,7 @@
         <v>1280</v>
       </c>
       <c r="B1281" s="1">
-        <v>423425848</v>
+        <v>423656990</v>
       </c>
       <c r="C1281" s="1" t="s">
         <v>2</v>
@@ -15818,7 +15818,7 @@
         <v>1281</v>
       </c>
       <c r="B1282" s="1">
-        <v>423012784</v>
+        <v>423425848</v>
       </c>
       <c r="C1282" s="1" t="s">
         <v>2</v>
@@ -15830,7 +15830,7 @@
         <v>1282</v>
       </c>
       <c r="B1283" s="1">
-        <v>423055708</v>
+        <v>423012784</v>
       </c>
       <c r="C1283" s="1" t="s">
         <v>2</v>
@@ -15842,7 +15842,7 @@
         <v>1283</v>
       </c>
       <c r="B1284" s="1">
-        <v>423069380</v>
+        <v>423055708</v>
       </c>
       <c r="C1284" s="1" t="s">
         <v>2</v>
@@ -15854,7 +15854,7 @@
         <v>1284</v>
       </c>
       <c r="B1285" s="1">
-        <v>423120990</v>
+        <v>423069380</v>
       </c>
       <c r="C1285" s="1" t="s">
         <v>2</v>
@@ -15866,7 +15866,7 @@
         <v>1285</v>
       </c>
       <c r="B1286" s="1">
-        <v>423163172</v>
+        <v>423120990</v>
       </c>
       <c r="C1286" s="1" t="s">
         <v>2</v>
@@ -15878,7 +15878,7 @@
         <v>1286</v>
       </c>
       <c r="B1287" s="1">
-        <v>423166086</v>
+        <v>423163172</v>
       </c>
       <c r="C1287" s="1" t="s">
         <v>2</v>
@@ -15890,7 +15890,7 @@
         <v>1287</v>
       </c>
       <c r="B1288" s="1">
-        <v>423170460</v>
+        <v>423166086</v>
       </c>
       <c r="C1288" s="1" t="s">
         <v>2</v>
@@ -15902,7 +15902,7 @@
         <v>1288</v>
       </c>
       <c r="B1289" s="1">
-        <v>423173809</v>
+        <v>423170460</v>
       </c>
       <c r="C1289" s="1" t="s">
         <v>2</v>
@@ -15914,7 +15914,7 @@
         <v>1289</v>
       </c>
       <c r="B1290" s="1">
-        <v>423213646</v>
+        <v>423173809</v>
       </c>
       <c r="C1290" s="1" t="s">
         <v>2</v>
@@ -15926,7 +15926,7 @@
         <v>1290</v>
       </c>
       <c r="B1291" s="1">
-        <v>423243726</v>
+        <v>423213646</v>
       </c>
       <c r="C1291" s="1" t="s">
         <v>2</v>
@@ -15938,7 +15938,7 @@
         <v>1291</v>
       </c>
       <c r="B1292" s="1">
-        <v>423252224</v>
+        <v>423243726</v>
       </c>
       <c r="C1292" s="1" t="s">
         <v>2</v>
@@ -15950,7 +15950,7 @@
         <v>1292</v>
       </c>
       <c r="B1293" s="1">
-        <v>423267449</v>
+        <v>423252224</v>
       </c>
       <c r="C1293" s="1" t="s">
         <v>2</v>
@@ -15962,7 +15962,7 @@
         <v>1293</v>
       </c>
       <c r="B1294" s="1">
-        <v>423337919</v>
+        <v>423267449</v>
       </c>
       <c r="C1294" s="1" t="s">
         <v>2</v>
@@ -15974,7 +15974,7 @@
         <v>1294</v>
       </c>
       <c r="B1295" s="1">
-        <v>423343283</v>
+        <v>423337919</v>
       </c>
       <c r="C1295" s="1" t="s">
         <v>2</v>
@@ -15986,7 +15986,7 @@
         <v>1295</v>
       </c>
       <c r="B1296" s="1">
-        <v>423356992</v>
+        <v>423343283</v>
       </c>
       <c r="C1296" s="1" t="s">
         <v>2</v>
@@ -15998,7 +15998,7 @@
         <v>1296</v>
       </c>
       <c r="B1297" s="1">
-        <v>423403519</v>
+        <v>423356992</v>
       </c>
       <c r="C1297" s="1" t="s">
         <v>2</v>
@@ -16010,7 +16010,7 @@
         <v>1297</v>
       </c>
       <c r="B1298" s="1">
-        <v>423416865</v>
+        <v>423403519</v>
       </c>
       <c r="C1298" s="1" t="s">
         <v>2</v>
@@ -16022,7 +16022,7 @@
         <v>1298</v>
       </c>
       <c r="B1299" s="1">
-        <v>423439632</v>
+        <v>423416865</v>
       </c>
       <c r="C1299" s="1" t="s">
         <v>2</v>
@@ -16034,7 +16034,7 @@
         <v>1299</v>
       </c>
       <c r="B1300" s="1">
-        <v>423637334</v>
+        <v>423439632</v>
       </c>
       <c r="C1300" s="1" t="s">
         <v>2</v>
@@ -16046,7 +16046,7 @@
         <v>1300</v>
       </c>
       <c r="B1301" s="1">
-        <v>423638983</v>
+        <v>423637334</v>
       </c>
       <c r="C1301" s="1" t="s">
         <v>2</v>
@@ -16058,7 +16058,7 @@
         <v>1301</v>
       </c>
       <c r="B1302" s="1">
-        <v>423130461</v>
+        <v>423638983</v>
       </c>
       <c r="C1302" s="1" t="s">
         <v>2</v>
@@ -16070,7 +16070,7 @@
         <v>1302</v>
       </c>
       <c r="B1303" s="1">
-        <v>423144351</v>
+        <v>423130461</v>
       </c>
       <c r="C1303" s="1" t="s">
         <v>2</v>
@@ -16082,7 +16082,7 @@
         <v>1303</v>
       </c>
       <c r="B1304" s="1">
-        <v>423162822</v>
+        <v>423144351</v>
       </c>
       <c r="C1304" s="1" t="s">
         <v>2</v>
@@ -16094,7 +16094,7 @@
         <v>1304</v>
       </c>
       <c r="B1305" s="1">
-        <v>423191278</v>
+        <v>423162822</v>
       </c>
       <c r="C1305" s="1" t="s">
         <v>2</v>
@@ -16106,7 +16106,7 @@
         <v>1305</v>
       </c>
       <c r="B1306" s="1">
-        <v>423242251</v>
+        <v>423191278</v>
       </c>
       <c r="C1306" s="1" t="s">
         <v>2</v>
@@ -16118,7 +16118,7 @@
         <v>1306</v>
       </c>
       <c r="B1307" s="1">
-        <v>423382486</v>
+        <v>423242251</v>
       </c>
       <c r="C1307" s="1" t="s">
         <v>2</v>
@@ -16130,7 +16130,7 @@
         <v>1307</v>
       </c>
       <c r="B1308" s="1">
-        <v>423403666</v>
+        <v>423382486</v>
       </c>
       <c r="C1308" s="1" t="s">
         <v>2</v>
@@ -16142,7 +16142,7 @@
         <v>1308</v>
       </c>
       <c r="B1309" s="1">
-        <v>423411687</v>
+        <v>423403666</v>
       </c>
       <c r="C1309" s="1" t="s">
         <v>2</v>
@@ -16154,7 +16154,7 @@
         <v>1309</v>
       </c>
       <c r="B1310" s="1">
-        <v>423656809</v>
+        <v>423411687</v>
       </c>
       <c r="C1310" s="1" t="s">
         <v>2</v>
@@ -16166,7 +16166,7 @@
         <v>1310</v>
       </c>
       <c r="B1311" s="1">
-        <v>423009460</v>
+        <v>423656809</v>
       </c>
       <c r="C1311" s="1" t="s">
         <v>2</v>
@@ -16178,7 +16178,7 @@
         <v>1311</v>
       </c>
       <c r="B1312" s="1">
-        <v>423064834</v>
+        <v>423009460</v>
       </c>
       <c r="C1312" s="1" t="s">
         <v>2</v>
@@ -16190,7 +16190,7 @@
         <v>1312</v>
       </c>
       <c r="B1313" s="1">
-        <v>423143857</v>
+        <v>423064834</v>
       </c>
       <c r="C1313" s="1" t="s">
         <v>2</v>
@@ -16202,7 +16202,7 @@
         <v>1313</v>
       </c>
       <c r="B1314" s="1">
-        <v>423319172</v>
+        <v>423143857</v>
       </c>
       <c r="C1314" s="1" t="s">
         <v>2</v>
@@ -16214,7 +16214,7 @@
         <v>1314</v>
       </c>
       <c r="B1315" s="1">
-        <v>423454063</v>
+        <v>423319172</v>
       </c>
       <c r="C1315" s="1" t="s">
         <v>2</v>
@@ -16226,7 +16226,7 @@
         <v>1315</v>
       </c>
       <c r="B1316" s="1">
-        <v>423543856</v>
+        <v>423454063</v>
       </c>
       <c r="C1316" s="1" t="s">
         <v>2</v>
@@ -16238,7 +16238,7 @@
         <v>1316</v>
       </c>
       <c r="B1317" s="1">
-        <v>423546164</v>
+        <v>423543856</v>
       </c>
       <c r="C1317" s="1" t="s">
         <v>2</v>
@@ -16250,7 +16250,7 @@
         <v>1317</v>
       </c>
       <c r="B1318" s="1">
-        <v>423578401</v>
+        <v>423546164</v>
       </c>
       <c r="C1318" s="1" t="s">
         <v>2</v>
@@ -16262,7 +16262,7 @@
         <v>1318</v>
       </c>
       <c r="B1319" s="1">
-        <v>423618656</v>
+        <v>423578401</v>
       </c>
       <c r="C1319" s="1" t="s">
         <v>2</v>
@@ -16274,7 +16274,7 @@
         <v>1319</v>
       </c>
       <c r="B1320" s="1">
-        <v>423619864</v>
+        <v>423618656</v>
       </c>
       <c r="C1320" s="1" t="s">
         <v>2</v>
@@ -16286,7 +16286,7 @@
         <v>1320</v>
       </c>
       <c r="B1321" s="1">
-        <v>423001413</v>
+        <v>423619864</v>
       </c>
       <c r="C1321" s="1" t="s">
         <v>2</v>
@@ -16298,7 +16298,7 @@
         <v>1321</v>
       </c>
       <c r="B1322" s="1">
-        <v>423005746</v>
+        <v>423001413</v>
       </c>
       <c r="C1322" s="1" t="s">
         <v>2</v>
@@ -16310,7 +16310,7 @@
         <v>1322</v>
       </c>
       <c r="B1323" s="1">
-        <v>423119367</v>
+        <v>423005746</v>
       </c>
       <c r="C1323" s="1" t="s">
         <v>2</v>
@@ -16322,7 +16322,7 @@
         <v>1323</v>
       </c>
       <c r="B1324" s="1">
-        <v>423119455</v>
+        <v>423119367</v>
       </c>
       <c r="C1324" s="1" t="s">
         <v>2</v>
@@ -16334,7 +16334,7 @@
         <v>1324</v>
       </c>
       <c r="B1325" s="1">
-        <v>423178755</v>
+        <v>423119455</v>
       </c>
       <c r="C1325" s="1" t="s">
         <v>2</v>
@@ -16346,7 +16346,7 @@
         <v>1325</v>
       </c>
       <c r="B1326" s="1">
-        <v>423260896</v>
+        <v>423178755</v>
       </c>
       <c r="C1326" s="1" t="s">
         <v>2</v>
@@ -16358,7 +16358,7 @@
         <v>1326</v>
       </c>
       <c r="B1327" s="1">
-        <v>423280767</v>
+        <v>423260896</v>
       </c>
       <c r="C1327" s="1" t="s">
         <v>2</v>
@@ -16370,7 +16370,7 @@
         <v>1327</v>
       </c>
       <c r="B1328" s="1">
-        <v>423315329</v>
+        <v>423280767</v>
       </c>
       <c r="C1328" s="1" t="s">
         <v>2</v>
@@ -16382,7 +16382,7 @@
         <v>1328</v>
       </c>
       <c r="B1329" s="1">
-        <v>423326580</v>
+        <v>423315329</v>
       </c>
       <c r="C1329" s="1" t="s">
         <v>2</v>
@@ -16394,7 +16394,7 @@
         <v>1329</v>
       </c>
       <c r="B1330" s="1">
-        <v>423437030</v>
+        <v>423326580</v>
       </c>
       <c r="C1330" s="1" t="s">
         <v>2</v>
@@ -16406,7 +16406,7 @@
         <v>1330</v>
       </c>
       <c r="B1331" s="1">
-        <v>423496053</v>
+        <v>423437030</v>
       </c>
       <c r="C1331" s="1" t="s">
         <v>2</v>
@@ -16418,7 +16418,7 @@
         <v>1331</v>
       </c>
       <c r="B1332" s="1">
-        <v>423500200</v>
+        <v>423496053</v>
       </c>
       <c r="C1332" s="1" t="s">
         <v>2</v>
@@ -16430,7 +16430,7 @@
         <v>1332</v>
       </c>
       <c r="B1333" s="1">
-        <v>423514002</v>
+        <v>423500200</v>
       </c>
       <c r="C1333" s="1" t="s">
         <v>2</v>
@@ -16442,7 +16442,7 @@
         <v>1333</v>
       </c>
       <c r="B1334" s="1">
-        <v>423618683</v>
+        <v>423514002</v>
       </c>
       <c r="C1334" s="1" t="s">
         <v>2</v>
@@ -16454,7 +16454,7 @@
         <v>1334</v>
       </c>
       <c r="B1335" s="1">
-        <v>423157414</v>
+        <v>423618683</v>
       </c>
       <c r="C1335" s="1" t="s">
         <v>2</v>
@@ -16466,7 +16466,7 @@
         <v>1335</v>
       </c>
       <c r="B1336" s="1">
-        <v>423253785</v>
+        <v>423157414</v>
       </c>
       <c r="C1336" s="1" t="s">
         <v>2</v>
@@ -16478,7 +16478,7 @@
         <v>1336</v>
       </c>
       <c r="B1337" s="1">
-        <v>423260716</v>
+        <v>423253785</v>
       </c>
       <c r="C1337" s="1" t="s">
         <v>2</v>
@@ -16490,7 +16490,7 @@
         <v>1337</v>
       </c>
       <c r="B1338" s="1">
-        <v>423260730</v>
+        <v>423260716</v>
       </c>
       <c r="C1338" s="1" t="s">
         <v>2</v>
@@ -16502,7 +16502,7 @@
         <v>1338</v>
       </c>
       <c r="B1339" s="1">
-        <v>423298045</v>
+        <v>423260730</v>
       </c>
       <c r="C1339" s="1" t="s">
         <v>2</v>
@@ -16514,7 +16514,7 @@
         <v>1339</v>
       </c>
       <c r="B1340" s="1">
-        <v>423323437</v>
+        <v>423298045</v>
       </c>
       <c r="C1340" s="1" t="s">
         <v>2</v>
@@ -16526,7 +16526,7 @@
         <v>1340</v>
       </c>
       <c r="B1341" s="1">
-        <v>423353515</v>
+        <v>423323437</v>
       </c>
       <c r="C1341" s="1" t="s">
         <v>2</v>
@@ -16538,7 +16538,7 @@
         <v>1341</v>
       </c>
       <c r="B1342" s="1">
-        <v>423365806</v>
+        <v>423353515</v>
       </c>
       <c r="C1342" s="1" t="s">
         <v>2</v>
@@ -16550,7 +16550,7 @@
         <v>1342</v>
       </c>
       <c r="B1343" s="1">
-        <v>423408232</v>
+        <v>423365806</v>
       </c>
       <c r="C1343" s="1" t="s">
         <v>2</v>
@@ -16562,7 +16562,7 @@
         <v>1343</v>
       </c>
       <c r="B1344" s="1">
-        <v>423434077</v>
+        <v>423408232</v>
       </c>
       <c r="C1344" s="1" t="s">
         <v>2</v>
@@ -16574,7 +16574,7 @@
         <v>1344</v>
       </c>
       <c r="B1345" s="1">
-        <v>423434515</v>
+        <v>423434077</v>
       </c>
       <c r="C1345" s="1" t="s">
         <v>2</v>
@@ -16586,7 +16586,7 @@
         <v>1345</v>
       </c>
       <c r="B1346" s="1">
-        <v>423451998</v>
+        <v>423434515</v>
       </c>
       <c r="C1346" s="1" t="s">
         <v>2</v>
@@ -16598,7 +16598,7 @@
         <v>1346</v>
       </c>
       <c r="B1347" s="1">
-        <v>423458632</v>
+        <v>423451998</v>
       </c>
       <c r="C1347" s="1" t="s">
         <v>2</v>
@@ -16610,7 +16610,7 @@
         <v>1347</v>
       </c>
       <c r="B1348" s="1">
-        <v>423461114</v>
+        <v>423458632</v>
       </c>
       <c r="C1348" s="1" t="s">
         <v>2</v>
@@ -16622,7 +16622,7 @@
         <v>1348</v>
       </c>
       <c r="B1349" s="1">
-        <v>423480822</v>
+        <v>423461114</v>
       </c>
       <c r="C1349" s="1" t="s">
         <v>2</v>
@@ -16634,7 +16634,7 @@
         <v>1349</v>
       </c>
       <c r="B1350" s="1">
-        <v>423556505</v>
+        <v>423480822</v>
       </c>
       <c r="C1350" s="1" t="s">
         <v>2</v>
@@ -16646,7 +16646,7 @@
         <v>1350</v>
       </c>
       <c r="B1351" s="1">
-        <v>423600860</v>
+        <v>423556505</v>
       </c>
       <c r="C1351" s="1" t="s">
         <v>2</v>
@@ -16658,7 +16658,7 @@
         <v>1351</v>
       </c>
       <c r="B1352" s="1">
-        <v>423653056</v>
+        <v>423600860</v>
       </c>
       <c r="C1352" s="1" t="s">
         <v>2</v>
@@ -16670,7 +16670,7 @@
         <v>1352</v>
       </c>
       <c r="B1353" s="1">
-        <v>423123524</v>
+        <v>423653056</v>
       </c>
       <c r="C1353" s="1" t="s">
         <v>2</v>
@@ -16682,7 +16682,7 @@
         <v>1353</v>
       </c>
       <c r="B1354" s="1">
-        <v>423194501</v>
+        <v>423123524</v>
       </c>
       <c r="C1354" s="1" t="s">
         <v>2</v>
@@ -16694,7 +16694,7 @@
         <v>1354</v>
       </c>
       <c r="B1355" s="1">
-        <v>423225053</v>
+        <v>423194501</v>
       </c>
       <c r="C1355" s="1" t="s">
         <v>2</v>
@@ -16706,7 +16706,7 @@
         <v>1355</v>
       </c>
       <c r="B1356" s="1">
-        <v>423379820</v>
+        <v>423225053</v>
       </c>
       <c r="C1356" s="1" t="s">
         <v>2</v>
@@ -16718,7 +16718,7 @@
         <v>1356</v>
       </c>
       <c r="B1357" s="1">
-        <v>423419892</v>
+        <v>423379820</v>
       </c>
       <c r="C1357" s="1" t="s">
         <v>2</v>
@@ -16730,7 +16730,7 @@
         <v>1357</v>
       </c>
       <c r="B1358" s="1">
-        <v>423433920</v>
+        <v>423419892</v>
       </c>
       <c r="C1358" s="1" t="s">
         <v>2</v>
@@ -16742,7 +16742,7 @@
         <v>1358</v>
       </c>
       <c r="B1359" s="1">
-        <v>423480377</v>
+        <v>423433920</v>
       </c>
       <c r="C1359" s="1" t="s">
         <v>2</v>
@@ -16754,7 +16754,7 @@
         <v>1359</v>
       </c>
       <c r="B1360" s="1">
-        <v>423483921</v>
+        <v>423480377</v>
       </c>
       <c r="C1360" s="1" t="s">
         <v>2</v>
@@ -16766,7 +16766,7 @@
         <v>1360</v>
       </c>
       <c r="B1361" s="1">
-        <v>423014184</v>
+        <v>423483921</v>
       </c>
       <c r="C1361" s="1" t="s">
         <v>2</v>
@@ -16778,7 +16778,7 @@
         <v>1361</v>
       </c>
       <c r="B1362" s="1">
-        <v>423035766</v>
+        <v>423014184</v>
       </c>
       <c r="C1362" s="1" t="s">
         <v>2</v>
@@ -16790,7 +16790,7 @@
         <v>1362</v>
       </c>
       <c r="B1363" s="1">
-        <v>423046949</v>
+        <v>423035766</v>
       </c>
       <c r="C1363" s="1" t="s">
         <v>2</v>
@@ -16802,7 +16802,7 @@
         <v>1363</v>
       </c>
       <c r="B1364" s="1">
-        <v>423050092</v>
+        <v>423046949</v>
       </c>
       <c r="C1364" s="1" t="s">
         <v>2</v>
@@ -16814,7 +16814,7 @@
         <v>1364</v>
       </c>
       <c r="B1365" s="1">
-        <v>423085284</v>
+        <v>423050092</v>
       </c>
       <c r="C1365" s="1" t="s">
         <v>2</v>
@@ -16826,7 +16826,7 @@
         <v>1365</v>
       </c>
       <c r="B1366" s="1">
-        <v>423118615</v>
+        <v>423085284</v>
       </c>
       <c r="C1366" s="1" t="s">
         <v>2</v>
@@ -16838,7 +16838,7 @@
         <v>1366</v>
       </c>
       <c r="B1367" s="1">
-        <v>423245367</v>
+        <v>423118615</v>
       </c>
       <c r="C1367" s="1" t="s">
         <v>2</v>
@@ -16850,7 +16850,7 @@
         <v>1367</v>
       </c>
       <c r="B1368" s="1">
-        <v>423328165</v>
+        <v>423245367</v>
       </c>
       <c r="C1368" s="1" t="s">
         <v>2</v>
@@ -16862,7 +16862,7 @@
         <v>1368</v>
       </c>
       <c r="B1369" s="1">
-        <v>423393853</v>
+        <v>423328165</v>
       </c>
       <c r="C1369" s="1" t="s">
         <v>2</v>
@@ -16874,7 +16874,7 @@
         <v>1369</v>
       </c>
       <c r="B1370" s="1">
-        <v>423450536</v>
+        <v>423393853</v>
       </c>
       <c r="C1370" s="1" t="s">
         <v>2</v>
@@ -16886,7 +16886,7 @@
         <v>1370</v>
       </c>
       <c r="B1371" s="1">
-        <v>423471504</v>
+        <v>423450536</v>
       </c>
       <c r="C1371" s="1" t="s">
         <v>2</v>
@@ -16898,7 +16898,7 @@
         <v>1371</v>
       </c>
       <c r="B1372" s="1">
-        <v>423485534</v>
+        <v>423471504</v>
       </c>
       <c r="C1372" s="1" t="s">
         <v>2</v>
@@ -16910,7 +16910,7 @@
         <v>1372</v>
       </c>
       <c r="B1373" s="1">
-        <v>423565241</v>
+        <v>423485534</v>
       </c>
       <c r="C1373" s="1" t="s">
         <v>2</v>
@@ -16922,7 +16922,7 @@
         <v>1373</v>
       </c>
       <c r="B1374" s="1">
-        <v>423595723</v>
+        <v>423565241</v>
       </c>
       <c r="C1374" s="1" t="s">
         <v>2</v>
@@ -16934,7 +16934,7 @@
         <v>1374</v>
       </c>
       <c r="B1375" s="1">
-        <v>423635446</v>
+        <v>423595723</v>
       </c>
       <c r="C1375" s="1" t="s">
         <v>2</v>
@@ -16946,7 +16946,7 @@
         <v>1375</v>
       </c>
       <c r="B1376" s="1">
-        <v>423000772</v>
+        <v>423635446</v>
       </c>
       <c r="C1376" s="1" t="s">
         <v>2</v>
@@ -16958,7 +16958,7 @@
         <v>1376</v>
       </c>
       <c r="B1377" s="1">
-        <v>423013019</v>
+        <v>423000772</v>
       </c>
       <c r="C1377" s="1" t="s">
         <v>2</v>
@@ -16970,7 +16970,7 @@
         <v>1377</v>
       </c>
       <c r="B1378" s="1">
-        <v>423017459</v>
+        <v>423013019</v>
       </c>
       <c r="C1378" s="1" t="s">
         <v>2</v>
@@ -16982,7 +16982,7 @@
         <v>1378</v>
       </c>
       <c r="B1379" s="1">
-        <v>423081098</v>
+        <v>423017459</v>
       </c>
       <c r="C1379" s="1" t="s">
         <v>2</v>
@@ -16994,7 +16994,7 @@
         <v>1379</v>
       </c>
       <c r="B1380" s="1">
-        <v>423129380</v>
+        <v>423081098</v>
       </c>
       <c r="C1380" s="1" t="s">
         <v>2</v>
@@ -17006,7 +17006,7 @@
         <v>1380</v>
       </c>
       <c r="B1381" s="1">
-        <v>423168509</v>
+        <v>423129380</v>
       </c>
       <c r="C1381" s="1" t="s">
         <v>2</v>
@@ -17018,7 +17018,7 @@
         <v>1381</v>
       </c>
       <c r="B1382" s="1">
-        <v>423203409</v>
+        <v>423168509</v>
       </c>
       <c r="C1382" s="1" t="s">
         <v>2</v>
@@ -17030,7 +17030,7 @@
         <v>1382</v>
       </c>
       <c r="B1383" s="1">
-        <v>423294836</v>
+        <v>423203409</v>
       </c>
       <c r="C1383" s="1" t="s">
         <v>2</v>
@@ -17042,7 +17042,7 @@
         <v>1383</v>
       </c>
       <c r="B1384" s="1">
-        <v>423297433</v>
+        <v>423294836</v>
       </c>
       <c r="C1384" s="1" t="s">
         <v>2</v>
@@ -17054,7 +17054,7 @@
         <v>1384</v>
       </c>
       <c r="B1385" s="1">
-        <v>423345334</v>
+        <v>423297433</v>
       </c>
       <c r="C1385" s="1" t="s">
         <v>2</v>
@@ -17066,7 +17066,7 @@
         <v>1385</v>
       </c>
       <c r="B1386" s="1">
-        <v>423360521</v>
+        <v>423345334</v>
       </c>
       <c r="C1386" s="1" t="s">
         <v>2</v>
@@ -17078,7 +17078,7 @@
         <v>1386</v>
       </c>
       <c r="B1387" s="1">
-        <v>423494599</v>
+        <v>423360521</v>
       </c>
       <c r="C1387" s="1" t="s">
         <v>2</v>
@@ -17090,7 +17090,7 @@
         <v>1387</v>
       </c>
       <c r="B1388" s="1">
-        <v>423526407</v>
+        <v>423494599</v>
       </c>
       <c r="C1388" s="1" t="s">
         <v>2</v>
@@ -17102,7 +17102,7 @@
         <v>1388</v>
       </c>
       <c r="B1389" s="1">
-        <v>423550785</v>
+        <v>423526407</v>
       </c>
       <c r="C1389" s="1" t="s">
         <v>2</v>
@@ -17114,7 +17114,7 @@
         <v>1389</v>
       </c>
       <c r="B1390" s="1">
-        <v>423616686</v>
+        <v>423550785</v>
       </c>
       <c r="C1390" s="1" t="s">
         <v>2</v>
@@ -17126,7 +17126,7 @@
         <v>1390</v>
       </c>
       <c r="B1391" s="1">
-        <v>423037207</v>
+        <v>423616686</v>
       </c>
       <c r="C1391" s="1" t="s">
         <v>2</v>
@@ -17138,7 +17138,7 @@
         <v>1391</v>
       </c>
       <c r="B1392" s="1">
-        <v>423070114</v>
+        <v>423037207</v>
       </c>
       <c r="C1392" s="1" t="s">
         <v>2</v>
@@ -17150,7 +17150,7 @@
         <v>1392</v>
       </c>
       <c r="B1393" s="1">
-        <v>423253942</v>
+        <v>423070114</v>
       </c>
       <c r="C1393" s="1" t="s">
         <v>2</v>
@@ -17162,7 +17162,7 @@
         <v>1393</v>
       </c>
       <c r="B1394" s="1">
-        <v>423260787</v>
+        <v>423253942</v>
       </c>
       <c r="C1394" s="1" t="s">
         <v>2</v>
@@ -17174,7 +17174,7 @@
         <v>1394</v>
       </c>
       <c r="B1395" s="1">
-        <v>423290019</v>
+        <v>423260787</v>
       </c>
       <c r="C1395" s="1" t="s">
         <v>2</v>
@@ -17186,7 +17186,7 @@
         <v>1395</v>
       </c>
       <c r="B1396" s="1">
-        <v>423292697</v>
+        <v>423290019</v>
       </c>
       <c r="C1396" s="1" t="s">
         <v>2</v>
@@ -17198,7 +17198,7 @@
         <v>1396</v>
       </c>
       <c r="B1397" s="1">
-        <v>423320517</v>
+        <v>423292697</v>
       </c>
       <c r="C1397" s="1" t="s">
         <v>2</v>
@@ -17210,7 +17210,7 @@
         <v>1397</v>
       </c>
       <c r="B1398" s="1">
-        <v>423375534</v>
+        <v>423320517</v>
       </c>
       <c r="C1398" s="1" t="s">
         <v>2</v>
@@ -17222,7 +17222,7 @@
         <v>1398</v>
       </c>
       <c r="B1399" s="1">
-        <v>423407436</v>
+        <v>423375534</v>
       </c>
       <c r="C1399" s="1" t="s">
         <v>2</v>
@@ -17234,7 +17234,7 @@
         <v>1399</v>
       </c>
       <c r="B1400" s="1">
-        <v>423410246</v>
+        <v>423407436</v>
       </c>
       <c r="C1400" s="1" t="s">
         <v>2</v>
@@ -17246,7 +17246,7 @@
         <v>1400</v>
       </c>
       <c r="B1401" s="1">
-        <v>423002047</v>
+        <v>423410246</v>
       </c>
       <c r="C1401" s="1" t="s">
         <v>2</v>
@@ -17258,7 +17258,7 @@
         <v>1401</v>
       </c>
       <c r="B1402" s="1">
-        <v>423074916</v>
+        <v>423002047</v>
       </c>
       <c r="C1402" s="1" t="s">
         <v>2</v>
@@ -17270,7 +17270,7 @@
         <v>1402</v>
       </c>
       <c r="B1403" s="1">
-        <v>423181933</v>
+        <v>423074916</v>
       </c>
       <c r="C1403" s="1" t="s">
         <v>2</v>
@@ -17282,7 +17282,7 @@
         <v>1403</v>
       </c>
       <c r="B1404" s="1">
-        <v>423212231</v>
+        <v>423181933</v>
       </c>
       <c r="C1404" s="1" t="s">
         <v>2</v>
@@ -17294,7 +17294,7 @@
         <v>1404</v>
       </c>
       <c r="B1405" s="1">
-        <v>423217702</v>
+        <v>423212231</v>
       </c>
       <c r="C1405" s="1" t="s">
         <v>2</v>
@@ -17306,7 +17306,7 @@
         <v>1405</v>
       </c>
       <c r="B1406" s="1">
-        <v>423224212</v>
+        <v>423217702</v>
       </c>
       <c r="C1406" s="1" t="s">
         <v>2</v>
@@ -17318,7 +17318,7 @@
         <v>1406</v>
       </c>
       <c r="B1407" s="1">
-        <v>423333919</v>
+        <v>423224212</v>
       </c>
       <c r="C1407" s="1" t="s">
         <v>2</v>
@@ -17330,7 +17330,7 @@
         <v>1407</v>
       </c>
       <c r="B1408" s="1">
-        <v>423363454</v>
+        <v>423333919</v>
       </c>
       <c r="C1408" s="1" t="s">
         <v>2</v>
@@ -17342,7 +17342,7 @@
         <v>1408</v>
       </c>
       <c r="B1409" s="1">
-        <v>423475910</v>
+        <v>423363454</v>
       </c>
       <c r="C1409" s="1" t="s">
         <v>2</v>
@@ -17354,7 +17354,7 @@
         <v>1409</v>
       </c>
       <c r="B1410" s="1">
-        <v>423538870</v>
+        <v>423475910</v>
       </c>
       <c r="C1410" s="1" t="s">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>1410</v>
       </c>
       <c r="B1411" s="1">
-        <v>423543380</v>
+        <v>423538870</v>
       </c>
       <c r="C1411" s="1" t="s">
         <v>2</v>
@@ -17378,7 +17378,7 @@
         <v>1411</v>
       </c>
       <c r="B1412" s="1">
-        <v>423626939</v>
+        <v>423543380</v>
       </c>
       <c r="C1412" s="1" t="s">
         <v>2</v>
@@ -17390,7 +17390,7 @@
         <v>1412</v>
       </c>
       <c r="B1413" s="1">
-        <v>423674225</v>
+        <v>423626939</v>
       </c>
       <c r="C1413" s="1" t="s">
         <v>2</v>
@@ -17402,7 +17402,7 @@
         <v>1413</v>
       </c>
       <c r="B1414" s="1">
-        <v>423001205</v>
+        <v>423674225</v>
       </c>
       <c r="C1414" s="1" t="s">
         <v>2</v>
@@ -17414,7 +17414,7 @@
         <v>1414</v>
       </c>
       <c r="B1415" s="1">
-        <v>423077068</v>
+        <v>423001205</v>
       </c>
       <c r="C1415" s="1" t="s">
         <v>2</v>
@@ -17426,7 +17426,7 @@
         <v>1415</v>
       </c>
       <c r="B1416" s="1">
-        <v>423178423</v>
+        <v>423077068</v>
       </c>
       <c r="C1416" s="1" t="s">
         <v>2</v>
@@ -17438,7 +17438,7 @@
         <v>1416</v>
       </c>
       <c r="B1417" s="1">
-        <v>423274298</v>
+        <v>423178423</v>
       </c>
       <c r="C1417" s="1" t="s">
         <v>2</v>
@@ -17450,7 +17450,7 @@
         <v>1417</v>
       </c>
       <c r="B1418" s="1">
-        <v>423288303</v>
+        <v>423274298</v>
       </c>
       <c r="C1418" s="1" t="s">
         <v>2</v>
@@ -17462,7 +17462,7 @@
         <v>1418</v>
       </c>
       <c r="B1419" s="1">
-        <v>423291817</v>
+        <v>423288303</v>
       </c>
       <c r="C1419" s="1" t="s">
         <v>2</v>
@@ -17474,7 +17474,7 @@
         <v>1419</v>
       </c>
       <c r="B1420" s="1">
-        <v>423365974</v>
+        <v>423291817</v>
       </c>
       <c r="C1420" s="1" t="s">
         <v>2</v>
@@ -17486,7 +17486,7 @@
         <v>1420</v>
       </c>
       <c r="B1421" s="1">
-        <v>423397782</v>
+        <v>423365974</v>
       </c>
       <c r="C1421" s="1" t="s">
         <v>2</v>
@@ -17498,7 +17498,7 @@
         <v>1421</v>
       </c>
       <c r="B1422" s="1">
-        <v>423398687</v>
+        <v>423397782</v>
       </c>
       <c r="C1422" s="1" t="s">
         <v>2</v>
@@ -17510,7 +17510,7 @@
         <v>1422</v>
       </c>
       <c r="B1423" s="1">
-        <v>423501816</v>
+        <v>423398687</v>
       </c>
       <c r="C1423" s="1" t="s">
         <v>2</v>
@@ -17522,7 +17522,7 @@
         <v>1423</v>
       </c>
       <c r="B1424" s="1">
-        <v>423517928</v>
+        <v>423501816</v>
       </c>
       <c r="C1424" s="1" t="s">
         <v>2</v>
@@ -17534,7 +17534,7 @@
         <v>1424</v>
       </c>
       <c r="B1425" s="1">
-        <v>423669306</v>
+        <v>423517928</v>
       </c>
       <c r="C1425" s="1" t="s">
         <v>2</v>
@@ -17546,7 +17546,7 @@
         <v>1425</v>
       </c>
       <c r="B1426" s="1">
-        <v>423020222</v>
+        <v>423669306</v>
       </c>
       <c r="C1426" s="1" t="s">
         <v>2</v>
@@ -17558,7 +17558,7 @@
         <v>1426</v>
       </c>
       <c r="B1427" s="1">
-        <v>423072898</v>
+        <v>423020222</v>
       </c>
       <c r="C1427" s="1" t="s">
         <v>2</v>
@@ -17570,7 +17570,7 @@
         <v>1427</v>
       </c>
       <c r="B1428" s="1">
-        <v>423079042</v>
+        <v>423072898</v>
       </c>
       <c r="C1428" s="1" t="s">
         <v>2</v>
@@ -17582,7 +17582,7 @@
         <v>1428</v>
       </c>
       <c r="B1429" s="1">
-        <v>423164068</v>
+        <v>423079042</v>
       </c>
       <c r="C1429" s="1" t="s">
         <v>2</v>
@@ -17594,7 +17594,7 @@
         <v>1429</v>
       </c>
       <c r="B1430" s="1">
-        <v>423167705</v>
+        <v>423164068</v>
       </c>
       <c r="C1430" s="1" t="s">
         <v>2</v>
@@ -17606,7 +17606,7 @@
         <v>1430</v>
       </c>
       <c r="B1431" s="1">
-        <v>423250570</v>
+        <v>423167705</v>
       </c>
       <c r="C1431" s="1" t="s">
         <v>2</v>
@@ -17618,7 +17618,7 @@
         <v>1431</v>
       </c>
       <c r="B1432" s="1">
-        <v>423267167</v>
+        <v>423250570</v>
       </c>
       <c r="C1432" s="1" t="s">
         <v>2</v>
@@ -17630,7 +17630,7 @@
         <v>1432</v>
       </c>
       <c r="B1433" s="1">
-        <v>423268794</v>
+        <v>423267167</v>
       </c>
       <c r="C1433" s="1" t="s">
         <v>2</v>
@@ -17642,7 +17642,7 @@
         <v>1433</v>
       </c>
       <c r="B1434" s="1">
-        <v>423319006</v>
+        <v>423268794</v>
       </c>
       <c r="C1434" s="1" t="s">
         <v>2</v>
@@ -17654,7 +17654,7 @@
         <v>1434</v>
       </c>
       <c r="B1435" s="1">
-        <v>423412226</v>
+        <v>423319006</v>
       </c>
       <c r="C1435" s="1" t="s">
         <v>2</v>
@@ -17666,7 +17666,7 @@
         <v>1435</v>
       </c>
       <c r="B1436" s="1">
-        <v>423419064</v>
+        <v>423412226</v>
       </c>
       <c r="C1436" s="1" t="s">
         <v>2</v>
@@ -17678,7 +17678,7 @@
         <v>1436</v>
       </c>
       <c r="B1437" s="1">
-        <v>423570307</v>
+        <v>423419064</v>
       </c>
       <c r="C1437" s="1" t="s">
         <v>2</v>
@@ -17690,7 +17690,7 @@
         <v>1437</v>
       </c>
       <c r="B1438" s="1">
-        <v>423670331</v>
+        <v>423570307</v>
       </c>
       <c r="C1438" s="1" t="s">
         <v>2</v>
@@ -17702,7 +17702,7 @@
         <v>1438</v>
       </c>
       <c r="B1439" s="1">
-        <v>423017706</v>
+        <v>423670331</v>
       </c>
       <c r="C1439" s="1" t="s">
         <v>2</v>
@@ -17714,7 +17714,7 @@
         <v>1439</v>
       </c>
       <c r="B1440" s="1">
-        <v>423021830</v>
+        <v>423017706</v>
       </c>
       <c r="C1440" s="1" t="s">
         <v>2</v>
@@ -17726,7 +17726,7 @@
         <v>1440</v>
       </c>
       <c r="B1441" s="1">
-        <v>423085659</v>
+        <v>423021830</v>
       </c>
       <c r="C1441" s="1" t="s">
         <v>2</v>
@@ -17738,7 +17738,7 @@
         <v>1441</v>
       </c>
       <c r="B1442" s="1">
-        <v>423087539</v>
+        <v>423085659</v>
       </c>
       <c r="C1442" s="1" t="s">
         <v>2</v>
@@ -17750,7 +17750,7 @@
         <v>1442</v>
       </c>
       <c r="B1443" s="1">
-        <v>423132642</v>
+        <v>423087539</v>
       </c>
       <c r="C1443" s="1" t="s">
         <v>2</v>
@@ -17762,7 +17762,7 @@
         <v>1443</v>
       </c>
       <c r="B1444" s="1">
-        <v>423143110</v>
+        <v>423132642</v>
       </c>
       <c r="C1444" s="1" t="s">
         <v>2</v>
@@ -17774,7 +17774,7 @@
         <v>1444</v>
       </c>
       <c r="B1445" s="1">
-        <v>423174874</v>
+        <v>423143110</v>
       </c>
       <c r="C1445" s="1" t="s">
         <v>2</v>
@@ -17786,7 +17786,7 @@
         <v>1445</v>
       </c>
       <c r="B1446" s="1">
-        <v>423220653</v>
+        <v>423174874</v>
       </c>
       <c r="C1446" s="1" t="s">
         <v>2</v>
@@ -17798,7 +17798,7 @@
         <v>1446</v>
       </c>
       <c r="B1447" s="1">
-        <v>423259130</v>
+        <v>423220653</v>
       </c>
       <c r="C1447" s="1" t="s">
         <v>2</v>
@@ -17810,7 +17810,7 @@
         <v>1447</v>
       </c>
       <c r="B1448" s="1">
-        <v>423343173</v>
+        <v>423259130</v>
       </c>
       <c r="C1448" s="1" t="s">
         <v>2</v>
@@ -17822,7 +17822,7 @@
         <v>1448</v>
       </c>
       <c r="B1449" s="1">
-        <v>423442741</v>
+        <v>423343173</v>
       </c>
       <c r="C1449" s="1" t="s">
         <v>2</v>
@@ -17834,7 +17834,7 @@
         <v>1449</v>
       </c>
       <c r="B1450" s="1">
-        <v>423476465</v>
+        <v>423442741</v>
       </c>
       <c r="C1450" s="1" t="s">
         <v>2</v>
@@ -17846,7 +17846,7 @@
         <v>1450</v>
       </c>
       <c r="B1451" s="1">
-        <v>423684087</v>
+        <v>423476465</v>
       </c>
       <c r="C1451" s="1" t="s">
         <v>2</v>
@@ -17858,7 +17858,7 @@
         <v>1451</v>
       </c>
       <c r="B1452" s="1">
-        <v>423042549</v>
+        <v>423684087</v>
       </c>
       <c r="C1452" s="1" t="s">
         <v>2</v>
@@ -17870,7 +17870,7 @@
         <v>1452</v>
       </c>
       <c r="B1453" s="1">
-        <v>423050904</v>
+        <v>423042549</v>
       </c>
       <c r="C1453" s="1" t="s">
         <v>2</v>
@@ -17882,7 +17882,7 @@
         <v>1453</v>
       </c>
       <c r="B1454" s="1">
-        <v>423070583</v>
+        <v>423050904</v>
       </c>
       <c r="C1454" s="1" t="s">
         <v>2</v>
@@ -17894,7 +17894,7 @@
         <v>1454</v>
       </c>
       <c r="B1455" s="1">
-        <v>423071185</v>
+        <v>423070583</v>
       </c>
       <c r="C1455" s="1" t="s">
         <v>2</v>
@@ -17906,7 +17906,7 @@
         <v>1455</v>
       </c>
       <c r="B1456" s="1">
-        <v>423075377</v>
+        <v>423071185</v>
       </c>
       <c r="C1456" s="1" t="s">
         <v>2</v>
@@ -17918,7 +17918,7 @@
         <v>1456</v>
       </c>
       <c r="B1457" s="1">
-        <v>423123875</v>
+        <v>423075377</v>
       </c>
       <c r="C1457" s="1" t="s">
         <v>2</v>
@@ -17930,7 +17930,7 @@
         <v>1457</v>
       </c>
       <c r="B1458" s="1">
-        <v>423235675</v>
+        <v>423123875</v>
       </c>
       <c r="C1458" s="1" t="s">
         <v>2</v>
@@ -17942,7 +17942,7 @@
         <v>1458</v>
       </c>
       <c r="B1459" s="1">
-        <v>423237893</v>
+        <v>423235675</v>
       </c>
       <c r="C1459" s="1" t="s">
         <v>2</v>
@@ -17954,7 +17954,7 @@
         <v>1459</v>
       </c>
       <c r="B1460" s="1">
-        <v>423242443</v>
+        <v>423237893</v>
       </c>
       <c r="C1460" s="1" t="s">
         <v>2</v>
@@ -17966,7 +17966,7 @@
         <v>1460</v>
       </c>
       <c r="B1461" s="1">
-        <v>423318723</v>
+        <v>423242443</v>
       </c>
       <c r="C1461" s="1" t="s">
         <v>2</v>
@@ -17978,7 +17978,7 @@
         <v>1461</v>
       </c>
       <c r="B1462" s="1">
-        <v>423324805</v>
+        <v>423318723</v>
       </c>
       <c r="C1462" s="1" t="s">
         <v>2</v>
@@ -17990,7 +17990,7 @@
         <v>1462</v>
       </c>
       <c r="B1463" s="1">
-        <v>423376450</v>
+        <v>423324805</v>
       </c>
       <c r="C1463" s="1" t="s">
         <v>2</v>
@@ -18002,7 +18002,7 @@
         <v>1463</v>
       </c>
       <c r="B1464" s="1">
-        <v>423377364</v>
+        <v>423376450</v>
       </c>
       <c r="C1464" s="1" t="s">
         <v>2</v>
@@ -18014,7 +18014,7 @@
         <v>1464</v>
       </c>
       <c r="B1465" s="1">
-        <v>423419637</v>
+        <v>423377364</v>
       </c>
       <c r="C1465" s="1" t="s">
         <v>2</v>
@@ -18026,7 +18026,7 @@
         <v>1465</v>
       </c>
       <c r="B1466" s="1">
-        <v>423513009</v>
+        <v>423419637</v>
       </c>
       <c r="C1466" s="1" t="s">
         <v>2</v>
@@ -18038,7 +18038,7 @@
         <v>1466</v>
       </c>
       <c r="B1467" s="1">
-        <v>423559876</v>
+        <v>423513009</v>
       </c>
       <c r="C1467" s="1" t="s">
         <v>2</v>
@@ -18050,7 +18050,7 @@
         <v>1467</v>
       </c>
       <c r="B1468" s="1">
-        <v>423567624</v>
+        <v>423559876</v>
       </c>
       <c r="C1468" s="1" t="s">
         <v>2</v>
@@ -18062,7 +18062,7 @@
         <v>1468</v>
       </c>
       <c r="B1469" s="1">
-        <v>423640658</v>
+        <v>423567624</v>
       </c>
       <c r="C1469" s="1" t="s">
         <v>2</v>
@@ -18074,7 +18074,7 @@
         <v>1469</v>
       </c>
       <c r="B1470" s="1">
-        <v>423070042</v>
+        <v>423640658</v>
       </c>
       <c r="C1470" s="1" t="s">
         <v>2</v>
@@ -18086,7 +18086,7 @@
         <v>1470</v>
       </c>
       <c r="B1471" s="1">
-        <v>423080366</v>
+        <v>423070042</v>
       </c>
       <c r="C1471" s="1" t="s">
         <v>2</v>
@@ -18098,7 +18098,7 @@
         <v>1471</v>
       </c>
       <c r="B1472" s="1">
-        <v>423221761</v>
+        <v>423080366</v>
       </c>
       <c r="C1472" s="1" t="s">
         <v>2</v>
@@ -18110,7 +18110,7 @@
         <v>1472</v>
       </c>
       <c r="B1473" s="1">
-        <v>423290023</v>
+        <v>423221761</v>
       </c>
       <c r="C1473" s="1" t="s">
         <v>2</v>
@@ -18122,7 +18122,7 @@
         <v>1473</v>
       </c>
       <c r="B1474" s="1">
-        <v>423364443</v>
+        <v>423290023</v>
       </c>
       <c r="C1474" s="1" t="s">
         <v>2</v>
@@ -18134,7 +18134,7 @@
         <v>1474</v>
       </c>
       <c r="B1475" s="1">
-        <v>423402522</v>
+        <v>423364443</v>
       </c>
       <c r="C1475" s="1" t="s">
         <v>2</v>
@@ -18146,7 +18146,7 @@
         <v>1475</v>
       </c>
       <c r="B1476" s="1">
-        <v>423434706</v>
+        <v>423402522</v>
       </c>
       <c r="C1476" s="1" t="s">
         <v>2</v>
@@ -18158,7 +18158,7 @@
         <v>1476</v>
       </c>
       <c r="B1477" s="1">
-        <v>423572346</v>
+        <v>423434706</v>
       </c>
       <c r="C1477" s="1" t="s">
         <v>2</v>
@@ -18170,7 +18170,7 @@
         <v>1477</v>
       </c>
       <c r="B1478" s="1">
-        <v>423007884</v>
+        <v>423572346</v>
       </c>
       <c r="C1478" s="1" t="s">
         <v>2</v>
@@ -18182,7 +18182,7 @@
         <v>1478</v>
       </c>
       <c r="B1479" s="1">
-        <v>423057658</v>
+        <v>423007884</v>
       </c>
       <c r="C1479" s="1" t="s">
         <v>2</v>
@@ -18194,7 +18194,7 @@
         <v>1479</v>
       </c>
       <c r="B1480" s="1">
-        <v>423090336</v>
+        <v>423057658</v>
       </c>
       <c r="C1480" s="1" t="s">
         <v>2</v>
@@ -18206,7 +18206,7 @@
         <v>1480</v>
       </c>
       <c r="B1481" s="1">
-        <v>423127017</v>
+        <v>423090336</v>
       </c>
       <c r="C1481" s="1" t="s">
         <v>2</v>
@@ -18218,7 +18218,7 @@
         <v>1481</v>
       </c>
       <c r="B1482" s="1">
-        <v>423139972</v>
+        <v>423127017</v>
       </c>
       <c r="C1482" s="1" t="s">
         <v>2</v>
@@ -18230,7 +18230,7 @@
         <v>1482</v>
       </c>
       <c r="B1483" s="1">
-        <v>423141320</v>
+        <v>423139972</v>
       </c>
       <c r="C1483" s="1" t="s">
         <v>2</v>
@@ -18242,7 +18242,7 @@
         <v>1483</v>
       </c>
       <c r="B1484" s="1">
-        <v>423261013</v>
+        <v>423141320</v>
       </c>
       <c r="C1484" s="1" t="s">
         <v>2</v>
@@ -18254,7 +18254,7 @@
         <v>1484</v>
       </c>
       <c r="B1485" s="1">
-        <v>423304274</v>
+        <v>423261013</v>
       </c>
       <c r="C1485" s="1" t="s">
         <v>2</v>
@@ -18266,7 +18266,7 @@
         <v>1485</v>
       </c>
       <c r="B1486" s="1">
-        <v>423399676</v>
+        <v>423304274</v>
       </c>
       <c r="C1486" s="1" t="s">
         <v>2</v>
@@ -18278,7 +18278,7 @@
         <v>1486</v>
       </c>
       <c r="B1487" s="1">
-        <v>423403275</v>
+        <v>423399676</v>
       </c>
       <c r="C1487" s="1" t="s">
         <v>2</v>
@@ -18290,7 +18290,7 @@
         <v>1487</v>
       </c>
       <c r="B1488" s="1">
-        <v>423489226</v>
+        <v>423403275</v>
       </c>
       <c r="C1488" s="1" t="s">
         <v>2</v>
@@ -18302,7 +18302,7 @@
         <v>1488</v>
       </c>
       <c r="B1489" s="1">
-        <v>423513295</v>
+        <v>423489226</v>
       </c>
       <c r="C1489" s="1" t="s">
         <v>2</v>
@@ -18314,7 +18314,7 @@
         <v>1489</v>
       </c>
       <c r="B1490" s="1">
-        <v>423516977</v>
+        <v>423513295</v>
       </c>
       <c r="C1490" s="1" t="s">
         <v>2</v>
@@ -18326,7 +18326,7 @@
         <v>1490</v>
       </c>
       <c r="B1491" s="1">
-        <v>423002507</v>
+        <v>423516977</v>
       </c>
       <c r="C1491" s="1" t="s">
         <v>2</v>
@@ -18338,7 +18338,7 @@
         <v>1491</v>
       </c>
       <c r="B1492" s="1">
-        <v>423048549</v>
+        <v>423002507</v>
       </c>
       <c r="C1492" s="1" t="s">
         <v>2</v>
@@ -18350,7 +18350,7 @@
         <v>1492</v>
       </c>
       <c r="B1493" s="1">
-        <v>423075670</v>
+        <v>423048549</v>
       </c>
       <c r="C1493" s="1" t="s">
         <v>2</v>
@@ -18362,7 +18362,7 @@
         <v>1493</v>
       </c>
       <c r="B1494" s="1">
-        <v>423097674</v>
+        <v>423075670</v>
       </c>
       <c r="C1494" s="1" t="s">
         <v>2</v>
@@ -18374,7 +18374,7 @@
         <v>1494</v>
       </c>
       <c r="B1495" s="1">
-        <v>423171965</v>
+        <v>423097674</v>
       </c>
       <c r="C1495" s="1" t="s">
         <v>2</v>
@@ -18386,7 +18386,7 @@
         <v>1495</v>
       </c>
       <c r="B1496" s="1">
-        <v>423180636</v>
+        <v>423171965</v>
       </c>
       <c r="C1496" s="1" t="s">
         <v>2</v>
@@ -18398,7 +18398,7 @@
         <v>1496</v>
       </c>
       <c r="B1497" s="1">
-        <v>423186795</v>
+        <v>423180636</v>
       </c>
       <c r="C1497" s="1" t="s">
         <v>2</v>
@@ -18410,7 +18410,7 @@
         <v>1497</v>
       </c>
       <c r="B1498" s="1">
-        <v>423207758</v>
+        <v>423186795</v>
       </c>
       <c r="C1498" s="1" t="s">
         <v>2</v>
@@ -18422,7 +18422,7 @@
         <v>1498</v>
       </c>
       <c r="B1499" s="1">
-        <v>423218583</v>
+        <v>423207758</v>
       </c>
       <c r="C1499" s="1" t="s">
         <v>2</v>
@@ -18434,7 +18434,7 @@
         <v>1499</v>
       </c>
       <c r="B1500" s="1">
-        <v>423220665</v>
+        <v>423218583</v>
       </c>
       <c r="C1500" s="1" t="s">
         <v>2</v>
@@ -18446,7 +18446,7 @@
         <v>1500</v>
       </c>
       <c r="B1501" s="1">
-        <v>423244955</v>
+        <v>423220665</v>
       </c>
       <c r="C1501" s="1" t="s">
         <v>2</v>
@@ -18458,7 +18458,7 @@
         <v>1501</v>
       </c>
       <c r="B1502" s="1">
-        <v>423289796</v>
+        <v>423244955</v>
       </c>
       <c r="C1502" s="1" t="s">
         <v>2</v>
@@ -18470,7 +18470,7 @@
         <v>1502</v>
       </c>
       <c r="B1503" s="1">
-        <v>423334611</v>
+        <v>423289796</v>
       </c>
       <c r="C1503" s="1" t="s">
         <v>2</v>
@@ -18482,7 +18482,7 @@
         <v>1503</v>
       </c>
       <c r="B1504" s="1">
-        <v>423383915</v>
+        <v>423334611</v>
       </c>
       <c r="C1504" s="1" t="s">
         <v>2</v>
@@ -18494,7 +18494,7 @@
         <v>1504</v>
       </c>
       <c r="B1505" s="1">
-        <v>423558662</v>
+        <v>423383915</v>
       </c>
       <c r="C1505" s="1" t="s">
         <v>2</v>
@@ -18506,7 +18506,7 @@
         <v>1505</v>
       </c>
       <c r="B1506" s="1">
-        <v>423565834</v>
+        <v>423558662</v>
       </c>
       <c r="C1506" s="1" t="s">
         <v>2</v>
@@ -18518,7 +18518,7 @@
         <v>1506</v>
       </c>
       <c r="B1507" s="1">
-        <v>423580496</v>
+        <v>423565834</v>
       </c>
       <c r="C1507" s="1" t="s">
         <v>2</v>
@@ -18530,7 +18530,7 @@
         <v>1507</v>
       </c>
       <c r="B1508" s="1">
-        <v>423017615</v>
+        <v>423580496</v>
       </c>
       <c r="C1508" s="1" t="s">
         <v>2</v>
@@ -18542,7 +18542,7 @@
         <v>1508</v>
       </c>
       <c r="B1509" s="1">
-        <v>423077022</v>
+        <v>423017615</v>
       </c>
       <c r="C1509" s="1" t="s">
         <v>2</v>
@@ -18554,7 +18554,7 @@
         <v>1509</v>
       </c>
       <c r="B1510" s="1">
-        <v>423082929</v>
+        <v>423077022</v>
       </c>
       <c r="C1510" s="1" t="s">
         <v>2</v>
@@ -18566,7 +18566,7 @@
         <v>1510</v>
       </c>
       <c r="B1511" s="1">
-        <v>423215088</v>
+        <v>423082929</v>
       </c>
       <c r="C1511" s="1" t="s">
         <v>2</v>
@@ -18578,7 +18578,7 @@
         <v>1511</v>
       </c>
       <c r="B1512" s="1">
-        <v>423331457</v>
+        <v>423215088</v>
       </c>
       <c r="C1512" s="1" t="s">
         <v>2</v>
@@ -18590,7 +18590,7 @@
         <v>1512</v>
       </c>
       <c r="B1513" s="1">
-        <v>423344681</v>
+        <v>423331457</v>
       </c>
       <c r="C1513" s="1" t="s">
         <v>2</v>
@@ -18602,7 +18602,7 @@
         <v>1513</v>
       </c>
       <c r="B1514" s="1">
-        <v>423529969</v>
+        <v>423344681</v>
       </c>
       <c r="C1514" s="1" t="s">
         <v>2</v>
@@ -18614,7 +18614,7 @@
         <v>1514</v>
       </c>
       <c r="B1515" s="1">
-        <v>423619522</v>
+        <v>423529969</v>
       </c>
       <c r="C1515" s="1" t="s">
         <v>2</v>
@@ -18626,7 +18626,7 @@
         <v>1515</v>
       </c>
       <c r="B1516" s="1">
-        <v>423649375</v>
+        <v>423619522</v>
       </c>
       <c r="C1516" s="1" t="s">
         <v>2</v>
@@ -18638,7 +18638,7 @@
         <v>1516</v>
       </c>
       <c r="B1517" s="1">
-        <v>423003158</v>
+        <v>423649375</v>
       </c>
       <c r="C1517" s="1" t="s">
         <v>2</v>
@@ -18650,7 +18650,7 @@
         <v>1517</v>
       </c>
       <c r="B1518" s="1">
-        <v>423009782</v>
+        <v>423003158</v>
       </c>
       <c r="C1518" s="1" t="s">
         <v>2</v>
@@ -18662,7 +18662,7 @@
         <v>1518</v>
       </c>
       <c r="B1519" s="1">
-        <v>423036623</v>
+        <v>423009782</v>
       </c>
       <c r="C1519" s="1" t="s">
         <v>2</v>
@@ -18674,7 +18674,7 @@
         <v>1519</v>
       </c>
       <c r="B1520" s="1">
-        <v>423121641</v>
+        <v>423036623</v>
       </c>
       <c r="C1520" s="1" t="s">
         <v>2</v>
@@ -18686,7 +18686,7 @@
         <v>1520</v>
       </c>
       <c r="B1521" s="1">
-        <v>423152708</v>
+        <v>423121641</v>
       </c>
       <c r="C1521" s="1" t="s">
         <v>2</v>
@@ -18698,7 +18698,7 @@
         <v>1521</v>
       </c>
       <c r="B1522" s="1">
-        <v>423164145</v>
+        <v>423152708</v>
       </c>
       <c r="C1522" s="1" t="s">
         <v>2</v>
@@ -18710,7 +18710,7 @@
         <v>1522</v>
       </c>
       <c r="B1523" s="1">
-        <v>423234319</v>
+        <v>423164145</v>
       </c>
       <c r="C1523" s="1" t="s">
         <v>2</v>
@@ -18722,7 +18722,7 @@
         <v>1523</v>
       </c>
       <c r="B1524" s="1">
-        <v>423291169</v>
+        <v>423234319</v>
       </c>
       <c r="C1524" s="1" t="s">
         <v>2</v>
@@ -18734,7 +18734,7 @@
         <v>1524</v>
       </c>
       <c r="B1525" s="1">
-        <v>423328919</v>
+        <v>423291169</v>
       </c>
       <c r="C1525" s="1" t="s">
         <v>2</v>
@@ -18746,7 +18746,7 @@
         <v>1525</v>
       </c>
       <c r="B1526" s="1">
-        <v>423333655</v>
+        <v>423328919</v>
       </c>
       <c r="C1526" s="1" t="s">
         <v>2</v>
@@ -18758,7 +18758,7 @@
         <v>1526</v>
       </c>
       <c r="B1527" s="1">
-        <v>423385252</v>
+        <v>423333655</v>
       </c>
       <c r="C1527" s="1" t="s">
         <v>2</v>
@@ -18770,7 +18770,7 @@
         <v>1527</v>
       </c>
       <c r="B1528" s="1">
-        <v>423444148</v>
+        <v>423385252</v>
       </c>
       <c r="C1528" s="1" t="s">
         <v>2</v>
@@ -18782,7 +18782,7 @@
         <v>1528</v>
       </c>
       <c r="B1529" s="1">
-        <v>423608283</v>
+        <v>423444148</v>
       </c>
       <c r="C1529" s="1" t="s">
         <v>2</v>
@@ -18794,7 +18794,7 @@
         <v>1529</v>
       </c>
       <c r="B1530" s="1">
-        <v>423003579</v>
+        <v>423608283</v>
       </c>
       <c r="C1530" s="1" t="s">
         <v>2</v>
@@ -18806,7 +18806,7 @@
         <v>1530</v>
       </c>
       <c r="B1531" s="1">
-        <v>423028188</v>
+        <v>423003579</v>
       </c>
       <c r="C1531" s="1" t="s">
         <v>2</v>
@@ -18818,7 +18818,7 @@
         <v>1531</v>
       </c>
       <c r="B1532" s="1">
-        <v>423042695</v>
+        <v>423028188</v>
       </c>
       <c r="C1532" s="1" t="s">
         <v>2</v>
@@ -18830,7 +18830,7 @@
         <v>1532</v>
       </c>
       <c r="B1533" s="1">
-        <v>423119600</v>
+        <v>423042695</v>
       </c>
       <c r="C1533" s="1" t="s">
         <v>2</v>
@@ -18842,7 +18842,7 @@
         <v>1533</v>
       </c>
       <c r="B1534" s="1">
-        <v>423127365</v>
+        <v>423119600</v>
       </c>
       <c r="C1534" s="1" t="s">
         <v>2</v>
@@ -18854,7 +18854,7 @@
         <v>1534</v>
       </c>
       <c r="B1535" s="1">
-        <v>423193954</v>
+        <v>423127365</v>
       </c>
       <c r="C1535" s="1" t="s">
         <v>2</v>
@@ -18866,7 +18866,7 @@
         <v>1535</v>
       </c>
       <c r="B1536" s="1">
-        <v>423195862</v>
+        <v>423193954</v>
       </c>
       <c r="C1536" s="1" t="s">
         <v>2</v>
@@ -18878,7 +18878,7 @@
         <v>1536</v>
       </c>
       <c r="B1537" s="1">
-        <v>423231926</v>
+        <v>423195862</v>
       </c>
       <c r="C1537" s="1" t="s">
         <v>2</v>
@@ -18890,7 +18890,7 @@
         <v>1537</v>
       </c>
       <c r="B1538" s="1">
-        <v>423257956</v>
+        <v>423231926</v>
       </c>
       <c r="C1538" s="1" t="s">
         <v>2</v>
@@ -18902,7 +18902,7 @@
         <v>1538</v>
       </c>
       <c r="B1539" s="1">
-        <v>423260792</v>
+        <v>423257956</v>
       </c>
       <c r="C1539" s="1" t="s">
         <v>2</v>
@@ -18914,7 +18914,7 @@
         <v>1539</v>
       </c>
       <c r="B1540" s="1">
-        <v>423298542</v>
+        <v>423260792</v>
       </c>
       <c r="C1540" s="1" t="s">
         <v>2</v>
@@ -18926,7 +18926,7 @@
         <v>1540</v>
       </c>
       <c r="B1541" s="1">
-        <v>423336917</v>
+        <v>423298542</v>
       </c>
       <c r="C1541" s="1" t="s">
         <v>2</v>
@@ -18938,7 +18938,7 @@
         <v>1541</v>
       </c>
       <c r="B1542" s="1">
-        <v>423356658</v>
+        <v>423336917</v>
       </c>
       <c r="C1542" s="1" t="s">
         <v>2</v>
@@ -18950,7 +18950,7 @@
         <v>1542</v>
       </c>
       <c r="B1543" s="1">
-        <v>423403295</v>
+        <v>423356658</v>
       </c>
       <c r="C1543" s="1" t="s">
         <v>2</v>
@@ -18962,7 +18962,7 @@
         <v>1543</v>
       </c>
       <c r="B1544" s="1">
-        <v>423473253</v>
+        <v>423403295</v>
       </c>
       <c r="C1544" s="1" t="s">
         <v>2</v>
@@ -18974,7 +18974,7 @@
         <v>1544</v>
       </c>
       <c r="B1545" s="1">
-        <v>423509413</v>
+        <v>423473253</v>
       </c>
       <c r="C1545" s="1" t="s">
         <v>2</v>
@@ -18986,7 +18986,7 @@
         <v>1545</v>
       </c>
       <c r="B1546" s="1">
-        <v>423509642</v>
+        <v>423509413</v>
       </c>
       <c r="C1546" s="1" t="s">
         <v>2</v>
@@ -18998,7 +18998,7 @@
         <v>1546</v>
       </c>
       <c r="B1547" s="1">
-        <v>423001376</v>
+        <v>423509642</v>
       </c>
       <c r="C1547" s="1" t="s">
         <v>2</v>
@@ -19010,7 +19010,7 @@
         <v>1547</v>
       </c>
       <c r="B1548" s="1">
-        <v>423153191</v>
+        <v>423001376</v>
       </c>
       <c r="C1548" s="1" t="s">
         <v>2</v>
@@ -19022,7 +19022,7 @@
         <v>1548</v>
       </c>
       <c r="B1549" s="1">
-        <v>423214931</v>
+        <v>423153191</v>
       </c>
       <c r="C1549" s="1" t="s">
         <v>2</v>
@@ -19034,7 +19034,7 @@
         <v>1549</v>
       </c>
       <c r="B1550" s="1">
-        <v>423228797</v>
+        <v>423214931</v>
       </c>
       <c r="C1550" s="1" t="s">
         <v>2</v>
@@ -19046,7 +19046,7 @@
         <v>1550</v>
       </c>
       <c r="B1551" s="1">
-        <v>423299973</v>
+        <v>423228797</v>
       </c>
       <c r="C1551" s="1" t="s">
         <v>2</v>
@@ -19058,7 +19058,7 @@
         <v>1551</v>
       </c>
       <c r="B1552" s="1">
-        <v>423408052</v>
+        <v>423299973</v>
       </c>
       <c r="C1552" s="1" t="s">
         <v>2</v>
@@ -19070,7 +19070,7 @@
         <v>1552</v>
       </c>
       <c r="B1553" s="1">
-        <v>423498487</v>
+        <v>423408052</v>
       </c>
       <c r="C1553" s="1" t="s">
         <v>2</v>
@@ -19082,7 +19082,7 @@
         <v>1553</v>
       </c>
       <c r="B1554" s="1">
-        <v>423565708</v>
+        <v>423498487</v>
       </c>
       <c r="C1554" s="1" t="s">
         <v>2</v>
@@ -19094,7 +19094,7 @@
         <v>1554</v>
       </c>
       <c r="B1555" s="1">
-        <v>423566816</v>
+        <v>423565708</v>
       </c>
       <c r="C1555" s="1" t="s">
         <v>2</v>
@@ -19104,6 +19104,9 @@
       <c r="A1556" s="1">
         <f t="shared" si="24"/>
         <v>1555</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>423566816</v>
       </c>
       <c r="C1556" s="1" t="s">
         <v>2</v>
